--- a/450_Questions/FINAL450.xlsx
+++ b/450_Questions/FINAL450.xlsx
@@ -1424,7 +1424,7 @@
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1473,6 +1473,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1488,19 +1496,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1518,17 +1518,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1538,6 +1537,21 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1572,6 +1586,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1580,31 +1602,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1619,7 +1618,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1632,8 +1639,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1654,7 +1662,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1666,13 +1680,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1684,145 +1728,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1838,6 +1744,108 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1845,21 +1853,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1912,6 +1905,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1922,15 +1939,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1948,7 +1956,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1966,132 +1974,132 @@
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2111,12 +2119,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
@@ -2444,7 +2453,7 @@
   <dimension ref="A1:C481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="2"/>
@@ -2492,21 +2501,21 @@
       </c>
     </row>
     <row r="7" ht="21" spans="1:3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>5</v>
+      <c r="C7" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" ht="21" spans="1:3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -2525,10 +2534,10 @@
       </c>
     </row>
     <row r="10" ht="21" spans="1:3">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -2536,10 +2545,10 @@
       </c>
     </row>
     <row r="11" ht="21" spans="1:3">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -2547,10 +2556,10 @@
       </c>
     </row>
     <row r="12" ht="21" spans="1:3">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -2558,10 +2567,10 @@
       </c>
     </row>
     <row r="13" ht="21" spans="1:3">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -2569,10 +2578,10 @@
       </c>
     </row>
     <row r="14" ht="21" spans="1:3">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -2580,10 +2589,10 @@
       </c>
     </row>
     <row r="15" ht="21" spans="1:3">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -2591,10 +2600,10 @@
       </c>
     </row>
     <row r="16" ht="21" spans="1:3">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -2602,10 +2611,10 @@
       </c>
     </row>
     <row r="17" ht="21" spans="1:3">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -2613,10 +2622,10 @@
       </c>
     </row>
     <row r="18" ht="21" spans="1:3">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -2624,10 +2633,10 @@
       </c>
     </row>
     <row r="19" ht="21" spans="1:3">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -2635,10 +2644,10 @@
       </c>
     </row>
     <row r="20" ht="21" spans="1:3">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -2646,10 +2655,10 @@
       </c>
     </row>
     <row r="21" ht="21" spans="1:3">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -2657,10 +2666,10 @@
       </c>
     </row>
     <row r="22" ht="21" spans="1:3">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -2668,10 +2677,10 @@
       </c>
     </row>
     <row r="23" ht="21" spans="1:3">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -2679,10 +2688,10 @@
       </c>
     </row>
     <row r="24" ht="21" spans="1:3">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -2690,10 +2699,10 @@
       </c>
     </row>
     <row r="25" ht="21" spans="1:3">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -2701,10 +2710,10 @@
       </c>
     </row>
     <row r="26" ht="21" spans="1:3">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -2712,10 +2721,10 @@
       </c>
     </row>
     <row r="27" ht="21" spans="1:3">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -2723,10 +2732,10 @@
       </c>
     </row>
     <row r="28" ht="21" spans="1:3">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -2734,10 +2743,10 @@
       </c>
     </row>
     <row r="29" ht="21" spans="1:3">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -2745,10 +2754,10 @@
       </c>
     </row>
     <row r="30" ht="21" spans="1:3">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -2756,10 +2765,10 @@
       </c>
     </row>
     <row r="31" ht="21" spans="1:3">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -2767,10 +2776,10 @@
       </c>
     </row>
     <row r="32" ht="21" spans="1:3">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -2778,10 +2787,10 @@
       </c>
     </row>
     <row r="33" ht="21" spans="1:3">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -2789,10 +2798,10 @@
       </c>
     </row>
     <row r="34" ht="21" spans="1:3">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -2800,10 +2809,10 @@
       </c>
     </row>
     <row r="35" ht="21" spans="1:3">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -2811,10 +2820,10 @@
       </c>
     </row>
     <row r="36" ht="21" spans="1:3">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -2822,10 +2831,10 @@
       </c>
     </row>
     <row r="37" ht="21" spans="1:3">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -2833,10 +2842,10 @@
       </c>
     </row>
     <row r="38" ht="21" spans="1:3">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -2844,10 +2853,10 @@
       </c>
     </row>
     <row r="39" ht="21" spans="1:3">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C39" s="5" t="s">
@@ -2855,10 +2864,10 @@
       </c>
     </row>
     <row r="40" ht="21" spans="1:3">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -2866,10 +2875,10 @@
       </c>
     </row>
     <row r="41" ht="21" spans="1:3">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -2877,23 +2886,23 @@
       </c>
     </row>
     <row r="42" ht="21" spans="2:3">
-      <c r="B42" s="11"/>
+      <c r="B42" s="12"/>
       <c r="C42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" ht="21" spans="1:3">
-      <c r="A43" s="9"/>
-      <c r="B43" s="11"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="12"/>
       <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="44" ht="21" spans="1:3">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C44" s="5" t="s">
@@ -2901,10 +2910,10 @@
       </c>
     </row>
     <row r="45" ht="21" spans="1:3">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C45" s="5" t="s">
@@ -2912,10 +2921,10 @@
       </c>
     </row>
     <row r="46" ht="21" spans="1:3">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="5" t="s">
@@ -2923,10 +2932,10 @@
       </c>
     </row>
     <row r="47" ht="21" spans="1:3">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -2934,10 +2943,10 @@
       </c>
     </row>
     <row r="48" ht="21" spans="1:3">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="11" t="s">
         <v>49</v>
       </c>
       <c r="C48" s="5" t="s">
@@ -2945,10 +2954,10 @@
       </c>
     </row>
     <row r="49" ht="21" spans="1:3">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C49" s="5" t="s">
@@ -2956,10 +2965,10 @@
       </c>
     </row>
     <row r="50" ht="21" spans="1:3">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C50" s="5" t="s">
@@ -2967,10 +2976,10 @@
       </c>
     </row>
     <row r="51" ht="21" spans="1:3">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C51" s="5" t="s">
@@ -2978,10 +2987,10 @@
       </c>
     </row>
     <row r="52" ht="21" spans="1:3">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="11" t="s">
         <v>53</v>
       </c>
       <c r="C52" s="5" t="s">
@@ -2989,10 +2998,10 @@
       </c>
     </row>
     <row r="53" ht="21" spans="1:3">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="11" t="s">
         <v>54</v>
       </c>
       <c r="C53" s="5" t="s">
@@ -3000,15 +3009,15 @@
       </c>
     </row>
     <row r="55" ht="21" spans="1:3">
-      <c r="A55" s="9"/>
-      <c r="B55" s="11"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="12"/>
       <c r="C55" s="5"/>
     </row>
     <row r="56" ht="21" spans="1:3">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="11" t="s">
         <v>56</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -3016,10 +3025,10 @@
       </c>
     </row>
     <row r="57" ht="21" spans="1:3">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="11" t="s">
         <v>57</v>
       </c>
       <c r="C57" s="5" t="s">
@@ -3027,10 +3036,10 @@
       </c>
     </row>
     <row r="58" ht="21" spans="1:3">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="5" t="s">
@@ -3038,10 +3047,10 @@
       </c>
     </row>
     <row r="59" ht="21" spans="1:3">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="12" t="s">
         <v>59</v>
       </c>
       <c r="C59" s="5" t="s">
@@ -3049,10 +3058,10 @@
       </c>
     </row>
     <row r="60" ht="21" spans="1:3">
-      <c r="A60" s="9" t="s">
+      <c r="A60" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="11" t="s">
         <v>60</v>
       </c>
       <c r="C60" s="5" t="s">
@@ -3060,10 +3069,10 @@
       </c>
     </row>
     <row r="61" ht="21" spans="1:3">
-      <c r="A61" s="9" t="s">
+      <c r="A61" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C61" s="5" t="s">
@@ -3071,10 +3080,10 @@
       </c>
     </row>
     <row r="62" ht="21" spans="1:3">
-      <c r="A62" s="9" t="s">
+      <c r="A62" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C62" s="5" t="s">
@@ -3082,10 +3091,10 @@
       </c>
     </row>
     <row r="63" ht="21" spans="1:3">
-      <c r="A63" s="9" t="s">
+      <c r="A63" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="11" t="s">
         <v>63</v>
       </c>
       <c r="C63" s="5" t="s">
@@ -3093,10 +3102,10 @@
       </c>
     </row>
     <row r="64" ht="21" spans="1:3">
-      <c r="A64" s="9" t="s">
+      <c r="A64" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="11" t="s">
         <v>64</v>
       </c>
       <c r="C64" s="5" t="s">
@@ -3104,10 +3113,10 @@
       </c>
     </row>
     <row r="65" ht="21" spans="1:3">
-      <c r="A65" s="9" t="s">
+      <c r="A65" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="11" t="s">
         <v>65</v>
       </c>
       <c r="C65" s="5" t="s">
@@ -3115,10 +3124,10 @@
       </c>
     </row>
     <row r="66" ht="21" spans="1:3">
-      <c r="A66" s="9" t="s">
+      <c r="A66" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="11" t="s">
         <v>66</v>
       </c>
       <c r="C66" s="5" t="s">
@@ -3126,10 +3135,10 @@
       </c>
     </row>
     <row r="67" ht="21" spans="1:3">
-      <c r="A67" s="9" t="s">
+      <c r="A67" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="11" t="s">
         <v>67</v>
       </c>
       <c r="C67" s="5" t="s">
@@ -3137,10 +3146,10 @@
       </c>
     </row>
     <row r="68" ht="21" spans="1:3">
-      <c r="A68" s="9" t="s">
+      <c r="A68" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="11" t="s">
         <v>68</v>
       </c>
       <c r="C68" s="5" t="s">
@@ -3148,10 +3157,10 @@
       </c>
     </row>
     <row r="69" ht="21" spans="1:3">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="11" t="s">
         <v>69</v>
       </c>
       <c r="C69" s="5" t="s">
@@ -3159,10 +3168,10 @@
       </c>
     </row>
     <row r="70" ht="21" spans="1:3">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="11" t="s">
         <v>70</v>
       </c>
       <c r="C70" s="5" t="s">
@@ -3170,10 +3179,10 @@
       </c>
     </row>
     <row r="71" ht="21" spans="1:3">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="11" t="s">
         <v>71</v>
       </c>
       <c r="C71" s="5" t="s">
@@ -3181,10 +3190,10 @@
       </c>
     </row>
     <row r="72" ht="21" spans="1:3">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="11" t="s">
         <v>72</v>
       </c>
       <c r="C72" s="5" t="s">
@@ -3192,10 +3201,10 @@
       </c>
     </row>
     <row r="73" ht="21" spans="1:3">
-      <c r="A73" s="9" t="s">
+      <c r="A73" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="11" t="s">
         <v>73</v>
       </c>
       <c r="C73" s="5" t="s">
@@ -3203,10 +3212,10 @@
       </c>
     </row>
     <row r="74" ht="21" spans="1:3">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="11" t="s">
         <v>74</v>
       </c>
       <c r="C74" s="5" t="s">
@@ -3214,10 +3223,10 @@
       </c>
     </row>
     <row r="75" ht="21" spans="1:3">
-      <c r="A75" s="9" t="s">
+      <c r="A75" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="11" t="s">
         <v>75</v>
       </c>
       <c r="C75" s="5" t="s">
@@ -3225,10 +3234,10 @@
       </c>
     </row>
     <row r="76" ht="21" spans="1:3">
-      <c r="A76" s="9" t="s">
+      <c r="A76" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="11" t="s">
         <v>76</v>
       </c>
       <c r="C76" s="5" t="s">
@@ -3236,10 +3245,10 @@
       </c>
     </row>
     <row r="77" ht="21" spans="1:3">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="11" t="s">
         <v>77</v>
       </c>
       <c r="C77" s="5" t="s">
@@ -3247,10 +3256,10 @@
       </c>
     </row>
     <row r="78" ht="21" spans="1:3">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="11" t="s">
         <v>78</v>
       </c>
       <c r="C78" s="5" t="s">
@@ -3258,10 +3267,10 @@
       </c>
     </row>
     <row r="79" ht="21" spans="1:3">
-      <c r="A79" s="9" t="s">
+      <c r="A79" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="11" t="s">
         <v>79</v>
       </c>
       <c r="C79" s="5" t="s">
@@ -3269,10 +3278,10 @@
       </c>
     </row>
     <row r="80" ht="21" spans="1:3">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="11" t="s">
         <v>80</v>
       </c>
       <c r="C80" s="5" t="s">
@@ -3280,10 +3289,10 @@
       </c>
     </row>
     <row r="81" ht="21" spans="1:3">
-      <c r="A81" s="9" t="s">
+      <c r="A81" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C81" s="5" t="s">
@@ -3291,10 +3300,10 @@
       </c>
     </row>
     <row r="82" ht="21" spans="1:3">
-      <c r="A82" s="9" t="s">
+      <c r="A82" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="B82" s="11" t="s">
         <v>82</v>
       </c>
       <c r="C82" s="5" t="s">
@@ -3302,10 +3311,10 @@
       </c>
     </row>
     <row r="83" ht="21" spans="1:3">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="11" t="s">
         <v>83</v>
       </c>
       <c r="C83" s="5" t="s">
@@ -3313,10 +3322,10 @@
       </c>
     </row>
     <row r="84" ht="21" spans="1:3">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="11" t="s">
         <v>84</v>
       </c>
       <c r="C84" s="5" t="s">
@@ -3324,10 +3333,10 @@
       </c>
     </row>
     <row r="85" ht="21" spans="1:3">
-      <c r="A85" s="9" t="s">
+      <c r="A85" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C85" s="5" t="s">
@@ -3335,10 +3344,10 @@
       </c>
     </row>
     <row r="86" ht="21" spans="1:3">
-      <c r="A86" s="9" t="s">
+      <c r="A86" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B86" s="11" t="s">
         <v>86</v>
       </c>
       <c r="C86" s="5" t="s">
@@ -3346,10 +3355,10 @@
       </c>
     </row>
     <row r="87" ht="21" spans="1:3">
-      <c r="A87" s="9" t="s">
+      <c r="A87" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="11" t="s">
         <v>87</v>
       </c>
       <c r="C87" s="5" t="s">
@@ -3357,10 +3366,10 @@
       </c>
     </row>
     <row r="88" ht="21" spans="1:3">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="11" t="s">
         <v>88</v>
       </c>
       <c r="C88" s="5" t="s">
@@ -3368,10 +3377,10 @@
       </c>
     </row>
     <row r="89" ht="21" spans="1:3">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="11" t="s">
         <v>89</v>
       </c>
       <c r="C89" s="5" t="s">
@@ -3379,10 +3388,10 @@
       </c>
     </row>
     <row r="90" ht="21" spans="1:3">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="11" t="s">
         <v>90</v>
       </c>
       <c r="C90" s="5" t="s">
@@ -3390,10 +3399,10 @@
       </c>
     </row>
     <row r="91" ht="21" spans="1:3">
-      <c r="A91" s="9" t="s">
+      <c r="A91" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="11" t="s">
         <v>91</v>
       </c>
       <c r="C91" s="5" t="s">
@@ -3401,10 +3410,10 @@
       </c>
     </row>
     <row r="92" ht="21" spans="1:3">
-      <c r="A92" s="9" t="s">
+      <c r="A92" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="11" t="s">
         <v>92</v>
       </c>
       <c r="C92" s="5" t="s">
@@ -3412,10 +3421,10 @@
       </c>
     </row>
     <row r="93" ht="21" spans="1:3">
-      <c r="A93" s="9" t="s">
+      <c r="A93" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="11" t="s">
         <v>93</v>
       </c>
       <c r="C93" s="5" t="s">
@@ -3423,10 +3432,10 @@
       </c>
     </row>
     <row r="94" ht="21" spans="1:3">
-      <c r="A94" s="9" t="s">
+      <c r="A94" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="11" t="s">
         <v>94</v>
       </c>
       <c r="C94" s="5" t="s">
@@ -3434,10 +3443,10 @@
       </c>
     </row>
     <row r="95" ht="21" spans="1:3">
-      <c r="A95" s="9" t="s">
+      <c r="A95" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="B95" s="11" t="s">
         <v>95</v>
       </c>
       <c r="C95" s="5" t="s">
@@ -3445,10 +3454,10 @@
       </c>
     </row>
     <row r="96" ht="21" spans="1:3">
-      <c r="A96" s="9" t="s">
+      <c r="A96" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="11" t="s">
         <v>96</v>
       </c>
       <c r="C96" s="5" t="s">
@@ -3456,10 +3465,10 @@
       </c>
     </row>
     <row r="97" ht="21" spans="1:3">
-      <c r="A97" s="9" t="s">
+      <c r="A97" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B97" s="11" t="s">
         <v>97</v>
       </c>
       <c r="C97" s="5" t="s">
@@ -3467,10 +3476,10 @@
       </c>
     </row>
     <row r="98" ht="21" spans="1:3">
-      <c r="A98" s="9" t="s">
+      <c r="A98" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B98" s="10" t="s">
+      <c r="B98" s="11" t="s">
         <v>98</v>
       </c>
       <c r="C98" s="5" t="s">
@@ -3478,15 +3487,15 @@
       </c>
     </row>
     <row r="100" ht="21" spans="1:3">
-      <c r="A100" s="12"/>
-      <c r="B100" s="11"/>
+      <c r="A100" s="13"/>
+      <c r="B100" s="12"/>
       <c r="C100" s="5"/>
     </row>
     <row r="101" ht="21" spans="1:3">
-      <c r="A101" s="9" t="s">
+      <c r="A101" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="11" t="s">
         <v>100</v>
       </c>
       <c r="C101" s="5" t="s">
@@ -3494,10 +3503,10 @@
       </c>
     </row>
     <row r="102" ht="21" spans="1:3">
-      <c r="A102" s="9" t="s">
+      <c r="A102" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C102" s="5" t="s">
@@ -3505,10 +3514,10 @@
       </c>
     </row>
     <row r="103" ht="21" spans="1:3">
-      <c r="A103" s="9" t="s">
+      <c r="A103" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="11" t="s">
         <v>102</v>
       </c>
       <c r="C103" s="5" t="s">
@@ -3516,10 +3525,10 @@
       </c>
     </row>
     <row r="104" ht="21" spans="1:3">
-      <c r="A104" s="9" t="s">
+      <c r="A104" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="11" t="s">
         <v>103</v>
       </c>
       <c r="C104" s="5" t="s">
@@ -3527,10 +3536,10 @@
       </c>
     </row>
     <row r="105" ht="21" spans="1:3">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B105" s="11" t="s">
         <v>104</v>
       </c>
       <c r="C105" s="5" t="s">
@@ -3538,10 +3547,10 @@
       </c>
     </row>
     <row r="106" ht="21" spans="1:3">
-      <c r="A106" s="9" t="s">
+      <c r="A106" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B106" s="11" t="s">
         <v>105</v>
       </c>
       <c r="C106" s="5" t="s">
@@ -3549,10 +3558,10 @@
       </c>
     </row>
     <row r="107" ht="21" spans="1:3">
-      <c r="A107" s="9" t="s">
+      <c r="A107" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="11" t="s">
         <v>106</v>
       </c>
       <c r="C107" s="5" t="s">
@@ -3560,10 +3569,10 @@
       </c>
     </row>
     <row r="108" ht="21" spans="1:3">
-      <c r="A108" s="9" t="s">
+      <c r="A108" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="11" t="s">
         <v>107</v>
       </c>
       <c r="C108" s="5" t="s">
@@ -3571,10 +3580,10 @@
       </c>
     </row>
     <row r="109" ht="21" spans="1:3">
-      <c r="A109" s="9" t="s">
+      <c r="A109" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B109" s="10" t="s">
+      <c r="B109" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C109" s="5" t="s">
@@ -3582,10 +3591,10 @@
       </c>
     </row>
     <row r="110" ht="21" spans="1:3">
-      <c r="A110" s="9" t="s">
+      <c r="A110" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B110" s="10" t="s">
+      <c r="B110" s="11" t="s">
         <v>109</v>
       </c>
       <c r="C110" s="5" t="s">
@@ -3593,10 +3602,10 @@
       </c>
     </row>
     <row r="111" ht="21" spans="1:3">
-      <c r="A111" s="9" t="s">
+      <c r="A111" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B111" s="10" t="s">
+      <c r="B111" s="11" t="s">
         <v>110</v>
       </c>
       <c r="C111" s="5" t="s">
@@ -3604,10 +3613,10 @@
       </c>
     </row>
     <row r="112" ht="21" spans="1:3">
-      <c r="A112" s="9" t="s">
+      <c r="A112" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B112" s="11" t="s">
         <v>111</v>
       </c>
       <c r="C112" s="5" t="s">
@@ -3615,10 +3624,10 @@
       </c>
     </row>
     <row r="113" ht="21" spans="1:3">
-      <c r="A113" s="9" t="s">
+      <c r="A113" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="11" t="s">
         <v>112</v>
       </c>
       <c r="C113" s="5" t="s">
@@ -3626,10 +3635,10 @@
       </c>
     </row>
     <row r="114" ht="21" spans="1:3">
-      <c r="A114" s="9" t="s">
+      <c r="A114" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B114" s="10" t="s">
+      <c r="B114" s="11" t="s">
         <v>113</v>
       </c>
       <c r="C114" s="5" t="s">
@@ -3637,10 +3646,10 @@
       </c>
     </row>
     <row r="115" ht="21" spans="1:3">
-      <c r="A115" s="9" t="s">
+      <c r="A115" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="B115" s="11" t="s">
         <v>114</v>
       </c>
       <c r="C115" s="5" t="s">
@@ -3648,10 +3657,10 @@
       </c>
     </row>
     <row r="116" ht="21" spans="1:3">
-      <c r="A116" s="9" t="s">
+      <c r="A116" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B116" s="10" t="s">
+      <c r="B116" s="11" t="s">
         <v>115</v>
       </c>
       <c r="C116" s="5" t="s">
@@ -3659,10 +3668,10 @@
       </c>
     </row>
     <row r="117" ht="21" spans="1:3">
-      <c r="A117" s="9" t="s">
+      <c r="A117" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B117" s="10" t="s">
+      <c r="B117" s="11" t="s">
         <v>116</v>
       </c>
       <c r="C117" s="5" t="s">
@@ -3670,10 +3679,10 @@
       </c>
     </row>
     <row r="118" ht="21" spans="1:3">
-      <c r="A118" s="9" t="s">
+      <c r="A118" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B118" s="11" t="s">
         <v>117</v>
       </c>
       <c r="C118" s="5" t="s">
@@ -3681,10 +3690,10 @@
       </c>
     </row>
     <row r="119" ht="21" spans="1:3">
-      <c r="A119" s="9" t="s">
+      <c r="A119" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B119" s="10" t="s">
+      <c r="B119" s="11" t="s">
         <v>118</v>
       </c>
       <c r="C119" s="5" t="s">
@@ -3692,10 +3701,10 @@
       </c>
     </row>
     <row r="120" ht="21" spans="1:3">
-      <c r="A120" s="9" t="s">
+      <c r="A120" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="B120" s="11" t="s">
         <v>119</v>
       </c>
       <c r="C120" s="5" t="s">
@@ -3703,10 +3712,10 @@
       </c>
     </row>
     <row r="121" ht="21" spans="1:3">
-      <c r="A121" s="9" t="s">
+      <c r="A121" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B121" s="11" t="s">
         <v>120</v>
       </c>
       <c r="C121" s="5" t="s">
@@ -3714,10 +3723,10 @@
       </c>
     </row>
     <row r="122" ht="21" spans="1:3">
-      <c r="A122" s="9" t="s">
+      <c r="A122" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="B122" s="11" t="s">
         <v>121</v>
       </c>
       <c r="C122" s="5" t="s">
@@ -3725,10 +3734,10 @@
       </c>
     </row>
     <row r="123" ht="21" spans="1:3">
-      <c r="A123" s="9" t="s">
+      <c r="A123" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="B123" s="11" t="s">
         <v>122</v>
       </c>
       <c r="C123" s="5" t="s">
@@ -3736,10 +3745,10 @@
       </c>
     </row>
     <row r="124" ht="21" spans="1:3">
-      <c r="A124" s="9" t="s">
+      <c r="A124" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="B124" s="11" t="s">
         <v>123</v>
       </c>
       <c r="C124" s="5" t="s">
@@ -3747,10 +3756,10 @@
       </c>
     </row>
     <row r="125" ht="21" spans="1:3">
-      <c r="A125" s="9" t="s">
+      <c r="A125" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="B125" s="11" t="s">
         <v>124</v>
       </c>
       <c r="C125" s="5" t="s">
@@ -3758,10 +3767,10 @@
       </c>
     </row>
     <row r="126" ht="21" spans="1:3">
-      <c r="A126" s="9" t="s">
+      <c r="A126" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B126" s="11" t="s">
         <v>125</v>
       </c>
       <c r="C126" s="5" t="s">
@@ -3769,10 +3778,10 @@
       </c>
     </row>
     <row r="127" ht="21" spans="1:3">
-      <c r="A127" s="9" t="s">
+      <c r="A127" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B127" s="10" t="s">
+      <c r="B127" s="11" t="s">
         <v>126</v>
       </c>
       <c r="C127" s="5" t="s">
@@ -3780,10 +3789,10 @@
       </c>
     </row>
     <row r="128" ht="21" spans="1:3">
-      <c r="A128" s="9" t="s">
+      <c r="A128" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="B128" s="11" t="s">
         <v>127</v>
       </c>
       <c r="C128" s="5" t="s">
@@ -3791,10 +3800,10 @@
       </c>
     </row>
     <row r="129" ht="21" spans="1:3">
-      <c r="A129" s="9" t="s">
+      <c r="A129" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B129" s="10" t="s">
+      <c r="B129" s="11" t="s">
         <v>128</v>
       </c>
       <c r="C129" s="5" t="s">
@@ -3802,10 +3811,10 @@
       </c>
     </row>
     <row r="130" ht="21" spans="1:3">
-      <c r="A130" s="9" t="s">
+      <c r="A130" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B130" s="10" t="s">
+      <c r="B130" s="11" t="s">
         <v>129</v>
       </c>
       <c r="C130" s="5" t="s">
@@ -3813,10 +3822,10 @@
       </c>
     </row>
     <row r="131" ht="21" spans="1:3">
-      <c r="A131" s="9" t="s">
+      <c r="A131" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="B131" s="11" t="s">
         <v>130</v>
       </c>
       <c r="C131" s="5" t="s">
@@ -3824,10 +3833,10 @@
       </c>
     </row>
     <row r="132" ht="21" spans="1:3">
-      <c r="A132" s="9" t="s">
+      <c r="A132" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B132" s="10" t="s">
+      <c r="B132" s="11" t="s">
         <v>131</v>
       </c>
       <c r="C132" s="5" t="s">
@@ -3835,10 +3844,10 @@
       </c>
     </row>
     <row r="133" ht="21" spans="1:3">
-      <c r="A133" s="9" t="s">
+      <c r="A133" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="B133" s="11" t="s">
         <v>132</v>
       </c>
       <c r="C133" s="5" t="s">
@@ -3846,10 +3855,10 @@
       </c>
     </row>
     <row r="134" ht="21" spans="1:3">
-      <c r="A134" s="9" t="s">
+      <c r="A134" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B134" s="10" t="s">
+      <c r="B134" s="11" t="s">
         <v>133</v>
       </c>
       <c r="C134" s="5" t="s">
@@ -3857,10 +3866,10 @@
       </c>
     </row>
     <row r="135" ht="21" spans="1:3">
-      <c r="A135" s="9" t="s">
+      <c r="A135" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B135" s="10" t="s">
+      <c r="B135" s="11" t="s">
         <v>134</v>
       </c>
       <c r="C135" s="5" t="s">
@@ -3868,10 +3877,10 @@
       </c>
     </row>
     <row r="136" ht="21" spans="1:3">
-      <c r="A136" s="9" t="s">
+      <c r="A136" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B136" s="10" t="s">
+      <c r="B136" s="11" t="s">
         <v>135</v>
       </c>
       <c r="C136" s="5" t="s">
@@ -3879,14 +3888,14 @@
       </c>
     </row>
     <row r="138" ht="21" spans="2:3">
-      <c r="B138" s="11"/>
+      <c r="B138" s="12"/>
       <c r="C138" s="5"/>
     </row>
     <row r="139" ht="21" spans="1:3">
-      <c r="A139" s="12" t="s">
+      <c r="A139" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B139" s="10" t="s">
+      <c r="B139" s="11" t="s">
         <v>137</v>
       </c>
       <c r="C139" s="5" t="s">
@@ -3894,10 +3903,10 @@
       </c>
     </row>
     <row r="140" ht="21" spans="1:3">
-      <c r="A140" s="12" t="s">
+      <c r="A140" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B140" s="10" t="s">
+      <c r="B140" s="11" t="s">
         <v>138</v>
       </c>
       <c r="C140" s="5" t="s">
@@ -3905,10 +3914,10 @@
       </c>
     </row>
     <row r="141" ht="21" spans="1:3">
-      <c r="A141" s="12" t="s">
+      <c r="A141" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B141" s="10" t="s">
+      <c r="B141" s="11" t="s">
         <v>139</v>
       </c>
       <c r="C141" s="5" t="s">
@@ -3916,10 +3925,10 @@
       </c>
     </row>
     <row r="142" ht="21" spans="1:3">
-      <c r="A142" s="12" t="s">
+      <c r="A142" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B142" s="10" t="s">
+      <c r="B142" s="11" t="s">
         <v>140</v>
       </c>
       <c r="C142" s="5" t="s">
@@ -3927,10 +3936,10 @@
       </c>
     </row>
     <row r="143" ht="21" spans="1:3">
-      <c r="A143" s="12" t="s">
+      <c r="A143" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B143" s="10" t="s">
+      <c r="B143" s="11" t="s">
         <v>141</v>
       </c>
       <c r="C143" s="5" t="s">
@@ -3938,10 +3947,10 @@
       </c>
     </row>
     <row r="144" ht="21" spans="1:3">
-      <c r="A144" s="12" t="s">
+      <c r="A144" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B144" s="10" t="s">
+      <c r="B144" s="11" t="s">
         <v>142</v>
       </c>
       <c r="C144" s="5" t="s">
@@ -3949,10 +3958,10 @@
       </c>
     </row>
     <row r="145" ht="21" spans="1:3">
-      <c r="A145" s="12" t="s">
+      <c r="A145" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B145" s="10" t="s">
+      <c r="B145" s="11" t="s">
         <v>143</v>
       </c>
       <c r="C145" s="5" t="s">
@@ -3960,10 +3969,10 @@
       </c>
     </row>
     <row r="146" ht="21" spans="1:3">
-      <c r="A146" s="12" t="s">
+      <c r="A146" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B146" s="10" t="s">
+      <c r="B146" s="11" t="s">
         <v>144</v>
       </c>
       <c r="C146" s="5" t="s">
@@ -3971,10 +3980,10 @@
       </c>
     </row>
     <row r="147" ht="21" spans="1:3">
-      <c r="A147" s="12" t="s">
+      <c r="A147" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B147" s="10" t="s">
+      <c r="B147" s="11" t="s">
         <v>145</v>
       </c>
       <c r="C147" s="5" t="s">
@@ -3982,10 +3991,10 @@
       </c>
     </row>
     <row r="148" ht="21" spans="1:3">
-      <c r="A148" s="12" t="s">
+      <c r="A148" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B148" s="10" t="s">
+      <c r="B148" s="11" t="s">
         <v>146</v>
       </c>
       <c r="C148" s="5" t="s">
@@ -3993,10 +4002,10 @@
       </c>
     </row>
     <row r="149" ht="21" spans="1:3">
-      <c r="A149" s="12" t="s">
+      <c r="A149" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B149" s="10" t="s">
+      <c r="B149" s="11" t="s">
         <v>147</v>
       </c>
       <c r="C149" s="5" t="s">
@@ -4004,10 +4013,10 @@
       </c>
     </row>
     <row r="150" ht="21" spans="1:3">
-      <c r="A150" s="12" t="s">
+      <c r="A150" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B150" s="10" t="s">
+      <c r="B150" s="11" t="s">
         <v>148</v>
       </c>
       <c r="C150" s="5" t="s">
@@ -4015,10 +4024,10 @@
       </c>
     </row>
     <row r="151" ht="21" spans="1:3">
-      <c r="A151" s="12" t="s">
+      <c r="A151" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B151" s="10" t="s">
+      <c r="B151" s="11" t="s">
         <v>149</v>
       </c>
       <c r="C151" s="5" t="s">
@@ -4026,10 +4035,10 @@
       </c>
     </row>
     <row r="152" ht="21" spans="1:3">
-      <c r="A152" s="12" t="s">
+      <c r="A152" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B152" s="10" t="s">
+      <c r="B152" s="11" t="s">
         <v>150</v>
       </c>
       <c r="C152" s="5" t="s">
@@ -4037,10 +4046,10 @@
       </c>
     </row>
     <row r="153" ht="21" spans="1:3">
-      <c r="A153" s="12" t="s">
+      <c r="A153" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B153" s="10" t="s">
+      <c r="B153" s="11" t="s">
         <v>151</v>
       </c>
       <c r="C153" s="5" t="s">
@@ -4048,10 +4057,10 @@
       </c>
     </row>
     <row r="154" ht="21" spans="1:3">
-      <c r="A154" s="12" t="s">
+      <c r="A154" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B154" s="10" t="s">
+      <c r="B154" s="11" t="s">
         <v>152</v>
       </c>
       <c r="C154" s="5" t="s">
@@ -4059,10 +4068,10 @@
       </c>
     </row>
     <row r="155" ht="21" spans="1:3">
-      <c r="A155" s="12" t="s">
+      <c r="A155" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B155" s="10" t="s">
+      <c r="B155" s="11" t="s">
         <v>153</v>
       </c>
       <c r="C155" s="5" t="s">
@@ -4070,10 +4079,10 @@
       </c>
     </row>
     <row r="156" ht="21" spans="1:3">
-      <c r="A156" s="12" t="s">
+      <c r="A156" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B156" s="10" t="s">
+      <c r="B156" s="11" t="s">
         <v>154</v>
       </c>
       <c r="C156" s="5" t="s">
@@ -4081,10 +4090,10 @@
       </c>
     </row>
     <row r="157" ht="21" spans="1:3">
-      <c r="A157" s="12" t="s">
+      <c r="A157" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B157" s="10" t="s">
+      <c r="B157" s="11" t="s">
         <v>155</v>
       </c>
       <c r="C157" s="5" t="s">
@@ -4092,10 +4101,10 @@
       </c>
     </row>
     <row r="158" ht="21" spans="1:3">
-      <c r="A158" s="12" t="s">
+      <c r="A158" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B158" s="10" t="s">
+      <c r="B158" s="11" t="s">
         <v>156</v>
       </c>
       <c r="C158" s="5" t="s">
@@ -4103,10 +4112,10 @@
       </c>
     </row>
     <row r="159" ht="21" spans="1:3">
-      <c r="A159" s="12" t="s">
+      <c r="A159" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B159" s="10" t="s">
+      <c r="B159" s="11" t="s">
         <v>157</v>
       </c>
       <c r="C159" s="5" t="s">
@@ -4114,10 +4123,10 @@
       </c>
     </row>
     <row r="160" ht="21" spans="1:3">
-      <c r="A160" s="12" t="s">
+      <c r="A160" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B160" s="10" t="s">
+      <c r="B160" s="11" t="s">
         <v>158</v>
       </c>
       <c r="C160" s="5" t="s">
@@ -4125,10 +4134,10 @@
       </c>
     </row>
     <row r="161" ht="21" spans="1:3">
-      <c r="A161" s="12" t="s">
+      <c r="A161" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B161" s="10" t="s">
+      <c r="B161" s="11" t="s">
         <v>159</v>
       </c>
       <c r="C161" s="5" t="s">
@@ -4136,10 +4145,10 @@
       </c>
     </row>
     <row r="162" ht="21" spans="1:3">
-      <c r="A162" s="12" t="s">
+      <c r="A162" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B162" s="10" t="s">
+      <c r="B162" s="11" t="s">
         <v>160</v>
       </c>
       <c r="C162" s="5" t="s">
@@ -4147,10 +4156,10 @@
       </c>
     </row>
     <row r="163" ht="21" spans="1:3">
-      <c r="A163" s="12" t="s">
+      <c r="A163" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B163" s="10" t="s">
+      <c r="B163" s="11" t="s">
         <v>161</v>
       </c>
       <c r="C163" s="5" t="s">
@@ -4158,10 +4167,10 @@
       </c>
     </row>
     <row r="164" ht="21" spans="1:3">
-      <c r="A164" s="12" t="s">
+      <c r="A164" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B164" s="11" t="s">
+      <c r="B164" s="12" t="s">
         <v>162</v>
       </c>
       <c r="C164" s="5" t="s">
@@ -4169,10 +4178,10 @@
       </c>
     </row>
     <row r="165" ht="21" spans="1:3">
-      <c r="A165" s="12" t="s">
+      <c r="A165" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B165" s="11" t="s">
+      <c r="B165" s="12" t="s">
         <v>163</v>
       </c>
       <c r="C165" s="5" t="s">
@@ -4180,10 +4189,10 @@
       </c>
     </row>
     <row r="166" ht="21" spans="1:3">
-      <c r="A166" s="12" t="s">
+      <c r="A166" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B166" s="10" t="s">
+      <c r="B166" s="11" t="s">
         <v>164</v>
       </c>
       <c r="C166" s="5" t="s">
@@ -4191,10 +4200,10 @@
       </c>
     </row>
     <row r="167" ht="21" spans="1:3">
-      <c r="A167" s="12" t="s">
+      <c r="A167" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B167" s="10" t="s">
+      <c r="B167" s="11" t="s">
         <v>165</v>
       </c>
       <c r="C167" s="5" t="s">
@@ -4202,10 +4211,10 @@
       </c>
     </row>
     <row r="168" ht="21" spans="1:3">
-      <c r="A168" s="12" t="s">
+      <c r="A168" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B168" s="10" t="s">
+      <c r="B168" s="11" t="s">
         <v>166</v>
       </c>
       <c r="C168" s="5" t="s">
@@ -4213,10 +4222,10 @@
       </c>
     </row>
     <row r="169" ht="21" spans="1:3">
-      <c r="A169" s="12" t="s">
+      <c r="A169" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B169" s="10" t="s">
+      <c r="B169" s="11" t="s">
         <v>167</v>
       </c>
       <c r="C169" s="5" t="s">
@@ -4224,10 +4233,10 @@
       </c>
     </row>
     <row r="170" ht="21" spans="1:3">
-      <c r="A170" s="12" t="s">
+      <c r="A170" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B170" s="10" t="s">
+      <c r="B170" s="11" t="s">
         <v>168</v>
       </c>
       <c r="C170" s="5" t="s">
@@ -4235,10 +4244,10 @@
       </c>
     </row>
     <row r="171" ht="21" spans="1:3">
-      <c r="A171" s="12" t="s">
+      <c r="A171" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B171" s="10" t="s">
+      <c r="B171" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C171" s="5" t="s">
@@ -4246,10 +4255,10 @@
       </c>
     </row>
     <row r="172" ht="21" spans="1:3">
-      <c r="A172" s="12" t="s">
+      <c r="A172" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B172" s="10" t="s">
+      <c r="B172" s="11" t="s">
         <v>170</v>
       </c>
       <c r="C172" s="5" t="s">
@@ -4257,10 +4266,10 @@
       </c>
     </row>
     <row r="173" ht="21" spans="1:3">
-      <c r="A173" s="12" t="s">
+      <c r="A173" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B173" s="10" t="s">
+      <c r="B173" s="11" t="s">
         <v>171</v>
       </c>
       <c r="C173" s="5" t="s">
@@ -4268,10 +4277,10 @@
       </c>
     </row>
     <row r="174" ht="21" spans="1:3">
-      <c r="A174" s="12" t="s">
+      <c r="A174" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B174" s="10" t="s">
+      <c r="B174" s="11" t="s">
         <v>172</v>
       </c>
       <c r="C174" s="5" t="s">
@@ -4279,14 +4288,14 @@
       </c>
     </row>
     <row r="176" ht="21" spans="2:3">
-      <c r="B176" s="11"/>
+      <c r="B176" s="12"/>
       <c r="C176" s="5"/>
     </row>
     <row r="177" ht="21" spans="1:3">
-      <c r="A177" s="9" t="s">
+      <c r="A177" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B177" s="10" t="s">
+      <c r="B177" s="11" t="s">
         <v>174</v>
       </c>
       <c r="C177" s="5" t="s">
@@ -4294,10 +4303,10 @@
       </c>
     </row>
     <row r="178" ht="21" spans="1:3">
-      <c r="A178" s="9" t="s">
+      <c r="A178" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B178" s="10" t="s">
+      <c r="B178" s="11" t="s">
         <v>175</v>
       </c>
       <c r="C178" s="5" t="s">
@@ -4305,10 +4314,10 @@
       </c>
     </row>
     <row r="179" ht="21" spans="1:3">
-      <c r="A179" s="9" t="s">
+      <c r="A179" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B179" s="10" t="s">
+      <c r="B179" s="11" t="s">
         <v>176</v>
       </c>
       <c r="C179" s="5" t="s">
@@ -4316,10 +4325,10 @@
       </c>
     </row>
     <row r="180" ht="21" spans="1:3">
-      <c r="A180" s="9" t="s">
+      <c r="A180" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B180" s="10" t="s">
+      <c r="B180" s="11" t="s">
         <v>177</v>
       </c>
       <c r="C180" s="5" t="s">
@@ -4327,10 +4336,10 @@
       </c>
     </row>
     <row r="181" ht="21" spans="1:3">
-      <c r="A181" s="9" t="s">
+      <c r="A181" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B181" s="10" t="s">
+      <c r="B181" s="11" t="s">
         <v>178</v>
       </c>
       <c r="C181" s="5" t="s">
@@ -4338,10 +4347,10 @@
       </c>
     </row>
     <row r="182" ht="21" spans="1:3">
-      <c r="A182" s="9" t="s">
+      <c r="A182" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B182" s="10" t="s">
+      <c r="B182" s="11" t="s">
         <v>179</v>
       </c>
       <c r="C182" s="5" t="s">
@@ -4349,10 +4358,10 @@
       </c>
     </row>
     <row r="183" ht="21" spans="1:3">
-      <c r="A183" s="9" t="s">
+      <c r="A183" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B183" s="10" t="s">
+      <c r="B183" s="11" t="s">
         <v>180</v>
       </c>
       <c r="C183" s="5" t="s">
@@ -4360,10 +4369,10 @@
       </c>
     </row>
     <row r="184" ht="21" spans="1:3">
-      <c r="A184" s="9" t="s">
+      <c r="A184" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B184" s="10" t="s">
+      <c r="B184" s="11" t="s">
         <v>181</v>
       </c>
       <c r="C184" s="5" t="s">
@@ -4371,10 +4380,10 @@
       </c>
     </row>
     <row r="185" ht="21" spans="1:3">
-      <c r="A185" s="9" t="s">
+      <c r="A185" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B185" s="10" t="s">
+      <c r="B185" s="11" t="s">
         <v>182</v>
       </c>
       <c r="C185" s="5" t="s">
@@ -4382,10 +4391,10 @@
       </c>
     </row>
     <row r="186" ht="21" spans="1:3">
-      <c r="A186" s="9" t="s">
+      <c r="A186" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B186" s="10" t="s">
+      <c r="B186" s="11" t="s">
         <v>183</v>
       </c>
       <c r="C186" s="5" t="s">
@@ -4393,10 +4402,10 @@
       </c>
     </row>
     <row r="187" ht="21" spans="1:3">
-      <c r="A187" s="9" t="s">
+      <c r="A187" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B187" s="10" t="s">
+      <c r="B187" s="11" t="s">
         <v>184</v>
       </c>
       <c r="C187" s="5" t="s">
@@ -4404,10 +4413,10 @@
       </c>
     </row>
     <row r="188" ht="21" spans="1:3">
-      <c r="A188" s="9" t="s">
+      <c r="A188" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B188" s="10" t="s">
+      <c r="B188" s="11" t="s">
         <v>185</v>
       </c>
       <c r="C188" s="5" t="s">
@@ -4415,10 +4424,10 @@
       </c>
     </row>
     <row r="189" ht="21" spans="1:3">
-      <c r="A189" s="9" t="s">
+      <c r="A189" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B189" s="10" t="s">
+      <c r="B189" s="11" t="s">
         <v>186</v>
       </c>
       <c r="C189" s="5" t="s">
@@ -4426,10 +4435,10 @@
       </c>
     </row>
     <row r="190" ht="21" spans="1:3">
-      <c r="A190" s="9" t="s">
+      <c r="A190" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B190" s="10" t="s">
+      <c r="B190" s="11" t="s">
         <v>187</v>
       </c>
       <c r="C190" s="5" t="s">
@@ -4437,10 +4446,10 @@
       </c>
     </row>
     <row r="191" ht="21" spans="1:3">
-      <c r="A191" s="9" t="s">
+      <c r="A191" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B191" s="10" t="s">
+      <c r="B191" s="11" t="s">
         <v>188</v>
       </c>
       <c r="C191" s="5" t="s">
@@ -4448,10 +4457,10 @@
       </c>
     </row>
     <row r="192" ht="21" spans="1:3">
-      <c r="A192" s="9" t="s">
+      <c r="A192" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B192" s="10" t="s">
+      <c r="B192" s="11" t="s">
         <v>189</v>
       </c>
       <c r="C192" s="5" t="s">
@@ -4459,10 +4468,10 @@
       </c>
     </row>
     <row r="193" ht="21" spans="1:3">
-      <c r="A193" s="9" t="s">
+      <c r="A193" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B193" s="10" t="s">
+      <c r="B193" s="11" t="s">
         <v>190</v>
       </c>
       <c r="C193" s="5" t="s">
@@ -4470,10 +4479,10 @@
       </c>
     </row>
     <row r="194" ht="21" spans="1:3">
-      <c r="A194" s="9" t="s">
+      <c r="A194" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B194" s="10" t="s">
+      <c r="B194" s="11" t="s">
         <v>191</v>
       </c>
       <c r="C194" s="5" t="s">
@@ -4481,10 +4490,10 @@
       </c>
     </row>
     <row r="195" ht="21" spans="1:3">
-      <c r="A195" s="9" t="s">
+      <c r="A195" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B195" s="10" t="s">
+      <c r="B195" s="11" t="s">
         <v>192</v>
       </c>
       <c r="C195" s="5" t="s">
@@ -4492,10 +4501,10 @@
       </c>
     </row>
     <row r="196" ht="21" spans="1:3">
-      <c r="A196" s="9" t="s">
+      <c r="A196" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B196" s="10" t="s">
+      <c r="B196" s="11" t="s">
         <v>193</v>
       </c>
       <c r="C196" s="5" t="s">
@@ -4503,10 +4512,10 @@
       </c>
     </row>
     <row r="197" ht="21" spans="1:3">
-      <c r="A197" s="9" t="s">
+      <c r="A197" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B197" s="10" t="s">
+      <c r="B197" s="11" t="s">
         <v>194</v>
       </c>
       <c r="C197" s="5" t="s">
@@ -4514,10 +4523,10 @@
       </c>
     </row>
     <row r="198" ht="21" spans="1:3">
-      <c r="A198" s="9" t="s">
+      <c r="A198" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B198" s="10" t="s">
+      <c r="B198" s="11" t="s">
         <v>195</v>
       </c>
       <c r="C198" s="5" t="s">
@@ -4525,10 +4534,10 @@
       </c>
     </row>
     <row r="199" ht="21" spans="1:3">
-      <c r="A199" s="9" t="s">
+      <c r="A199" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B199" s="10" t="s">
+      <c r="B199" s="11" t="s">
         <v>196</v>
       </c>
       <c r="C199" s="5" t="s">
@@ -4536,10 +4545,10 @@
       </c>
     </row>
     <row r="200" ht="21" spans="1:3">
-      <c r="A200" s="9" t="s">
+      <c r="A200" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B200" s="10" t="s">
+      <c r="B200" s="11" t="s">
         <v>197</v>
       </c>
       <c r="C200" s="5" t="s">
@@ -4547,10 +4556,10 @@
       </c>
     </row>
     <row r="201" ht="21" spans="1:3">
-      <c r="A201" s="9" t="s">
+      <c r="A201" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B201" s="10" t="s">
+      <c r="B201" s="11" t="s">
         <v>198</v>
       </c>
       <c r="C201" s="5" t="s">
@@ -4558,10 +4567,10 @@
       </c>
     </row>
     <row r="202" ht="21" spans="1:3">
-      <c r="A202" s="9" t="s">
+      <c r="A202" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B202" s="10" t="s">
+      <c r="B202" s="11" t="s">
         <v>199</v>
       </c>
       <c r="C202" s="5" t="s">
@@ -4569,10 +4578,10 @@
       </c>
     </row>
     <row r="203" ht="21" spans="1:3">
-      <c r="A203" s="9" t="s">
+      <c r="A203" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B203" s="10" t="s">
+      <c r="B203" s="11" t="s">
         <v>200</v>
       </c>
       <c r="C203" s="5" t="s">
@@ -4580,10 +4589,10 @@
       </c>
     </row>
     <row r="204" ht="21" spans="1:3">
-      <c r="A204" s="9" t="s">
+      <c r="A204" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B204" s="10" t="s">
+      <c r="B204" s="11" t="s">
         <v>201</v>
       </c>
       <c r="C204" s="5" t="s">
@@ -4591,10 +4600,10 @@
       </c>
     </row>
     <row r="205" ht="21" spans="1:3">
-      <c r="A205" s="9" t="s">
+      <c r="A205" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B205" s="10" t="s">
+      <c r="B205" s="11" t="s">
         <v>202</v>
       </c>
       <c r="C205" s="5" t="s">
@@ -4602,10 +4611,10 @@
       </c>
     </row>
     <row r="206" ht="21" spans="1:3">
-      <c r="A206" s="9" t="s">
+      <c r="A206" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B206" s="10" t="s">
+      <c r="B206" s="11" t="s">
         <v>203</v>
       </c>
       <c r="C206" s="5" t="s">
@@ -4613,10 +4622,10 @@
       </c>
     </row>
     <row r="207" ht="21" spans="1:3">
-      <c r="A207" s="9" t="s">
+      <c r="A207" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B207" s="10" t="s">
+      <c r="B207" s="11" t="s">
         <v>204</v>
       </c>
       <c r="C207" s="5" t="s">
@@ -4624,10 +4633,10 @@
       </c>
     </row>
     <row r="208" ht="21" spans="1:3">
-      <c r="A208" s="9" t="s">
+      <c r="A208" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B208" s="10" t="s">
+      <c r="B208" s="11" t="s">
         <v>205</v>
       </c>
       <c r="C208" s="5" t="s">
@@ -4635,10 +4644,10 @@
       </c>
     </row>
     <row r="209" ht="21" spans="1:3">
-      <c r="A209" s="9" t="s">
+      <c r="A209" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B209" s="10" t="s">
+      <c r="B209" s="11" t="s">
         <v>206</v>
       </c>
       <c r="C209" s="5" t="s">
@@ -4646,10 +4655,10 @@
       </c>
     </row>
     <row r="210" ht="21" spans="1:3">
-      <c r="A210" s="9" t="s">
+      <c r="A210" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B210" s="10" t="s">
+      <c r="B210" s="11" t="s">
         <v>207</v>
       </c>
       <c r="C210" s="5" t="s">
@@ -4657,10 +4666,10 @@
       </c>
     </row>
     <row r="211" ht="21" spans="1:3">
-      <c r="A211" s="9" t="s">
+      <c r="A211" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B211" s="10" t="s">
+      <c r="B211" s="11" t="s">
         <v>208</v>
       </c>
       <c r="C211" s="5" t="s">
@@ -4668,20 +4677,20 @@
       </c>
     </row>
     <row r="212" ht="21" spans="1:3">
-      <c r="A212" s="12"/>
-      <c r="B212" s="11"/>
+      <c r="A212" s="13"/>
+      <c r="B212" s="12"/>
       <c r="C212" s="5"/>
     </row>
     <row r="213" ht="21" spans="1:3">
-      <c r="A213" s="12"/>
-      <c r="B213" s="11"/>
+      <c r="A213" s="13"/>
+      <c r="B213" s="12"/>
       <c r="C213" s="5"/>
     </row>
     <row r="214" ht="21" spans="1:3">
-      <c r="A214" s="9" t="s">
+      <c r="A214" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B214" s="10" t="s">
+      <c r="B214" s="11" t="s">
         <v>210</v>
       </c>
       <c r="C214" s="5" t="s">
@@ -4689,10 +4698,10 @@
       </c>
     </row>
     <row r="215" ht="21" spans="1:3">
-      <c r="A215" s="9" t="s">
+      <c r="A215" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B215" s="10" t="s">
+      <c r="B215" s="11" t="s">
         <v>211</v>
       </c>
       <c r="C215" s="5" t="s">
@@ -4700,10 +4709,10 @@
       </c>
     </row>
     <row r="216" ht="21" spans="1:3">
-      <c r="A216" s="9" t="s">
+      <c r="A216" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B216" s="10" t="s">
+      <c r="B216" s="11" t="s">
         <v>212</v>
       </c>
       <c r="C216" s="5" t="s">
@@ -4711,10 +4720,10 @@
       </c>
     </row>
     <row r="217" ht="21" spans="1:3">
-      <c r="A217" s="9" t="s">
+      <c r="A217" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B217" s="10" t="s">
+      <c r="B217" s="11" t="s">
         <v>213</v>
       </c>
       <c r="C217" s="5" t="s">
@@ -4722,10 +4731,10 @@
       </c>
     </row>
     <row r="218" ht="21" spans="1:3">
-      <c r="A218" s="9" t="s">
+      <c r="A218" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B218" s="10" t="s">
+      <c r="B218" s="11" t="s">
         <v>214</v>
       </c>
       <c r="C218" s="5" t="s">
@@ -4733,10 +4742,10 @@
       </c>
     </row>
     <row r="219" ht="21" spans="1:3">
-      <c r="A219" s="9" t="s">
+      <c r="A219" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B219" s="10" t="s">
+      <c r="B219" s="11" t="s">
         <v>215</v>
       </c>
       <c r="C219" s="5" t="s">
@@ -4744,10 +4753,10 @@
       </c>
     </row>
     <row r="220" ht="21" spans="1:3">
-      <c r="A220" s="9" t="s">
+      <c r="A220" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B220" s="13" t="s">
+      <c r="B220" s="14" t="s">
         <v>216</v>
       </c>
       <c r="C220" s="5" t="s">
@@ -4755,10 +4764,10 @@
       </c>
     </row>
     <row r="221" ht="21" spans="1:3">
-      <c r="A221" s="9" t="s">
+      <c r="A221" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B221" s="10" t="s">
+      <c r="B221" s="11" t="s">
         <v>217</v>
       </c>
       <c r="C221" s="5" t="s">
@@ -4766,10 +4775,10 @@
       </c>
     </row>
     <row r="222" ht="21" spans="1:3">
-      <c r="A222" s="9" t="s">
+      <c r="A222" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B222" s="10" t="s">
+      <c r="B222" s="11" t="s">
         <v>218</v>
       </c>
       <c r="C222" s="5" t="s">
@@ -4777,10 +4786,10 @@
       </c>
     </row>
     <row r="223" ht="21" spans="1:3">
-      <c r="A223" s="9" t="s">
+      <c r="A223" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B223" s="10" t="s">
+      <c r="B223" s="11" t="s">
         <v>219</v>
       </c>
       <c r="C223" s="5" t="s">
@@ -4788,10 +4797,10 @@
       </c>
     </row>
     <row r="224" ht="21" spans="1:3">
-      <c r="A224" s="9" t="s">
+      <c r="A224" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B224" s="10" t="s">
+      <c r="B224" s="11" t="s">
         <v>220</v>
       </c>
       <c r="C224" s="5" t="s">
@@ -4799,10 +4808,10 @@
       </c>
     </row>
     <row r="225" ht="21" spans="1:3">
-      <c r="A225" s="9" t="s">
+      <c r="A225" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B225" s="10" t="s">
+      <c r="B225" s="11" t="s">
         <v>221</v>
       </c>
       <c r="C225" s="5" t="s">
@@ -4810,10 +4819,10 @@
       </c>
     </row>
     <row r="226" ht="21" spans="1:3">
-      <c r="A226" s="9" t="s">
+      <c r="A226" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B226" s="10" t="s">
+      <c r="B226" s="11" t="s">
         <v>222</v>
       </c>
       <c r="C226" s="5" t="s">
@@ -4821,10 +4830,10 @@
       </c>
     </row>
     <row r="227" ht="21" spans="1:3">
-      <c r="A227" s="9" t="s">
+      <c r="A227" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B227" s="10" t="s">
+      <c r="B227" s="11" t="s">
         <v>223</v>
       </c>
       <c r="C227" s="5" t="s">
@@ -4832,10 +4841,10 @@
       </c>
     </row>
     <row r="228" ht="21" spans="1:3">
-      <c r="A228" s="9" t="s">
+      <c r="A228" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B228" s="10" t="s">
+      <c r="B228" s="11" t="s">
         <v>224</v>
       </c>
       <c r="C228" s="5" t="s">
@@ -4843,10 +4852,10 @@
       </c>
     </row>
     <row r="229" ht="21" spans="1:3">
-      <c r="A229" s="9" t="s">
+      <c r="A229" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B229" s="10" t="s">
+      <c r="B229" s="11" t="s">
         <v>225</v>
       </c>
       <c r="C229" s="5" t="s">
@@ -4854,10 +4863,10 @@
       </c>
     </row>
     <row r="230" ht="21" spans="1:3">
-      <c r="A230" s="9" t="s">
+      <c r="A230" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B230" s="10" t="s">
+      <c r="B230" s="11" t="s">
         <v>226</v>
       </c>
       <c r="C230" s="5" t="s">
@@ -4865,10 +4874,10 @@
       </c>
     </row>
     <row r="231" ht="21" spans="1:3">
-      <c r="A231" s="9" t="s">
+      <c r="A231" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B231" s="10" t="s">
+      <c r="B231" s="11" t="s">
         <v>227</v>
       </c>
       <c r="C231" s="5" t="s">
@@ -4876,10 +4885,10 @@
       </c>
     </row>
     <row r="232" ht="21" spans="1:3">
-      <c r="A232" s="9" t="s">
+      <c r="A232" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B232" s="10" t="s">
+      <c r="B232" s="11" t="s">
         <v>228</v>
       </c>
       <c r="C232" s="5" t="s">
@@ -4887,10 +4896,10 @@
       </c>
     </row>
     <row r="233" ht="21" spans="1:3">
-      <c r="A233" s="9" t="s">
+      <c r="A233" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B233" s="10" t="s">
+      <c r="B233" s="11" t="s">
         <v>229</v>
       </c>
       <c r="C233" s="5" t="s">
@@ -4898,10 +4907,10 @@
       </c>
     </row>
     <row r="234" ht="21" spans="1:3">
-      <c r="A234" s="9" t="s">
+      <c r="A234" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B234" s="10" t="s">
+      <c r="B234" s="11" t="s">
         <v>230</v>
       </c>
       <c r="C234" s="5" t="s">
@@ -4909,10 +4918,10 @@
       </c>
     </row>
     <row r="235" ht="21" spans="1:3">
-      <c r="A235" s="9" t="s">
+      <c r="A235" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B235" s="10" t="s">
+      <c r="B235" s="11" t="s">
         <v>231</v>
       </c>
       <c r="C235" s="5" t="s">
@@ -4920,18 +4929,18 @@
       </c>
     </row>
     <row r="236" ht="21" spans="2:3">
-      <c r="B236" s="11"/>
+      <c r="B236" s="12"/>
       <c r="C236" s="5"/>
     </row>
     <row r="237" ht="21" spans="2:3">
-      <c r="B237" s="11"/>
+      <c r="B237" s="12"/>
       <c r="C237" s="5"/>
     </row>
     <row r="238" ht="21" spans="1:3">
-      <c r="A238" s="9" t="s">
+      <c r="A238" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B238" s="10" t="s">
+      <c r="B238" s="11" t="s">
         <v>233</v>
       </c>
       <c r="C238" s="5" t="s">
@@ -4939,10 +4948,10 @@
       </c>
     </row>
     <row r="239" ht="21" spans="1:3">
-      <c r="A239" s="9" t="s">
+      <c r="A239" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B239" s="10" t="s">
+      <c r="B239" s="11" t="s">
         <v>234</v>
       </c>
       <c r="C239" s="5" t="s">
@@ -4950,10 +4959,10 @@
       </c>
     </row>
     <row r="240" ht="21" spans="1:3">
-      <c r="A240" s="9" t="s">
+      <c r="A240" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B240" s="10" t="s">
+      <c r="B240" s="11" t="s">
         <v>235</v>
       </c>
       <c r="C240" s="5" t="s">
@@ -4961,10 +4970,10 @@
       </c>
     </row>
     <row r="241" ht="21" spans="1:3">
-      <c r="A241" s="9" t="s">
+      <c r="A241" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B241" s="10" t="s">
+      <c r="B241" s="11" t="s">
         <v>236</v>
       </c>
       <c r="C241" s="5" t="s">
@@ -4972,10 +4981,10 @@
       </c>
     </row>
     <row r="242" ht="21" spans="1:3">
-      <c r="A242" s="9" t="s">
+      <c r="A242" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B242" s="10" t="s">
+      <c r="B242" s="11" t="s">
         <v>237</v>
       </c>
       <c r="C242" s="5" t="s">
@@ -4983,10 +4992,10 @@
       </c>
     </row>
     <row r="243" ht="21" spans="1:3">
-      <c r="A243" s="9" t="s">
+      <c r="A243" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B243" s="10" t="s">
+      <c r="B243" s="11" t="s">
         <v>238</v>
       </c>
       <c r="C243" s="5" t="s">
@@ -4994,10 +5003,10 @@
       </c>
     </row>
     <row r="244" ht="21" spans="1:3">
-      <c r="A244" s="9" t="s">
+      <c r="A244" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B244" s="10" t="s">
+      <c r="B244" s="11" t="s">
         <v>239</v>
       </c>
       <c r="C244" s="5" t="s">
@@ -5005,10 +5014,10 @@
       </c>
     </row>
     <row r="245" ht="21" spans="1:3">
-      <c r="A245" s="9" t="s">
+      <c r="A245" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B245" s="10" t="s">
+      <c r="B245" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C245" s="5" t="s">
@@ -5016,10 +5025,10 @@
       </c>
     </row>
     <row r="246" ht="21" spans="1:3">
-      <c r="A246" s="9" t="s">
+      <c r="A246" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B246" s="10" t="s">
+      <c r="B246" s="11" t="s">
         <v>241</v>
       </c>
       <c r="C246" s="5" t="s">
@@ -5027,10 +5036,10 @@
       </c>
     </row>
     <row r="247" ht="21" spans="1:3">
-      <c r="A247" s="9" t="s">
+      <c r="A247" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B247" s="10" t="s">
+      <c r="B247" s="11" t="s">
         <v>242</v>
       </c>
       <c r="C247" s="5" t="s">
@@ -5038,10 +5047,10 @@
       </c>
     </row>
     <row r="248" ht="21" spans="1:3">
-      <c r="A248" s="9" t="s">
+      <c r="A248" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B248" s="10" t="s">
+      <c r="B248" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C248" s="5" t="s">
@@ -5049,10 +5058,10 @@
       </c>
     </row>
     <row r="249" ht="21" spans="1:3">
-      <c r="A249" s="9" t="s">
+      <c r="A249" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B249" s="10" t="s">
+      <c r="B249" s="11" t="s">
         <v>244</v>
       </c>
       <c r="C249" s="5" t="s">
@@ -5060,10 +5069,10 @@
       </c>
     </row>
     <row r="250" ht="21" spans="1:3">
-      <c r="A250" s="9" t="s">
+      <c r="A250" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B250" s="10" t="s">
+      <c r="B250" s="11" t="s">
         <v>245</v>
       </c>
       <c r="C250" s="5" t="s">
@@ -5071,10 +5080,10 @@
       </c>
     </row>
     <row r="251" ht="21" spans="1:3">
-      <c r="A251" s="9" t="s">
+      <c r="A251" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B251" s="10" t="s">
+      <c r="B251" s="11" t="s">
         <v>246</v>
       </c>
       <c r="C251" s="5" t="s">
@@ -5082,10 +5091,10 @@
       </c>
     </row>
     <row r="252" ht="21" spans="1:3">
-      <c r="A252" s="9" t="s">
+      <c r="A252" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B252" s="10" t="s">
+      <c r="B252" s="11" t="s">
         <v>247</v>
       </c>
       <c r="C252" s="5" t="s">
@@ -5093,10 +5102,10 @@
       </c>
     </row>
     <row r="253" ht="21" spans="1:3">
-      <c r="A253" s="9" t="s">
+      <c r="A253" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B253" s="10" t="s">
+      <c r="B253" s="11" t="s">
         <v>248</v>
       </c>
       <c r="C253" s="5" t="s">
@@ -5104,10 +5113,10 @@
       </c>
     </row>
     <row r="254" ht="21" spans="1:3">
-      <c r="A254" s="9" t="s">
+      <c r="A254" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B254" s="10" t="s">
+      <c r="B254" s="11" t="s">
         <v>249</v>
       </c>
       <c r="C254" s="5" t="s">
@@ -5115,10 +5124,10 @@
       </c>
     </row>
     <row r="255" ht="21" spans="1:3">
-      <c r="A255" s="9" t="s">
+      <c r="A255" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B255" s="10" t="s">
+      <c r="B255" s="11" t="s">
         <v>250</v>
       </c>
       <c r="C255" s="5" t="s">
@@ -5126,10 +5135,10 @@
       </c>
     </row>
     <row r="256" ht="21" spans="1:3">
-      <c r="A256" s="9" t="s">
+      <c r="A256" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B256" s="10" t="s">
+      <c r="B256" s="11" t="s">
         <v>251</v>
       </c>
       <c r="C256" s="5" t="s">
@@ -5137,10 +5146,10 @@
       </c>
     </row>
     <row r="257" ht="21" spans="1:3">
-      <c r="A257" s="9" t="s">
+      <c r="A257" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B257" s="10" t="s">
+      <c r="B257" s="11" t="s">
         <v>252</v>
       </c>
       <c r="C257" s="5" t="s">
@@ -5148,10 +5157,10 @@
       </c>
     </row>
     <row r="258" ht="21" spans="1:3">
-      <c r="A258" s="9" t="s">
+      <c r="A258" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B258" s="10" t="s">
+      <c r="B258" s="11" t="s">
         <v>253</v>
       </c>
       <c r="C258" s="5" t="s">
@@ -5159,10 +5168,10 @@
       </c>
     </row>
     <row r="259" ht="21" spans="1:3">
-      <c r="A259" s="9" t="s">
+      <c r="A259" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B259" s="10" t="s">
+      <c r="B259" s="11" t="s">
         <v>254</v>
       </c>
       <c r="C259" s="5" t="s">
@@ -5170,10 +5179,10 @@
       </c>
     </row>
     <row r="260" ht="21" spans="1:3">
-      <c r="A260" s="9" t="s">
+      <c r="A260" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B260" s="10" t="s">
+      <c r="B260" s="11" t="s">
         <v>255</v>
       </c>
       <c r="C260" s="5" t="s">
@@ -5181,10 +5190,10 @@
       </c>
     </row>
     <row r="261" ht="21" spans="1:3">
-      <c r="A261" s="9" t="s">
+      <c r="A261" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B261" s="10" t="s">
+      <c r="B261" s="11" t="s">
         <v>256</v>
       </c>
       <c r="C261" s="5" t="s">
@@ -5192,10 +5201,10 @@
       </c>
     </row>
     <row r="262" ht="21" spans="1:3">
-      <c r="A262" s="9" t="s">
+      <c r="A262" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B262" s="10" t="s">
+      <c r="B262" s="11" t="s">
         <v>257</v>
       </c>
       <c r="C262" s="5" t="s">
@@ -5203,10 +5212,10 @@
       </c>
     </row>
     <row r="263" ht="21" spans="1:3">
-      <c r="A263" s="9" t="s">
+      <c r="A263" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B263" s="10" t="s">
+      <c r="B263" s="11" t="s">
         <v>258</v>
       </c>
       <c r="C263" s="5" t="s">
@@ -5214,10 +5223,10 @@
       </c>
     </row>
     <row r="264" ht="21" spans="1:3">
-      <c r="A264" s="9" t="s">
+      <c r="A264" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B264" s="10" t="s">
+      <c r="B264" s="11" t="s">
         <v>259</v>
       </c>
       <c r="C264" s="5" t="s">
@@ -5225,10 +5234,10 @@
       </c>
     </row>
     <row r="265" ht="21" spans="1:3">
-      <c r="A265" s="9" t="s">
+      <c r="A265" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B265" s="10" t="s">
+      <c r="B265" s="11" t="s">
         <v>260</v>
       </c>
       <c r="C265" s="5" t="s">
@@ -5236,10 +5245,10 @@
       </c>
     </row>
     <row r="266" ht="21" spans="1:3">
-      <c r="A266" s="9" t="s">
+      <c r="A266" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B266" s="10" t="s">
+      <c r="B266" s="11" t="s">
         <v>261</v>
       </c>
       <c r="C266" s="5" t="s">
@@ -5247,10 +5256,10 @@
       </c>
     </row>
     <row r="267" ht="21" spans="1:3">
-      <c r="A267" s="9" t="s">
+      <c r="A267" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B267" s="10" t="s">
+      <c r="B267" s="11" t="s">
         <v>262</v>
       </c>
       <c r="C267" s="5" t="s">
@@ -5258,10 +5267,10 @@
       </c>
     </row>
     <row r="268" ht="21" spans="1:3">
-      <c r="A268" s="9" t="s">
+      <c r="A268" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B268" s="10" t="s">
+      <c r="B268" s="11" t="s">
         <v>263</v>
       </c>
       <c r="C268" s="5" t="s">
@@ -5269,10 +5278,10 @@
       </c>
     </row>
     <row r="269" ht="21" spans="1:3">
-      <c r="A269" s="9" t="s">
+      <c r="A269" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B269" s="10" t="s">
+      <c r="B269" s="11" t="s">
         <v>264</v>
       </c>
       <c r="C269" s="5" t="s">
@@ -5280,10 +5289,10 @@
       </c>
     </row>
     <row r="270" ht="21" spans="1:3">
-      <c r="A270" s="9" t="s">
+      <c r="A270" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B270" s="10" t="s">
+      <c r="B270" s="11" t="s">
         <v>265</v>
       </c>
       <c r="C270" s="5" t="s">
@@ -5291,10 +5300,10 @@
       </c>
     </row>
     <row r="271" ht="21" spans="1:3">
-      <c r="A271" s="9" t="s">
+      <c r="A271" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B271" s="10" t="s">
+      <c r="B271" s="11" t="s">
         <v>89</v>
       </c>
       <c r="C271" s="5" t="s">
@@ -5302,10 +5311,10 @@
       </c>
     </row>
     <row r="272" ht="21" spans="1:3">
-      <c r="A272" s="9" t="s">
+      <c r="A272" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B272" s="10" t="s">
+      <c r="B272" s="11" t="s">
         <v>266</v>
       </c>
       <c r="C272" s="5" t="s">
@@ -5313,18 +5322,18 @@
       </c>
     </row>
     <row r="273" ht="21" spans="2:3">
-      <c r="B273" s="11"/>
+      <c r="B273" s="12"/>
       <c r="C273" s="5"/>
     </row>
     <row r="274" ht="21" spans="2:3">
-      <c r="B274" s="11"/>
+      <c r="B274" s="12"/>
       <c r="C274" s="5"/>
     </row>
     <row r="275" ht="21" spans="1:3">
-      <c r="A275" s="9" t="s">
+      <c r="A275" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B275" s="10" t="s">
+      <c r="B275" s="11" t="s">
         <v>268</v>
       </c>
       <c r="C275" s="5" t="s">
@@ -5332,10 +5341,10 @@
       </c>
     </row>
     <row r="276" ht="21" spans="1:3">
-      <c r="A276" s="9" t="s">
+      <c r="A276" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B276" s="10" t="s">
+      <c r="B276" s="11" t="s">
         <v>269</v>
       </c>
       <c r="C276" s="5" t="s">
@@ -5343,10 +5352,10 @@
       </c>
     </row>
     <row r="277" ht="21" spans="1:3">
-      <c r="A277" s="9" t="s">
+      <c r="A277" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B277" s="10" t="s">
+      <c r="B277" s="11" t="s">
         <v>270</v>
       </c>
       <c r="C277" s="5" t="s">
@@ -5354,10 +5363,10 @@
       </c>
     </row>
     <row r="278" ht="21" spans="1:3">
-      <c r="A278" s="9" t="s">
+      <c r="A278" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B278" s="10" t="s">
+      <c r="B278" s="11" t="s">
         <v>271</v>
       </c>
       <c r="C278" s="5" t="s">
@@ -5365,10 +5374,10 @@
       </c>
     </row>
     <row r="279" ht="21" spans="1:3">
-      <c r="A279" s="9" t="s">
+      <c r="A279" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B279" s="10" t="s">
+      <c r="B279" s="11" t="s">
         <v>272</v>
       </c>
       <c r="C279" s="5" t="s">
@@ -5376,10 +5385,10 @@
       </c>
     </row>
     <row r="280" ht="21" spans="1:3">
-      <c r="A280" s="9" t="s">
+      <c r="A280" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B280" s="10" t="s">
+      <c r="B280" s="11" t="s">
         <v>273</v>
       </c>
       <c r="C280" s="5" t="s">
@@ -5387,10 +5396,10 @@
       </c>
     </row>
     <row r="281" ht="21" spans="1:3">
-      <c r="A281" s="9" t="s">
+      <c r="A281" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B281" s="10" t="s">
+      <c r="B281" s="11" t="s">
         <v>274</v>
       </c>
       <c r="C281" s="5" t="s">
@@ -5398,10 +5407,10 @@
       </c>
     </row>
     <row r="282" ht="21" spans="1:3">
-      <c r="A282" s="9" t="s">
+      <c r="A282" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B282" s="10" t="s">
+      <c r="B282" s="11" t="s">
         <v>275</v>
       </c>
       <c r="C282" s="5" t="s">
@@ -5409,10 +5418,10 @@
       </c>
     </row>
     <row r="283" ht="21" spans="1:3">
-      <c r="A283" s="9" t="s">
+      <c r="A283" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B283" s="10" t="s">
+      <c r="B283" s="11" t="s">
         <v>276</v>
       </c>
       <c r="C283" s="5" t="s">
@@ -5420,10 +5429,10 @@
       </c>
     </row>
     <row r="284" ht="21" spans="1:3">
-      <c r="A284" s="9" t="s">
+      <c r="A284" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B284" s="10" t="s">
+      <c r="B284" s="11" t="s">
         <v>277</v>
       </c>
       <c r="C284" s="5" t="s">
@@ -5431,10 +5440,10 @@
       </c>
     </row>
     <row r="285" ht="21" spans="1:3">
-      <c r="A285" s="9" t="s">
+      <c r="A285" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B285" s="10" t="s">
+      <c r="B285" s="11" t="s">
         <v>278</v>
       </c>
       <c r="C285" s="5" t="s">
@@ -5442,10 +5451,10 @@
       </c>
     </row>
     <row r="286" ht="21" spans="1:3">
-      <c r="A286" s="9" t="s">
+      <c r="A286" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B286" s="10" t="s">
+      <c r="B286" s="11" t="s">
         <v>279</v>
       </c>
       <c r="C286" s="5" t="s">
@@ -5453,10 +5462,10 @@
       </c>
     </row>
     <row r="287" ht="21" spans="1:3">
-      <c r="A287" s="9" t="s">
+      <c r="A287" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B287" s="10" t="s">
+      <c r="B287" s="11" t="s">
         <v>280</v>
       </c>
       <c r="C287" s="5" t="s">
@@ -5464,10 +5473,10 @@
       </c>
     </row>
     <row r="288" ht="21" spans="1:3">
-      <c r="A288" s="9" t="s">
+      <c r="A288" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B288" s="10" t="s">
+      <c r="B288" s="11" t="s">
         <v>281</v>
       </c>
       <c r="C288" s="5" t="s">
@@ -5475,10 +5484,10 @@
       </c>
     </row>
     <row r="289" ht="21" spans="1:3">
-      <c r="A289" s="9" t="s">
+      <c r="A289" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B289" s="10" t="s">
+      <c r="B289" s="11" t="s">
         <v>282</v>
       </c>
       <c r="C289" s="5" t="s">
@@ -5486,10 +5495,10 @@
       </c>
     </row>
     <row r="290" ht="21" spans="1:3">
-      <c r="A290" s="9" t="s">
+      <c r="A290" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B290" s="10" t="s">
+      <c r="B290" s="11" t="s">
         <v>283</v>
       </c>
       <c r="C290" s="5" t="s">
@@ -5497,10 +5506,10 @@
       </c>
     </row>
     <row r="291" ht="21" spans="1:3">
-      <c r="A291" s="9" t="s">
+      <c r="A291" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B291" s="10" t="s">
+      <c r="B291" s="11" t="s">
         <v>284</v>
       </c>
       <c r="C291" s="5" t="s">
@@ -5508,10 +5517,10 @@
       </c>
     </row>
     <row r="292" ht="21" spans="1:3">
-      <c r="A292" s="9" t="s">
+      <c r="A292" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B292" s="10" t="s">
+      <c r="B292" s="11" t="s">
         <v>285</v>
       </c>
       <c r="C292" s="5" t="s">
@@ -5519,10 +5528,10 @@
       </c>
     </row>
     <row r="293" ht="21" spans="1:3">
-      <c r="A293" s="9" t="s">
+      <c r="A293" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B293" s="10" t="s">
+      <c r="B293" s="11" t="s">
         <v>286</v>
       </c>
       <c r="C293" s="5" t="s">
@@ -5530,18 +5539,18 @@
       </c>
     </row>
     <row r="294" ht="21" spans="2:3">
-      <c r="B294" s="11"/>
+      <c r="B294" s="12"/>
       <c r="C294" s="5"/>
     </row>
     <row r="295" ht="21" spans="2:3">
-      <c r="B295" s="11"/>
+      <c r="B295" s="12"/>
       <c r="C295" s="5"/>
     </row>
     <row r="296" ht="21" spans="1:3">
-      <c r="A296" s="9" t="s">
+      <c r="A296" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B296" s="10" t="s">
+      <c r="B296" s="11" t="s">
         <v>288</v>
       </c>
       <c r="C296" s="5" t="s">
@@ -5549,10 +5558,10 @@
       </c>
     </row>
     <row r="297" ht="21" spans="1:3">
-      <c r="A297" s="9" t="s">
+      <c r="A297" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B297" s="10" t="s">
+      <c r="B297" s="11" t="s">
         <v>289</v>
       </c>
       <c r="C297" s="5" t="s">
@@ -5560,10 +5569,10 @@
       </c>
     </row>
     <row r="298" ht="21" spans="1:3">
-      <c r="A298" s="9" t="s">
+      <c r="A298" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B298" s="10" t="s">
+      <c r="B298" s="11" t="s">
         <v>290</v>
       </c>
       <c r="C298" s="5" t="s">
@@ -5571,10 +5580,10 @@
       </c>
     </row>
     <row r="299" ht="21" spans="1:3">
-      <c r="A299" s="9" t="s">
+      <c r="A299" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B299" s="10" t="s">
+      <c r="B299" s="11" t="s">
         <v>291</v>
       </c>
       <c r="C299" s="5" t="s">
@@ -5582,10 +5591,10 @@
       </c>
     </row>
     <row r="300" ht="21" spans="1:3">
-      <c r="A300" s="9" t="s">
+      <c r="A300" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B300" s="10" t="s">
+      <c r="B300" s="11" t="s">
         <v>292</v>
       </c>
       <c r="C300" s="5" t="s">
@@ -5593,10 +5602,10 @@
       </c>
     </row>
     <row r="301" ht="21" spans="1:3">
-      <c r="A301" s="9" t="s">
+      <c r="A301" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B301" s="10" t="s">
+      <c r="B301" s="11" t="s">
         <v>293</v>
       </c>
       <c r="C301" s="5" t="s">
@@ -5604,10 +5613,10 @@
       </c>
     </row>
     <row r="302" ht="21" spans="1:3">
-      <c r="A302" s="9" t="s">
+      <c r="A302" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B302" s="10" t="s">
+      <c r="B302" s="11" t="s">
         <v>294</v>
       </c>
       <c r="C302" s="5" t="s">
@@ -5615,10 +5624,10 @@
       </c>
     </row>
     <row r="303" ht="21" spans="1:3">
-      <c r="A303" s="9" t="s">
+      <c r="A303" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B303" s="10" t="s">
+      <c r="B303" s="11" t="s">
         <v>295</v>
       </c>
       <c r="C303" s="5" t="s">
@@ -5626,10 +5635,10 @@
       </c>
     </row>
     <row r="304" ht="21" spans="1:3">
-      <c r="A304" s="9" t="s">
+      <c r="A304" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B304" s="10" t="s">
+      <c r="B304" s="11" t="s">
         <v>296</v>
       </c>
       <c r="C304" s="5" t="s">
@@ -5637,10 +5646,10 @@
       </c>
     </row>
     <row r="305" ht="21" spans="1:3">
-      <c r="A305" s="9" t="s">
+      <c r="A305" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B305" s="10" t="s">
+      <c r="B305" s="11" t="s">
         <v>297</v>
       </c>
       <c r="C305" s="5" t="s">
@@ -5648,10 +5657,10 @@
       </c>
     </row>
     <row r="306" ht="21" spans="1:3">
-      <c r="A306" s="9" t="s">
+      <c r="A306" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B306" s="10" t="s">
+      <c r="B306" s="11" t="s">
         <v>298</v>
       </c>
       <c r="C306" s="5" t="s">
@@ -5659,10 +5668,10 @@
       </c>
     </row>
     <row r="307" ht="21" spans="1:3">
-      <c r="A307" s="9" t="s">
+      <c r="A307" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B307" s="10" t="s">
+      <c r="B307" s="11" t="s">
         <v>299</v>
       </c>
       <c r="C307" s="5" t="s">
@@ -5670,10 +5679,10 @@
       </c>
     </row>
     <row r="308" ht="21" spans="1:3">
-      <c r="A308" s="9" t="s">
+      <c r="A308" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B308" s="10" t="s">
+      <c r="B308" s="11" t="s">
         <v>300</v>
       </c>
       <c r="C308" s="5" t="s">
@@ -5681,10 +5690,10 @@
       </c>
     </row>
     <row r="309" ht="21" spans="1:3">
-      <c r="A309" s="9" t="s">
+      <c r="A309" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B309" s="13" t="s">
+      <c r="B309" s="14" t="s">
         <v>301</v>
       </c>
       <c r="C309" s="5" t="s">
@@ -5692,10 +5701,10 @@
       </c>
     </row>
     <row r="310" ht="21" spans="1:3">
-      <c r="A310" s="9" t="s">
+      <c r="A310" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B310" s="10" t="s">
+      <c r="B310" s="11" t="s">
         <v>302</v>
       </c>
       <c r="C310" s="5" t="s">
@@ -5703,10 +5712,10 @@
       </c>
     </row>
     <row r="311" ht="21" spans="1:3">
-      <c r="A311" s="9" t="s">
+      <c r="A311" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B311" s="10" t="s">
+      <c r="B311" s="11" t="s">
         <v>303</v>
       </c>
       <c r="C311" s="5" t="s">
@@ -5714,10 +5723,10 @@
       </c>
     </row>
     <row r="312" ht="21" spans="1:3">
-      <c r="A312" s="9" t="s">
+      <c r="A312" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B312" s="10" t="s">
+      <c r="B312" s="11" t="s">
         <v>304</v>
       </c>
       <c r="C312" s="5" t="s">
@@ -5725,10 +5734,10 @@
       </c>
     </row>
     <row r="313" ht="21" spans="1:3">
-      <c r="A313" s="9" t="s">
+      <c r="A313" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B313" s="10" t="s">
+      <c r="B313" s="11" t="s">
         <v>305</v>
       </c>
       <c r="C313" s="5" t="s">
@@ -5736,10 +5745,10 @@
       </c>
     </row>
     <row r="314" ht="21" spans="1:3">
-      <c r="A314" s="9" t="s">
+      <c r="A314" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B314" s="10" t="s">
+      <c r="B314" s="11" t="s">
         <v>306</v>
       </c>
       <c r="C314" s="5" t="s">
@@ -5747,10 +5756,10 @@
       </c>
     </row>
     <row r="315" ht="21" spans="1:3">
-      <c r="A315" s="9" t="s">
+      <c r="A315" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B315" s="10" t="s">
+      <c r="B315" s="11" t="s">
         <v>307</v>
       </c>
       <c r="C315" s="5" t="s">
@@ -5758,10 +5767,10 @@
       </c>
     </row>
     <row r="316" ht="21" spans="1:3">
-      <c r="A316" s="9" t="s">
+      <c r="A316" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B316" s="10" t="s">
+      <c r="B316" s="11" t="s">
         <v>308</v>
       </c>
       <c r="C316" s="5" t="s">
@@ -5769,10 +5778,10 @@
       </c>
     </row>
     <row r="317" ht="21" spans="1:3">
-      <c r="A317" s="9" t="s">
+      <c r="A317" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B317" s="10" t="s">
+      <c r="B317" s="11" t="s">
         <v>309</v>
       </c>
       <c r="C317" s="5" t="s">
@@ -5780,10 +5789,10 @@
       </c>
     </row>
     <row r="318" ht="21" spans="1:3">
-      <c r="A318" s="9" t="s">
+      <c r="A318" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B318" s="10" t="s">
+      <c r="B318" s="11" t="s">
         <v>310</v>
       </c>
       <c r="C318" s="5" t="s">
@@ -5791,10 +5800,10 @@
       </c>
     </row>
     <row r="319" ht="21" spans="1:3">
-      <c r="A319" s="9" t="s">
+      <c r="A319" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B319" s="10" t="s">
+      <c r="B319" s="11" t="s">
         <v>311</v>
       </c>
       <c r="C319" s="5" t="s">
@@ -5802,10 +5811,10 @@
       </c>
     </row>
     <row r="320" ht="21" spans="1:3">
-      <c r="A320" s="9" t="s">
+      <c r="A320" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B320" s="10" t="s">
+      <c r="B320" s="11" t="s">
         <v>312</v>
       </c>
       <c r="C320" s="5" t="s">
@@ -5813,10 +5822,10 @@
       </c>
     </row>
     <row r="321" ht="21" spans="1:3">
-      <c r="A321" s="9" t="s">
+      <c r="A321" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B321" s="10" t="s">
+      <c r="B321" s="11" t="s">
         <v>313</v>
       </c>
       <c r="C321" s="5" t="s">
@@ -5824,10 +5833,10 @@
       </c>
     </row>
     <row r="322" ht="21" spans="1:3">
-      <c r="A322" s="9" t="s">
+      <c r="A322" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B322" s="10" t="s">
+      <c r="B322" s="11" t="s">
         <v>314</v>
       </c>
       <c r="C322" s="5" t="s">
@@ -5835,10 +5844,10 @@
       </c>
     </row>
     <row r="323" ht="21" spans="1:3">
-      <c r="A323" s="9" t="s">
+      <c r="A323" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B323" s="10" t="s">
+      <c r="B323" s="11" t="s">
         <v>315</v>
       </c>
       <c r="C323" s="5" t="s">
@@ -5846,10 +5855,10 @@
       </c>
     </row>
     <row r="324" ht="21" spans="1:3">
-      <c r="A324" s="9" t="s">
+      <c r="A324" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B324" s="10" t="s">
+      <c r="B324" s="11" t="s">
         <v>316</v>
       </c>
       <c r="C324" s="5" t="s">
@@ -5857,10 +5866,10 @@
       </c>
     </row>
     <row r="325" ht="21" spans="1:3">
-      <c r="A325" s="9" t="s">
+      <c r="A325" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B325" s="10" t="s">
+      <c r="B325" s="11" t="s">
         <v>317</v>
       </c>
       <c r="C325" s="5" t="s">
@@ -5868,10 +5877,10 @@
       </c>
     </row>
     <row r="326" ht="21" spans="1:3">
-      <c r="A326" s="9" t="s">
+      <c r="A326" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B326" s="10" t="s">
+      <c r="B326" s="11" t="s">
         <v>318</v>
       </c>
       <c r="C326" s="5" t="s">
@@ -5879,10 +5888,10 @@
       </c>
     </row>
     <row r="327" ht="21" spans="1:3">
-      <c r="A327" s="9" t="s">
+      <c r="A327" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B327" s="10" t="s">
+      <c r="B327" s="11" t="s">
         <v>319</v>
       </c>
       <c r="C327" s="5" t="s">
@@ -5890,10 +5899,10 @@
       </c>
     </row>
     <row r="328" ht="21" spans="1:3">
-      <c r="A328" s="9" t="s">
+      <c r="A328" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B328" s="10" t="s">
+      <c r="B328" s="11" t="s">
         <v>320</v>
       </c>
       <c r="C328" s="5" t="s">
@@ -5901,10 +5910,10 @@
       </c>
     </row>
     <row r="329" ht="21" spans="1:3">
-      <c r="A329" s="9" t="s">
+      <c r="A329" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B329" s="10" t="s">
+      <c r="B329" s="11" t="s">
         <v>321</v>
       </c>
       <c r="C329" s="5" t="s">
@@ -5912,10 +5921,10 @@
       </c>
     </row>
     <row r="330" ht="21" spans="1:3">
-      <c r="A330" s="9" t="s">
+      <c r="A330" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B330" s="10" t="s">
+      <c r="B330" s="11" t="s">
         <v>322</v>
       </c>
       <c r="C330" s="5" t="s">
@@ -5923,10 +5932,10 @@
       </c>
     </row>
     <row r="331" ht="21" spans="1:3">
-      <c r="A331" s="9" t="s">
+      <c r="A331" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B331" s="10" t="s">
+      <c r="B331" s="11" t="s">
         <v>323</v>
       </c>
       <c r="C331" s="5" t="s">
@@ -5934,10 +5943,10 @@
       </c>
     </row>
     <row r="332" ht="21" spans="1:3">
-      <c r="A332" s="9" t="s">
+      <c r="A332" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B332" s="10" t="s">
+      <c r="B332" s="11" t="s">
         <v>324</v>
       </c>
       <c r="C332" s="5" t="s">
@@ -5945,10 +5954,10 @@
       </c>
     </row>
     <row r="333" ht="21" spans="1:3">
-      <c r="A333" s="9" t="s">
+      <c r="A333" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B333" s="10" t="s">
+      <c r="B333" s="11" t="s">
         <v>325</v>
       </c>
       <c r="C333" s="5" t="s">
@@ -5956,18 +5965,18 @@
       </c>
     </row>
     <row r="334" ht="21" spans="2:3">
-      <c r="B334" s="11"/>
+      <c r="B334" s="12"/>
       <c r="C334" s="5"/>
     </row>
     <row r="335" ht="21" spans="2:3">
-      <c r="B335" s="11"/>
+      <c r="B335" s="12"/>
       <c r="C335" s="5"/>
     </row>
     <row r="336" ht="21" spans="1:3">
-      <c r="A336" s="12" t="s">
+      <c r="A336" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B336" s="10" t="s">
+      <c r="B336" s="11" t="s">
         <v>327</v>
       </c>
       <c r="C336" s="5" t="s">
@@ -5975,10 +5984,10 @@
       </c>
     </row>
     <row r="337" ht="21" spans="1:3">
-      <c r="A337" s="12" t="s">
+      <c r="A337" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B337" s="10" t="s">
+      <c r="B337" s="11" t="s">
         <v>328</v>
       </c>
       <c r="C337" s="5" t="s">
@@ -5986,10 +5995,10 @@
       </c>
     </row>
     <row r="338" ht="21" spans="1:3">
-      <c r="A338" s="12" t="s">
+      <c r="A338" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B338" s="10" t="s">
+      <c r="B338" s="11" t="s">
         <v>329</v>
       </c>
       <c r="C338" s="5" t="s">
@@ -5997,10 +6006,10 @@
       </c>
     </row>
     <row r="339" ht="21" spans="1:3">
-      <c r="A339" s="12" t="s">
+      <c r="A339" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B339" s="10" t="s">
+      <c r="B339" s="11" t="s">
         <v>330</v>
       </c>
       <c r="C339" s="5" t="s">
@@ -6008,10 +6017,10 @@
       </c>
     </row>
     <row r="340" ht="21" spans="1:3">
-      <c r="A340" s="12" t="s">
+      <c r="A340" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B340" s="10" t="s">
+      <c r="B340" s="11" t="s">
         <v>331</v>
       </c>
       <c r="C340" s="5" t="s">
@@ -6019,10 +6028,10 @@
       </c>
     </row>
     <row r="341" ht="21" spans="1:3">
-      <c r="A341" s="12" t="s">
+      <c r="A341" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B341" s="10" t="s">
+      <c r="B341" s="11" t="s">
         <v>332</v>
       </c>
       <c r="C341" s="5" t="s">
@@ -6030,10 +6039,10 @@
       </c>
     </row>
     <row r="342" ht="21" spans="1:3">
-      <c r="A342" s="12" t="s">
+      <c r="A342" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B342" s="10" t="s">
+      <c r="B342" s="11" t="s">
         <v>333</v>
       </c>
       <c r="C342" s="5" t="s">
@@ -6041,10 +6050,10 @@
       </c>
     </row>
     <row r="343" ht="21" spans="1:3">
-      <c r="A343" s="12" t="s">
+      <c r="A343" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B343" s="10" t="s">
+      <c r="B343" s="11" t="s">
         <v>334</v>
       </c>
       <c r="C343" s="5" t="s">
@@ -6052,10 +6061,10 @@
       </c>
     </row>
     <row r="344" ht="21" spans="1:3">
-      <c r="A344" s="12" t="s">
+      <c r="A344" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B344" s="13" t="s">
+      <c r="B344" s="14" t="s">
         <v>335</v>
       </c>
       <c r="C344" s="5" t="s">
@@ -6063,10 +6072,10 @@
       </c>
     </row>
     <row r="345" ht="21" spans="1:3">
-      <c r="A345" s="12" t="s">
+      <c r="A345" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B345" s="10" t="s">
+      <c r="B345" s="11" t="s">
         <v>336</v>
       </c>
       <c r="C345" s="5" t="s">
@@ -6074,10 +6083,10 @@
       </c>
     </row>
     <row r="346" ht="21" spans="1:3">
-      <c r="A346" s="12" t="s">
+      <c r="A346" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B346" s="10" t="s">
+      <c r="B346" s="11" t="s">
         <v>337</v>
       </c>
       <c r="C346" s="5" t="s">
@@ -6085,10 +6094,10 @@
       </c>
     </row>
     <row r="347" ht="21" spans="1:3">
-      <c r="A347" s="12" t="s">
+      <c r="A347" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B347" s="10" t="s">
+      <c r="B347" s="11" t="s">
         <v>338</v>
       </c>
       <c r="C347" s="5" t="s">
@@ -6096,10 +6105,10 @@
       </c>
     </row>
     <row r="348" ht="21" spans="1:3">
-      <c r="A348" s="12" t="s">
+      <c r="A348" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B348" s="10" t="s">
+      <c r="B348" s="11" t="s">
         <v>339</v>
       </c>
       <c r="C348" s="5" t="s">
@@ -6107,10 +6116,10 @@
       </c>
     </row>
     <row r="349" ht="21" spans="1:3">
-      <c r="A349" s="12" t="s">
+      <c r="A349" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B349" s="10" t="s">
+      <c r="B349" s="11" t="s">
         <v>340</v>
       </c>
       <c r="C349" s="5" t="s">
@@ -6118,10 +6127,10 @@
       </c>
     </row>
     <row r="350" ht="21" spans="1:3">
-      <c r="A350" s="12" t="s">
+      <c r="A350" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B350" s="10" t="s">
+      <c r="B350" s="11" t="s">
         <v>341</v>
       </c>
       <c r="C350" s="5" t="s">
@@ -6129,10 +6138,10 @@
       </c>
     </row>
     <row r="351" ht="21" spans="1:3">
-      <c r="A351" s="12" t="s">
+      <c r="A351" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B351" s="10" t="s">
+      <c r="B351" s="11" t="s">
         <v>342</v>
       </c>
       <c r="C351" s="5" t="s">
@@ -6140,10 +6149,10 @@
       </c>
     </row>
     <row r="352" ht="21" spans="1:3">
-      <c r="A352" s="12" t="s">
+      <c r="A352" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B352" s="10" t="s">
+      <c r="B352" s="11" t="s">
         <v>343</v>
       </c>
       <c r="C352" s="5" t="s">
@@ -6151,10 +6160,10 @@
       </c>
     </row>
     <row r="353" ht="21" spans="1:3">
-      <c r="A353" s="12" t="s">
+      <c r="A353" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B353" s="10" t="s">
+      <c r="B353" s="11" t="s">
         <v>344</v>
       </c>
       <c r="C353" s="5" t="s">
@@ -6162,18 +6171,18 @@
       </c>
     </row>
     <row r="354" ht="21" spans="2:3">
-      <c r="B354" s="11"/>
+      <c r="B354" s="12"/>
       <c r="C354" s="5"/>
     </row>
     <row r="355" ht="21" spans="2:3">
-      <c r="B355" s="11"/>
+      <c r="B355" s="12"/>
       <c r="C355" s="5"/>
     </row>
     <row r="356" ht="21" spans="1:3">
-      <c r="A356" s="12" t="s">
+      <c r="A356" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B356" s="10" t="s">
+      <c r="B356" s="11" t="s">
         <v>346</v>
       </c>
       <c r="C356" s="5" t="s">
@@ -6181,10 +6190,10 @@
       </c>
     </row>
     <row r="357" ht="21" spans="1:3">
-      <c r="A357" s="12" t="s">
+      <c r="A357" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B357" s="10" t="s">
+      <c r="B357" s="11" t="s">
         <v>347</v>
       </c>
       <c r="C357" s="5" t="s">
@@ -6192,10 +6201,10 @@
       </c>
     </row>
     <row r="358" ht="21" spans="1:3">
-      <c r="A358" s="12" t="s">
+      <c r="A358" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B358" s="10" t="s">
+      <c r="B358" s="11" t="s">
         <v>348</v>
       </c>
       <c r="C358" s="5" t="s">
@@ -6203,10 +6212,10 @@
       </c>
     </row>
     <row r="359" ht="21" spans="1:3">
-      <c r="A359" s="12" t="s">
+      <c r="A359" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B359" s="10" t="s">
+      <c r="B359" s="11" t="s">
         <v>349</v>
       </c>
       <c r="C359" s="5" t="s">
@@ -6214,10 +6223,10 @@
       </c>
     </row>
     <row r="360" ht="21" spans="1:3">
-      <c r="A360" s="12" t="s">
+      <c r="A360" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B360" s="10" t="s">
+      <c r="B360" s="11" t="s">
         <v>350</v>
       </c>
       <c r="C360" s="5" t="s">
@@ -6225,10 +6234,10 @@
       </c>
     </row>
     <row r="361" ht="21" spans="1:3">
-      <c r="A361" s="12" t="s">
+      <c r="A361" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B361" s="10" t="s">
+      <c r="B361" s="11" t="s">
         <v>351</v>
       </c>
       <c r="C361" s="5" t="s">
@@ -6236,10 +6245,10 @@
       </c>
     </row>
     <row r="362" ht="21" spans="1:3">
-      <c r="A362" s="12" t="s">
+      <c r="A362" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B362" s="10" t="s">
+      <c r="B362" s="11" t="s">
         <v>352</v>
       </c>
       <c r="C362" s="5" t="s">
@@ -6247,10 +6256,10 @@
       </c>
     </row>
     <row r="363" ht="21" spans="1:3">
-      <c r="A363" s="12" t="s">
+      <c r="A363" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B363" s="10" t="s">
+      <c r="B363" s="11" t="s">
         <v>353</v>
       </c>
       <c r="C363" s="5" t="s">
@@ -6258,10 +6267,10 @@
       </c>
     </row>
     <row r="364" ht="21" spans="1:3">
-      <c r="A364" s="12" t="s">
+      <c r="A364" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B364" s="10" t="s">
+      <c r="B364" s="11" t="s">
         <v>354</v>
       </c>
       <c r="C364" s="5" t="s">
@@ -6269,10 +6278,10 @@
       </c>
     </row>
     <row r="365" ht="21" spans="1:3">
-      <c r="A365" s="12" t="s">
+      <c r="A365" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B365" s="10" t="s">
+      <c r="B365" s="11" t="s">
         <v>355</v>
       </c>
       <c r="C365" s="5" t="s">
@@ -6280,10 +6289,10 @@
       </c>
     </row>
     <row r="366" ht="21" spans="1:3">
-      <c r="A366" s="12" t="s">
+      <c r="A366" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B366" s="10" t="s">
+      <c r="B366" s="11" t="s">
         <v>356</v>
       </c>
       <c r="C366" s="5" t="s">
@@ -6291,10 +6300,10 @@
       </c>
     </row>
     <row r="367" ht="21" spans="1:3">
-      <c r="A367" s="12" t="s">
+      <c r="A367" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B367" s="10" t="s">
+      <c r="B367" s="11" t="s">
         <v>357</v>
       </c>
       <c r="C367" s="5" t="s">
@@ -6302,10 +6311,10 @@
       </c>
     </row>
     <row r="368" ht="21" spans="1:3">
-      <c r="A368" s="12" t="s">
+      <c r="A368" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B368" s="10" t="s">
+      <c r="B368" s="11" t="s">
         <v>358</v>
       </c>
       <c r="C368" s="5" t="s">
@@ -6313,10 +6322,10 @@
       </c>
     </row>
     <row r="369" ht="21" spans="1:3">
-      <c r="A369" s="12" t="s">
+      <c r="A369" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B369" s="10" t="s">
+      <c r="B369" s="11" t="s">
         <v>359</v>
       </c>
       <c r="C369" s="5" t="s">
@@ -6324,10 +6333,10 @@
       </c>
     </row>
     <row r="370" ht="21" spans="1:3">
-      <c r="A370" s="12" t="s">
+      <c r="A370" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B370" s="10" t="s">
+      <c r="B370" s="11" t="s">
         <v>360</v>
       </c>
       <c r="C370" s="5" t="s">
@@ -6335,10 +6344,10 @@
       </c>
     </row>
     <row r="371" ht="21" spans="1:3">
-      <c r="A371" s="12" t="s">
+      <c r="A371" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B371" s="10" t="s">
+      <c r="B371" s="11" t="s">
         <v>361</v>
       </c>
       <c r="C371" s="5" t="s">
@@ -6346,10 +6355,10 @@
       </c>
     </row>
     <row r="372" ht="21" spans="1:3">
-      <c r="A372" s="12" t="s">
+      <c r="A372" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B372" s="10" t="s">
+      <c r="B372" s="11" t="s">
         <v>362</v>
       </c>
       <c r="C372" s="5" t="s">
@@ -6357,10 +6366,10 @@
       </c>
     </row>
     <row r="373" ht="21" spans="1:3">
-      <c r="A373" s="12" t="s">
+      <c r="A373" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B373" s="10" t="s">
+      <c r="B373" s="11" t="s">
         <v>363</v>
       </c>
       <c r="C373" s="5" t="s">
@@ -6368,10 +6377,10 @@
       </c>
     </row>
     <row r="374" ht="21" spans="1:3">
-      <c r="A374" s="12" t="s">
+      <c r="A374" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B374" s="10" t="s">
+      <c r="B374" s="11" t="s">
         <v>364</v>
       </c>
       <c r="C374" s="5" t="s">
@@ -6379,10 +6388,10 @@
       </c>
     </row>
     <row r="375" ht="21" spans="1:3">
-      <c r="A375" s="12" t="s">
+      <c r="A375" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B375" s="10" t="s">
+      <c r="B375" s="11" t="s">
         <v>365</v>
       </c>
       <c r="C375" s="5" t="s">
@@ -6390,10 +6399,10 @@
       </c>
     </row>
     <row r="376" ht="21" spans="1:3">
-      <c r="A376" s="12" t="s">
+      <c r="A376" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B376" s="10" t="s">
+      <c r="B376" s="11" t="s">
         <v>366</v>
       </c>
       <c r="C376" s="5" t="s">
@@ -6401,10 +6410,10 @@
       </c>
     </row>
     <row r="377" ht="21" spans="1:3">
-      <c r="A377" s="12" t="s">
+      <c r="A377" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B377" s="10" t="s">
+      <c r="B377" s="11" t="s">
         <v>367</v>
       </c>
       <c r="C377" s="5" t="s">
@@ -6412,10 +6421,10 @@
       </c>
     </row>
     <row r="378" ht="21" spans="1:3">
-      <c r="A378" s="12" t="s">
+      <c r="A378" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B378" s="10" t="s">
+      <c r="B378" s="11" t="s">
         <v>368</v>
       </c>
       <c r="C378" s="5" t="s">
@@ -6423,10 +6432,10 @@
       </c>
     </row>
     <row r="379" ht="21" spans="1:3">
-      <c r="A379" s="12" t="s">
+      <c r="A379" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B379" s="10" t="s">
+      <c r="B379" s="11" t="s">
         <v>369</v>
       </c>
       <c r="C379" s="5" t="s">
@@ -6434,10 +6443,10 @@
       </c>
     </row>
     <row r="380" ht="21" spans="1:3">
-      <c r="A380" s="12" t="s">
+      <c r="A380" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B380" s="10" t="s">
+      <c r="B380" s="11" t="s">
         <v>370</v>
       </c>
       <c r="C380" s="5" t="s">
@@ -6445,10 +6454,10 @@
       </c>
     </row>
     <row r="381" ht="21" spans="1:3">
-      <c r="A381" s="12" t="s">
+      <c r="A381" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B381" s="10" t="s">
+      <c r="B381" s="11" t="s">
         <v>371</v>
       </c>
       <c r="C381" s="5" t="s">
@@ -6456,10 +6465,10 @@
       </c>
     </row>
     <row r="382" ht="21" spans="1:3">
-      <c r="A382" s="12" t="s">
+      <c r="A382" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B382" s="10" t="s">
+      <c r="B382" s="11" t="s">
         <v>372</v>
       </c>
       <c r="C382" s="5" t="s">
@@ -6467,10 +6476,10 @@
       </c>
     </row>
     <row r="383" ht="21" spans="1:3">
-      <c r="A383" s="12" t="s">
+      <c r="A383" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B383" s="10" t="s">
+      <c r="B383" s="11" t="s">
         <v>373</v>
       </c>
       <c r="C383" s="5" t="s">
@@ -6478,10 +6487,10 @@
       </c>
     </row>
     <row r="384" ht="21" spans="1:3">
-      <c r="A384" s="12" t="s">
+      <c r="A384" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B384" s="10" t="s">
+      <c r="B384" s="11" t="s">
         <v>374</v>
       </c>
       <c r="C384" s="5" t="s">
@@ -6489,10 +6498,10 @@
       </c>
     </row>
     <row r="385" ht="21" spans="1:3">
-      <c r="A385" s="12" t="s">
+      <c r="A385" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B385" s="10" t="s">
+      <c r="B385" s="11" t="s">
         <v>375</v>
       </c>
       <c r="C385" s="5" t="s">
@@ -6500,10 +6509,10 @@
       </c>
     </row>
     <row r="386" ht="21" spans="1:3">
-      <c r="A386" s="12" t="s">
+      <c r="A386" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B386" s="10" t="s">
+      <c r="B386" s="11" t="s">
         <v>376</v>
       </c>
       <c r="C386" s="5" t="s">
@@ -6511,10 +6520,10 @@
       </c>
     </row>
     <row r="387" ht="21" spans="1:3">
-      <c r="A387" s="12" t="s">
+      <c r="A387" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B387" s="10" t="s">
+      <c r="B387" s="11" t="s">
         <v>377</v>
       </c>
       <c r="C387" s="5" t="s">
@@ -6522,10 +6531,10 @@
       </c>
     </row>
     <row r="388" ht="21" spans="1:3">
-      <c r="A388" s="12" t="s">
+      <c r="A388" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B388" s="10" t="s">
+      <c r="B388" s="11" t="s">
         <v>378</v>
       </c>
       <c r="C388" s="5" t="s">
@@ -6533,10 +6542,10 @@
       </c>
     </row>
     <row r="389" ht="21" spans="1:3">
-      <c r="A389" s="12" t="s">
+      <c r="A389" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B389" s="10" t="s">
+      <c r="B389" s="11" t="s">
         <v>379</v>
       </c>
       <c r="C389" s="5" t="s">
@@ -6544,10 +6553,10 @@
       </c>
     </row>
     <row r="390" ht="21" spans="1:3">
-      <c r="A390" s="12" t="s">
+      <c r="A390" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B390" s="10" t="s">
+      <c r="B390" s="11" t="s">
         <v>379</v>
       </c>
       <c r="C390" s="5" t="s">
@@ -6555,10 +6564,10 @@
       </c>
     </row>
     <row r="391" ht="21" spans="1:3">
-      <c r="A391" s="12" t="s">
+      <c r="A391" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B391" s="10" t="s">
+      <c r="B391" s="11" t="s">
         <v>380</v>
       </c>
       <c r="C391" s="5" t="s">
@@ -6566,10 +6575,10 @@
       </c>
     </row>
     <row r="392" ht="21" spans="1:3">
-      <c r="A392" s="12" t="s">
+      <c r="A392" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B392" s="10" t="s">
+      <c r="B392" s="11" t="s">
         <v>381</v>
       </c>
       <c r="C392" s="5" t="s">
@@ -6577,10 +6586,10 @@
       </c>
     </row>
     <row r="393" ht="21" spans="1:3">
-      <c r="A393" s="12" t="s">
+      <c r="A393" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B393" s="10" t="s">
+      <c r="B393" s="11" t="s">
         <v>382</v>
       </c>
       <c r="C393" s="5" t="s">
@@ -6588,10 +6597,10 @@
       </c>
     </row>
     <row r="394" ht="21" spans="1:3">
-      <c r="A394" s="12" t="s">
+      <c r="A394" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B394" s="10" t="s">
+      <c r="B394" s="11" t="s">
         <v>383</v>
       </c>
       <c r="C394" s="5" t="s">
@@ -6599,10 +6608,10 @@
       </c>
     </row>
     <row r="395" ht="21" spans="1:3">
-      <c r="A395" s="12" t="s">
+      <c r="A395" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B395" s="10" t="s">
+      <c r="B395" s="11" t="s">
         <v>384</v>
       </c>
       <c r="C395" s="5" t="s">
@@ -6610,10 +6619,10 @@
       </c>
     </row>
     <row r="396" ht="21" spans="1:3">
-      <c r="A396" s="12" t="s">
+      <c r="A396" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B396" s="10" t="s">
+      <c r="B396" s="11" t="s">
         <v>385</v>
       </c>
       <c r="C396" s="5" t="s">
@@ -6621,10 +6630,10 @@
       </c>
     </row>
     <row r="397" ht="21" spans="1:3">
-      <c r="A397" s="12" t="s">
+      <c r="A397" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B397" s="10" t="s">
+      <c r="B397" s="11" t="s">
         <v>386</v>
       </c>
       <c r="C397" s="5" t="s">
@@ -6632,10 +6641,10 @@
       </c>
     </row>
     <row r="398" ht="21" spans="1:3">
-      <c r="A398" s="12" t="s">
+      <c r="A398" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B398" s="10" t="s">
+      <c r="B398" s="11" t="s">
         <v>387</v>
       </c>
       <c r="C398" s="5" t="s">
@@ -6643,10 +6652,10 @@
       </c>
     </row>
     <row r="399" ht="21" spans="1:3">
-      <c r="A399" s="12" t="s">
+      <c r="A399" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B399" s="10" t="s">
+      <c r="B399" s="11" t="s">
         <v>388</v>
       </c>
       <c r="C399" s="5" t="s">
@@ -6654,18 +6663,18 @@
       </c>
     </row>
     <row r="400" ht="21" spans="2:3">
-      <c r="B400" s="11"/>
+      <c r="B400" s="12"/>
       <c r="C400" s="5"/>
     </row>
     <row r="401" ht="21" spans="2:3">
-      <c r="B401" s="11"/>
+      <c r="B401" s="12"/>
       <c r="C401" s="5"/>
     </row>
     <row r="402" ht="21" spans="1:3">
-      <c r="A402" s="12" t="s">
+      <c r="A402" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="B402" s="10" t="s">
+      <c r="B402" s="11" t="s">
         <v>390</v>
       </c>
       <c r="C402" s="5" t="s">
@@ -6673,10 +6682,10 @@
       </c>
     </row>
     <row r="403" ht="21" spans="1:3">
-      <c r="A403" s="12" t="s">
+      <c r="A403" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="B403" s="10" t="s">
+      <c r="B403" s="11" t="s">
         <v>391</v>
       </c>
       <c r="C403" s="5" t="s">
@@ -6684,10 +6693,10 @@
       </c>
     </row>
     <row r="404" ht="21" spans="1:3">
-      <c r="A404" s="12" t="s">
+      <c r="A404" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="B404" s="10" t="s">
+      <c r="B404" s="11" t="s">
         <v>392</v>
       </c>
       <c r="C404" s="5" t="s">
@@ -6695,10 +6704,10 @@
       </c>
     </row>
     <row r="405" ht="21" spans="1:3">
-      <c r="A405" s="12" t="s">
+      <c r="A405" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="B405" s="10" t="s">
+      <c r="B405" s="11" t="s">
         <v>91</v>
       </c>
       <c r="C405" s="5" t="s">
@@ -6706,10 +6715,10 @@
       </c>
     </row>
     <row r="406" ht="21" spans="1:3">
-      <c r="A406" s="12" t="s">
+      <c r="A406" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="B406" s="10" t="s">
+      <c r="B406" s="11" t="s">
         <v>393</v>
       </c>
       <c r="C406" s="5" t="s">
@@ -6717,10 +6726,10 @@
       </c>
     </row>
     <row r="407" ht="21" spans="1:3">
-      <c r="A407" s="12" t="s">
+      <c r="A407" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="B407" s="10" t="s">
+      <c r="B407" s="11" t="s">
         <v>394</v>
       </c>
       <c r="C407" s="5" t="s">
@@ -6728,18 +6737,18 @@
       </c>
     </row>
     <row r="408" ht="21" spans="2:3">
-      <c r="B408" s="11"/>
+      <c r="B408" s="12"/>
       <c r="C408" s="5"/>
     </row>
     <row r="409" ht="21" spans="2:3">
-      <c r="B409" s="11"/>
+      <c r="B409" s="12"/>
       <c r="C409" s="5"/>
     </row>
     <row r="410" ht="21" spans="1:3">
-      <c r="A410" s="9" t="s">
+      <c r="A410" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B410" s="10" t="s">
+      <c r="B410" s="11" t="s">
         <v>396</v>
       </c>
       <c r="C410" s="5" t="s">
@@ -6747,10 +6756,10 @@
       </c>
     </row>
     <row r="411" ht="21" spans="1:3">
-      <c r="A411" s="9" t="s">
+      <c r="A411" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B411" s="10" t="s">
+      <c r="B411" s="11" t="s">
         <v>397</v>
       </c>
       <c r="C411" s="5" t="s">
@@ -6758,10 +6767,10 @@
       </c>
     </row>
     <row r="412" ht="21" spans="1:3">
-      <c r="A412" s="9" t="s">
+      <c r="A412" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B412" s="10" t="s">
+      <c r="B412" s="11" t="s">
         <v>398</v>
       </c>
       <c r="C412" s="5" t="s">
@@ -6769,10 +6778,10 @@
       </c>
     </row>
     <row r="413" ht="21" spans="1:3">
-      <c r="A413" s="9" t="s">
+      <c r="A413" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B413" s="10" t="s">
+      <c r="B413" s="11" t="s">
         <v>399</v>
       </c>
       <c r="C413" s="5" t="s">
@@ -6780,10 +6789,10 @@
       </c>
     </row>
     <row r="414" ht="21" spans="1:3">
-      <c r="A414" s="9" t="s">
+      <c r="A414" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B414" s="10" t="s">
+      <c r="B414" s="11" t="s">
         <v>400</v>
       </c>
       <c r="C414" s="5" t="s">
@@ -6791,10 +6800,10 @@
       </c>
     </row>
     <row r="415" ht="21" spans="1:3">
-      <c r="A415" s="9" t="s">
+      <c r="A415" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B415" s="10" t="s">
+      <c r="B415" s="11" t="s">
         <v>401</v>
       </c>
       <c r="C415" s="5" t="s">
@@ -6802,10 +6811,10 @@
       </c>
     </row>
     <row r="416" ht="21" spans="1:3">
-      <c r="A416" s="9" t="s">
+      <c r="A416" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B416" s="10" t="s">
+      <c r="B416" s="11" t="s">
         <v>402</v>
       </c>
       <c r="C416" s="5" t="s">
@@ -6813,10 +6822,10 @@
       </c>
     </row>
     <row r="417" ht="21" spans="1:3">
-      <c r="A417" s="9" t="s">
+      <c r="A417" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B417" s="10" t="s">
+      <c r="B417" s="11" t="s">
         <v>275</v>
       </c>
       <c r="C417" s="5" t="s">
@@ -6824,10 +6833,10 @@
       </c>
     </row>
     <row r="418" ht="21" spans="1:3">
-      <c r="A418" s="9" t="s">
+      <c r="A418" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B418" s="10" t="s">
+      <c r="B418" s="11" t="s">
         <v>403</v>
       </c>
       <c r="C418" s="5" t="s">
@@ -6835,10 +6844,10 @@
       </c>
     </row>
     <row r="419" ht="21" spans="1:3">
-      <c r="A419" s="9" t="s">
+      <c r="A419" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B419" s="10" t="s">
+      <c r="B419" s="11" t="s">
         <v>404</v>
       </c>
       <c r="C419" s="5" t="s">
@@ -6846,10 +6855,10 @@
       </c>
     </row>
     <row r="420" ht="21" spans="1:3">
-      <c r="A420" s="9" t="s">
+      <c r="A420" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B420" s="10" t="s">
+      <c r="B420" s="11" t="s">
         <v>405</v>
       </c>
       <c r="C420" s="5" t="s">
@@ -6857,10 +6866,10 @@
       </c>
     </row>
     <row r="421" ht="21" spans="1:3">
-      <c r="A421" s="9" t="s">
+      <c r="A421" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B421" s="10" t="s">
+      <c r="B421" s="11" t="s">
         <v>406</v>
       </c>
       <c r="C421" s="5" t="s">
@@ -6868,10 +6877,10 @@
       </c>
     </row>
     <row r="422" ht="21" spans="1:3">
-      <c r="A422" s="9" t="s">
+      <c r="A422" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B422" s="10" t="s">
+      <c r="B422" s="11" t="s">
         <v>407</v>
       </c>
       <c r="C422" s="5" t="s">
@@ -6879,10 +6888,10 @@
       </c>
     </row>
     <row r="423" ht="21" spans="1:3">
-      <c r="A423" s="9" t="s">
+      <c r="A423" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B423" s="10" t="s">
+      <c r="B423" s="11" t="s">
         <v>408</v>
       </c>
       <c r="C423" s="5" t="s">
@@ -6890,10 +6899,10 @@
       </c>
     </row>
     <row r="424" ht="21" spans="1:3">
-      <c r="A424" s="9" t="s">
+      <c r="A424" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B424" s="10" t="s">
+      <c r="B424" s="11" t="s">
         <v>409</v>
       </c>
       <c r="C424" s="5" t="s">
@@ -6901,10 +6910,10 @@
       </c>
     </row>
     <row r="425" ht="21" spans="1:3">
-      <c r="A425" s="9" t="s">
+      <c r="A425" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B425" s="10" t="s">
+      <c r="B425" s="11" t="s">
         <v>410</v>
       </c>
       <c r="C425" s="5" t="s">
@@ -6912,10 +6921,10 @@
       </c>
     </row>
     <row r="426" ht="21" spans="1:3">
-      <c r="A426" s="9" t="s">
+      <c r="A426" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B426" s="10" t="s">
+      <c r="B426" s="11" t="s">
         <v>411</v>
       </c>
       <c r="C426" s="5" t="s">
@@ -6923,10 +6932,10 @@
       </c>
     </row>
     <row r="427" ht="21" spans="1:3">
-      <c r="A427" s="9" t="s">
+      <c r="A427" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B427" s="10" t="s">
+      <c r="B427" s="11" t="s">
         <v>412</v>
       </c>
       <c r="C427" s="5" t="s">
@@ -6934,10 +6943,10 @@
       </c>
     </row>
     <row r="428" ht="21" spans="1:3">
-      <c r="A428" s="9" t="s">
+      <c r="A428" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B428" s="10" t="s">
+      <c r="B428" s="11" t="s">
         <v>413</v>
       </c>
       <c r="C428" s="5" t="s">
@@ -6945,10 +6954,10 @@
       </c>
     </row>
     <row r="429" ht="21" spans="1:3">
-      <c r="A429" s="9" t="s">
+      <c r="A429" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B429" s="10" t="s">
+      <c r="B429" s="11" t="s">
         <v>414</v>
       </c>
       <c r="C429" s="5" t="s">
@@ -6956,10 +6965,10 @@
       </c>
     </row>
     <row r="430" ht="21" spans="1:3">
-      <c r="A430" s="9" t="s">
+      <c r="A430" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B430" s="10" t="s">
+      <c r="B430" s="11" t="s">
         <v>415</v>
       </c>
       <c r="C430" s="5" t="s">
@@ -6967,10 +6976,10 @@
       </c>
     </row>
     <row r="431" ht="21" spans="1:3">
-      <c r="A431" s="9" t="s">
+      <c r="A431" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B431" s="10" t="s">
+      <c r="B431" s="11" t="s">
         <v>416</v>
       </c>
       <c r="C431" s="5" t="s">
@@ -6978,10 +6987,10 @@
       </c>
     </row>
     <row r="432" ht="21" spans="1:3">
-      <c r="A432" s="9" t="s">
+      <c r="A432" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B432" s="10" t="s">
+      <c r="B432" s="11" t="s">
         <v>417</v>
       </c>
       <c r="C432" s="5" t="s">
@@ -6989,10 +6998,10 @@
       </c>
     </row>
     <row r="433" ht="21" spans="1:3">
-      <c r="A433" s="9" t="s">
+      <c r="A433" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B433" s="10" t="s">
+      <c r="B433" s="11" t="s">
         <v>418</v>
       </c>
       <c r="C433" s="5" t="s">
@@ -7000,10 +7009,10 @@
       </c>
     </row>
     <row r="434" ht="21" spans="1:3">
-      <c r="A434" s="9" t="s">
+      <c r="A434" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B434" s="10" t="s">
+      <c r="B434" s="11" t="s">
         <v>419</v>
       </c>
       <c r="C434" s="5" t="s">
@@ -7011,10 +7020,10 @@
       </c>
     </row>
     <row r="435" ht="21" spans="1:3">
-      <c r="A435" s="9" t="s">
+      <c r="A435" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B435" s="10" t="s">
+      <c r="B435" s="11" t="s">
         <v>420</v>
       </c>
       <c r="C435" s="5" t="s">
@@ -7022,10 +7031,10 @@
       </c>
     </row>
     <row r="436" ht="21" spans="1:3">
-      <c r="A436" s="9" t="s">
+      <c r="A436" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B436" s="10" t="s">
+      <c r="B436" s="11" t="s">
         <v>421</v>
       </c>
       <c r="C436" s="5" t="s">
@@ -7033,10 +7042,10 @@
       </c>
     </row>
     <row r="437" ht="21" spans="1:3">
-      <c r="A437" s="9" t="s">
+      <c r="A437" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B437" s="10" t="s">
+      <c r="B437" s="11" t="s">
         <v>422</v>
       </c>
       <c r="C437" s="5" t="s">
@@ -7044,10 +7053,10 @@
       </c>
     </row>
     <row r="438" ht="21" spans="1:3">
-      <c r="A438" s="9" t="s">
+      <c r="A438" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B438" s="10" t="s">
+      <c r="B438" s="11" t="s">
         <v>423</v>
       </c>
       <c r="C438" s="5" t="s">
@@ -7055,10 +7064,10 @@
       </c>
     </row>
     <row r="439" ht="21" spans="1:3">
-      <c r="A439" s="9" t="s">
+      <c r="A439" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B439" s="10" t="s">
+      <c r="B439" s="11" t="s">
         <v>424</v>
       </c>
       <c r="C439" s="5" t="s">
@@ -7066,10 +7075,10 @@
       </c>
     </row>
     <row r="440" ht="21" spans="1:3">
-      <c r="A440" s="9" t="s">
+      <c r="A440" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B440" s="10" t="s">
+      <c r="B440" s="11" t="s">
         <v>425</v>
       </c>
       <c r="C440" s="5" t="s">
@@ -7077,10 +7086,10 @@
       </c>
     </row>
     <row r="441" ht="21" spans="1:3">
-      <c r="A441" s="9" t="s">
+      <c r="A441" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B441" s="10" t="s">
+      <c r="B441" s="11" t="s">
         <v>426</v>
       </c>
       <c r="C441" s="5" t="s">
@@ -7088,10 +7097,10 @@
       </c>
     </row>
     <row r="442" ht="21" spans="1:3">
-      <c r="A442" s="9" t="s">
+      <c r="A442" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B442" s="10" t="s">
+      <c r="B442" s="11" t="s">
         <v>427</v>
       </c>
       <c r="C442" s="5" t="s">
@@ -7099,10 +7108,10 @@
       </c>
     </row>
     <row r="443" ht="21" spans="1:3">
-      <c r="A443" s="9" t="s">
+      <c r="A443" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B443" s="10" t="s">
+      <c r="B443" s="11" t="s">
         <v>428</v>
       </c>
       <c r="C443" s="5" t="s">
@@ -7110,10 +7119,10 @@
       </c>
     </row>
     <row r="444" ht="21" spans="1:3">
-      <c r="A444" s="9" t="s">
+      <c r="A444" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B444" s="10" t="s">
+      <c r="B444" s="11" t="s">
         <v>429</v>
       </c>
       <c r="C444" s="5" t="s">
@@ -7121,10 +7130,10 @@
       </c>
     </row>
     <row r="445" ht="21" spans="1:3">
-      <c r="A445" s="9" t="s">
+      <c r="A445" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B445" s="10" t="s">
+      <c r="B445" s="11" t="s">
         <v>430</v>
       </c>
       <c r="C445" s="5" t="s">
@@ -7132,10 +7141,10 @@
       </c>
     </row>
     <row r="446" ht="21" spans="1:3">
-      <c r="A446" s="9" t="s">
+      <c r="A446" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B446" s="10" t="s">
+      <c r="B446" s="11" t="s">
         <v>431</v>
       </c>
       <c r="C446" s="5" t="s">
@@ -7143,10 +7152,10 @@
       </c>
     </row>
     <row r="447" ht="21" spans="1:3">
-      <c r="A447" s="9" t="s">
+      <c r="A447" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B447" s="10" t="s">
+      <c r="B447" s="11" t="s">
         <v>432</v>
       </c>
       <c r="C447" s="5" t="s">
@@ -7154,10 +7163,10 @@
       </c>
     </row>
     <row r="448" ht="21" spans="1:3">
-      <c r="A448" s="9" t="s">
+      <c r="A448" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B448" s="10" t="s">
+      <c r="B448" s="11" t="s">
         <v>433</v>
       </c>
       <c r="C448" s="5" t="s">
@@ -7165,10 +7174,10 @@
       </c>
     </row>
     <row r="449" ht="21" spans="1:3">
-      <c r="A449" s="9" t="s">
+      <c r="A449" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B449" s="10" t="s">
+      <c r="B449" s="11" t="s">
         <v>434</v>
       </c>
       <c r="C449" s="5" t="s">
@@ -7176,10 +7185,10 @@
       </c>
     </row>
     <row r="450" ht="21" spans="1:3">
-      <c r="A450" s="9" t="s">
+      <c r="A450" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B450" s="10" t="s">
+      <c r="B450" s="11" t="s">
         <v>435</v>
       </c>
       <c r="C450" s="5" t="s">
@@ -7187,10 +7196,10 @@
       </c>
     </row>
     <row r="451" ht="21" spans="1:3">
-      <c r="A451" s="9" t="s">
+      <c r="A451" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B451" s="10" t="s">
+      <c r="B451" s="11" t="s">
         <v>436</v>
       </c>
       <c r="C451" s="5" t="s">
@@ -7198,10 +7207,10 @@
       </c>
     </row>
     <row r="452" ht="21" spans="1:3">
-      <c r="A452" s="9" t="s">
+      <c r="A452" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B452" s="10" t="s">
+      <c r="B452" s="11" t="s">
         <v>437</v>
       </c>
       <c r="C452" s="5" t="s">
@@ -7209,10 +7218,10 @@
       </c>
     </row>
     <row r="453" ht="21" spans="1:3">
-      <c r="A453" s="9" t="s">
+      <c r="A453" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B453" s="10" t="s">
+      <c r="B453" s="11" t="s">
         <v>438</v>
       </c>
       <c r="C453" s="5" t="s">
@@ -7220,10 +7229,10 @@
       </c>
     </row>
     <row r="454" ht="21" spans="1:3">
-      <c r="A454" s="9" t="s">
+      <c r="A454" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B454" s="10" t="s">
+      <c r="B454" s="11" t="s">
         <v>439</v>
       </c>
       <c r="C454" s="5" t="s">
@@ -7231,10 +7240,10 @@
       </c>
     </row>
     <row r="455" ht="21" spans="1:3">
-      <c r="A455" s="9" t="s">
+      <c r="A455" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B455" s="10" t="s">
+      <c r="B455" s="11" t="s">
         <v>440</v>
       </c>
       <c r="C455" s="5" t="s">
@@ -7242,10 +7251,10 @@
       </c>
     </row>
     <row r="456" ht="21" spans="1:3">
-      <c r="A456" s="9" t="s">
+      <c r="A456" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B456" s="10" t="s">
+      <c r="B456" s="11" t="s">
         <v>441</v>
       </c>
       <c r="C456" s="5" t="s">
@@ -7253,10 +7262,10 @@
       </c>
     </row>
     <row r="457" ht="21" spans="1:3">
-      <c r="A457" s="9" t="s">
+      <c r="A457" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B457" s="10" t="s">
+      <c r="B457" s="11" t="s">
         <v>442</v>
       </c>
       <c r="C457" s="5" t="s">
@@ -7264,10 +7273,10 @@
       </c>
     </row>
     <row r="458" ht="21" spans="1:3">
-      <c r="A458" s="9" t="s">
+      <c r="A458" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B458" s="10" t="s">
+      <c r="B458" s="11" t="s">
         <v>443</v>
       </c>
       <c r="C458" s="5" t="s">
@@ -7275,10 +7284,10 @@
       </c>
     </row>
     <row r="459" ht="21" spans="1:3">
-      <c r="A459" s="9" t="s">
+      <c r="A459" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B459" s="10" t="s">
+      <c r="B459" s="11" t="s">
         <v>444</v>
       </c>
       <c r="C459" s="5" t="s">
@@ -7286,10 +7295,10 @@
       </c>
     </row>
     <row r="460" ht="21" spans="1:3">
-      <c r="A460" s="9" t="s">
+      <c r="A460" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B460" s="10" t="s">
+      <c r="B460" s="11" t="s">
         <v>445</v>
       </c>
       <c r="C460" s="5" t="s">
@@ -7297,10 +7306,10 @@
       </c>
     </row>
     <row r="461" ht="21" spans="1:3">
-      <c r="A461" s="9" t="s">
+      <c r="A461" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B461" s="10" t="s">
+      <c r="B461" s="11" t="s">
         <v>446</v>
       </c>
       <c r="C461" s="5" t="s">
@@ -7308,10 +7317,10 @@
       </c>
     </row>
     <row r="462" ht="21" spans="1:3">
-      <c r="A462" s="9" t="s">
+      <c r="A462" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B462" s="10" t="s">
+      <c r="B462" s="11" t="s">
         <v>447</v>
       </c>
       <c r="C462" s="5" t="s">
@@ -7319,10 +7328,10 @@
       </c>
     </row>
     <row r="463" ht="21" spans="1:3">
-      <c r="A463" s="9" t="s">
+      <c r="A463" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B463" s="10" t="s">
+      <c r="B463" s="11" t="s">
         <v>448</v>
       </c>
       <c r="C463" s="5" t="s">
@@ -7330,10 +7339,10 @@
       </c>
     </row>
     <row r="464" ht="21" spans="1:3">
-      <c r="A464" s="9" t="s">
+      <c r="A464" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B464" s="10" t="s">
+      <c r="B464" s="11" t="s">
         <v>449</v>
       </c>
       <c r="C464" s="5" t="s">
@@ -7341,10 +7350,10 @@
       </c>
     </row>
     <row r="465" ht="21" spans="1:3">
-      <c r="A465" s="9" t="s">
+      <c r="A465" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B465" s="10" t="s">
+      <c r="B465" s="11" t="s">
         <v>450</v>
       </c>
       <c r="C465" s="5" t="s">
@@ -7352,10 +7361,10 @@
       </c>
     </row>
     <row r="466" ht="21" spans="1:3">
-      <c r="A466" s="9" t="s">
+      <c r="A466" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B466" s="10" t="s">
+      <c r="B466" s="11" t="s">
         <v>451</v>
       </c>
       <c r="C466" s="5" t="s">
@@ -7363,10 +7372,10 @@
       </c>
     </row>
     <row r="467" ht="21" spans="1:3">
-      <c r="A467" s="9" t="s">
+      <c r="A467" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B467" s="10" t="s">
+      <c r="B467" s="11" t="s">
         <v>452</v>
       </c>
       <c r="C467" s="5" t="s">
@@ -7374,10 +7383,10 @@
       </c>
     </row>
     <row r="468" ht="21" spans="1:3">
-      <c r="A468" s="9" t="s">
+      <c r="A468" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B468" s="10" t="s">
+      <c r="B468" s="11" t="s">
         <v>453</v>
       </c>
       <c r="C468" s="5" t="s">
@@ -7385,10 +7394,10 @@
       </c>
     </row>
     <row r="469" ht="21" spans="1:3">
-      <c r="A469" s="9" t="s">
+      <c r="A469" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B469" s="10" t="s">
+      <c r="B469" s="11" t="s">
         <v>454</v>
       </c>
       <c r="C469" s="5" t="s">
@@ -7396,19 +7405,19 @@
       </c>
     </row>
     <row r="470" ht="21" spans="2:3">
-      <c r="B470" s="11"/>
+      <c r="B470" s="12"/>
       <c r="C470" s="5"/>
     </row>
     <row r="471" ht="21" spans="1:3">
-      <c r="A471" s="12"/>
-      <c r="B471" s="11"/>
+      <c r="A471" s="13"/>
+      <c r="B471" s="12"/>
       <c r="C471" s="5"/>
     </row>
     <row r="472" ht="21" spans="1:3">
-      <c r="A472" s="9" t="s">
+      <c r="A472" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B472" s="10" t="s">
+      <c r="B472" s="11" t="s">
         <v>456</v>
       </c>
       <c r="C472" s="5" t="s">
@@ -7416,10 +7425,10 @@
       </c>
     </row>
     <row r="473" ht="21" spans="1:3">
-      <c r="A473" s="9" t="s">
+      <c r="A473" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B473" s="10" t="s">
+      <c r="B473" s="11" t="s">
         <v>457</v>
       </c>
       <c r="C473" s="5" t="s">
@@ -7427,10 +7436,10 @@
       </c>
     </row>
     <row r="474" ht="21" spans="1:3">
-      <c r="A474" s="9" t="s">
+      <c r="A474" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B474" s="10" t="s">
+      <c r="B474" s="11" t="s">
         <v>458</v>
       </c>
       <c r="C474" s="5" t="s">
@@ -7438,10 +7447,10 @@
       </c>
     </row>
     <row r="475" ht="21" spans="1:3">
-      <c r="A475" s="9" t="s">
+      <c r="A475" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B475" s="10" t="s">
+      <c r="B475" s="11" t="s">
         <v>459</v>
       </c>
       <c r="C475" s="5" t="s">
@@ -7449,10 +7458,10 @@
       </c>
     </row>
     <row r="476" ht="21" spans="1:3">
-      <c r="A476" s="9" t="s">
+      <c r="A476" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B476" s="10" t="s">
+      <c r="B476" s="11" t="s">
         <v>460</v>
       </c>
       <c r="C476" s="5" t="s">
@@ -7460,10 +7469,10 @@
       </c>
     </row>
     <row r="477" ht="21" spans="1:3">
-      <c r="A477" s="9" t="s">
+      <c r="A477" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B477" s="10" t="s">
+      <c r="B477" s="11" t="s">
         <v>461</v>
       </c>
       <c r="C477" s="5" t="s">
@@ -7471,10 +7480,10 @@
       </c>
     </row>
     <row r="478" ht="21" spans="1:3">
-      <c r="A478" s="9" t="s">
+      <c r="A478" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B478" s="10" t="s">
+      <c r="B478" s="11" t="s">
         <v>462</v>
       </c>
       <c r="C478" s="5" t="s">
@@ -7482,10 +7491,10 @@
       </c>
     </row>
     <row r="479" ht="21" spans="1:3">
-      <c r="A479" s="9" t="s">
+      <c r="A479" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B479" s="10" t="s">
+      <c r="B479" s="11" t="s">
         <v>463</v>
       </c>
       <c r="C479" s="5" t="s">
@@ -7493,10 +7502,10 @@
       </c>
     </row>
     <row r="480" ht="21" spans="1:3">
-      <c r="A480" s="9" t="s">
+      <c r="A480" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B480" s="10" t="s">
+      <c r="B480" s="11" t="s">
         <v>464</v>
       </c>
       <c r="C480" s="5" t="s">
@@ -7504,10 +7513,10 @@
       </c>
     </row>
     <row r="481" ht="21" spans="1:3">
-      <c r="A481" s="9" t="s">
+      <c r="A481" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B481" s="10" t="s">
+      <c r="B481" s="11" t="s">
         <v>465</v>
       </c>
       <c r="C481" s="5" t="s">

--- a/450_Questions/FINAL450.xlsx
+++ b/450_Questions/FINAL450.xlsx
@@ -25,7 +25,7 @@
     <t>Topic:</t>
   </si>
   <si>
-    <t xml:space="preserve">Problem: </t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">Done [yes or no] </t>
@@ -1419,10 +1419,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1512,28 +1512,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1547,8 +1525,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1564,10 +1549,33 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1602,31 +1610,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1639,9 +1632,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1662,13 +1662,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1680,19 +1704,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1704,31 +1728,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1740,25 +1746,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1776,7 +1782,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1788,19 +1812,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1818,31 +1830,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1853,6 +1853,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1873,9 +1897,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1918,51 +1953,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1975,131 +1975,131 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2123,6 +2123,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2452,8 +2453,8 @@
   <sheetPr/>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="2"/>
@@ -2512,14 +2513,14 @@
       </c>
     </row>
     <row r="8" ht="21" spans="1:3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>5</v>
+      <c r="C8" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" ht="21" spans="1:3">
@@ -2534,25 +2535,25 @@
       </c>
     </row>
     <row r="10" ht="21" spans="1:3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>5</v>
+      <c r="C10" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" ht="21" spans="1:3">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>5</v>
+      <c r="C11" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" ht="21" spans="1:3">
@@ -2570,7 +2571,7 @@
       <c r="A13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -2581,7 +2582,7 @@
       <c r="A14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -2592,7 +2593,7 @@
       <c r="A15" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -2603,7 +2604,7 @@
       <c r="A16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -2614,7 +2615,7 @@
       <c r="A17" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -2625,7 +2626,7 @@
       <c r="A18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -2636,7 +2637,7 @@
       <c r="A19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -2647,7 +2648,7 @@
       <c r="A20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -2658,7 +2659,7 @@
       <c r="A21" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -2669,7 +2670,7 @@
       <c r="A22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -2680,7 +2681,7 @@
       <c r="A23" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -2691,7 +2692,7 @@
       <c r="A24" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -2702,7 +2703,7 @@
       <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -2713,7 +2714,7 @@
       <c r="A26" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -2724,7 +2725,7 @@
       <c r="A27" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -2735,7 +2736,7 @@
       <c r="A28" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -2746,7 +2747,7 @@
       <c r="A29" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -2757,7 +2758,7 @@
       <c r="A30" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -2768,7 +2769,7 @@
       <c r="A31" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -2779,7 +2780,7 @@
       <c r="A32" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -2790,7 +2791,7 @@
       <c r="A33" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -2801,7 +2802,7 @@
       <c r="A34" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -2812,7 +2813,7 @@
       <c r="A35" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -2823,7 +2824,7 @@
       <c r="A36" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -2834,7 +2835,7 @@
       <c r="A37" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="12" t="s">
         <v>39</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -2845,7 +2846,7 @@
       <c r="A38" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -2856,7 +2857,7 @@
       <c r="A39" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C39" s="5" t="s">
@@ -2867,7 +2868,7 @@
       <c r="A40" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -2878,7 +2879,7 @@
       <c r="A41" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -2886,23 +2887,23 @@
       </c>
     </row>
     <row r="42" ht="21" spans="2:3">
-      <c r="B42" s="12"/>
+      <c r="B42" s="13"/>
       <c r="C42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" ht="21" spans="1:3">
       <c r="A43" s="10"/>
-      <c r="B43" s="12"/>
+      <c r="B43" s="13"/>
       <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="44" ht="21" spans="1:3">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C44" s="5" t="s">
@@ -2910,10 +2911,10 @@
       </c>
     </row>
     <row r="45" ht="21" spans="1:3">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="12" t="s">
         <v>46</v>
       </c>
       <c r="C45" s="5" t="s">
@@ -2921,10 +2922,10 @@
       </c>
     </row>
     <row r="46" ht="21" spans="1:3">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="5" t="s">
@@ -2932,10 +2933,10 @@
       </c>
     </row>
     <row r="47" ht="21" spans="1:3">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="12" t="s">
         <v>48</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -2943,10 +2944,10 @@
       </c>
     </row>
     <row r="48" ht="21" spans="1:3">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C48" s="5" t="s">
@@ -2954,10 +2955,10 @@
       </c>
     </row>
     <row r="49" ht="21" spans="1:3">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C49" s="5" t="s">
@@ -2965,10 +2966,10 @@
       </c>
     </row>
     <row r="50" ht="21" spans="1:3">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="12" t="s">
         <v>51</v>
       </c>
       <c r="C50" s="5" t="s">
@@ -2976,10 +2977,10 @@
       </c>
     </row>
     <row r="51" ht="21" spans="1:3">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="12" t="s">
         <v>52</v>
       </c>
       <c r="C51" s="5" t="s">
@@ -2987,10 +2988,10 @@
       </c>
     </row>
     <row r="52" ht="21" spans="1:3">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C52" s="5" t="s">
@@ -2998,10 +2999,10 @@
       </c>
     </row>
     <row r="53" ht="21" spans="1:3">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="12" t="s">
         <v>54</v>
       </c>
       <c r="C53" s="5" t="s">
@@ -3010,14 +3011,14 @@
     </row>
     <row r="55" ht="21" spans="1:3">
       <c r="A55" s="10"/>
-      <c r="B55" s="12"/>
+      <c r="B55" s="13"/>
       <c r="C55" s="5"/>
     </row>
     <row r="56" ht="21" spans="1:3">
       <c r="A56" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="12" t="s">
         <v>56</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -3028,7 +3029,7 @@
       <c r="A57" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="12" t="s">
         <v>57</v>
       </c>
       <c r="C57" s="5" t="s">
@@ -3039,7 +3040,7 @@
       <c r="A58" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="12" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="5" t="s">
@@ -3050,7 +3051,7 @@
       <c r="A59" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="13" t="s">
         <v>59</v>
       </c>
       <c r="C59" s="5" t="s">
@@ -3061,7 +3062,7 @@
       <c r="A60" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="12" t="s">
         <v>60</v>
       </c>
       <c r="C60" s="5" t="s">
@@ -3072,7 +3073,7 @@
       <c r="A61" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="12" t="s">
         <v>61</v>
       </c>
       <c r="C61" s="5" t="s">
@@ -3083,7 +3084,7 @@
       <c r="A62" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="12" t="s">
         <v>62</v>
       </c>
       <c r="C62" s="5" t="s">
@@ -3094,7 +3095,7 @@
       <c r="A63" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="12" t="s">
         <v>63</v>
       </c>
       <c r="C63" s="5" t="s">
@@ -3105,7 +3106,7 @@
       <c r="A64" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C64" s="5" t="s">
@@ -3116,7 +3117,7 @@
       <c r="A65" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="12" t="s">
         <v>65</v>
       </c>
       <c r="C65" s="5" t="s">
@@ -3127,7 +3128,7 @@
       <c r="A66" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="12" t="s">
         <v>66</v>
       </c>
       <c r="C66" s="5" t="s">
@@ -3138,7 +3139,7 @@
       <c r="A67" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C67" s="5" t="s">
@@ -3149,7 +3150,7 @@
       <c r="A68" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="12" t="s">
         <v>68</v>
       </c>
       <c r="C68" s="5" t="s">
@@ -3160,7 +3161,7 @@
       <c r="A69" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C69" s="5" t="s">
@@ -3171,7 +3172,7 @@
       <c r="A70" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="12" t="s">
         <v>70</v>
       </c>
       <c r="C70" s="5" t="s">
@@ -3182,7 +3183,7 @@
       <c r="A71" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="12" t="s">
         <v>71</v>
       </c>
       <c r="C71" s="5" t="s">
@@ -3193,7 +3194,7 @@
       <c r="A72" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="12" t="s">
         <v>72</v>
       </c>
       <c r="C72" s="5" t="s">
@@ -3204,7 +3205,7 @@
       <c r="A73" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="12" t="s">
         <v>73</v>
       </c>
       <c r="C73" s="5" t="s">
@@ -3215,7 +3216,7 @@
       <c r="A74" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="12" t="s">
         <v>74</v>
       </c>
       <c r="C74" s="5" t="s">
@@ -3226,7 +3227,7 @@
       <c r="A75" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B75" s="12" t="s">
         <v>75</v>
       </c>
       <c r="C75" s="5" t="s">
@@ -3237,7 +3238,7 @@
       <c r="A76" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C76" s="5" t="s">
@@ -3248,7 +3249,7 @@
       <c r="A77" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="B77" s="12" t="s">
         <v>77</v>
       </c>
       <c r="C77" s="5" t="s">
@@ -3259,7 +3260,7 @@
       <c r="A78" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="12" t="s">
         <v>78</v>
       </c>
       <c r="C78" s="5" t="s">
@@ -3270,7 +3271,7 @@
       <c r="A79" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="B79" s="12" t="s">
         <v>79</v>
       </c>
       <c r="C79" s="5" t="s">
@@ -3281,7 +3282,7 @@
       <c r="A80" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="12" t="s">
         <v>80</v>
       </c>
       <c r="C80" s="5" t="s">
@@ -3292,7 +3293,7 @@
       <c r="A81" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="12" t="s">
         <v>81</v>
       </c>
       <c r="C81" s="5" t="s">
@@ -3303,7 +3304,7 @@
       <c r="A82" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C82" s="5" t="s">
@@ -3314,7 +3315,7 @@
       <c r="A83" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="12" t="s">
         <v>83</v>
       </c>
       <c r="C83" s="5" t="s">
@@ -3325,7 +3326,7 @@
       <c r="A84" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B84" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C84" s="5" t="s">
@@ -3336,7 +3337,7 @@
       <c r="A85" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B85" s="12" t="s">
         <v>85</v>
       </c>
       <c r="C85" s="5" t="s">
@@ -3347,7 +3348,7 @@
       <c r="A86" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B86" s="12" t="s">
         <v>86</v>
       </c>
       <c r="C86" s="5" t="s">
@@ -3358,7 +3359,7 @@
       <c r="A87" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B87" s="12" t="s">
         <v>87</v>
       </c>
       <c r="C87" s="5" t="s">
@@ -3369,7 +3370,7 @@
       <c r="A88" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="B88" s="12" t="s">
         <v>88</v>
       </c>
       <c r="C88" s="5" t="s">
@@ -3380,7 +3381,7 @@
       <c r="A89" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B89" s="12" t="s">
         <v>89</v>
       </c>
       <c r="C89" s="5" t="s">
@@ -3391,7 +3392,7 @@
       <c r="A90" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="B90" s="12" t="s">
         <v>90</v>
       </c>
       <c r="C90" s="5" t="s">
@@ -3402,7 +3403,7 @@
       <c r="A91" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B91" s="12" t="s">
         <v>91</v>
       </c>
       <c r="C91" s="5" t="s">
@@ -3413,7 +3414,7 @@
       <c r="A92" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B92" s="11" t="s">
+      <c r="B92" s="12" t="s">
         <v>92</v>
       </c>
       <c r="C92" s="5" t="s">
@@ -3424,7 +3425,7 @@
       <c r="A93" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="B93" s="12" t="s">
         <v>93</v>
       </c>
       <c r="C93" s="5" t="s">
@@ -3435,7 +3436,7 @@
       <c r="A94" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="B94" s="12" t="s">
         <v>94</v>
       </c>
       <c r="C94" s="5" t="s">
@@ -3446,7 +3447,7 @@
       <c r="A95" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B95" s="11" t="s">
+      <c r="B95" s="12" t="s">
         <v>95</v>
       </c>
       <c r="C95" s="5" t="s">
@@ -3457,7 +3458,7 @@
       <c r="A96" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="B96" s="12" t="s">
         <v>96</v>
       </c>
       <c r="C96" s="5" t="s">
@@ -3468,7 +3469,7 @@
       <c r="A97" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B97" s="11" t="s">
+      <c r="B97" s="12" t="s">
         <v>97</v>
       </c>
       <c r="C97" s="5" t="s">
@@ -3479,7 +3480,7 @@
       <c r="A98" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="B98" s="12" t="s">
         <v>98</v>
       </c>
       <c r="C98" s="5" t="s">
@@ -3487,15 +3488,15 @@
       </c>
     </row>
     <row r="100" ht="21" spans="1:3">
-      <c r="A100" s="13"/>
-      <c r="B100" s="12"/>
+      <c r="A100" s="14"/>
+      <c r="B100" s="13"/>
       <c r="C100" s="5"/>
     </row>
     <row r="101" ht="21" spans="1:3">
       <c r="A101" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="B101" s="12" t="s">
         <v>100</v>
       </c>
       <c r="C101" s="5" t="s">
@@ -3506,7 +3507,7 @@
       <c r="A102" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B102" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C102" s="5" t="s">
@@ -3517,7 +3518,7 @@
       <c r="A103" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="B103" s="12" t="s">
         <v>102</v>
       </c>
       <c r="C103" s="5" t="s">
@@ -3528,7 +3529,7 @@
       <c r="A104" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="B104" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C104" s="5" t="s">
@@ -3539,7 +3540,7 @@
       <c r="A105" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="B105" s="12" t="s">
         <v>104</v>
       </c>
       <c r="C105" s="5" t="s">
@@ -3550,7 +3551,7 @@
       <c r="A106" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B106" s="11" t="s">
+      <c r="B106" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C106" s="5" t="s">
@@ -3561,7 +3562,7 @@
       <c r="A107" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B107" s="11" t="s">
+      <c r="B107" s="12" t="s">
         <v>106</v>
       </c>
       <c r="C107" s="5" t="s">
@@ -3572,7 +3573,7 @@
       <c r="A108" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="B108" s="12" t="s">
         <v>107</v>
       </c>
       <c r="C108" s="5" t="s">
@@ -3583,7 +3584,7 @@
       <c r="A109" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B109" s="11" t="s">
+      <c r="B109" s="12" t="s">
         <v>108</v>
       </c>
       <c r="C109" s="5" t="s">
@@ -3594,7 +3595,7 @@
       <c r="A110" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B110" s="11" t="s">
+      <c r="B110" s="12" t="s">
         <v>109</v>
       </c>
       <c r="C110" s="5" t="s">
@@ -3605,7 +3606,7 @@
       <c r="A111" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B111" s="11" t="s">
+      <c r="B111" s="12" t="s">
         <v>110</v>
       </c>
       <c r="C111" s="5" t="s">
@@ -3616,7 +3617,7 @@
       <c r="A112" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="B112" s="12" t="s">
         <v>111</v>
       </c>
       <c r="C112" s="5" t="s">
@@ -3627,7 +3628,7 @@
       <c r="A113" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B113" s="11" t="s">
+      <c r="B113" s="12" t="s">
         <v>112</v>
       </c>
       <c r="C113" s="5" t="s">
@@ -3638,7 +3639,7 @@
       <c r="A114" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="B114" s="12" t="s">
         <v>113</v>
       </c>
       <c r="C114" s="5" t="s">
@@ -3649,7 +3650,7 @@
       <c r="A115" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B115" s="11" t="s">
+      <c r="B115" s="12" t="s">
         <v>114</v>
       </c>
       <c r="C115" s="5" t="s">
@@ -3660,7 +3661,7 @@
       <c r="A116" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="B116" s="12" t="s">
         <v>115</v>
       </c>
       <c r="C116" s="5" t="s">
@@ -3671,7 +3672,7 @@
       <c r="A117" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B117" s="11" t="s">
+      <c r="B117" s="12" t="s">
         <v>116</v>
       </c>
       <c r="C117" s="5" t="s">
@@ -3682,7 +3683,7 @@
       <c r="A118" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="B118" s="12" t="s">
         <v>117</v>
       </c>
       <c r="C118" s="5" t="s">
@@ -3693,7 +3694,7 @@
       <c r="A119" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B119" s="11" t="s">
+      <c r="B119" s="12" t="s">
         <v>118</v>
       </c>
       <c r="C119" s="5" t="s">
@@ -3704,7 +3705,7 @@
       <c r="A120" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B120" s="11" t="s">
+      <c r="B120" s="12" t="s">
         <v>119</v>
       </c>
       <c r="C120" s="5" t="s">
@@ -3715,7 +3716,7 @@
       <c r="A121" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B121" s="11" t="s">
+      <c r="B121" s="12" t="s">
         <v>120</v>
       </c>
       <c r="C121" s="5" t="s">
@@ -3726,7 +3727,7 @@
       <c r="A122" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="B122" s="12" t="s">
         <v>121</v>
       </c>
       <c r="C122" s="5" t="s">
@@ -3737,7 +3738,7 @@
       <c r="A123" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B123" s="11" t="s">
+      <c r="B123" s="12" t="s">
         <v>122</v>
       </c>
       <c r="C123" s="5" t="s">
@@ -3748,7 +3749,7 @@
       <c r="A124" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B124" s="11" t="s">
+      <c r="B124" s="12" t="s">
         <v>123</v>
       </c>
       <c r="C124" s="5" t="s">
@@ -3759,7 +3760,7 @@
       <c r="A125" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B125" s="11" t="s">
+      <c r="B125" s="12" t="s">
         <v>124</v>
       </c>
       <c r="C125" s="5" t="s">
@@ -3770,7 +3771,7 @@
       <c r="A126" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B126" s="11" t="s">
+      <c r="B126" s="12" t="s">
         <v>125</v>
       </c>
       <c r="C126" s="5" t="s">
@@ -3781,7 +3782,7 @@
       <c r="A127" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B127" s="11" t="s">
+      <c r="B127" s="12" t="s">
         <v>126</v>
       </c>
       <c r="C127" s="5" t="s">
@@ -3792,7 +3793,7 @@
       <c r="A128" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B128" s="11" t="s">
+      <c r="B128" s="12" t="s">
         <v>127</v>
       </c>
       <c r="C128" s="5" t="s">
@@ -3803,7 +3804,7 @@
       <c r="A129" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B129" s="11" t="s">
+      <c r="B129" s="12" t="s">
         <v>128</v>
       </c>
       <c r="C129" s="5" t="s">
@@ -3814,7 +3815,7 @@
       <c r="A130" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B130" s="11" t="s">
+      <c r="B130" s="12" t="s">
         <v>129</v>
       </c>
       <c r="C130" s="5" t="s">
@@ -3825,7 +3826,7 @@
       <c r="A131" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B131" s="11" t="s">
+      <c r="B131" s="12" t="s">
         <v>130</v>
       </c>
       <c r="C131" s="5" t="s">
@@ -3836,7 +3837,7 @@
       <c r="A132" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B132" s="11" t="s">
+      <c r="B132" s="12" t="s">
         <v>131</v>
       </c>
       <c r="C132" s="5" t="s">
@@ -3847,7 +3848,7 @@
       <c r="A133" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B133" s="11" t="s">
+      <c r="B133" s="12" t="s">
         <v>132</v>
       </c>
       <c r="C133" s="5" t="s">
@@ -3858,7 +3859,7 @@
       <c r="A134" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B134" s="11" t="s">
+      <c r="B134" s="12" t="s">
         <v>133</v>
       </c>
       <c r="C134" s="5" t="s">
@@ -3869,7 +3870,7 @@
       <c r="A135" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B135" s="11" t="s">
+      <c r="B135" s="12" t="s">
         <v>134</v>
       </c>
       <c r="C135" s="5" t="s">
@@ -3880,7 +3881,7 @@
       <c r="A136" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B136" s="11" t="s">
+      <c r="B136" s="12" t="s">
         <v>135</v>
       </c>
       <c r="C136" s="5" t="s">
@@ -3888,14 +3889,14 @@
       </c>
     </row>
     <row r="138" ht="21" spans="2:3">
-      <c r="B138" s="12"/>
+      <c r="B138" s="13"/>
       <c r="C138" s="5"/>
     </row>
     <row r="139" ht="21" spans="1:3">
-      <c r="A139" s="13" t="s">
+      <c r="A139" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B139" s="11" t="s">
+      <c r="B139" s="12" t="s">
         <v>137</v>
       </c>
       <c r="C139" s="5" t="s">
@@ -3903,10 +3904,10 @@
       </c>
     </row>
     <row r="140" ht="21" spans="1:3">
-      <c r="A140" s="13" t="s">
+      <c r="A140" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B140" s="12" t="s">
         <v>138</v>
       </c>
       <c r="C140" s="5" t="s">
@@ -3914,10 +3915,10 @@
       </c>
     </row>
     <row r="141" ht="21" spans="1:3">
-      <c r="A141" s="13" t="s">
+      <c r="A141" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B141" s="11" t="s">
+      <c r="B141" s="12" t="s">
         <v>139</v>
       </c>
       <c r="C141" s="5" t="s">
@@ -3925,10 +3926,10 @@
       </c>
     </row>
     <row r="142" ht="21" spans="1:3">
-      <c r="A142" s="13" t="s">
+      <c r="A142" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B142" s="11" t="s">
+      <c r="B142" s="12" t="s">
         <v>140</v>
       </c>
       <c r="C142" s="5" t="s">
@@ -3936,10 +3937,10 @@
       </c>
     </row>
     <row r="143" ht="21" spans="1:3">
-      <c r="A143" s="13" t="s">
+      <c r="A143" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B143" s="11" t="s">
+      <c r="B143" s="12" t="s">
         <v>141</v>
       </c>
       <c r="C143" s="5" t="s">
@@ -3947,10 +3948,10 @@
       </c>
     </row>
     <row r="144" ht="21" spans="1:3">
-      <c r="A144" s="13" t="s">
+      <c r="A144" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B144" s="11" t="s">
+      <c r="B144" s="12" t="s">
         <v>142</v>
       </c>
       <c r="C144" s="5" t="s">
@@ -3958,10 +3959,10 @@
       </c>
     </row>
     <row r="145" ht="21" spans="1:3">
-      <c r="A145" s="13" t="s">
+      <c r="A145" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B145" s="11" t="s">
+      <c r="B145" s="12" t="s">
         <v>143</v>
       </c>
       <c r="C145" s="5" t="s">
@@ -3969,10 +3970,10 @@
       </c>
     </row>
     <row r="146" ht="21" spans="1:3">
-      <c r="A146" s="13" t="s">
+      <c r="A146" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B146" s="11" t="s">
+      <c r="B146" s="12" t="s">
         <v>144</v>
       </c>
       <c r="C146" s="5" t="s">
@@ -3980,10 +3981,10 @@
       </c>
     </row>
     <row r="147" ht="21" spans="1:3">
-      <c r="A147" s="13" t="s">
+      <c r="A147" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="B147" s="12" t="s">
         <v>145</v>
       </c>
       <c r="C147" s="5" t="s">
@@ -3991,10 +3992,10 @@
       </c>
     </row>
     <row r="148" ht="21" spans="1:3">
-      <c r="A148" s="13" t="s">
+      <c r="A148" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B148" s="11" t="s">
+      <c r="B148" s="12" t="s">
         <v>146</v>
       </c>
       <c r="C148" s="5" t="s">
@@ -4002,10 +4003,10 @@
       </c>
     </row>
     <row r="149" ht="21" spans="1:3">
-      <c r="A149" s="13" t="s">
+      <c r="A149" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B149" s="11" t="s">
+      <c r="B149" s="12" t="s">
         <v>147</v>
       </c>
       <c r="C149" s="5" t="s">
@@ -4013,10 +4014,10 @@
       </c>
     </row>
     <row r="150" ht="21" spans="1:3">
-      <c r="A150" s="13" t="s">
+      <c r="A150" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B150" s="11" t="s">
+      <c r="B150" s="12" t="s">
         <v>148</v>
       </c>
       <c r="C150" s="5" t="s">
@@ -4024,10 +4025,10 @@
       </c>
     </row>
     <row r="151" ht="21" spans="1:3">
-      <c r="A151" s="13" t="s">
+      <c r="A151" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B151" s="11" t="s">
+      <c r="B151" s="12" t="s">
         <v>149</v>
       </c>
       <c r="C151" s="5" t="s">
@@ -4035,10 +4036,10 @@
       </c>
     </row>
     <row r="152" ht="21" spans="1:3">
-      <c r="A152" s="13" t="s">
+      <c r="A152" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B152" s="11" t="s">
+      <c r="B152" s="12" t="s">
         <v>150</v>
       </c>
       <c r="C152" s="5" t="s">
@@ -4046,10 +4047,10 @@
       </c>
     </row>
     <row r="153" ht="21" spans="1:3">
-      <c r="A153" s="13" t="s">
+      <c r="A153" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B153" s="11" t="s">
+      <c r="B153" s="12" t="s">
         <v>151</v>
       </c>
       <c r="C153" s="5" t="s">
@@ -4057,10 +4058,10 @@
       </c>
     </row>
     <row r="154" ht="21" spans="1:3">
-      <c r="A154" s="13" t="s">
+      <c r="A154" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B154" s="11" t="s">
+      <c r="B154" s="12" t="s">
         <v>152</v>
       </c>
       <c r="C154" s="5" t="s">
@@ -4068,10 +4069,10 @@
       </c>
     </row>
     <row r="155" ht="21" spans="1:3">
-      <c r="A155" s="13" t="s">
+      <c r="A155" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B155" s="11" t="s">
+      <c r="B155" s="12" t="s">
         <v>153</v>
       </c>
       <c r="C155" s="5" t="s">
@@ -4079,10 +4080,10 @@
       </c>
     </row>
     <row r="156" ht="21" spans="1:3">
-      <c r="A156" s="13" t="s">
+      <c r="A156" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B156" s="11" t="s">
+      <c r="B156" s="12" t="s">
         <v>154</v>
       </c>
       <c r="C156" s="5" t="s">
@@ -4090,10 +4091,10 @@
       </c>
     </row>
     <row r="157" ht="21" spans="1:3">
-      <c r="A157" s="13" t="s">
+      <c r="A157" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B157" s="11" t="s">
+      <c r="B157" s="12" t="s">
         <v>155</v>
       </c>
       <c r="C157" s="5" t="s">
@@ -4101,10 +4102,10 @@
       </c>
     </row>
     <row r="158" ht="21" spans="1:3">
-      <c r="A158" s="13" t="s">
+      <c r="A158" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B158" s="11" t="s">
+      <c r="B158" s="12" t="s">
         <v>156</v>
       </c>
       <c r="C158" s="5" t="s">
@@ -4112,10 +4113,10 @@
       </c>
     </row>
     <row r="159" ht="21" spans="1:3">
-      <c r="A159" s="13" t="s">
+      <c r="A159" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B159" s="11" t="s">
+      <c r="B159" s="12" t="s">
         <v>157</v>
       </c>
       <c r="C159" s="5" t="s">
@@ -4123,10 +4124,10 @@
       </c>
     </row>
     <row r="160" ht="21" spans="1:3">
-      <c r="A160" s="13" t="s">
+      <c r="A160" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B160" s="11" t="s">
+      <c r="B160" s="12" t="s">
         <v>158</v>
       </c>
       <c r="C160" s="5" t="s">
@@ -4134,10 +4135,10 @@
       </c>
     </row>
     <row r="161" ht="21" spans="1:3">
-      <c r="A161" s="13" t="s">
+      <c r="A161" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B161" s="11" t="s">
+      <c r="B161" s="12" t="s">
         <v>159</v>
       </c>
       <c r="C161" s="5" t="s">
@@ -4145,10 +4146,10 @@
       </c>
     </row>
     <row r="162" ht="21" spans="1:3">
-      <c r="A162" s="13" t="s">
+      <c r="A162" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B162" s="11" t="s">
+      <c r="B162" s="12" t="s">
         <v>160</v>
       </c>
       <c r="C162" s="5" t="s">
@@ -4156,10 +4157,10 @@
       </c>
     </row>
     <row r="163" ht="21" spans="1:3">
-      <c r="A163" s="13" t="s">
+      <c r="A163" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B163" s="11" t="s">
+      <c r="B163" s="12" t="s">
         <v>161</v>
       </c>
       <c r="C163" s="5" t="s">
@@ -4167,10 +4168,10 @@
       </c>
     </row>
     <row r="164" ht="21" spans="1:3">
-      <c r="A164" s="13" t="s">
+      <c r="A164" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B164" s="12" t="s">
+      <c r="B164" s="13" t="s">
         <v>162</v>
       </c>
       <c r="C164" s="5" t="s">
@@ -4178,10 +4179,10 @@
       </c>
     </row>
     <row r="165" ht="21" spans="1:3">
-      <c r="A165" s="13" t="s">
+      <c r="A165" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B165" s="12" t="s">
+      <c r="B165" s="13" t="s">
         <v>163</v>
       </c>
       <c r="C165" s="5" t="s">
@@ -4189,10 +4190,10 @@
       </c>
     </row>
     <row r="166" ht="21" spans="1:3">
-      <c r="A166" s="13" t="s">
+      <c r="A166" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B166" s="11" t="s">
+      <c r="B166" s="12" t="s">
         <v>164</v>
       </c>
       <c r="C166" s="5" t="s">
@@ -4200,10 +4201,10 @@
       </c>
     </row>
     <row r="167" ht="21" spans="1:3">
-      <c r="A167" s="13" t="s">
+      <c r="A167" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B167" s="11" t="s">
+      <c r="B167" s="12" t="s">
         <v>165</v>
       </c>
       <c r="C167" s="5" t="s">
@@ -4211,10 +4212,10 @@
       </c>
     </row>
     <row r="168" ht="21" spans="1:3">
-      <c r="A168" s="13" t="s">
+      <c r="A168" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B168" s="11" t="s">
+      <c r="B168" s="12" t="s">
         <v>166</v>
       </c>
       <c r="C168" s="5" t="s">
@@ -4222,10 +4223,10 @@
       </c>
     </row>
     <row r="169" ht="21" spans="1:3">
-      <c r="A169" s="13" t="s">
+      <c r="A169" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B169" s="11" t="s">
+      <c r="B169" s="12" t="s">
         <v>167</v>
       </c>
       <c r="C169" s="5" t="s">
@@ -4233,10 +4234,10 @@
       </c>
     </row>
     <row r="170" ht="21" spans="1:3">
-      <c r="A170" s="13" t="s">
+      <c r="A170" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B170" s="11" t="s">
+      <c r="B170" s="12" t="s">
         <v>168</v>
       </c>
       <c r="C170" s="5" t="s">
@@ -4244,10 +4245,10 @@
       </c>
     </row>
     <row r="171" ht="21" spans="1:3">
-      <c r="A171" s="13" t="s">
+      <c r="A171" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B171" s="11" t="s">
+      <c r="B171" s="12" t="s">
         <v>169</v>
       </c>
       <c r="C171" s="5" t="s">
@@ -4255,10 +4256,10 @@
       </c>
     </row>
     <row r="172" ht="21" spans="1:3">
-      <c r="A172" s="13" t="s">
+      <c r="A172" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B172" s="11" t="s">
+      <c r="B172" s="12" t="s">
         <v>170</v>
       </c>
       <c r="C172" s="5" t="s">
@@ -4266,10 +4267,10 @@
       </c>
     </row>
     <row r="173" ht="21" spans="1:3">
-      <c r="A173" s="13" t="s">
+      <c r="A173" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B173" s="11" t="s">
+      <c r="B173" s="12" t="s">
         <v>171</v>
       </c>
       <c r="C173" s="5" t="s">
@@ -4277,10 +4278,10 @@
       </c>
     </row>
     <row r="174" ht="21" spans="1:3">
-      <c r="A174" s="13" t="s">
+      <c r="A174" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B174" s="11" t="s">
+      <c r="B174" s="12" t="s">
         <v>172</v>
       </c>
       <c r="C174" s="5" t="s">
@@ -4288,14 +4289,14 @@
       </c>
     </row>
     <row r="176" ht="21" spans="2:3">
-      <c r="B176" s="12"/>
+      <c r="B176" s="13"/>
       <c r="C176" s="5"/>
     </row>
     <row r="177" ht="21" spans="1:3">
       <c r="A177" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B177" s="11" t="s">
+      <c r="B177" s="12" t="s">
         <v>174</v>
       </c>
       <c r="C177" s="5" t="s">
@@ -4306,7 +4307,7 @@
       <c r="A178" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B178" s="11" t="s">
+      <c r="B178" s="12" t="s">
         <v>175</v>
       </c>
       <c r="C178" s="5" t="s">
@@ -4317,7 +4318,7 @@
       <c r="A179" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B179" s="11" t="s">
+      <c r="B179" s="12" t="s">
         <v>176</v>
       </c>
       <c r="C179" s="5" t="s">
@@ -4328,7 +4329,7 @@
       <c r="A180" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B180" s="11" t="s">
+      <c r="B180" s="12" t="s">
         <v>177</v>
       </c>
       <c r="C180" s="5" t="s">
@@ -4339,7 +4340,7 @@
       <c r="A181" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B181" s="11" t="s">
+      <c r="B181" s="12" t="s">
         <v>178</v>
       </c>
       <c r="C181" s="5" t="s">
@@ -4350,7 +4351,7 @@
       <c r="A182" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B182" s="11" t="s">
+      <c r="B182" s="12" t="s">
         <v>179</v>
       </c>
       <c r="C182" s="5" t="s">
@@ -4361,7 +4362,7 @@
       <c r="A183" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B183" s="11" t="s">
+      <c r="B183" s="12" t="s">
         <v>180</v>
       </c>
       <c r="C183" s="5" t="s">
@@ -4372,7 +4373,7 @@
       <c r="A184" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B184" s="11" t="s">
+      <c r="B184" s="12" t="s">
         <v>181</v>
       </c>
       <c r="C184" s="5" t="s">
@@ -4383,7 +4384,7 @@
       <c r="A185" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B185" s="11" t="s">
+      <c r="B185" s="12" t="s">
         <v>182</v>
       </c>
       <c r="C185" s="5" t="s">
@@ -4394,7 +4395,7 @@
       <c r="A186" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B186" s="11" t="s">
+      <c r="B186" s="12" t="s">
         <v>183</v>
       </c>
       <c r="C186" s="5" t="s">
@@ -4405,7 +4406,7 @@
       <c r="A187" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B187" s="11" t="s">
+      <c r="B187" s="12" t="s">
         <v>184</v>
       </c>
       <c r="C187" s="5" t="s">
@@ -4416,7 +4417,7 @@
       <c r="A188" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B188" s="11" t="s">
+      <c r="B188" s="12" t="s">
         <v>185</v>
       </c>
       <c r="C188" s="5" t="s">
@@ -4427,7 +4428,7 @@
       <c r="A189" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B189" s="11" t="s">
+      <c r="B189" s="12" t="s">
         <v>186</v>
       </c>
       <c r="C189" s="5" t="s">
@@ -4438,7 +4439,7 @@
       <c r="A190" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B190" s="11" t="s">
+      <c r="B190" s="12" t="s">
         <v>187</v>
       </c>
       <c r="C190" s="5" t="s">
@@ -4449,7 +4450,7 @@
       <c r="A191" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B191" s="11" t="s">
+      <c r="B191" s="12" t="s">
         <v>188</v>
       </c>
       <c r="C191" s="5" t="s">
@@ -4460,7 +4461,7 @@
       <c r="A192" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B192" s="11" t="s">
+      <c r="B192" s="12" t="s">
         <v>189</v>
       </c>
       <c r="C192" s="5" t="s">
@@ -4471,7 +4472,7 @@
       <c r="A193" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B193" s="11" t="s">
+      <c r="B193" s="12" t="s">
         <v>190</v>
       </c>
       <c r="C193" s="5" t="s">
@@ -4482,7 +4483,7 @@
       <c r="A194" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B194" s="11" t="s">
+      <c r="B194" s="12" t="s">
         <v>191</v>
       </c>
       <c r="C194" s="5" t="s">
@@ -4493,7 +4494,7 @@
       <c r="A195" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B195" s="11" t="s">
+      <c r="B195" s="12" t="s">
         <v>192</v>
       </c>
       <c r="C195" s="5" t="s">
@@ -4504,7 +4505,7 @@
       <c r="A196" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B196" s="11" t="s">
+      <c r="B196" s="12" t="s">
         <v>193</v>
       </c>
       <c r="C196" s="5" t="s">
@@ -4515,7 +4516,7 @@
       <c r="A197" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B197" s="11" t="s">
+      <c r="B197" s="12" t="s">
         <v>194</v>
       </c>
       <c r="C197" s="5" t="s">
@@ -4526,7 +4527,7 @@
       <c r="A198" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B198" s="11" t="s">
+      <c r="B198" s="12" t="s">
         <v>195</v>
       </c>
       <c r="C198" s="5" t="s">
@@ -4537,7 +4538,7 @@
       <c r="A199" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B199" s="11" t="s">
+      <c r="B199" s="12" t="s">
         <v>196</v>
       </c>
       <c r="C199" s="5" t="s">
@@ -4548,7 +4549,7 @@
       <c r="A200" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B200" s="11" t="s">
+      <c r="B200" s="12" t="s">
         <v>197</v>
       </c>
       <c r="C200" s="5" t="s">
@@ -4559,7 +4560,7 @@
       <c r="A201" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B201" s="11" t="s">
+      <c r="B201" s="12" t="s">
         <v>198</v>
       </c>
       <c r="C201" s="5" t="s">
@@ -4570,7 +4571,7 @@
       <c r="A202" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B202" s="11" t="s">
+      <c r="B202" s="12" t="s">
         <v>199</v>
       </c>
       <c r="C202" s="5" t="s">
@@ -4581,7 +4582,7 @@
       <c r="A203" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B203" s="11" t="s">
+      <c r="B203" s="12" t="s">
         <v>200</v>
       </c>
       <c r="C203" s="5" t="s">
@@ -4592,7 +4593,7 @@
       <c r="A204" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B204" s="11" t="s">
+      <c r="B204" s="12" t="s">
         <v>201</v>
       </c>
       <c r="C204" s="5" t="s">
@@ -4603,7 +4604,7 @@
       <c r="A205" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B205" s="11" t="s">
+      <c r="B205" s="12" t="s">
         <v>202</v>
       </c>
       <c r="C205" s="5" t="s">
@@ -4614,7 +4615,7 @@
       <c r="A206" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B206" s="11" t="s">
+      <c r="B206" s="12" t="s">
         <v>203</v>
       </c>
       <c r="C206" s="5" t="s">
@@ -4625,7 +4626,7 @@
       <c r="A207" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B207" s="11" t="s">
+      <c r="B207" s="12" t="s">
         <v>204</v>
       </c>
       <c r="C207" s="5" t="s">
@@ -4636,7 +4637,7 @@
       <c r="A208" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B208" s="11" t="s">
+      <c r="B208" s="12" t="s">
         <v>205</v>
       </c>
       <c r="C208" s="5" t="s">
@@ -4647,7 +4648,7 @@
       <c r="A209" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B209" s="11" t="s">
+      <c r="B209" s="12" t="s">
         <v>206</v>
       </c>
       <c r="C209" s="5" t="s">
@@ -4658,7 +4659,7 @@
       <c r="A210" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B210" s="11" t="s">
+      <c r="B210" s="12" t="s">
         <v>207</v>
       </c>
       <c r="C210" s="5" t="s">
@@ -4669,7 +4670,7 @@
       <c r="A211" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B211" s="11" t="s">
+      <c r="B211" s="12" t="s">
         <v>208</v>
       </c>
       <c r="C211" s="5" t="s">
@@ -4677,20 +4678,20 @@
       </c>
     </row>
     <row r="212" ht="21" spans="1:3">
-      <c r="A212" s="13"/>
-      <c r="B212" s="12"/>
+      <c r="A212" s="14"/>
+      <c r="B212" s="13"/>
       <c r="C212" s="5"/>
     </row>
     <row r="213" ht="21" spans="1:3">
-      <c r="A213" s="13"/>
-      <c r="B213" s="12"/>
+      <c r="A213" s="14"/>
+      <c r="B213" s="13"/>
       <c r="C213" s="5"/>
     </row>
     <row r="214" ht="21" spans="1:3">
       <c r="A214" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B214" s="11" t="s">
+      <c r="B214" s="12" t="s">
         <v>210</v>
       </c>
       <c r="C214" s="5" t="s">
@@ -4701,7 +4702,7 @@
       <c r="A215" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B215" s="11" t="s">
+      <c r="B215" s="12" t="s">
         <v>211</v>
       </c>
       <c r="C215" s="5" t="s">
@@ -4712,7 +4713,7 @@
       <c r="A216" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B216" s="11" t="s">
+      <c r="B216" s="12" t="s">
         <v>212</v>
       </c>
       <c r="C216" s="5" t="s">
@@ -4723,7 +4724,7 @@
       <c r="A217" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B217" s="11" t="s">
+      <c r="B217" s="12" t="s">
         <v>213</v>
       </c>
       <c r="C217" s="5" t="s">
@@ -4734,7 +4735,7 @@
       <c r="A218" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B218" s="11" t="s">
+      <c r="B218" s="12" t="s">
         <v>214</v>
       </c>
       <c r="C218" s="5" t="s">
@@ -4745,7 +4746,7 @@
       <c r="A219" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B219" s="11" t="s">
+      <c r="B219" s="12" t="s">
         <v>215</v>
       </c>
       <c r="C219" s="5" t="s">
@@ -4756,7 +4757,7 @@
       <c r="A220" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B220" s="14" t="s">
+      <c r="B220" s="15" t="s">
         <v>216</v>
       </c>
       <c r="C220" s="5" t="s">
@@ -4767,7 +4768,7 @@
       <c r="A221" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B221" s="11" t="s">
+      <c r="B221" s="12" t="s">
         <v>217</v>
       </c>
       <c r="C221" s="5" t="s">
@@ -4778,7 +4779,7 @@
       <c r="A222" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B222" s="11" t="s">
+      <c r="B222" s="12" t="s">
         <v>218</v>
       </c>
       <c r="C222" s="5" t="s">
@@ -4789,7 +4790,7 @@
       <c r="A223" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B223" s="11" t="s">
+      <c r="B223" s="12" t="s">
         <v>219</v>
       </c>
       <c r="C223" s="5" t="s">
@@ -4800,7 +4801,7 @@
       <c r="A224" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B224" s="11" t="s">
+      <c r="B224" s="12" t="s">
         <v>220</v>
       </c>
       <c r="C224" s="5" t="s">
@@ -4811,7 +4812,7 @@
       <c r="A225" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B225" s="11" t="s">
+      <c r="B225" s="12" t="s">
         <v>221</v>
       </c>
       <c r="C225" s="5" t="s">
@@ -4822,7 +4823,7 @@
       <c r="A226" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B226" s="11" t="s">
+      <c r="B226" s="12" t="s">
         <v>222</v>
       </c>
       <c r="C226" s="5" t="s">
@@ -4833,7 +4834,7 @@
       <c r="A227" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B227" s="11" t="s">
+      <c r="B227" s="12" t="s">
         <v>223</v>
       </c>
       <c r="C227" s="5" t="s">
@@ -4844,7 +4845,7 @@
       <c r="A228" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B228" s="11" t="s">
+      <c r="B228" s="12" t="s">
         <v>224</v>
       </c>
       <c r="C228" s="5" t="s">
@@ -4855,7 +4856,7 @@
       <c r="A229" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B229" s="11" t="s">
+      <c r="B229" s="12" t="s">
         <v>225</v>
       </c>
       <c r="C229" s="5" t="s">
@@ -4866,7 +4867,7 @@
       <c r="A230" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B230" s="11" t="s">
+      <c r="B230" s="12" t="s">
         <v>226</v>
       </c>
       <c r="C230" s="5" t="s">
@@ -4877,7 +4878,7 @@
       <c r="A231" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B231" s="11" t="s">
+      <c r="B231" s="12" t="s">
         <v>227</v>
       </c>
       <c r="C231" s="5" t="s">
@@ -4888,7 +4889,7 @@
       <c r="A232" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B232" s="11" t="s">
+      <c r="B232" s="12" t="s">
         <v>228</v>
       </c>
       <c r="C232" s="5" t="s">
@@ -4899,7 +4900,7 @@
       <c r="A233" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B233" s="11" t="s">
+      <c r="B233" s="12" t="s">
         <v>229</v>
       </c>
       <c r="C233" s="5" t="s">
@@ -4910,7 +4911,7 @@
       <c r="A234" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B234" s="11" t="s">
+      <c r="B234" s="12" t="s">
         <v>230</v>
       </c>
       <c r="C234" s="5" t="s">
@@ -4921,7 +4922,7 @@
       <c r="A235" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B235" s="11" t="s">
+      <c r="B235" s="12" t="s">
         <v>231</v>
       </c>
       <c r="C235" s="5" t="s">
@@ -4929,18 +4930,18 @@
       </c>
     </row>
     <row r="236" ht="21" spans="2:3">
-      <c r="B236" s="12"/>
+      <c r="B236" s="13"/>
       <c r="C236" s="5"/>
     </row>
     <row r="237" ht="21" spans="2:3">
-      <c r="B237" s="12"/>
+      <c r="B237" s="13"/>
       <c r="C237" s="5"/>
     </row>
     <row r="238" ht="21" spans="1:3">
       <c r="A238" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B238" s="11" t="s">
+      <c r="B238" s="12" t="s">
         <v>233</v>
       </c>
       <c r="C238" s="5" t="s">
@@ -4951,7 +4952,7 @@
       <c r="A239" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B239" s="11" t="s">
+      <c r="B239" s="12" t="s">
         <v>234</v>
       </c>
       <c r="C239" s="5" t="s">
@@ -4962,7 +4963,7 @@
       <c r="A240" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B240" s="11" t="s">
+      <c r="B240" s="12" t="s">
         <v>235</v>
       </c>
       <c r="C240" s="5" t="s">
@@ -4973,7 +4974,7 @@
       <c r="A241" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B241" s="11" t="s">
+      <c r="B241" s="12" t="s">
         <v>236</v>
       </c>
       <c r="C241" s="5" t="s">
@@ -4984,7 +4985,7 @@
       <c r="A242" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B242" s="11" t="s">
+      <c r="B242" s="12" t="s">
         <v>237</v>
       </c>
       <c r="C242" s="5" t="s">
@@ -4995,7 +4996,7 @@
       <c r="A243" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B243" s="11" t="s">
+      <c r="B243" s="12" t="s">
         <v>238</v>
       </c>
       <c r="C243" s="5" t="s">
@@ -5006,7 +5007,7 @@
       <c r="A244" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B244" s="11" t="s">
+      <c r="B244" s="12" t="s">
         <v>239</v>
       </c>
       <c r="C244" s="5" t="s">
@@ -5017,7 +5018,7 @@
       <c r="A245" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B245" s="11" t="s">
+      <c r="B245" s="12" t="s">
         <v>240</v>
       </c>
       <c r="C245" s="5" t="s">
@@ -5028,7 +5029,7 @@
       <c r="A246" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B246" s="11" t="s">
+      <c r="B246" s="12" t="s">
         <v>241</v>
       </c>
       <c r="C246" s="5" t="s">
@@ -5039,7 +5040,7 @@
       <c r="A247" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B247" s="11" t="s">
+      <c r="B247" s="12" t="s">
         <v>242</v>
       </c>
       <c r="C247" s="5" t="s">
@@ -5050,7 +5051,7 @@
       <c r="A248" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B248" s="11" t="s">
+      <c r="B248" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C248" s="5" t="s">
@@ -5061,7 +5062,7 @@
       <c r="A249" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B249" s="11" t="s">
+      <c r="B249" s="12" t="s">
         <v>244</v>
       </c>
       <c r="C249" s="5" t="s">
@@ -5072,7 +5073,7 @@
       <c r="A250" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B250" s="11" t="s">
+      <c r="B250" s="12" t="s">
         <v>245</v>
       </c>
       <c r="C250" s="5" t="s">
@@ -5083,7 +5084,7 @@
       <c r="A251" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B251" s="11" t="s">
+      <c r="B251" s="12" t="s">
         <v>246</v>
       </c>
       <c r="C251" s="5" t="s">
@@ -5094,7 +5095,7 @@
       <c r="A252" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B252" s="11" t="s">
+      <c r="B252" s="12" t="s">
         <v>247</v>
       </c>
       <c r="C252" s="5" t="s">
@@ -5105,7 +5106,7 @@
       <c r="A253" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B253" s="11" t="s">
+      <c r="B253" s="12" t="s">
         <v>248</v>
       </c>
       <c r="C253" s="5" t="s">
@@ -5116,7 +5117,7 @@
       <c r="A254" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B254" s="11" t="s">
+      <c r="B254" s="12" t="s">
         <v>249</v>
       </c>
       <c r="C254" s="5" t="s">
@@ -5127,7 +5128,7 @@
       <c r="A255" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B255" s="11" t="s">
+      <c r="B255" s="12" t="s">
         <v>250</v>
       </c>
       <c r="C255" s="5" t="s">
@@ -5138,7 +5139,7 @@
       <c r="A256" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B256" s="11" t="s">
+      <c r="B256" s="12" t="s">
         <v>251</v>
       </c>
       <c r="C256" s="5" t="s">
@@ -5149,7 +5150,7 @@
       <c r="A257" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B257" s="11" t="s">
+      <c r="B257" s="12" t="s">
         <v>252</v>
       </c>
       <c r="C257" s="5" t="s">
@@ -5160,7 +5161,7 @@
       <c r="A258" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B258" s="11" t="s">
+      <c r="B258" s="12" t="s">
         <v>253</v>
       </c>
       <c r="C258" s="5" t="s">
@@ -5171,7 +5172,7 @@
       <c r="A259" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B259" s="11" t="s">
+      <c r="B259" s="12" t="s">
         <v>254</v>
       </c>
       <c r="C259" s="5" t="s">
@@ -5182,7 +5183,7 @@
       <c r="A260" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B260" s="11" t="s">
+      <c r="B260" s="12" t="s">
         <v>255</v>
       </c>
       <c r="C260" s="5" t="s">
@@ -5193,7 +5194,7 @@
       <c r="A261" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B261" s="11" t="s">
+      <c r="B261" s="12" t="s">
         <v>256</v>
       </c>
       <c r="C261" s="5" t="s">
@@ -5204,7 +5205,7 @@
       <c r="A262" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B262" s="11" t="s">
+      <c r="B262" s="12" t="s">
         <v>257</v>
       </c>
       <c r="C262" s="5" t="s">
@@ -5215,7 +5216,7 @@
       <c r="A263" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B263" s="11" t="s">
+      <c r="B263" s="12" t="s">
         <v>258</v>
       </c>
       <c r="C263" s="5" t="s">
@@ -5226,7 +5227,7 @@
       <c r="A264" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B264" s="11" t="s">
+      <c r="B264" s="12" t="s">
         <v>259</v>
       </c>
       <c r="C264" s="5" t="s">
@@ -5237,7 +5238,7 @@
       <c r="A265" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B265" s="11" t="s">
+      <c r="B265" s="12" t="s">
         <v>260</v>
       </c>
       <c r="C265" s="5" t="s">
@@ -5248,7 +5249,7 @@
       <c r="A266" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B266" s="11" t="s">
+      <c r="B266" s="12" t="s">
         <v>261</v>
       </c>
       <c r="C266" s="5" t="s">
@@ -5259,7 +5260,7 @@
       <c r="A267" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B267" s="11" t="s">
+      <c r="B267" s="12" t="s">
         <v>262</v>
       </c>
       <c r="C267" s="5" t="s">
@@ -5270,7 +5271,7 @@
       <c r="A268" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B268" s="11" t="s">
+      <c r="B268" s="12" t="s">
         <v>263</v>
       </c>
       <c r="C268" s="5" t="s">
@@ -5281,7 +5282,7 @@
       <c r="A269" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B269" s="11" t="s">
+      <c r="B269" s="12" t="s">
         <v>264</v>
       </c>
       <c r="C269" s="5" t="s">
@@ -5292,7 +5293,7 @@
       <c r="A270" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B270" s="11" t="s">
+      <c r="B270" s="12" t="s">
         <v>265</v>
       </c>
       <c r="C270" s="5" t="s">
@@ -5303,7 +5304,7 @@
       <c r="A271" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B271" s="11" t="s">
+      <c r="B271" s="12" t="s">
         <v>89</v>
       </c>
       <c r="C271" s="5" t="s">
@@ -5314,7 +5315,7 @@
       <c r="A272" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B272" s="11" t="s">
+      <c r="B272" s="12" t="s">
         <v>266</v>
       </c>
       <c r="C272" s="5" t="s">
@@ -5322,18 +5323,18 @@
       </c>
     </row>
     <row r="273" ht="21" spans="2:3">
-      <c r="B273" s="12"/>
+      <c r="B273" s="13"/>
       <c r="C273" s="5"/>
     </row>
     <row r="274" ht="21" spans="2:3">
-      <c r="B274" s="12"/>
+      <c r="B274" s="13"/>
       <c r="C274" s="5"/>
     </row>
     <row r="275" ht="21" spans="1:3">
       <c r="A275" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B275" s="11" t="s">
+      <c r="B275" s="12" t="s">
         <v>268</v>
       </c>
       <c r="C275" s="5" t="s">
@@ -5344,7 +5345,7 @@
       <c r="A276" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B276" s="11" t="s">
+      <c r="B276" s="12" t="s">
         <v>269</v>
       </c>
       <c r="C276" s="5" t="s">
@@ -5355,7 +5356,7 @@
       <c r="A277" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B277" s="11" t="s">
+      <c r="B277" s="12" t="s">
         <v>270</v>
       </c>
       <c r="C277" s="5" t="s">
@@ -5366,7 +5367,7 @@
       <c r="A278" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B278" s="11" t="s">
+      <c r="B278" s="12" t="s">
         <v>271</v>
       </c>
       <c r="C278" s="5" t="s">
@@ -5377,7 +5378,7 @@
       <c r="A279" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B279" s="11" t="s">
+      <c r="B279" s="12" t="s">
         <v>272</v>
       </c>
       <c r="C279" s="5" t="s">
@@ -5388,7 +5389,7 @@
       <c r="A280" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B280" s="11" t="s">
+      <c r="B280" s="12" t="s">
         <v>273</v>
       </c>
       <c r="C280" s="5" t="s">
@@ -5399,7 +5400,7 @@
       <c r="A281" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B281" s="11" t="s">
+      <c r="B281" s="12" t="s">
         <v>274</v>
       </c>
       <c r="C281" s="5" t="s">
@@ -5410,7 +5411,7 @@
       <c r="A282" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B282" s="11" t="s">
+      <c r="B282" s="12" t="s">
         <v>275</v>
       </c>
       <c r="C282" s="5" t="s">
@@ -5421,7 +5422,7 @@
       <c r="A283" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B283" s="11" t="s">
+      <c r="B283" s="12" t="s">
         <v>276</v>
       </c>
       <c r="C283" s="5" t="s">
@@ -5432,7 +5433,7 @@
       <c r="A284" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B284" s="11" t="s">
+      <c r="B284" s="12" t="s">
         <v>277</v>
       </c>
       <c r="C284" s="5" t="s">
@@ -5443,7 +5444,7 @@
       <c r="A285" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B285" s="11" t="s">
+      <c r="B285" s="12" t="s">
         <v>278</v>
       </c>
       <c r="C285" s="5" t="s">
@@ -5454,7 +5455,7 @@
       <c r="A286" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B286" s="11" t="s">
+      <c r="B286" s="12" t="s">
         <v>279</v>
       </c>
       <c r="C286" s="5" t="s">
@@ -5465,7 +5466,7 @@
       <c r="A287" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B287" s="11" t="s">
+      <c r="B287" s="12" t="s">
         <v>280</v>
       </c>
       <c r="C287" s="5" t="s">
@@ -5476,7 +5477,7 @@
       <c r="A288" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B288" s="11" t="s">
+      <c r="B288" s="12" t="s">
         <v>281</v>
       </c>
       <c r="C288" s="5" t="s">
@@ -5487,7 +5488,7 @@
       <c r="A289" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B289" s="11" t="s">
+      <c r="B289" s="12" t="s">
         <v>282</v>
       </c>
       <c r="C289" s="5" t="s">
@@ -5498,7 +5499,7 @@
       <c r="A290" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B290" s="11" t="s">
+      <c r="B290" s="12" t="s">
         <v>283</v>
       </c>
       <c r="C290" s="5" t="s">
@@ -5509,7 +5510,7 @@
       <c r="A291" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B291" s="11" t="s">
+      <c r="B291" s="12" t="s">
         <v>284</v>
       </c>
       <c r="C291" s="5" t="s">
@@ -5520,7 +5521,7 @@
       <c r="A292" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B292" s="11" t="s">
+      <c r="B292" s="12" t="s">
         <v>285</v>
       </c>
       <c r="C292" s="5" t="s">
@@ -5531,7 +5532,7 @@
       <c r="A293" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B293" s="11" t="s">
+      <c r="B293" s="12" t="s">
         <v>286</v>
       </c>
       <c r="C293" s="5" t="s">
@@ -5539,18 +5540,18 @@
       </c>
     </row>
     <row r="294" ht="21" spans="2:3">
-      <c r="B294" s="12"/>
+      <c r="B294" s="13"/>
       <c r="C294" s="5"/>
     </row>
     <row r="295" ht="21" spans="2:3">
-      <c r="B295" s="12"/>
+      <c r="B295" s="13"/>
       <c r="C295" s="5"/>
     </row>
     <row r="296" ht="21" spans="1:3">
       <c r="A296" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B296" s="11" t="s">
+      <c r="B296" s="12" t="s">
         <v>288</v>
       </c>
       <c r="C296" s="5" t="s">
@@ -5561,7 +5562,7 @@
       <c r="A297" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B297" s="11" t="s">
+      <c r="B297" s="12" t="s">
         <v>289</v>
       </c>
       <c r="C297" s="5" t="s">
@@ -5572,7 +5573,7 @@
       <c r="A298" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B298" s="11" t="s">
+      <c r="B298" s="12" t="s">
         <v>290</v>
       </c>
       <c r="C298" s="5" t="s">
@@ -5583,7 +5584,7 @@
       <c r="A299" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B299" s="11" t="s">
+      <c r="B299" s="12" t="s">
         <v>291</v>
       </c>
       <c r="C299" s="5" t="s">
@@ -5594,7 +5595,7 @@
       <c r="A300" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B300" s="11" t="s">
+      <c r="B300" s="12" t="s">
         <v>292</v>
       </c>
       <c r="C300" s="5" t="s">
@@ -5605,7 +5606,7 @@
       <c r="A301" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B301" s="11" t="s">
+      <c r="B301" s="12" t="s">
         <v>293</v>
       </c>
       <c r="C301" s="5" t="s">
@@ -5616,7 +5617,7 @@
       <c r="A302" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B302" s="11" t="s">
+      <c r="B302" s="12" t="s">
         <v>294</v>
       </c>
       <c r="C302" s="5" t="s">
@@ -5627,7 +5628,7 @@
       <c r="A303" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B303" s="11" t="s">
+      <c r="B303" s="12" t="s">
         <v>295</v>
       </c>
       <c r="C303" s="5" t="s">
@@ -5638,7 +5639,7 @@
       <c r="A304" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B304" s="11" t="s">
+      <c r="B304" s="12" t="s">
         <v>296</v>
       </c>
       <c r="C304" s="5" t="s">
@@ -5649,7 +5650,7 @@
       <c r="A305" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B305" s="11" t="s">
+      <c r="B305" s="12" t="s">
         <v>297</v>
       </c>
       <c r="C305" s="5" t="s">
@@ -5660,7 +5661,7 @@
       <c r="A306" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B306" s="11" t="s">
+      <c r="B306" s="12" t="s">
         <v>298</v>
       </c>
       <c r="C306" s="5" t="s">
@@ -5671,7 +5672,7 @@
       <c r="A307" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B307" s="11" t="s">
+      <c r="B307" s="12" t="s">
         <v>299</v>
       </c>
       <c r="C307" s="5" t="s">
@@ -5682,7 +5683,7 @@
       <c r="A308" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B308" s="11" t="s">
+      <c r="B308" s="12" t="s">
         <v>300</v>
       </c>
       <c r="C308" s="5" t="s">
@@ -5693,7 +5694,7 @@
       <c r="A309" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B309" s="14" t="s">
+      <c r="B309" s="15" t="s">
         <v>301</v>
       </c>
       <c r="C309" s="5" t="s">
@@ -5704,7 +5705,7 @@
       <c r="A310" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B310" s="11" t="s">
+      <c r="B310" s="12" t="s">
         <v>302</v>
       </c>
       <c r="C310" s="5" t="s">
@@ -5715,7 +5716,7 @@
       <c r="A311" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B311" s="11" t="s">
+      <c r="B311" s="12" t="s">
         <v>303</v>
       </c>
       <c r="C311" s="5" t="s">
@@ -5726,7 +5727,7 @@
       <c r="A312" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B312" s="11" t="s">
+      <c r="B312" s="12" t="s">
         <v>304</v>
       </c>
       <c r="C312" s="5" t="s">
@@ -5737,7 +5738,7 @@
       <c r="A313" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B313" s="11" t="s">
+      <c r="B313" s="12" t="s">
         <v>305</v>
       </c>
       <c r="C313" s="5" t="s">
@@ -5748,7 +5749,7 @@
       <c r="A314" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B314" s="11" t="s">
+      <c r="B314" s="12" t="s">
         <v>306</v>
       </c>
       <c r="C314" s="5" t="s">
@@ -5759,7 +5760,7 @@
       <c r="A315" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B315" s="11" t="s">
+      <c r="B315" s="12" t="s">
         <v>307</v>
       </c>
       <c r="C315" s="5" t="s">
@@ -5770,7 +5771,7 @@
       <c r="A316" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B316" s="11" t="s">
+      <c r="B316" s="12" t="s">
         <v>308</v>
       </c>
       <c r="C316" s="5" t="s">
@@ -5781,7 +5782,7 @@
       <c r="A317" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B317" s="11" t="s">
+      <c r="B317" s="12" t="s">
         <v>309</v>
       </c>
       <c r="C317" s="5" t="s">
@@ -5792,7 +5793,7 @@
       <c r="A318" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B318" s="11" t="s">
+      <c r="B318" s="12" t="s">
         <v>310</v>
       </c>
       <c r="C318" s="5" t="s">
@@ -5803,7 +5804,7 @@
       <c r="A319" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B319" s="11" t="s">
+      <c r="B319" s="12" t="s">
         <v>311</v>
       </c>
       <c r="C319" s="5" t="s">
@@ -5814,7 +5815,7 @@
       <c r="A320" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B320" s="11" t="s">
+      <c r="B320" s="12" t="s">
         <v>312</v>
       </c>
       <c r="C320" s="5" t="s">
@@ -5825,7 +5826,7 @@
       <c r="A321" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B321" s="11" t="s">
+      <c r="B321" s="12" t="s">
         <v>313</v>
       </c>
       <c r="C321" s="5" t="s">
@@ -5836,7 +5837,7 @@
       <c r="A322" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B322" s="11" t="s">
+      <c r="B322" s="12" t="s">
         <v>314</v>
       </c>
       <c r="C322" s="5" t="s">
@@ -5847,7 +5848,7 @@
       <c r="A323" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B323" s="11" t="s">
+      <c r="B323" s="12" t="s">
         <v>315</v>
       </c>
       <c r="C323" s="5" t="s">
@@ -5858,7 +5859,7 @@
       <c r="A324" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B324" s="11" t="s">
+      <c r="B324" s="12" t="s">
         <v>316</v>
       </c>
       <c r="C324" s="5" t="s">
@@ -5869,7 +5870,7 @@
       <c r="A325" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B325" s="11" t="s">
+      <c r="B325" s="12" t="s">
         <v>317</v>
       </c>
       <c r="C325" s="5" t="s">
@@ -5880,7 +5881,7 @@
       <c r="A326" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B326" s="11" t="s">
+      <c r="B326" s="12" t="s">
         <v>318</v>
       </c>
       <c r="C326" s="5" t="s">
@@ -5891,7 +5892,7 @@
       <c r="A327" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B327" s="11" t="s">
+      <c r="B327" s="12" t="s">
         <v>319</v>
       </c>
       <c r="C327" s="5" t="s">
@@ -5902,7 +5903,7 @@
       <c r="A328" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B328" s="11" t="s">
+      <c r="B328" s="12" t="s">
         <v>320</v>
       </c>
       <c r="C328" s="5" t="s">
@@ -5913,7 +5914,7 @@
       <c r="A329" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B329" s="11" t="s">
+      <c r="B329" s="12" t="s">
         <v>321</v>
       </c>
       <c r="C329" s="5" t="s">
@@ -5924,7 +5925,7 @@
       <c r="A330" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B330" s="11" t="s">
+      <c r="B330" s="12" t="s">
         <v>322</v>
       </c>
       <c r="C330" s="5" t="s">
@@ -5935,7 +5936,7 @@
       <c r="A331" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B331" s="11" t="s">
+      <c r="B331" s="12" t="s">
         <v>323</v>
       </c>
       <c r="C331" s="5" t="s">
@@ -5946,7 +5947,7 @@
       <c r="A332" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B332" s="11" t="s">
+      <c r="B332" s="12" t="s">
         <v>324</v>
       </c>
       <c r="C332" s="5" t="s">
@@ -5957,7 +5958,7 @@
       <c r="A333" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B333" s="11" t="s">
+      <c r="B333" s="12" t="s">
         <v>325</v>
       </c>
       <c r="C333" s="5" t="s">
@@ -5965,18 +5966,18 @@
       </c>
     </row>
     <row r="334" ht="21" spans="2:3">
-      <c r="B334" s="12"/>
+      <c r="B334" s="13"/>
       <c r="C334" s="5"/>
     </row>
     <row r="335" ht="21" spans="2:3">
-      <c r="B335" s="12"/>
+      <c r="B335" s="13"/>
       <c r="C335" s="5"/>
     </row>
     <row r="336" ht="21" spans="1:3">
-      <c r="A336" s="13" t="s">
+      <c r="A336" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B336" s="11" t="s">
+      <c r="B336" s="12" t="s">
         <v>327</v>
       </c>
       <c r="C336" s="5" t="s">
@@ -5984,10 +5985,10 @@
       </c>
     </row>
     <row r="337" ht="21" spans="1:3">
-      <c r="A337" s="13" t="s">
+      <c r="A337" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B337" s="11" t="s">
+      <c r="B337" s="12" t="s">
         <v>328</v>
       </c>
       <c r="C337" s="5" t="s">
@@ -5995,10 +5996,10 @@
       </c>
     </row>
     <row r="338" ht="21" spans="1:3">
-      <c r="A338" s="13" t="s">
+      <c r="A338" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B338" s="11" t="s">
+      <c r="B338" s="12" t="s">
         <v>329</v>
       </c>
       <c r="C338" s="5" t="s">
@@ -6006,10 +6007,10 @@
       </c>
     </row>
     <row r="339" ht="21" spans="1:3">
-      <c r="A339" s="13" t="s">
+      <c r="A339" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B339" s="11" t="s">
+      <c r="B339" s="12" t="s">
         <v>330</v>
       </c>
       <c r="C339" s="5" t="s">
@@ -6017,10 +6018,10 @@
       </c>
     </row>
     <row r="340" ht="21" spans="1:3">
-      <c r="A340" s="13" t="s">
+      <c r="A340" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B340" s="11" t="s">
+      <c r="B340" s="12" t="s">
         <v>331</v>
       </c>
       <c r="C340" s="5" t="s">
@@ -6028,10 +6029,10 @@
       </c>
     </row>
     <row r="341" ht="21" spans="1:3">
-      <c r="A341" s="13" t="s">
+      <c r="A341" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B341" s="11" t="s">
+      <c r="B341" s="12" t="s">
         <v>332</v>
       </c>
       <c r="C341" s="5" t="s">
@@ -6039,10 +6040,10 @@
       </c>
     </row>
     <row r="342" ht="21" spans="1:3">
-      <c r="A342" s="13" t="s">
+      <c r="A342" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B342" s="11" t="s">
+      <c r="B342" s="12" t="s">
         <v>333</v>
       </c>
       <c r="C342" s="5" t="s">
@@ -6050,10 +6051,10 @@
       </c>
     </row>
     <row r="343" ht="21" spans="1:3">
-      <c r="A343" s="13" t="s">
+      <c r="A343" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B343" s="11" t="s">
+      <c r="B343" s="12" t="s">
         <v>334</v>
       </c>
       <c r="C343" s="5" t="s">
@@ -6061,10 +6062,10 @@
       </c>
     </row>
     <row r="344" ht="21" spans="1:3">
-      <c r="A344" s="13" t="s">
+      <c r="A344" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B344" s="14" t="s">
+      <c r="B344" s="15" t="s">
         <v>335</v>
       </c>
       <c r="C344" s="5" t="s">
@@ -6072,10 +6073,10 @@
       </c>
     </row>
     <row r="345" ht="21" spans="1:3">
-      <c r="A345" s="13" t="s">
+      <c r="A345" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B345" s="11" t="s">
+      <c r="B345" s="12" t="s">
         <v>336</v>
       </c>
       <c r="C345" s="5" t="s">
@@ -6083,10 +6084,10 @@
       </c>
     </row>
     <row r="346" ht="21" spans="1:3">
-      <c r="A346" s="13" t="s">
+      <c r="A346" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B346" s="11" t="s">
+      <c r="B346" s="12" t="s">
         <v>337</v>
       </c>
       <c r="C346" s="5" t="s">
@@ -6094,10 +6095,10 @@
       </c>
     </row>
     <row r="347" ht="21" spans="1:3">
-      <c r="A347" s="13" t="s">
+      <c r="A347" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B347" s="11" t="s">
+      <c r="B347" s="12" t="s">
         <v>338</v>
       </c>
       <c r="C347" s="5" t="s">
@@ -6105,10 +6106,10 @@
       </c>
     </row>
     <row r="348" ht="21" spans="1:3">
-      <c r="A348" s="13" t="s">
+      <c r="A348" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B348" s="11" t="s">
+      <c r="B348" s="12" t="s">
         <v>339</v>
       </c>
       <c r="C348" s="5" t="s">
@@ -6116,10 +6117,10 @@
       </c>
     </row>
     <row r="349" ht="21" spans="1:3">
-      <c r="A349" s="13" t="s">
+      <c r="A349" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B349" s="11" t="s">
+      <c r="B349" s="12" t="s">
         <v>340</v>
       </c>
       <c r="C349" s="5" t="s">
@@ -6127,10 +6128,10 @@
       </c>
     </row>
     <row r="350" ht="21" spans="1:3">
-      <c r="A350" s="13" t="s">
+      <c r="A350" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B350" s="11" t="s">
+      <c r="B350" s="12" t="s">
         <v>341</v>
       </c>
       <c r="C350" s="5" t="s">
@@ -6138,10 +6139,10 @@
       </c>
     </row>
     <row r="351" ht="21" spans="1:3">
-      <c r="A351" s="13" t="s">
+      <c r="A351" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B351" s="11" t="s">
+      <c r="B351" s="12" t="s">
         <v>342</v>
       </c>
       <c r="C351" s="5" t="s">
@@ -6149,10 +6150,10 @@
       </c>
     </row>
     <row r="352" ht="21" spans="1:3">
-      <c r="A352" s="13" t="s">
+      <c r="A352" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B352" s="11" t="s">
+      <c r="B352" s="12" t="s">
         <v>343</v>
       </c>
       <c r="C352" s="5" t="s">
@@ -6160,10 +6161,10 @@
       </c>
     </row>
     <row r="353" ht="21" spans="1:3">
-      <c r="A353" s="13" t="s">
+      <c r="A353" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B353" s="11" t="s">
+      <c r="B353" s="12" t="s">
         <v>344</v>
       </c>
       <c r="C353" s="5" t="s">
@@ -6171,18 +6172,18 @@
       </c>
     </row>
     <row r="354" ht="21" spans="2:3">
-      <c r="B354" s="12"/>
+      <c r="B354" s="13"/>
       <c r="C354" s="5"/>
     </row>
     <row r="355" ht="21" spans="2:3">
-      <c r="B355" s="12"/>
+      <c r="B355" s="13"/>
       <c r="C355" s="5"/>
     </row>
     <row r="356" ht="21" spans="1:3">
-      <c r="A356" s="13" t="s">
+      <c r="A356" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B356" s="11" t="s">
+      <c r="B356" s="12" t="s">
         <v>346</v>
       </c>
       <c r="C356" s="5" t="s">
@@ -6190,10 +6191,10 @@
       </c>
     </row>
     <row r="357" ht="21" spans="1:3">
-      <c r="A357" s="13" t="s">
+      <c r="A357" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B357" s="11" t="s">
+      <c r="B357" s="12" t="s">
         <v>347</v>
       </c>
       <c r="C357" s="5" t="s">
@@ -6201,10 +6202,10 @@
       </c>
     </row>
     <row r="358" ht="21" spans="1:3">
-      <c r="A358" s="13" t="s">
+      <c r="A358" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B358" s="11" t="s">
+      <c r="B358" s="12" t="s">
         <v>348</v>
       </c>
       <c r="C358" s="5" t="s">
@@ -6212,10 +6213,10 @@
       </c>
     </row>
     <row r="359" ht="21" spans="1:3">
-      <c r="A359" s="13" t="s">
+      <c r="A359" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B359" s="11" t="s">
+      <c r="B359" s="12" t="s">
         <v>349</v>
       </c>
       <c r="C359" s="5" t="s">
@@ -6223,10 +6224,10 @@
       </c>
     </row>
     <row r="360" ht="21" spans="1:3">
-      <c r="A360" s="13" t="s">
+      <c r="A360" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B360" s="11" t="s">
+      <c r="B360" s="12" t="s">
         <v>350</v>
       </c>
       <c r="C360" s="5" t="s">
@@ -6234,10 +6235,10 @@
       </c>
     </row>
     <row r="361" ht="21" spans="1:3">
-      <c r="A361" s="13" t="s">
+      <c r="A361" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B361" s="11" t="s">
+      <c r="B361" s="12" t="s">
         <v>351</v>
       </c>
       <c r="C361" s="5" t="s">
@@ -6245,10 +6246,10 @@
       </c>
     </row>
     <row r="362" ht="21" spans="1:3">
-      <c r="A362" s="13" t="s">
+      <c r="A362" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B362" s="11" t="s">
+      <c r="B362" s="12" t="s">
         <v>352</v>
       </c>
       <c r="C362" s="5" t="s">
@@ -6256,10 +6257,10 @@
       </c>
     </row>
     <row r="363" ht="21" spans="1:3">
-      <c r="A363" s="13" t="s">
+      <c r="A363" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B363" s="11" t="s">
+      <c r="B363" s="12" t="s">
         <v>353</v>
       </c>
       <c r="C363" s="5" t="s">
@@ -6267,10 +6268,10 @@
       </c>
     </row>
     <row r="364" ht="21" spans="1:3">
-      <c r="A364" s="13" t="s">
+      <c r="A364" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B364" s="11" t="s">
+      <c r="B364" s="12" t="s">
         <v>354</v>
       </c>
       <c r="C364" s="5" t="s">
@@ -6278,10 +6279,10 @@
       </c>
     </row>
     <row r="365" ht="21" spans="1:3">
-      <c r="A365" s="13" t="s">
+      <c r="A365" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B365" s="11" t="s">
+      <c r="B365" s="12" t="s">
         <v>355</v>
       </c>
       <c r="C365" s="5" t="s">
@@ -6289,10 +6290,10 @@
       </c>
     </row>
     <row r="366" ht="21" spans="1:3">
-      <c r="A366" s="13" t="s">
+      <c r="A366" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B366" s="11" t="s">
+      <c r="B366" s="12" t="s">
         <v>356</v>
       </c>
       <c r="C366" s="5" t="s">
@@ -6300,10 +6301,10 @@
       </c>
     </row>
     <row r="367" ht="21" spans="1:3">
-      <c r="A367" s="13" t="s">
+      <c r="A367" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B367" s="11" t="s">
+      <c r="B367" s="12" t="s">
         <v>357</v>
       </c>
       <c r="C367" s="5" t="s">
@@ -6311,10 +6312,10 @@
       </c>
     </row>
     <row r="368" ht="21" spans="1:3">
-      <c r="A368" s="13" t="s">
+      <c r="A368" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B368" s="11" t="s">
+      <c r="B368" s="12" t="s">
         <v>358</v>
       </c>
       <c r="C368" s="5" t="s">
@@ -6322,10 +6323,10 @@
       </c>
     </row>
     <row r="369" ht="21" spans="1:3">
-      <c r="A369" s="13" t="s">
+      <c r="A369" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B369" s="11" t="s">
+      <c r="B369" s="12" t="s">
         <v>359</v>
       </c>
       <c r="C369" s="5" t="s">
@@ -6333,10 +6334,10 @@
       </c>
     </row>
     <row r="370" ht="21" spans="1:3">
-      <c r="A370" s="13" t="s">
+      <c r="A370" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B370" s="11" t="s">
+      <c r="B370" s="12" t="s">
         <v>360</v>
       </c>
       <c r="C370" s="5" t="s">
@@ -6344,10 +6345,10 @@
       </c>
     </row>
     <row r="371" ht="21" spans="1:3">
-      <c r="A371" s="13" t="s">
+      <c r="A371" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B371" s="11" t="s">
+      <c r="B371" s="12" t="s">
         <v>361</v>
       </c>
       <c r="C371" s="5" t="s">
@@ -6355,10 +6356,10 @@
       </c>
     </row>
     <row r="372" ht="21" spans="1:3">
-      <c r="A372" s="13" t="s">
+      <c r="A372" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B372" s="11" t="s">
+      <c r="B372" s="12" t="s">
         <v>362</v>
       </c>
       <c r="C372" s="5" t="s">
@@ -6366,10 +6367,10 @@
       </c>
     </row>
     <row r="373" ht="21" spans="1:3">
-      <c r="A373" s="13" t="s">
+      <c r="A373" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B373" s="11" t="s">
+      <c r="B373" s="12" t="s">
         <v>363</v>
       </c>
       <c r="C373" s="5" t="s">
@@ -6377,10 +6378,10 @@
       </c>
     </row>
     <row r="374" ht="21" spans="1:3">
-      <c r="A374" s="13" t="s">
+      <c r="A374" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B374" s="11" t="s">
+      <c r="B374" s="12" t="s">
         <v>364</v>
       </c>
       <c r="C374" s="5" t="s">
@@ -6388,10 +6389,10 @@
       </c>
     </row>
     <row r="375" ht="21" spans="1:3">
-      <c r="A375" s="13" t="s">
+      <c r="A375" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B375" s="11" t="s">
+      <c r="B375" s="12" t="s">
         <v>365</v>
       </c>
       <c r="C375" s="5" t="s">
@@ -6399,10 +6400,10 @@
       </c>
     </row>
     <row r="376" ht="21" spans="1:3">
-      <c r="A376" s="13" t="s">
+      <c r="A376" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B376" s="11" t="s">
+      <c r="B376" s="12" t="s">
         <v>366</v>
       </c>
       <c r="C376" s="5" t="s">
@@ -6410,10 +6411,10 @@
       </c>
     </row>
     <row r="377" ht="21" spans="1:3">
-      <c r="A377" s="13" t="s">
+      <c r="A377" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B377" s="11" t="s">
+      <c r="B377" s="12" t="s">
         <v>367</v>
       </c>
       <c r="C377" s="5" t="s">
@@ -6421,10 +6422,10 @@
       </c>
     </row>
     <row r="378" ht="21" spans="1:3">
-      <c r="A378" s="13" t="s">
+      <c r="A378" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B378" s="11" t="s">
+      <c r="B378" s="12" t="s">
         <v>368</v>
       </c>
       <c r="C378" s="5" t="s">
@@ -6432,10 +6433,10 @@
       </c>
     </row>
     <row r="379" ht="21" spans="1:3">
-      <c r="A379" s="13" t="s">
+      <c r="A379" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B379" s="11" t="s">
+      <c r="B379" s="12" t="s">
         <v>369</v>
       </c>
       <c r="C379" s="5" t="s">
@@ -6443,10 +6444,10 @@
       </c>
     </row>
     <row r="380" ht="21" spans="1:3">
-      <c r="A380" s="13" t="s">
+      <c r="A380" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B380" s="11" t="s">
+      <c r="B380" s="12" t="s">
         <v>370</v>
       </c>
       <c r="C380" s="5" t="s">
@@ -6454,10 +6455,10 @@
       </c>
     </row>
     <row r="381" ht="21" spans="1:3">
-      <c r="A381" s="13" t="s">
+      <c r="A381" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B381" s="11" t="s">
+      <c r="B381" s="12" t="s">
         <v>371</v>
       </c>
       <c r="C381" s="5" t="s">
@@ -6465,10 +6466,10 @@
       </c>
     </row>
     <row r="382" ht="21" spans="1:3">
-      <c r="A382" s="13" t="s">
+      <c r="A382" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B382" s="11" t="s">
+      <c r="B382" s="12" t="s">
         <v>372</v>
       </c>
       <c r="C382" s="5" t="s">
@@ -6476,10 +6477,10 @@
       </c>
     </row>
     <row r="383" ht="21" spans="1:3">
-      <c r="A383" s="13" t="s">
+      <c r="A383" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B383" s="11" t="s">
+      <c r="B383" s="12" t="s">
         <v>373</v>
       </c>
       <c r="C383" s="5" t="s">
@@ -6487,10 +6488,10 @@
       </c>
     </row>
     <row r="384" ht="21" spans="1:3">
-      <c r="A384" s="13" t="s">
+      <c r="A384" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B384" s="11" t="s">
+      <c r="B384" s="12" t="s">
         <v>374</v>
       </c>
       <c r="C384" s="5" t="s">
@@ -6498,10 +6499,10 @@
       </c>
     </row>
     <row r="385" ht="21" spans="1:3">
-      <c r="A385" s="13" t="s">
+      <c r="A385" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B385" s="11" t="s">
+      <c r="B385" s="12" t="s">
         <v>375</v>
       </c>
       <c r="C385" s="5" t="s">
@@ -6509,10 +6510,10 @@
       </c>
     </row>
     <row r="386" ht="21" spans="1:3">
-      <c r="A386" s="13" t="s">
+      <c r="A386" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B386" s="11" t="s">
+      <c r="B386" s="12" t="s">
         <v>376</v>
       </c>
       <c r="C386" s="5" t="s">
@@ -6520,10 +6521,10 @@
       </c>
     </row>
     <row r="387" ht="21" spans="1:3">
-      <c r="A387" s="13" t="s">
+      <c r="A387" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B387" s="11" t="s">
+      <c r="B387" s="12" t="s">
         <v>377</v>
       </c>
       <c r="C387" s="5" t="s">
@@ -6531,10 +6532,10 @@
       </c>
     </row>
     <row r="388" ht="21" spans="1:3">
-      <c r="A388" s="13" t="s">
+      <c r="A388" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B388" s="11" t="s">
+      <c r="B388" s="12" t="s">
         <v>378</v>
       </c>
       <c r="C388" s="5" t="s">
@@ -6542,10 +6543,10 @@
       </c>
     </row>
     <row r="389" ht="21" spans="1:3">
-      <c r="A389" s="13" t="s">
+      <c r="A389" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B389" s="11" t="s">
+      <c r="B389" s="12" t="s">
         <v>379</v>
       </c>
       <c r="C389" s="5" t="s">
@@ -6553,10 +6554,10 @@
       </c>
     </row>
     <row r="390" ht="21" spans="1:3">
-      <c r="A390" s="13" t="s">
+      <c r="A390" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B390" s="11" t="s">
+      <c r="B390" s="12" t="s">
         <v>379</v>
       </c>
       <c r="C390" s="5" t="s">
@@ -6564,10 +6565,10 @@
       </c>
     </row>
     <row r="391" ht="21" spans="1:3">
-      <c r="A391" s="13" t="s">
+      <c r="A391" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B391" s="11" t="s">
+      <c r="B391" s="12" t="s">
         <v>380</v>
       </c>
       <c r="C391" s="5" t="s">
@@ -6575,10 +6576,10 @@
       </c>
     </row>
     <row r="392" ht="21" spans="1:3">
-      <c r="A392" s="13" t="s">
+      <c r="A392" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B392" s="11" t="s">
+      <c r="B392" s="12" t="s">
         <v>381</v>
       </c>
       <c r="C392" s="5" t="s">
@@ -6586,10 +6587,10 @@
       </c>
     </row>
     <row r="393" ht="21" spans="1:3">
-      <c r="A393" s="13" t="s">
+      <c r="A393" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B393" s="11" t="s">
+      <c r="B393" s="12" t="s">
         <v>382</v>
       </c>
       <c r="C393" s="5" t="s">
@@ -6597,10 +6598,10 @@
       </c>
     </row>
     <row r="394" ht="21" spans="1:3">
-      <c r="A394" s="13" t="s">
+      <c r="A394" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B394" s="11" t="s">
+      <c r="B394" s="12" t="s">
         <v>383</v>
       </c>
       <c r="C394" s="5" t="s">
@@ -6608,10 +6609,10 @@
       </c>
     </row>
     <row r="395" ht="21" spans="1:3">
-      <c r="A395" s="13" t="s">
+      <c r="A395" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B395" s="11" t="s">
+      <c r="B395" s="12" t="s">
         <v>384</v>
       </c>
       <c r="C395" s="5" t="s">
@@ -6619,10 +6620,10 @@
       </c>
     </row>
     <row r="396" ht="21" spans="1:3">
-      <c r="A396" s="13" t="s">
+      <c r="A396" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B396" s="11" t="s">
+      <c r="B396" s="12" t="s">
         <v>385</v>
       </c>
       <c r="C396" s="5" t="s">
@@ -6630,10 +6631,10 @@
       </c>
     </row>
     <row r="397" ht="21" spans="1:3">
-      <c r="A397" s="13" t="s">
+      <c r="A397" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B397" s="11" t="s">
+      <c r="B397" s="12" t="s">
         <v>386</v>
       </c>
       <c r="C397" s="5" t="s">
@@ -6641,10 +6642,10 @@
       </c>
     </row>
     <row r="398" ht="21" spans="1:3">
-      <c r="A398" s="13" t="s">
+      <c r="A398" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B398" s="11" t="s">
+      <c r="B398" s="12" t="s">
         <v>387</v>
       </c>
       <c r="C398" s="5" t="s">
@@ -6652,10 +6653,10 @@
       </c>
     </row>
     <row r="399" ht="21" spans="1:3">
-      <c r="A399" s="13" t="s">
+      <c r="A399" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B399" s="11" t="s">
+      <c r="B399" s="12" t="s">
         <v>388</v>
       </c>
       <c r="C399" s="5" t="s">
@@ -6663,18 +6664,18 @@
       </c>
     </row>
     <row r="400" ht="21" spans="2:3">
-      <c r="B400" s="12"/>
+      <c r="B400" s="13"/>
       <c r="C400" s="5"/>
     </row>
     <row r="401" ht="21" spans="2:3">
-      <c r="B401" s="12"/>
+      <c r="B401" s="13"/>
       <c r="C401" s="5"/>
     </row>
     <row r="402" ht="21" spans="1:3">
-      <c r="A402" s="13" t="s">
+      <c r="A402" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="B402" s="11" t="s">
+      <c r="B402" s="12" t="s">
         <v>390</v>
       </c>
       <c r="C402" s="5" t="s">
@@ -6682,10 +6683,10 @@
       </c>
     </row>
     <row r="403" ht="21" spans="1:3">
-      <c r="A403" s="13" t="s">
+      <c r="A403" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="B403" s="11" t="s">
+      <c r="B403" s="12" t="s">
         <v>391</v>
       </c>
       <c r="C403" s="5" t="s">
@@ -6693,10 +6694,10 @@
       </c>
     </row>
     <row r="404" ht="21" spans="1:3">
-      <c r="A404" s="13" t="s">
+      <c r="A404" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="B404" s="11" t="s">
+      <c r="B404" s="12" t="s">
         <v>392</v>
       </c>
       <c r="C404" s="5" t="s">
@@ -6704,10 +6705,10 @@
       </c>
     </row>
     <row r="405" ht="21" spans="1:3">
-      <c r="A405" s="13" t="s">
+      <c r="A405" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="B405" s="11" t="s">
+      <c r="B405" s="12" t="s">
         <v>91</v>
       </c>
       <c r="C405" s="5" t="s">
@@ -6715,10 +6716,10 @@
       </c>
     </row>
     <row r="406" ht="21" spans="1:3">
-      <c r="A406" s="13" t="s">
+      <c r="A406" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="B406" s="11" t="s">
+      <c r="B406" s="12" t="s">
         <v>393</v>
       </c>
       <c r="C406" s="5" t="s">
@@ -6726,10 +6727,10 @@
       </c>
     </row>
     <row r="407" ht="21" spans="1:3">
-      <c r="A407" s="13" t="s">
+      <c r="A407" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="B407" s="11" t="s">
+      <c r="B407" s="12" t="s">
         <v>394</v>
       </c>
       <c r="C407" s="5" t="s">
@@ -6737,18 +6738,18 @@
       </c>
     </row>
     <row r="408" ht="21" spans="2:3">
-      <c r="B408" s="12"/>
+      <c r="B408" s="13"/>
       <c r="C408" s="5"/>
     </row>
     <row r="409" ht="21" spans="2:3">
-      <c r="B409" s="12"/>
+      <c r="B409" s="13"/>
       <c r="C409" s="5"/>
     </row>
     <row r="410" ht="21" spans="1:3">
       <c r="A410" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B410" s="11" t="s">
+      <c r="B410" s="12" t="s">
         <v>396</v>
       </c>
       <c r="C410" s="5" t="s">
@@ -6759,7 +6760,7 @@
       <c r="A411" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B411" s="11" t="s">
+      <c r="B411" s="12" t="s">
         <v>397</v>
       </c>
       <c r="C411" s="5" t="s">
@@ -6770,7 +6771,7 @@
       <c r="A412" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B412" s="11" t="s">
+      <c r="B412" s="12" t="s">
         <v>398</v>
       </c>
       <c r="C412" s="5" t="s">
@@ -6781,7 +6782,7 @@
       <c r="A413" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B413" s="11" t="s">
+      <c r="B413" s="12" t="s">
         <v>399</v>
       </c>
       <c r="C413" s="5" t="s">
@@ -6792,7 +6793,7 @@
       <c r="A414" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B414" s="11" t="s">
+      <c r="B414" s="12" t="s">
         <v>400</v>
       </c>
       <c r="C414" s="5" t="s">
@@ -6803,7 +6804,7 @@
       <c r="A415" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B415" s="11" t="s">
+      <c r="B415" s="12" t="s">
         <v>401</v>
       </c>
       <c r="C415" s="5" t="s">
@@ -6814,7 +6815,7 @@
       <c r="A416" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B416" s="11" t="s">
+      <c r="B416" s="12" t="s">
         <v>402</v>
       </c>
       <c r="C416" s="5" t="s">
@@ -6825,7 +6826,7 @@
       <c r="A417" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B417" s="11" t="s">
+      <c r="B417" s="12" t="s">
         <v>275</v>
       </c>
       <c r="C417" s="5" t="s">
@@ -6836,7 +6837,7 @@
       <c r="A418" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B418" s="11" t="s">
+      <c r="B418" s="12" t="s">
         <v>403</v>
       </c>
       <c r="C418" s="5" t="s">
@@ -6847,7 +6848,7 @@
       <c r="A419" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B419" s="11" t="s">
+      <c r="B419" s="12" t="s">
         <v>404</v>
       </c>
       <c r="C419" s="5" t="s">
@@ -6858,7 +6859,7 @@
       <c r="A420" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B420" s="11" t="s">
+      <c r="B420" s="12" t="s">
         <v>405</v>
       </c>
       <c r="C420" s="5" t="s">
@@ -6869,7 +6870,7 @@
       <c r="A421" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B421" s="11" t="s">
+      <c r="B421" s="12" t="s">
         <v>406</v>
       </c>
       <c r="C421" s="5" t="s">
@@ -6880,7 +6881,7 @@
       <c r="A422" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B422" s="11" t="s">
+      <c r="B422" s="12" t="s">
         <v>407</v>
       </c>
       <c r="C422" s="5" t="s">
@@ -6891,7 +6892,7 @@
       <c r="A423" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B423" s="11" t="s">
+      <c r="B423" s="12" t="s">
         <v>408</v>
       </c>
       <c r="C423" s="5" t="s">
@@ -6902,7 +6903,7 @@
       <c r="A424" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B424" s="11" t="s">
+      <c r="B424" s="12" t="s">
         <v>409</v>
       </c>
       <c r="C424" s="5" t="s">
@@ -6913,7 +6914,7 @@
       <c r="A425" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B425" s="11" t="s">
+      <c r="B425" s="12" t="s">
         <v>410</v>
       </c>
       <c r="C425" s="5" t="s">
@@ -6924,7 +6925,7 @@
       <c r="A426" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B426" s="11" t="s">
+      <c r="B426" s="12" t="s">
         <v>411</v>
       </c>
       <c r="C426" s="5" t="s">
@@ -6935,7 +6936,7 @@
       <c r="A427" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B427" s="11" t="s">
+      <c r="B427" s="12" t="s">
         <v>412</v>
       </c>
       <c r="C427" s="5" t="s">
@@ -6946,7 +6947,7 @@
       <c r="A428" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B428" s="11" t="s">
+      <c r="B428" s="12" t="s">
         <v>413</v>
       </c>
       <c r="C428" s="5" t="s">
@@ -6957,7 +6958,7 @@
       <c r="A429" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B429" s="11" t="s">
+      <c r="B429" s="12" t="s">
         <v>414</v>
       </c>
       <c r="C429" s="5" t="s">
@@ -6968,7 +6969,7 @@
       <c r="A430" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B430" s="11" t="s">
+      <c r="B430" s="12" t="s">
         <v>415</v>
       </c>
       <c r="C430" s="5" t="s">
@@ -6979,7 +6980,7 @@
       <c r="A431" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B431" s="11" t="s">
+      <c r="B431" s="12" t="s">
         <v>416</v>
       </c>
       <c r="C431" s="5" t="s">
@@ -6990,7 +6991,7 @@
       <c r="A432" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B432" s="11" t="s">
+      <c r="B432" s="12" t="s">
         <v>417</v>
       </c>
       <c r="C432" s="5" t="s">
@@ -7001,7 +7002,7 @@
       <c r="A433" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B433" s="11" t="s">
+      <c r="B433" s="12" t="s">
         <v>418</v>
       </c>
       <c r="C433" s="5" t="s">
@@ -7012,7 +7013,7 @@
       <c r="A434" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B434" s="11" t="s">
+      <c r="B434" s="12" t="s">
         <v>419</v>
       </c>
       <c r="C434" s="5" t="s">
@@ -7023,7 +7024,7 @@
       <c r="A435" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B435" s="11" t="s">
+      <c r="B435" s="12" t="s">
         <v>420</v>
       </c>
       <c r="C435" s="5" t="s">
@@ -7034,7 +7035,7 @@
       <c r="A436" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B436" s="11" t="s">
+      <c r="B436" s="12" t="s">
         <v>421</v>
       </c>
       <c r="C436" s="5" t="s">
@@ -7045,7 +7046,7 @@
       <c r="A437" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B437" s="11" t="s">
+      <c r="B437" s="12" t="s">
         <v>422</v>
       </c>
       <c r="C437" s="5" t="s">
@@ -7056,7 +7057,7 @@
       <c r="A438" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B438" s="11" t="s">
+      <c r="B438" s="12" t="s">
         <v>423</v>
       </c>
       <c r="C438" s="5" t="s">
@@ -7067,7 +7068,7 @@
       <c r="A439" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B439" s="11" t="s">
+      <c r="B439" s="12" t="s">
         <v>424</v>
       </c>
       <c r="C439" s="5" t="s">
@@ -7078,7 +7079,7 @@
       <c r="A440" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B440" s="11" t="s">
+      <c r="B440" s="12" t="s">
         <v>425</v>
       </c>
       <c r="C440" s="5" t="s">
@@ -7089,7 +7090,7 @@
       <c r="A441" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B441" s="11" t="s">
+      <c r="B441" s="12" t="s">
         <v>426</v>
       </c>
       <c r="C441" s="5" t="s">
@@ -7100,7 +7101,7 @@
       <c r="A442" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B442" s="11" t="s">
+      <c r="B442" s="12" t="s">
         <v>427</v>
       </c>
       <c r="C442" s="5" t="s">
@@ -7111,7 +7112,7 @@
       <c r="A443" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B443" s="11" t="s">
+      <c r="B443" s="12" t="s">
         <v>428</v>
       </c>
       <c r="C443" s="5" t="s">
@@ -7122,7 +7123,7 @@
       <c r="A444" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B444" s="11" t="s">
+      <c r="B444" s="12" t="s">
         <v>429</v>
       </c>
       <c r="C444" s="5" t="s">
@@ -7133,7 +7134,7 @@
       <c r="A445" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B445" s="11" t="s">
+      <c r="B445" s="12" t="s">
         <v>430</v>
       </c>
       <c r="C445" s="5" t="s">
@@ -7144,7 +7145,7 @@
       <c r="A446" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B446" s="11" t="s">
+      <c r="B446" s="12" t="s">
         <v>431</v>
       </c>
       <c r="C446" s="5" t="s">
@@ -7155,7 +7156,7 @@
       <c r="A447" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B447" s="11" t="s">
+      <c r="B447" s="12" t="s">
         <v>432</v>
       </c>
       <c r="C447" s="5" t="s">
@@ -7166,7 +7167,7 @@
       <c r="A448" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B448" s="11" t="s">
+      <c r="B448" s="12" t="s">
         <v>433</v>
       </c>
       <c r="C448" s="5" t="s">
@@ -7177,7 +7178,7 @@
       <c r="A449" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B449" s="11" t="s">
+      <c r="B449" s="12" t="s">
         <v>434</v>
       </c>
       <c r="C449" s="5" t="s">
@@ -7188,7 +7189,7 @@
       <c r="A450" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B450" s="11" t="s">
+      <c r="B450" s="12" t="s">
         <v>435</v>
       </c>
       <c r="C450" s="5" t="s">
@@ -7199,7 +7200,7 @@
       <c r="A451" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B451" s="11" t="s">
+      <c r="B451" s="12" t="s">
         <v>436</v>
       </c>
       <c r="C451" s="5" t="s">
@@ -7210,7 +7211,7 @@
       <c r="A452" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B452" s="11" t="s">
+      <c r="B452" s="12" t="s">
         <v>437</v>
       </c>
       <c r="C452" s="5" t="s">
@@ -7221,7 +7222,7 @@
       <c r="A453" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B453" s="11" t="s">
+      <c r="B453" s="12" t="s">
         <v>438</v>
       </c>
       <c r="C453" s="5" t="s">
@@ -7232,7 +7233,7 @@
       <c r="A454" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B454" s="11" t="s">
+      <c r="B454" s="12" t="s">
         <v>439</v>
       </c>
       <c r="C454" s="5" t="s">
@@ -7243,7 +7244,7 @@
       <c r="A455" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B455" s="11" t="s">
+      <c r="B455" s="12" t="s">
         <v>440</v>
       </c>
       <c r="C455" s="5" t="s">
@@ -7254,7 +7255,7 @@
       <c r="A456" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B456" s="11" t="s">
+      <c r="B456" s="12" t="s">
         <v>441</v>
       </c>
       <c r="C456" s="5" t="s">
@@ -7265,7 +7266,7 @@
       <c r="A457" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B457" s="11" t="s">
+      <c r="B457" s="12" t="s">
         <v>442</v>
       </c>
       <c r="C457" s="5" t="s">
@@ -7276,7 +7277,7 @@
       <c r="A458" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B458" s="11" t="s">
+      <c r="B458" s="12" t="s">
         <v>443</v>
       </c>
       <c r="C458" s="5" t="s">
@@ -7287,7 +7288,7 @@
       <c r="A459" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B459" s="11" t="s">
+      <c r="B459" s="12" t="s">
         <v>444</v>
       </c>
       <c r="C459" s="5" t="s">
@@ -7298,7 +7299,7 @@
       <c r="A460" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B460" s="11" t="s">
+      <c r="B460" s="12" t="s">
         <v>445</v>
       </c>
       <c r="C460" s="5" t="s">
@@ -7309,7 +7310,7 @@
       <c r="A461" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B461" s="11" t="s">
+      <c r="B461" s="12" t="s">
         <v>446</v>
       </c>
       <c r="C461" s="5" t="s">
@@ -7320,7 +7321,7 @@
       <c r="A462" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B462" s="11" t="s">
+      <c r="B462" s="12" t="s">
         <v>447</v>
       </c>
       <c r="C462" s="5" t="s">
@@ -7331,7 +7332,7 @@
       <c r="A463" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B463" s="11" t="s">
+      <c r="B463" s="12" t="s">
         <v>448</v>
       </c>
       <c r="C463" s="5" t="s">
@@ -7342,7 +7343,7 @@
       <c r="A464" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B464" s="11" t="s">
+      <c r="B464" s="12" t="s">
         <v>449</v>
       </c>
       <c r="C464" s="5" t="s">
@@ -7353,7 +7354,7 @@
       <c r="A465" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B465" s="11" t="s">
+      <c r="B465" s="12" t="s">
         <v>450</v>
       </c>
       <c r="C465" s="5" t="s">
@@ -7364,7 +7365,7 @@
       <c r="A466" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B466" s="11" t="s">
+      <c r="B466" s="12" t="s">
         <v>451</v>
       </c>
       <c r="C466" s="5" t="s">
@@ -7375,7 +7376,7 @@
       <c r="A467" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B467" s="11" t="s">
+      <c r="B467" s="12" t="s">
         <v>452</v>
       </c>
       <c r="C467" s="5" t="s">
@@ -7386,7 +7387,7 @@
       <c r="A468" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B468" s="11" t="s">
+      <c r="B468" s="12" t="s">
         <v>453</v>
       </c>
       <c r="C468" s="5" t="s">
@@ -7397,7 +7398,7 @@
       <c r="A469" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B469" s="11" t="s">
+      <c r="B469" s="12" t="s">
         <v>454</v>
       </c>
       <c r="C469" s="5" t="s">
@@ -7405,19 +7406,19 @@
       </c>
     </row>
     <row r="470" ht="21" spans="2:3">
-      <c r="B470" s="12"/>
+      <c r="B470" s="13"/>
       <c r="C470" s="5"/>
     </row>
     <row r="471" ht="21" spans="1:3">
-      <c r="A471" s="13"/>
-      <c r="B471" s="12"/>
+      <c r="A471" s="14"/>
+      <c r="B471" s="13"/>
       <c r="C471" s="5"/>
     </row>
     <row r="472" ht="21" spans="1:3">
       <c r="A472" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B472" s="11" t="s">
+      <c r="B472" s="12" t="s">
         <v>456</v>
       </c>
       <c r="C472" s="5" t="s">
@@ -7428,7 +7429,7 @@
       <c r="A473" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B473" s="11" t="s">
+      <c r="B473" s="12" t="s">
         <v>457</v>
       </c>
       <c r="C473" s="5" t="s">
@@ -7439,7 +7440,7 @@
       <c r="A474" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B474" s="11" t="s">
+      <c r="B474" s="12" t="s">
         <v>458</v>
       </c>
       <c r="C474" s="5" t="s">
@@ -7450,7 +7451,7 @@
       <c r="A475" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B475" s="11" t="s">
+      <c r="B475" s="12" t="s">
         <v>459</v>
       </c>
       <c r="C475" s="5" t="s">
@@ -7461,7 +7462,7 @@
       <c r="A476" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B476" s="11" t="s">
+      <c r="B476" s="12" t="s">
         <v>460</v>
       </c>
       <c r="C476" s="5" t="s">
@@ -7472,7 +7473,7 @@
       <c r="A477" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B477" s="11" t="s">
+      <c r="B477" s="12" t="s">
         <v>461</v>
       </c>
       <c r="C477" s="5" t="s">
@@ -7483,7 +7484,7 @@
       <c r="A478" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B478" s="11" t="s">
+      <c r="B478" s="12" t="s">
         <v>462</v>
       </c>
       <c r="C478" s="5" t="s">
@@ -7494,7 +7495,7 @@
       <c r="A479" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B479" s="11" t="s">
+      <c r="B479" s="12" t="s">
         <v>463</v>
       </c>
       <c r="C479" s="5" t="s">
@@ -7505,7 +7506,7 @@
       <c r="A480" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B480" s="11" t="s">
+      <c r="B480" s="12" t="s">
         <v>464</v>
       </c>
       <c r="C480" s="5" t="s">
@@ -7516,7 +7517,7 @@
       <c r="A481" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B481" s="11" t="s">
+      <c r="B481" s="12" t="s">
         <v>465</v>
       </c>
       <c r="C481" s="5" t="s">

--- a/450_Questions/FINAL450.xlsx
+++ b/450_Questions/FINAL450.xlsx
@@ -1419,10 +1419,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1519,13 +1519,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1533,7 +1526,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1550,14 +1543,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1565,13 +1550,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1612,14 +1598,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1633,15 +1641,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1662,19 +1662,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1686,13 +1692,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1710,7 +1716,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1722,25 +1764,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1752,79 +1830,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1836,13 +1842,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1853,30 +1853,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1891,6 +1867,54 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1916,47 +1940,23 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1975,131 +1975,131 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2123,7 +2123,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2453,7 +2452,7 @@
   <sheetPr/>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -2557,21 +2556,21 @@
       </c>
     </row>
     <row r="12" ht="21" spans="1:3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>5</v>
+      <c r="C12" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" ht="21" spans="1:3">
       <c r="A13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -2582,7 +2581,7 @@
       <c r="A14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -2593,7 +2592,7 @@
       <c r="A15" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -2604,7 +2603,7 @@
       <c r="A16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -2615,7 +2614,7 @@
       <c r="A17" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="5" t="s">
@@ -2626,7 +2625,7 @@
       <c r="A18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -2637,7 +2636,7 @@
       <c r="A19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -2648,7 +2647,7 @@
       <c r="A20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -2659,7 +2658,7 @@
       <c r="A21" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -2670,7 +2669,7 @@
       <c r="A22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -2681,7 +2680,7 @@
       <c r="A23" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -2692,7 +2691,7 @@
       <c r="A24" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -2703,7 +2702,7 @@
       <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -2714,7 +2713,7 @@
       <c r="A26" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -2725,7 +2724,7 @@
       <c r="A27" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -2736,7 +2735,7 @@
       <c r="A28" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -2747,7 +2746,7 @@
       <c r="A29" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -2758,7 +2757,7 @@
       <c r="A30" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -2769,7 +2768,7 @@
       <c r="A31" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -2780,7 +2779,7 @@
       <c r="A32" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -2791,7 +2790,7 @@
       <c r="A33" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -2802,7 +2801,7 @@
       <c r="A34" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -2813,7 +2812,7 @@
       <c r="A35" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -2824,7 +2823,7 @@
       <c r="A36" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -2835,7 +2834,7 @@
       <c r="A37" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -2846,7 +2845,7 @@
       <c r="A38" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -2857,7 +2856,7 @@
       <c r="A39" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C39" s="5" t="s">
@@ -2868,7 +2867,7 @@
       <c r="A40" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -2879,7 +2878,7 @@
       <c r="A41" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -2887,23 +2886,23 @@
       </c>
     </row>
     <row r="42" ht="21" spans="2:3">
-      <c r="B42" s="13"/>
+      <c r="B42" s="12"/>
       <c r="C42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" ht="21" spans="1:3">
       <c r="A43" s="10"/>
-      <c r="B43" s="13"/>
+      <c r="B43" s="12"/>
       <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="44" ht="21" spans="1:3">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C44" s="5" t="s">
@@ -2911,10 +2910,10 @@
       </c>
     </row>
     <row r="45" ht="21" spans="1:3">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C45" s="5" t="s">
@@ -2922,10 +2921,10 @@
       </c>
     </row>
     <row r="46" ht="21" spans="1:3">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="5" t="s">
@@ -2933,10 +2932,10 @@
       </c>
     </row>
     <row r="47" ht="21" spans="1:3">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -2944,10 +2943,10 @@
       </c>
     </row>
     <row r="48" ht="21" spans="1:3">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="11" t="s">
         <v>49</v>
       </c>
       <c r="C48" s="5" t="s">
@@ -2955,10 +2954,10 @@
       </c>
     </row>
     <row r="49" ht="21" spans="1:3">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C49" s="5" t="s">
@@ -2966,10 +2965,10 @@
       </c>
     </row>
     <row r="50" ht="21" spans="1:3">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C50" s="5" t="s">
@@ -2977,10 +2976,10 @@
       </c>
     </row>
     <row r="51" ht="21" spans="1:3">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C51" s="5" t="s">
@@ -2988,10 +2987,10 @@
       </c>
     </row>
     <row r="52" ht="21" spans="1:3">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="11" t="s">
         <v>53</v>
       </c>
       <c r="C52" s="5" t="s">
@@ -2999,10 +2998,10 @@
       </c>
     </row>
     <row r="53" ht="21" spans="1:3">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="11" t="s">
         <v>54</v>
       </c>
       <c r="C53" s="5" t="s">
@@ -3011,14 +3010,14 @@
     </row>
     <row r="55" ht="21" spans="1:3">
       <c r="A55" s="10"/>
-      <c r="B55" s="13"/>
+      <c r="B55" s="12"/>
       <c r="C55" s="5"/>
     </row>
     <row r="56" ht="21" spans="1:3">
       <c r="A56" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="11" t="s">
         <v>56</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -3029,7 +3028,7 @@
       <c r="A57" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="11" t="s">
         <v>57</v>
       </c>
       <c r="C57" s="5" t="s">
@@ -3040,7 +3039,7 @@
       <c r="A58" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="11" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="5" t="s">
@@ -3051,7 +3050,7 @@
       <c r="A59" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="12" t="s">
         <v>59</v>
       </c>
       <c r="C59" s="5" t="s">
@@ -3062,7 +3061,7 @@
       <c r="A60" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="11" t="s">
         <v>60</v>
       </c>
       <c r="C60" s="5" t="s">
@@ -3073,7 +3072,7 @@
       <c r="A61" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="11" t="s">
         <v>61</v>
       </c>
       <c r="C61" s="5" t="s">
@@ -3084,7 +3083,7 @@
       <c r="A62" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C62" s="5" t="s">
@@ -3095,7 +3094,7 @@
       <c r="A63" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="11" t="s">
         <v>63</v>
       </c>
       <c r="C63" s="5" t="s">
@@ -3106,7 +3105,7 @@
       <c r="A64" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="11" t="s">
         <v>64</v>
       </c>
       <c r="C64" s="5" t="s">
@@ -3117,7 +3116,7 @@
       <c r="A65" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="11" t="s">
         <v>65</v>
       </c>
       <c r="C65" s="5" t="s">
@@ -3128,7 +3127,7 @@
       <c r="A66" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="11" t="s">
         <v>66</v>
       </c>
       <c r="C66" s="5" t="s">
@@ -3139,7 +3138,7 @@
       <c r="A67" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="11" t="s">
         <v>67</v>
       </c>
       <c r="C67" s="5" t="s">
@@ -3150,7 +3149,7 @@
       <c r="A68" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="11" t="s">
         <v>68</v>
       </c>
       <c r="C68" s="5" t="s">
@@ -3161,7 +3160,7 @@
       <c r="A69" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="11" t="s">
         <v>69</v>
       </c>
       <c r="C69" s="5" t="s">
@@ -3172,7 +3171,7 @@
       <c r="A70" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="11" t="s">
         <v>70</v>
       </c>
       <c r="C70" s="5" t="s">
@@ -3183,7 +3182,7 @@
       <c r="A71" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="11" t="s">
         <v>71</v>
       </c>
       <c r="C71" s="5" t="s">
@@ -3194,7 +3193,7 @@
       <c r="A72" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="11" t="s">
         <v>72</v>
       </c>
       <c r="C72" s="5" t="s">
@@ -3205,7 +3204,7 @@
       <c r="A73" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="11" t="s">
         <v>73</v>
       </c>
       <c r="C73" s="5" t="s">
@@ -3216,7 +3215,7 @@
       <c r="A74" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="B74" s="11" t="s">
         <v>74</v>
       </c>
       <c r="C74" s="5" t="s">
@@ -3227,7 +3226,7 @@
       <c r="A75" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B75" s="12" t="s">
+      <c r="B75" s="11" t="s">
         <v>75</v>
       </c>
       <c r="C75" s="5" t="s">
@@ -3238,7 +3237,7 @@
       <c r="A76" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="11" t="s">
         <v>76</v>
       </c>
       <c r="C76" s="5" t="s">
@@ -3249,7 +3248,7 @@
       <c r="A77" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="11" t="s">
         <v>77</v>
       </c>
       <c r="C77" s="5" t="s">
@@ -3260,7 +3259,7 @@
       <c r="A78" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="11" t="s">
         <v>78</v>
       </c>
       <c r="C78" s="5" t="s">
@@ -3271,7 +3270,7 @@
       <c r="A79" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="11" t="s">
         <v>79</v>
       </c>
       <c r="C79" s="5" t="s">
@@ -3282,7 +3281,7 @@
       <c r="A80" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="11" t="s">
         <v>80</v>
       </c>
       <c r="C80" s="5" t="s">
@@ -3293,7 +3292,7 @@
       <c r="A81" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="11" t="s">
         <v>81</v>
       </c>
       <c r="C81" s="5" t="s">
@@ -3304,7 +3303,7 @@
       <c r="A82" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B82" s="12" t="s">
+      <c r="B82" s="11" t="s">
         <v>82</v>
       </c>
       <c r="C82" s="5" t="s">
@@ -3315,7 +3314,7 @@
       <c r="A83" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="11" t="s">
         <v>83</v>
       </c>
       <c r="C83" s="5" t="s">
@@ -3326,7 +3325,7 @@
       <c r="A84" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="11" t="s">
         <v>84</v>
       </c>
       <c r="C84" s="5" t="s">
@@ -3337,7 +3336,7 @@
       <c r="A85" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="11" t="s">
         <v>85</v>
       </c>
       <c r="C85" s="5" t="s">
@@ -3348,7 +3347,7 @@
       <c r="A86" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="11" t="s">
         <v>86</v>
       </c>
       <c r="C86" s="5" t="s">
@@ -3359,7 +3358,7 @@
       <c r="A87" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="11" t="s">
         <v>87</v>
       </c>
       <c r="C87" s="5" t="s">
@@ -3370,7 +3369,7 @@
       <c r="A88" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B88" s="12" t="s">
+      <c r="B88" s="11" t="s">
         <v>88</v>
       </c>
       <c r="C88" s="5" t="s">
@@ -3381,7 +3380,7 @@
       <c r="A89" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="11" t="s">
         <v>89</v>
       </c>
       <c r="C89" s="5" t="s">
@@ -3392,7 +3391,7 @@
       <c r="A90" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B90" s="12" t="s">
+      <c r="B90" s="11" t="s">
         <v>90</v>
       </c>
       <c r="C90" s="5" t="s">
@@ -3403,7 +3402,7 @@
       <c r="A91" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B91" s="12" t="s">
+      <c r="B91" s="11" t="s">
         <v>91</v>
       </c>
       <c r="C91" s="5" t="s">
@@ -3414,7 +3413,7 @@
       <c r="A92" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B92" s="12" t="s">
+      <c r="B92" s="11" t="s">
         <v>92</v>
       </c>
       <c r="C92" s="5" t="s">
@@ -3425,7 +3424,7 @@
       <c r="A93" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="11" t="s">
         <v>93</v>
       </c>
       <c r="C93" s="5" t="s">
@@ -3436,7 +3435,7 @@
       <c r="A94" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="B94" s="11" t="s">
         <v>94</v>
       </c>
       <c r="C94" s="5" t="s">
@@ -3447,7 +3446,7 @@
       <c r="A95" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="B95" s="11" t="s">
         <v>95</v>
       </c>
       <c r="C95" s="5" t="s">
@@ -3458,7 +3457,7 @@
       <c r="A96" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B96" s="12" t="s">
+      <c r="B96" s="11" t="s">
         <v>96</v>
       </c>
       <c r="C96" s="5" t="s">
@@ -3469,7 +3468,7 @@
       <c r="A97" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B97" s="12" t="s">
+      <c r="B97" s="11" t="s">
         <v>97</v>
       </c>
       <c r="C97" s="5" t="s">
@@ -3480,7 +3479,7 @@
       <c r="A98" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B98" s="12" t="s">
+      <c r="B98" s="11" t="s">
         <v>98</v>
       </c>
       <c r="C98" s="5" t="s">
@@ -3488,15 +3487,15 @@
       </c>
     </row>
     <row r="100" ht="21" spans="1:3">
-      <c r="A100" s="14"/>
-      <c r="B100" s="13"/>
+      <c r="A100" s="13"/>
+      <c r="B100" s="12"/>
       <c r="C100" s="5"/>
     </row>
     <row r="101" ht="21" spans="1:3">
       <c r="A101" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B101" s="12" t="s">
+      <c r="B101" s="11" t="s">
         <v>100</v>
       </c>
       <c r="C101" s="5" t="s">
@@ -3507,7 +3506,7 @@
       <c r="A102" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B102" s="12" t="s">
+      <c r="B102" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C102" s="5" t="s">
@@ -3518,7 +3517,7 @@
       <c r="A103" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B103" s="12" t="s">
+      <c r="B103" s="11" t="s">
         <v>102</v>
       </c>
       <c r="C103" s="5" t="s">
@@ -3529,7 +3528,7 @@
       <c r="A104" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B104" s="12" t="s">
+      <c r="B104" s="11" t="s">
         <v>103</v>
       </c>
       <c r="C104" s="5" t="s">
@@ -3540,7 +3539,7 @@
       <c r="A105" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B105" s="12" t="s">
+      <c r="B105" s="11" t="s">
         <v>104</v>
       </c>
       <c r="C105" s="5" t="s">
@@ -3551,7 +3550,7 @@
       <c r="A106" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B106" s="12" t="s">
+      <c r="B106" s="11" t="s">
         <v>105</v>
       </c>
       <c r="C106" s="5" t="s">
@@ -3562,7 +3561,7 @@
       <c r="A107" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B107" s="12" t="s">
+      <c r="B107" s="11" t="s">
         <v>106</v>
       </c>
       <c r="C107" s="5" t="s">
@@ -3573,7 +3572,7 @@
       <c r="A108" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B108" s="12" t="s">
+      <c r="B108" s="11" t="s">
         <v>107</v>
       </c>
       <c r="C108" s="5" t="s">
@@ -3584,7 +3583,7 @@
       <c r="A109" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B109" s="12" t="s">
+      <c r="B109" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C109" s="5" t="s">
@@ -3595,7 +3594,7 @@
       <c r="A110" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B110" s="12" t="s">
+      <c r="B110" s="11" t="s">
         <v>109</v>
       </c>
       <c r="C110" s="5" t="s">
@@ -3606,7 +3605,7 @@
       <c r="A111" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B111" s="12" t="s">
+      <c r="B111" s="11" t="s">
         <v>110</v>
       </c>
       <c r="C111" s="5" t="s">
@@ -3617,7 +3616,7 @@
       <c r="A112" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B112" s="12" t="s">
+      <c r="B112" s="11" t="s">
         <v>111</v>
       </c>
       <c r="C112" s="5" t="s">
@@ -3628,7 +3627,7 @@
       <c r="A113" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B113" s="12" t="s">
+      <c r="B113" s="11" t="s">
         <v>112</v>
       </c>
       <c r="C113" s="5" t="s">
@@ -3639,7 +3638,7 @@
       <c r="A114" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B114" s="12" t="s">
+      <c r="B114" s="11" t="s">
         <v>113</v>
       </c>
       <c r="C114" s="5" t="s">
@@ -3650,7 +3649,7 @@
       <c r="A115" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B115" s="12" t="s">
+      <c r="B115" s="11" t="s">
         <v>114</v>
       </c>
       <c r="C115" s="5" t="s">
@@ -3661,7 +3660,7 @@
       <c r="A116" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B116" s="12" t="s">
+      <c r="B116" s="11" t="s">
         <v>115</v>
       </c>
       <c r="C116" s="5" t="s">
@@ -3672,7 +3671,7 @@
       <c r="A117" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B117" s="12" t="s">
+      <c r="B117" s="11" t="s">
         <v>116</v>
       </c>
       <c r="C117" s="5" t="s">
@@ -3683,7 +3682,7 @@
       <c r="A118" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B118" s="12" t="s">
+      <c r="B118" s="11" t="s">
         <v>117</v>
       </c>
       <c r="C118" s="5" t="s">
@@ -3694,7 +3693,7 @@
       <c r="A119" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B119" s="12" t="s">
+      <c r="B119" s="11" t="s">
         <v>118</v>
       </c>
       <c r="C119" s="5" t="s">
@@ -3705,7 +3704,7 @@
       <c r="A120" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B120" s="12" t="s">
+      <c r="B120" s="11" t="s">
         <v>119</v>
       </c>
       <c r="C120" s="5" t="s">
@@ -3716,7 +3715,7 @@
       <c r="A121" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B121" s="12" t="s">
+      <c r="B121" s="11" t="s">
         <v>120</v>
       </c>
       <c r="C121" s="5" t="s">
@@ -3727,7 +3726,7 @@
       <c r="A122" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B122" s="12" t="s">
+      <c r="B122" s="11" t="s">
         <v>121</v>
       </c>
       <c r="C122" s="5" t="s">
@@ -3738,7 +3737,7 @@
       <c r="A123" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B123" s="12" t="s">
+      <c r="B123" s="11" t="s">
         <v>122</v>
       </c>
       <c r="C123" s="5" t="s">
@@ -3749,7 +3748,7 @@
       <c r="A124" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B124" s="12" t="s">
+      <c r="B124" s="11" t="s">
         <v>123</v>
       </c>
       <c r="C124" s="5" t="s">
@@ -3760,7 +3759,7 @@
       <c r="A125" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B125" s="12" t="s">
+      <c r="B125" s="11" t="s">
         <v>124</v>
       </c>
       <c r="C125" s="5" t="s">
@@ -3771,7 +3770,7 @@
       <c r="A126" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B126" s="12" t="s">
+      <c r="B126" s="11" t="s">
         <v>125</v>
       </c>
       <c r="C126" s="5" t="s">
@@ -3782,7 +3781,7 @@
       <c r="A127" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B127" s="12" t="s">
+      <c r="B127" s="11" t="s">
         <v>126</v>
       </c>
       <c r="C127" s="5" t="s">
@@ -3793,7 +3792,7 @@
       <c r="A128" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B128" s="12" t="s">
+      <c r="B128" s="11" t="s">
         <v>127</v>
       </c>
       <c r="C128" s="5" t="s">
@@ -3804,7 +3803,7 @@
       <c r="A129" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B129" s="12" t="s">
+      <c r="B129" s="11" t="s">
         <v>128</v>
       </c>
       <c r="C129" s="5" t="s">
@@ -3815,7 +3814,7 @@
       <c r="A130" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B130" s="12" t="s">
+      <c r="B130" s="11" t="s">
         <v>129</v>
       </c>
       <c r="C130" s="5" t="s">
@@ -3826,7 +3825,7 @@
       <c r="A131" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B131" s="12" t="s">
+      <c r="B131" s="11" t="s">
         <v>130</v>
       </c>
       <c r="C131" s="5" t="s">
@@ -3837,7 +3836,7 @@
       <c r="A132" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B132" s="12" t="s">
+      <c r="B132" s="11" t="s">
         <v>131</v>
       </c>
       <c r="C132" s="5" t="s">
@@ -3848,7 +3847,7 @@
       <c r="A133" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B133" s="12" t="s">
+      <c r="B133" s="11" t="s">
         <v>132</v>
       </c>
       <c r="C133" s="5" t="s">
@@ -3859,7 +3858,7 @@
       <c r="A134" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B134" s="12" t="s">
+      <c r="B134" s="11" t="s">
         <v>133</v>
       </c>
       <c r="C134" s="5" t="s">
@@ -3870,7 +3869,7 @@
       <c r="A135" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B135" s="12" t="s">
+      <c r="B135" s="11" t="s">
         <v>134</v>
       </c>
       <c r="C135" s="5" t="s">
@@ -3881,7 +3880,7 @@
       <c r="A136" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B136" s="12" t="s">
+      <c r="B136" s="11" t="s">
         <v>135</v>
       </c>
       <c r="C136" s="5" t="s">
@@ -3889,14 +3888,14 @@
       </c>
     </row>
     <row r="138" ht="21" spans="2:3">
-      <c r="B138" s="13"/>
+      <c r="B138" s="12"/>
       <c r="C138" s="5"/>
     </row>
     <row r="139" ht="21" spans="1:3">
-      <c r="A139" s="14" t="s">
+      <c r="A139" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B139" s="12" t="s">
+      <c r="B139" s="11" t="s">
         <v>137</v>
       </c>
       <c r="C139" s="5" t="s">
@@ -3904,10 +3903,10 @@
       </c>
     </row>
     <row r="140" ht="21" spans="1:3">
-      <c r="A140" s="14" t="s">
+      <c r="A140" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B140" s="12" t="s">
+      <c r="B140" s="11" t="s">
         <v>138</v>
       </c>
       <c r="C140" s="5" t="s">
@@ -3915,10 +3914,10 @@
       </c>
     </row>
     <row r="141" ht="21" spans="1:3">
-      <c r="A141" s="14" t="s">
+      <c r="A141" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B141" s="12" t="s">
+      <c r="B141" s="11" t="s">
         <v>139</v>
       </c>
       <c r="C141" s="5" t="s">
@@ -3926,10 +3925,10 @@
       </c>
     </row>
     <row r="142" ht="21" spans="1:3">
-      <c r="A142" s="14" t="s">
+      <c r="A142" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B142" s="12" t="s">
+      <c r="B142" s="11" t="s">
         <v>140</v>
       </c>
       <c r="C142" s="5" t="s">
@@ -3937,10 +3936,10 @@
       </c>
     </row>
     <row r="143" ht="21" spans="1:3">
-      <c r="A143" s="14" t="s">
+      <c r="A143" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B143" s="12" t="s">
+      <c r="B143" s="11" t="s">
         <v>141</v>
       </c>
       <c r="C143" s="5" t="s">
@@ -3948,10 +3947,10 @@
       </c>
     </row>
     <row r="144" ht="21" spans="1:3">
-      <c r="A144" s="14" t="s">
+      <c r="A144" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B144" s="12" t="s">
+      <c r="B144" s="11" t="s">
         <v>142</v>
       </c>
       <c r="C144" s="5" t="s">
@@ -3959,10 +3958,10 @@
       </c>
     </row>
     <row r="145" ht="21" spans="1:3">
-      <c r="A145" s="14" t="s">
+      <c r="A145" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B145" s="12" t="s">
+      <c r="B145" s="11" t="s">
         <v>143</v>
       </c>
       <c r="C145" s="5" t="s">
@@ -3970,10 +3969,10 @@
       </c>
     </row>
     <row r="146" ht="21" spans="1:3">
-      <c r="A146" s="14" t="s">
+      <c r="A146" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B146" s="12" t="s">
+      <c r="B146" s="11" t="s">
         <v>144</v>
       </c>
       <c r="C146" s="5" t="s">
@@ -3981,10 +3980,10 @@
       </c>
     </row>
     <row r="147" ht="21" spans="1:3">
-      <c r="A147" s="14" t="s">
+      <c r="A147" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B147" s="12" t="s">
+      <c r="B147" s="11" t="s">
         <v>145</v>
       </c>
       <c r="C147" s="5" t="s">
@@ -3992,10 +3991,10 @@
       </c>
     </row>
     <row r="148" ht="21" spans="1:3">
-      <c r="A148" s="14" t="s">
+      <c r="A148" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B148" s="12" t="s">
+      <c r="B148" s="11" t="s">
         <v>146</v>
       </c>
       <c r="C148" s="5" t="s">
@@ -4003,10 +4002,10 @@
       </c>
     </row>
     <row r="149" ht="21" spans="1:3">
-      <c r="A149" s="14" t="s">
+      <c r="A149" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B149" s="12" t="s">
+      <c r="B149" s="11" t="s">
         <v>147</v>
       </c>
       <c r="C149" s="5" t="s">
@@ -4014,10 +4013,10 @@
       </c>
     </row>
     <row r="150" ht="21" spans="1:3">
-      <c r="A150" s="14" t="s">
+      <c r="A150" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B150" s="12" t="s">
+      <c r="B150" s="11" t="s">
         <v>148</v>
       </c>
       <c r="C150" s="5" t="s">
@@ -4025,10 +4024,10 @@
       </c>
     </row>
     <row r="151" ht="21" spans="1:3">
-      <c r="A151" s="14" t="s">
+      <c r="A151" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B151" s="12" t="s">
+      <c r="B151" s="11" t="s">
         <v>149</v>
       </c>
       <c r="C151" s="5" t="s">
@@ -4036,10 +4035,10 @@
       </c>
     </row>
     <row r="152" ht="21" spans="1:3">
-      <c r="A152" s="14" t="s">
+      <c r="A152" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B152" s="12" t="s">
+      <c r="B152" s="11" t="s">
         <v>150</v>
       </c>
       <c r="C152" s="5" t="s">
@@ -4047,10 +4046,10 @@
       </c>
     </row>
     <row r="153" ht="21" spans="1:3">
-      <c r="A153" s="14" t="s">
+      <c r="A153" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B153" s="12" t="s">
+      <c r="B153" s="11" t="s">
         <v>151</v>
       </c>
       <c r="C153" s="5" t="s">
@@ -4058,10 +4057,10 @@
       </c>
     </row>
     <row r="154" ht="21" spans="1:3">
-      <c r="A154" s="14" t="s">
+      <c r="A154" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B154" s="12" t="s">
+      <c r="B154" s="11" t="s">
         <v>152</v>
       </c>
       <c r="C154" s="5" t="s">
@@ -4069,10 +4068,10 @@
       </c>
     </row>
     <row r="155" ht="21" spans="1:3">
-      <c r="A155" s="14" t="s">
+      <c r="A155" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B155" s="12" t="s">
+      <c r="B155" s="11" t="s">
         <v>153</v>
       </c>
       <c r="C155" s="5" t="s">
@@ -4080,10 +4079,10 @@
       </c>
     </row>
     <row r="156" ht="21" spans="1:3">
-      <c r="A156" s="14" t="s">
+      <c r="A156" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B156" s="12" t="s">
+      <c r="B156" s="11" t="s">
         <v>154</v>
       </c>
       <c r="C156" s="5" t="s">
@@ -4091,10 +4090,10 @@
       </c>
     </row>
     <row r="157" ht="21" spans="1:3">
-      <c r="A157" s="14" t="s">
+      <c r="A157" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B157" s="12" t="s">
+      <c r="B157" s="11" t="s">
         <v>155</v>
       </c>
       <c r="C157" s="5" t="s">
@@ -4102,10 +4101,10 @@
       </c>
     </row>
     <row r="158" ht="21" spans="1:3">
-      <c r="A158" s="14" t="s">
+      <c r="A158" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B158" s="12" t="s">
+      <c r="B158" s="11" t="s">
         <v>156</v>
       </c>
       <c r="C158" s="5" t="s">
@@ -4113,10 +4112,10 @@
       </c>
     </row>
     <row r="159" ht="21" spans="1:3">
-      <c r="A159" s="14" t="s">
+      <c r="A159" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B159" s="12" t="s">
+      <c r="B159" s="11" t="s">
         <v>157</v>
       </c>
       <c r="C159" s="5" t="s">
@@ -4124,10 +4123,10 @@
       </c>
     </row>
     <row r="160" ht="21" spans="1:3">
-      <c r="A160" s="14" t="s">
+      <c r="A160" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B160" s="12" t="s">
+      <c r="B160" s="11" t="s">
         <v>158</v>
       </c>
       <c r="C160" s="5" t="s">
@@ -4135,10 +4134,10 @@
       </c>
     </row>
     <row r="161" ht="21" spans="1:3">
-      <c r="A161" s="14" t="s">
+      <c r="A161" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B161" s="12" t="s">
+      <c r="B161" s="11" t="s">
         <v>159</v>
       </c>
       <c r="C161" s="5" t="s">
@@ -4146,10 +4145,10 @@
       </c>
     </row>
     <row r="162" ht="21" spans="1:3">
-      <c r="A162" s="14" t="s">
+      <c r="A162" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B162" s="12" t="s">
+      <c r="B162" s="11" t="s">
         <v>160</v>
       </c>
       <c r="C162" s="5" t="s">
@@ -4157,10 +4156,10 @@
       </c>
     </row>
     <row r="163" ht="21" spans="1:3">
-      <c r="A163" s="14" t="s">
+      <c r="A163" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B163" s="12" t="s">
+      <c r="B163" s="11" t="s">
         <v>161</v>
       </c>
       <c r="C163" s="5" t="s">
@@ -4168,10 +4167,10 @@
       </c>
     </row>
     <row r="164" ht="21" spans="1:3">
-      <c r="A164" s="14" t="s">
+      <c r="A164" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B164" s="13" t="s">
+      <c r="B164" s="12" t="s">
         <v>162</v>
       </c>
       <c r="C164" s="5" t="s">
@@ -4179,10 +4178,10 @@
       </c>
     </row>
     <row r="165" ht="21" spans="1:3">
-      <c r="A165" s="14" t="s">
+      <c r="A165" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B165" s="13" t="s">
+      <c r="B165" s="12" t="s">
         <v>163</v>
       </c>
       <c r="C165" s="5" t="s">
@@ -4190,10 +4189,10 @@
       </c>
     </row>
     <row r="166" ht="21" spans="1:3">
-      <c r="A166" s="14" t="s">
+      <c r="A166" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B166" s="12" t="s">
+      <c r="B166" s="11" t="s">
         <v>164</v>
       </c>
       <c r="C166" s="5" t="s">
@@ -4201,10 +4200,10 @@
       </c>
     </row>
     <row r="167" ht="21" spans="1:3">
-      <c r="A167" s="14" t="s">
+      <c r="A167" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B167" s="12" t="s">
+      <c r="B167" s="11" t="s">
         <v>165</v>
       </c>
       <c r="C167" s="5" t="s">
@@ -4212,10 +4211,10 @@
       </c>
     </row>
     <row r="168" ht="21" spans="1:3">
-      <c r="A168" s="14" t="s">
+      <c r="A168" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B168" s="12" t="s">
+      <c r="B168" s="11" t="s">
         <v>166</v>
       </c>
       <c r="C168" s="5" t="s">
@@ -4223,10 +4222,10 @@
       </c>
     </row>
     <row r="169" ht="21" spans="1:3">
-      <c r="A169" s="14" t="s">
+      <c r="A169" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B169" s="12" t="s">
+      <c r="B169" s="11" t="s">
         <v>167</v>
       </c>
       <c r="C169" s="5" t="s">
@@ -4234,10 +4233,10 @@
       </c>
     </row>
     <row r="170" ht="21" spans="1:3">
-      <c r="A170" s="14" t="s">
+      <c r="A170" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B170" s="12" t="s">
+      <c r="B170" s="11" t="s">
         <v>168</v>
       </c>
       <c r="C170" s="5" t="s">
@@ -4245,10 +4244,10 @@
       </c>
     </row>
     <row r="171" ht="21" spans="1:3">
-      <c r="A171" s="14" t="s">
+      <c r="A171" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B171" s="12" t="s">
+      <c r="B171" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C171" s="5" t="s">
@@ -4256,10 +4255,10 @@
       </c>
     </row>
     <row r="172" ht="21" spans="1:3">
-      <c r="A172" s="14" t="s">
+      <c r="A172" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B172" s="12" t="s">
+      <c r="B172" s="11" t="s">
         <v>170</v>
       </c>
       <c r="C172" s="5" t="s">
@@ -4267,10 +4266,10 @@
       </c>
     </row>
     <row r="173" ht="21" spans="1:3">
-      <c r="A173" s="14" t="s">
+      <c r="A173" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B173" s="12" t="s">
+      <c r="B173" s="11" t="s">
         <v>171</v>
       </c>
       <c r="C173" s="5" t="s">
@@ -4278,10 +4277,10 @@
       </c>
     </row>
     <row r="174" ht="21" spans="1:3">
-      <c r="A174" s="14" t="s">
+      <c r="A174" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B174" s="12" t="s">
+      <c r="B174" s="11" t="s">
         <v>172</v>
       </c>
       <c r="C174" s="5" t="s">
@@ -4289,14 +4288,14 @@
       </c>
     </row>
     <row r="176" ht="21" spans="2:3">
-      <c r="B176" s="13"/>
+      <c r="B176" s="12"/>
       <c r="C176" s="5"/>
     </row>
     <row r="177" ht="21" spans="1:3">
       <c r="A177" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B177" s="12" t="s">
+      <c r="B177" s="11" t="s">
         <v>174</v>
       </c>
       <c r="C177" s="5" t="s">
@@ -4307,7 +4306,7 @@
       <c r="A178" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B178" s="12" t="s">
+      <c r="B178" s="11" t="s">
         <v>175</v>
       </c>
       <c r="C178" s="5" t="s">
@@ -4318,7 +4317,7 @@
       <c r="A179" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B179" s="12" t="s">
+      <c r="B179" s="11" t="s">
         <v>176</v>
       </c>
       <c r="C179" s="5" t="s">
@@ -4329,7 +4328,7 @@
       <c r="A180" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B180" s="12" t="s">
+      <c r="B180" s="11" t="s">
         <v>177</v>
       </c>
       <c r="C180" s="5" t="s">
@@ -4340,7 +4339,7 @@
       <c r="A181" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B181" s="12" t="s">
+      <c r="B181" s="11" t="s">
         <v>178</v>
       </c>
       <c r="C181" s="5" t="s">
@@ -4351,7 +4350,7 @@
       <c r="A182" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B182" s="12" t="s">
+      <c r="B182" s="11" t="s">
         <v>179</v>
       </c>
       <c r="C182" s="5" t="s">
@@ -4362,7 +4361,7 @@
       <c r="A183" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B183" s="12" t="s">
+      <c r="B183" s="11" t="s">
         <v>180</v>
       </c>
       <c r="C183" s="5" t="s">
@@ -4373,7 +4372,7 @@
       <c r="A184" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B184" s="12" t="s">
+      <c r="B184" s="11" t="s">
         <v>181</v>
       </c>
       <c r="C184" s="5" t="s">
@@ -4384,7 +4383,7 @@
       <c r="A185" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B185" s="12" t="s">
+      <c r="B185" s="11" t="s">
         <v>182</v>
       </c>
       <c r="C185" s="5" t="s">
@@ -4395,7 +4394,7 @@
       <c r="A186" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B186" s="12" t="s">
+      <c r="B186" s="11" t="s">
         <v>183</v>
       </c>
       <c r="C186" s="5" t="s">
@@ -4406,7 +4405,7 @@
       <c r="A187" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B187" s="12" t="s">
+      <c r="B187" s="11" t="s">
         <v>184</v>
       </c>
       <c r="C187" s="5" t="s">
@@ -4417,7 +4416,7 @@
       <c r="A188" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B188" s="12" t="s">
+      <c r="B188" s="11" t="s">
         <v>185</v>
       </c>
       <c r="C188" s="5" t="s">
@@ -4428,7 +4427,7 @@
       <c r="A189" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B189" s="12" t="s">
+      <c r="B189" s="11" t="s">
         <v>186</v>
       </c>
       <c r="C189" s="5" t="s">
@@ -4439,7 +4438,7 @@
       <c r="A190" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B190" s="12" t="s">
+      <c r="B190" s="11" t="s">
         <v>187</v>
       </c>
       <c r="C190" s="5" t="s">
@@ -4450,7 +4449,7 @@
       <c r="A191" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B191" s="12" t="s">
+      <c r="B191" s="11" t="s">
         <v>188</v>
       </c>
       <c r="C191" s="5" t="s">
@@ -4461,7 +4460,7 @@
       <c r="A192" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B192" s="12" t="s">
+      <c r="B192" s="11" t="s">
         <v>189</v>
       </c>
       <c r="C192" s="5" t="s">
@@ -4472,7 +4471,7 @@
       <c r="A193" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B193" s="12" t="s">
+      <c r="B193" s="11" t="s">
         <v>190</v>
       </c>
       <c r="C193" s="5" t="s">
@@ -4483,7 +4482,7 @@
       <c r="A194" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B194" s="12" t="s">
+      <c r="B194" s="11" t="s">
         <v>191</v>
       </c>
       <c r="C194" s="5" t="s">
@@ -4494,7 +4493,7 @@
       <c r="A195" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B195" s="12" t="s">
+      <c r="B195" s="11" t="s">
         <v>192</v>
       </c>
       <c r="C195" s="5" t="s">
@@ -4505,7 +4504,7 @@
       <c r="A196" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B196" s="12" t="s">
+      <c r="B196" s="11" t="s">
         <v>193</v>
       </c>
       <c r="C196" s="5" t="s">
@@ -4516,7 +4515,7 @@
       <c r="A197" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B197" s="12" t="s">
+      <c r="B197" s="11" t="s">
         <v>194</v>
       </c>
       <c r="C197" s="5" t="s">
@@ -4527,7 +4526,7 @@
       <c r="A198" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B198" s="12" t="s">
+      <c r="B198" s="11" t="s">
         <v>195</v>
       </c>
       <c r="C198" s="5" t="s">
@@ -4538,7 +4537,7 @@
       <c r="A199" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B199" s="12" t="s">
+      <c r="B199" s="11" t="s">
         <v>196</v>
       </c>
       <c r="C199" s="5" t="s">
@@ -4549,7 +4548,7 @@
       <c r="A200" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B200" s="12" t="s">
+      <c r="B200" s="11" t="s">
         <v>197</v>
       </c>
       <c r="C200" s="5" t="s">
@@ -4560,7 +4559,7 @@
       <c r="A201" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B201" s="12" t="s">
+      <c r="B201" s="11" t="s">
         <v>198</v>
       </c>
       <c r="C201" s="5" t="s">
@@ -4571,7 +4570,7 @@
       <c r="A202" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B202" s="12" t="s">
+      <c r="B202" s="11" t="s">
         <v>199</v>
       </c>
       <c r="C202" s="5" t="s">
@@ -4582,7 +4581,7 @@
       <c r="A203" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B203" s="12" t="s">
+      <c r="B203" s="11" t="s">
         <v>200</v>
       </c>
       <c r="C203" s="5" t="s">
@@ -4593,7 +4592,7 @@
       <c r="A204" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B204" s="12" t="s">
+      <c r="B204" s="11" t="s">
         <v>201</v>
       </c>
       <c r="C204" s="5" t="s">
@@ -4604,7 +4603,7 @@
       <c r="A205" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B205" s="12" t="s">
+      <c r="B205" s="11" t="s">
         <v>202</v>
       </c>
       <c r="C205" s="5" t="s">
@@ -4615,7 +4614,7 @@
       <c r="A206" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B206" s="12" t="s">
+      <c r="B206" s="11" t="s">
         <v>203</v>
       </c>
       <c r="C206" s="5" t="s">
@@ -4626,7 +4625,7 @@
       <c r="A207" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B207" s="12" t="s">
+      <c r="B207" s="11" t="s">
         <v>204</v>
       </c>
       <c r="C207" s="5" t="s">
@@ -4637,7 +4636,7 @@
       <c r="A208" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B208" s="12" t="s">
+      <c r="B208" s="11" t="s">
         <v>205</v>
       </c>
       <c r="C208" s="5" t="s">
@@ -4648,7 +4647,7 @@
       <c r="A209" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B209" s="12" t="s">
+      <c r="B209" s="11" t="s">
         <v>206</v>
       </c>
       <c r="C209" s="5" t="s">
@@ -4659,7 +4658,7 @@
       <c r="A210" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B210" s="12" t="s">
+      <c r="B210" s="11" t="s">
         <v>207</v>
       </c>
       <c r="C210" s="5" t="s">
@@ -4670,7 +4669,7 @@
       <c r="A211" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B211" s="12" t="s">
+      <c r="B211" s="11" t="s">
         <v>208</v>
       </c>
       <c r="C211" s="5" t="s">
@@ -4678,20 +4677,20 @@
       </c>
     </row>
     <row r="212" ht="21" spans="1:3">
-      <c r="A212" s="14"/>
-      <c r="B212" s="13"/>
+      <c r="A212" s="13"/>
+      <c r="B212" s="12"/>
       <c r="C212" s="5"/>
     </row>
     <row r="213" ht="21" spans="1:3">
-      <c r="A213" s="14"/>
-      <c r="B213" s="13"/>
+      <c r="A213" s="13"/>
+      <c r="B213" s="12"/>
       <c r="C213" s="5"/>
     </row>
     <row r="214" ht="21" spans="1:3">
       <c r="A214" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B214" s="12" t="s">
+      <c r="B214" s="11" t="s">
         <v>210</v>
       </c>
       <c r="C214" s="5" t="s">
@@ -4702,7 +4701,7 @@
       <c r="A215" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B215" s="12" t="s">
+      <c r="B215" s="11" t="s">
         <v>211</v>
       </c>
       <c r="C215" s="5" t="s">
@@ -4713,7 +4712,7 @@
       <c r="A216" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B216" s="12" t="s">
+      <c r="B216" s="11" t="s">
         <v>212</v>
       </c>
       <c r="C216" s="5" t="s">
@@ -4724,7 +4723,7 @@
       <c r="A217" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B217" s="12" t="s">
+      <c r="B217" s="11" t="s">
         <v>213</v>
       </c>
       <c r="C217" s="5" t="s">
@@ -4735,7 +4734,7 @@
       <c r="A218" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B218" s="12" t="s">
+      <c r="B218" s="11" t="s">
         <v>214</v>
       </c>
       <c r="C218" s="5" t="s">
@@ -4746,7 +4745,7 @@
       <c r="A219" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B219" s="12" t="s">
+      <c r="B219" s="11" t="s">
         <v>215</v>
       </c>
       <c r="C219" s="5" t="s">
@@ -4757,7 +4756,7 @@
       <c r="A220" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B220" s="15" t="s">
+      <c r="B220" s="14" t="s">
         <v>216</v>
       </c>
       <c r="C220" s="5" t="s">
@@ -4768,7 +4767,7 @@
       <c r="A221" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B221" s="12" t="s">
+      <c r="B221" s="11" t="s">
         <v>217</v>
       </c>
       <c r="C221" s="5" t="s">
@@ -4779,7 +4778,7 @@
       <c r="A222" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B222" s="12" t="s">
+      <c r="B222" s="11" t="s">
         <v>218</v>
       </c>
       <c r="C222" s="5" t="s">
@@ -4790,7 +4789,7 @@
       <c r="A223" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B223" s="12" t="s">
+      <c r="B223" s="11" t="s">
         <v>219</v>
       </c>
       <c r="C223" s="5" t="s">
@@ -4801,7 +4800,7 @@
       <c r="A224" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B224" s="12" t="s">
+      <c r="B224" s="11" t="s">
         <v>220</v>
       </c>
       <c r="C224" s="5" t="s">
@@ -4812,7 +4811,7 @@
       <c r="A225" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B225" s="12" t="s">
+      <c r="B225" s="11" t="s">
         <v>221</v>
       </c>
       <c r="C225" s="5" t="s">
@@ -4823,7 +4822,7 @@
       <c r="A226" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B226" s="12" t="s">
+      <c r="B226" s="11" t="s">
         <v>222</v>
       </c>
       <c r="C226" s="5" t="s">
@@ -4834,7 +4833,7 @@
       <c r="A227" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B227" s="12" t="s">
+      <c r="B227" s="11" t="s">
         <v>223</v>
       </c>
       <c r="C227" s="5" t="s">
@@ -4845,7 +4844,7 @@
       <c r="A228" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B228" s="12" t="s">
+      <c r="B228" s="11" t="s">
         <v>224</v>
       </c>
       <c r="C228" s="5" t="s">
@@ -4856,7 +4855,7 @@
       <c r="A229" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B229" s="12" t="s">
+      <c r="B229" s="11" t="s">
         <v>225</v>
       </c>
       <c r="C229" s="5" t="s">
@@ -4867,7 +4866,7 @@
       <c r="A230" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B230" s="12" t="s">
+      <c r="B230" s="11" t="s">
         <v>226</v>
       </c>
       <c r="C230" s="5" t="s">
@@ -4878,7 +4877,7 @@
       <c r="A231" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B231" s="12" t="s">
+      <c r="B231" s="11" t="s">
         <v>227</v>
       </c>
       <c r="C231" s="5" t="s">
@@ -4889,7 +4888,7 @@
       <c r="A232" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B232" s="12" t="s">
+      <c r="B232" s="11" t="s">
         <v>228</v>
       </c>
       <c r="C232" s="5" t="s">
@@ -4900,7 +4899,7 @@
       <c r="A233" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B233" s="12" t="s">
+      <c r="B233" s="11" t="s">
         <v>229</v>
       </c>
       <c r="C233" s="5" t="s">
@@ -4911,7 +4910,7 @@
       <c r="A234" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B234" s="12" t="s">
+      <c r="B234" s="11" t="s">
         <v>230</v>
       </c>
       <c r="C234" s="5" t="s">
@@ -4922,7 +4921,7 @@
       <c r="A235" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B235" s="12" t="s">
+      <c r="B235" s="11" t="s">
         <v>231</v>
       </c>
       <c r="C235" s="5" t="s">
@@ -4930,18 +4929,18 @@
       </c>
     </row>
     <row r="236" ht="21" spans="2:3">
-      <c r="B236" s="13"/>
+      <c r="B236" s="12"/>
       <c r="C236" s="5"/>
     </row>
     <row r="237" ht="21" spans="2:3">
-      <c r="B237" s="13"/>
+      <c r="B237" s="12"/>
       <c r="C237" s="5"/>
     </row>
     <row r="238" ht="21" spans="1:3">
       <c r="A238" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B238" s="12" t="s">
+      <c r="B238" s="11" t="s">
         <v>233</v>
       </c>
       <c r="C238" s="5" t="s">
@@ -4952,7 +4951,7 @@
       <c r="A239" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B239" s="12" t="s">
+      <c r="B239" s="11" t="s">
         <v>234</v>
       </c>
       <c r="C239" s="5" t="s">
@@ -4963,7 +4962,7 @@
       <c r="A240" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B240" s="12" t="s">
+      <c r="B240" s="11" t="s">
         <v>235</v>
       </c>
       <c r="C240" s="5" t="s">
@@ -4974,7 +4973,7 @@
       <c r="A241" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B241" s="12" t="s">
+      <c r="B241" s="11" t="s">
         <v>236</v>
       </c>
       <c r="C241" s="5" t="s">
@@ -4985,7 +4984,7 @@
       <c r="A242" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B242" s="12" t="s">
+      <c r="B242" s="11" t="s">
         <v>237</v>
       </c>
       <c r="C242" s="5" t="s">
@@ -4996,7 +4995,7 @@
       <c r="A243" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B243" s="12" t="s">
+      <c r="B243" s="11" t="s">
         <v>238</v>
       </c>
       <c r="C243" s="5" t="s">
@@ -5007,7 +5006,7 @@
       <c r="A244" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B244" s="12" t="s">
+      <c r="B244" s="11" t="s">
         <v>239</v>
       </c>
       <c r="C244" s="5" t="s">
@@ -5018,7 +5017,7 @@
       <c r="A245" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B245" s="12" t="s">
+      <c r="B245" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C245" s="5" t="s">
@@ -5029,7 +5028,7 @@
       <c r="A246" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B246" s="12" t="s">
+      <c r="B246" s="11" t="s">
         <v>241</v>
       </c>
       <c r="C246" s="5" t="s">
@@ -5040,7 +5039,7 @@
       <c r="A247" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B247" s="12" t="s">
+      <c r="B247" s="11" t="s">
         <v>242</v>
       </c>
       <c r="C247" s="5" t="s">
@@ -5051,7 +5050,7 @@
       <c r="A248" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B248" s="12" t="s">
+      <c r="B248" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C248" s="5" t="s">
@@ -5062,7 +5061,7 @@
       <c r="A249" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B249" s="12" t="s">
+      <c r="B249" s="11" t="s">
         <v>244</v>
       </c>
       <c r="C249" s="5" t="s">
@@ -5073,7 +5072,7 @@
       <c r="A250" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B250" s="12" t="s">
+      <c r="B250" s="11" t="s">
         <v>245</v>
       </c>
       <c r="C250" s="5" t="s">
@@ -5084,7 +5083,7 @@
       <c r="A251" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B251" s="12" t="s">
+      <c r="B251" s="11" t="s">
         <v>246</v>
       </c>
       <c r="C251" s="5" t="s">
@@ -5095,7 +5094,7 @@
       <c r="A252" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B252" s="12" t="s">
+      <c r="B252" s="11" t="s">
         <v>247</v>
       </c>
       <c r="C252" s="5" t="s">
@@ -5106,7 +5105,7 @@
       <c r="A253" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B253" s="12" t="s">
+      <c r="B253" s="11" t="s">
         <v>248</v>
       </c>
       <c r="C253" s="5" t="s">
@@ -5117,7 +5116,7 @@
       <c r="A254" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B254" s="12" t="s">
+      <c r="B254" s="11" t="s">
         <v>249</v>
       </c>
       <c r="C254" s="5" t="s">
@@ -5128,7 +5127,7 @@
       <c r="A255" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B255" s="12" t="s">
+      <c r="B255" s="11" t="s">
         <v>250</v>
       </c>
       <c r="C255" s="5" t="s">
@@ -5139,7 +5138,7 @@
       <c r="A256" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B256" s="12" t="s">
+      <c r="B256" s="11" t="s">
         <v>251</v>
       </c>
       <c r="C256" s="5" t="s">
@@ -5150,7 +5149,7 @@
       <c r="A257" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B257" s="12" t="s">
+      <c r="B257" s="11" t="s">
         <v>252</v>
       </c>
       <c r="C257" s="5" t="s">
@@ -5161,7 +5160,7 @@
       <c r="A258" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B258" s="12" t="s">
+      <c r="B258" s="11" t="s">
         <v>253</v>
       </c>
       <c r="C258" s="5" t="s">
@@ -5172,7 +5171,7 @@
       <c r="A259" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B259" s="12" t="s">
+      <c r="B259" s="11" t="s">
         <v>254</v>
       </c>
       <c r="C259" s="5" t="s">
@@ -5183,7 +5182,7 @@
       <c r="A260" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B260" s="12" t="s">
+      <c r="B260" s="11" t="s">
         <v>255</v>
       </c>
       <c r="C260" s="5" t="s">
@@ -5194,7 +5193,7 @@
       <c r="A261" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B261" s="12" t="s">
+      <c r="B261" s="11" t="s">
         <v>256</v>
       </c>
       <c r="C261" s="5" t="s">
@@ -5205,7 +5204,7 @@
       <c r="A262" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B262" s="12" t="s">
+      <c r="B262" s="11" t="s">
         <v>257</v>
       </c>
       <c r="C262" s="5" t="s">
@@ -5216,7 +5215,7 @@
       <c r="A263" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B263" s="12" t="s">
+      <c r="B263" s="11" t="s">
         <v>258</v>
       </c>
       <c r="C263" s="5" t="s">
@@ -5227,7 +5226,7 @@
       <c r="A264" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B264" s="12" t="s">
+      <c r="B264" s="11" t="s">
         <v>259</v>
       </c>
       <c r="C264" s="5" t="s">
@@ -5238,7 +5237,7 @@
       <c r="A265" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B265" s="12" t="s">
+      <c r="B265" s="11" t="s">
         <v>260</v>
       </c>
       <c r="C265" s="5" t="s">
@@ -5249,7 +5248,7 @@
       <c r="A266" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B266" s="12" t="s">
+      <c r="B266" s="11" t="s">
         <v>261</v>
       </c>
       <c r="C266" s="5" t="s">
@@ -5260,7 +5259,7 @@
       <c r="A267" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B267" s="12" t="s">
+      <c r="B267" s="11" t="s">
         <v>262</v>
       </c>
       <c r="C267" s="5" t="s">
@@ -5271,7 +5270,7 @@
       <c r="A268" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B268" s="12" t="s">
+      <c r="B268" s="11" t="s">
         <v>263</v>
       </c>
       <c r="C268" s="5" t="s">
@@ -5282,7 +5281,7 @@
       <c r="A269" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B269" s="12" t="s">
+      <c r="B269" s="11" t="s">
         <v>264</v>
       </c>
       <c r="C269" s="5" t="s">
@@ -5293,7 +5292,7 @@
       <c r="A270" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B270" s="12" t="s">
+      <c r="B270" s="11" t="s">
         <v>265</v>
       </c>
       <c r="C270" s="5" t="s">
@@ -5304,7 +5303,7 @@
       <c r="A271" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B271" s="12" t="s">
+      <c r="B271" s="11" t="s">
         <v>89</v>
       </c>
       <c r="C271" s="5" t="s">
@@ -5315,7 +5314,7 @@
       <c r="A272" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B272" s="12" t="s">
+      <c r="B272" s="11" t="s">
         <v>266</v>
       </c>
       <c r="C272" s="5" t="s">
@@ -5323,18 +5322,18 @@
       </c>
     </row>
     <row r="273" ht="21" spans="2:3">
-      <c r="B273" s="13"/>
+      <c r="B273" s="12"/>
       <c r="C273" s="5"/>
     </row>
     <row r="274" ht="21" spans="2:3">
-      <c r="B274" s="13"/>
+      <c r="B274" s="12"/>
       <c r="C274" s="5"/>
     </row>
     <row r="275" ht="21" spans="1:3">
       <c r="A275" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B275" s="12" t="s">
+      <c r="B275" s="11" t="s">
         <v>268</v>
       </c>
       <c r="C275" s="5" t="s">
@@ -5345,7 +5344,7 @@
       <c r="A276" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B276" s="12" t="s">
+      <c r="B276" s="11" t="s">
         <v>269</v>
       </c>
       <c r="C276" s="5" t="s">
@@ -5356,7 +5355,7 @@
       <c r="A277" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B277" s="12" t="s">
+      <c r="B277" s="11" t="s">
         <v>270</v>
       </c>
       <c r="C277" s="5" t="s">
@@ -5367,7 +5366,7 @@
       <c r="A278" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B278" s="12" t="s">
+      <c r="B278" s="11" t="s">
         <v>271</v>
       </c>
       <c r="C278" s="5" t="s">
@@ -5378,7 +5377,7 @@
       <c r="A279" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B279" s="12" t="s">
+      <c r="B279" s="11" t="s">
         <v>272</v>
       </c>
       <c r="C279" s="5" t="s">
@@ -5389,7 +5388,7 @@
       <c r="A280" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B280" s="12" t="s">
+      <c r="B280" s="11" t="s">
         <v>273</v>
       </c>
       <c r="C280" s="5" t="s">
@@ -5400,7 +5399,7 @@
       <c r="A281" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B281" s="12" t="s">
+      <c r="B281" s="11" t="s">
         <v>274</v>
       </c>
       <c r="C281" s="5" t="s">
@@ -5411,7 +5410,7 @@
       <c r="A282" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B282" s="12" t="s">
+      <c r="B282" s="11" t="s">
         <v>275</v>
       </c>
       <c r="C282" s="5" t="s">
@@ -5422,7 +5421,7 @@
       <c r="A283" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B283" s="12" t="s">
+      <c r="B283" s="11" t="s">
         <v>276</v>
       </c>
       <c r="C283" s="5" t="s">
@@ -5433,7 +5432,7 @@
       <c r="A284" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B284" s="12" t="s">
+      <c r="B284" s="11" t="s">
         <v>277</v>
       </c>
       <c r="C284" s="5" t="s">
@@ -5444,7 +5443,7 @@
       <c r="A285" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B285" s="12" t="s">
+      <c r="B285" s="11" t="s">
         <v>278</v>
       </c>
       <c r="C285" s="5" t="s">
@@ -5455,7 +5454,7 @@
       <c r="A286" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B286" s="12" t="s">
+      <c r="B286" s="11" t="s">
         <v>279</v>
       </c>
       <c r="C286" s="5" t="s">
@@ -5466,7 +5465,7 @@
       <c r="A287" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B287" s="12" t="s">
+      <c r="B287" s="11" t="s">
         <v>280</v>
       </c>
       <c r="C287" s="5" t="s">
@@ -5477,7 +5476,7 @@
       <c r="A288" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B288" s="12" t="s">
+      <c r="B288" s="11" t="s">
         <v>281</v>
       </c>
       <c r="C288" s="5" t="s">
@@ -5488,7 +5487,7 @@
       <c r="A289" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B289" s="12" t="s">
+      <c r="B289" s="11" t="s">
         <v>282</v>
       </c>
       <c r="C289" s="5" t="s">
@@ -5499,7 +5498,7 @@
       <c r="A290" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B290" s="12" t="s">
+      <c r="B290" s="11" t="s">
         <v>283</v>
       </c>
       <c r="C290" s="5" t="s">
@@ -5510,7 +5509,7 @@
       <c r="A291" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B291" s="12" t="s">
+      <c r="B291" s="11" t="s">
         <v>284</v>
       </c>
       <c r="C291" s="5" t="s">
@@ -5521,7 +5520,7 @@
       <c r="A292" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B292" s="12" t="s">
+      <c r="B292" s="11" t="s">
         <v>285</v>
       </c>
       <c r="C292" s="5" t="s">
@@ -5532,7 +5531,7 @@
       <c r="A293" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B293" s="12" t="s">
+      <c r="B293" s="11" t="s">
         <v>286</v>
       </c>
       <c r="C293" s="5" t="s">
@@ -5540,18 +5539,18 @@
       </c>
     </row>
     <row r="294" ht="21" spans="2:3">
-      <c r="B294" s="13"/>
+      <c r="B294" s="12"/>
       <c r="C294" s="5"/>
     </row>
     <row r="295" ht="21" spans="2:3">
-      <c r="B295" s="13"/>
+      <c r="B295" s="12"/>
       <c r="C295" s="5"/>
     </row>
     <row r="296" ht="21" spans="1:3">
       <c r="A296" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B296" s="12" t="s">
+      <c r="B296" s="11" t="s">
         <v>288</v>
       </c>
       <c r="C296" s="5" t="s">
@@ -5562,7 +5561,7 @@
       <c r="A297" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B297" s="12" t="s">
+      <c r="B297" s="11" t="s">
         <v>289</v>
       </c>
       <c r="C297" s="5" t="s">
@@ -5573,7 +5572,7 @@
       <c r="A298" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B298" s="12" t="s">
+      <c r="B298" s="11" t="s">
         <v>290</v>
       </c>
       <c r="C298" s="5" t="s">
@@ -5584,7 +5583,7 @@
       <c r="A299" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B299" s="12" t="s">
+      <c r="B299" s="11" t="s">
         <v>291</v>
       </c>
       <c r="C299" s="5" t="s">
@@ -5595,7 +5594,7 @@
       <c r="A300" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B300" s="12" t="s">
+      <c r="B300" s="11" t="s">
         <v>292</v>
       </c>
       <c r="C300" s="5" t="s">
@@ -5606,7 +5605,7 @@
       <c r="A301" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B301" s="12" t="s">
+      <c r="B301" s="11" t="s">
         <v>293</v>
       </c>
       <c r="C301" s="5" t="s">
@@ -5617,7 +5616,7 @@
       <c r="A302" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B302" s="12" t="s">
+      <c r="B302" s="11" t="s">
         <v>294</v>
       </c>
       <c r="C302" s="5" t="s">
@@ -5628,7 +5627,7 @@
       <c r="A303" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B303" s="12" t="s">
+      <c r="B303" s="11" t="s">
         <v>295</v>
       </c>
       <c r="C303" s="5" t="s">
@@ -5639,7 +5638,7 @@
       <c r="A304" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B304" s="12" t="s">
+      <c r="B304" s="11" t="s">
         <v>296</v>
       </c>
       <c r="C304" s="5" t="s">
@@ -5650,7 +5649,7 @@
       <c r="A305" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B305" s="12" t="s">
+      <c r="B305" s="11" t="s">
         <v>297</v>
       </c>
       <c r="C305" s="5" t="s">
@@ -5661,7 +5660,7 @@
       <c r="A306" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B306" s="12" t="s">
+      <c r="B306" s="11" t="s">
         <v>298</v>
       </c>
       <c r="C306" s="5" t="s">
@@ -5672,7 +5671,7 @@
       <c r="A307" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B307" s="12" t="s">
+      <c r="B307" s="11" t="s">
         <v>299</v>
       </c>
       <c r="C307" s="5" t="s">
@@ -5683,7 +5682,7 @@
       <c r="A308" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B308" s="12" t="s">
+      <c r="B308" s="11" t="s">
         <v>300</v>
       </c>
       <c r="C308" s="5" t="s">
@@ -5694,7 +5693,7 @@
       <c r="A309" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B309" s="15" t="s">
+      <c r="B309" s="14" t="s">
         <v>301</v>
       </c>
       <c r="C309" s="5" t="s">
@@ -5705,7 +5704,7 @@
       <c r="A310" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B310" s="12" t="s">
+      <c r="B310" s="11" t="s">
         <v>302</v>
       </c>
       <c r="C310" s="5" t="s">
@@ -5716,7 +5715,7 @@
       <c r="A311" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B311" s="12" t="s">
+      <c r="B311" s="11" t="s">
         <v>303</v>
       </c>
       <c r="C311" s="5" t="s">
@@ -5727,7 +5726,7 @@
       <c r="A312" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B312" s="12" t="s">
+      <c r="B312" s="11" t="s">
         <v>304</v>
       </c>
       <c r="C312" s="5" t="s">
@@ -5738,7 +5737,7 @@
       <c r="A313" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B313" s="12" t="s">
+      <c r="B313" s="11" t="s">
         <v>305</v>
       </c>
       <c r="C313" s="5" t="s">
@@ -5749,7 +5748,7 @@
       <c r="A314" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B314" s="12" t="s">
+      <c r="B314" s="11" t="s">
         <v>306</v>
       </c>
       <c r="C314" s="5" t="s">
@@ -5760,7 +5759,7 @@
       <c r="A315" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B315" s="12" t="s">
+      <c r="B315" s="11" t="s">
         <v>307</v>
       </c>
       <c r="C315" s="5" t="s">
@@ -5771,7 +5770,7 @@
       <c r="A316" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B316" s="12" t="s">
+      <c r="B316" s="11" t="s">
         <v>308</v>
       </c>
       <c r="C316" s="5" t="s">
@@ -5782,7 +5781,7 @@
       <c r="A317" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B317" s="12" t="s">
+      <c r="B317" s="11" t="s">
         <v>309</v>
       </c>
       <c r="C317" s="5" t="s">
@@ -5793,7 +5792,7 @@
       <c r="A318" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B318" s="12" t="s">
+      <c r="B318" s="11" t="s">
         <v>310</v>
       </c>
       <c r="C318" s="5" t="s">
@@ -5804,7 +5803,7 @@
       <c r="A319" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B319" s="12" t="s">
+      <c r="B319" s="11" t="s">
         <v>311</v>
       </c>
       <c r="C319" s="5" t="s">
@@ -5815,7 +5814,7 @@
       <c r="A320" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B320" s="12" t="s">
+      <c r="B320" s="11" t="s">
         <v>312</v>
       </c>
       <c r="C320" s="5" t="s">
@@ -5826,7 +5825,7 @@
       <c r="A321" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B321" s="12" t="s">
+      <c r="B321" s="11" t="s">
         <v>313</v>
       </c>
       <c r="C321" s="5" t="s">
@@ -5837,7 +5836,7 @@
       <c r="A322" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B322" s="12" t="s">
+      <c r="B322" s="11" t="s">
         <v>314</v>
       </c>
       <c r="C322" s="5" t="s">
@@ -5848,7 +5847,7 @@
       <c r="A323" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B323" s="12" t="s">
+      <c r="B323" s="11" t="s">
         <v>315</v>
       </c>
       <c r="C323" s="5" t="s">
@@ -5859,7 +5858,7 @@
       <c r="A324" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B324" s="12" t="s">
+      <c r="B324" s="11" t="s">
         <v>316</v>
       </c>
       <c r="C324" s="5" t="s">
@@ -5870,7 +5869,7 @@
       <c r="A325" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B325" s="12" t="s">
+      <c r="B325" s="11" t="s">
         <v>317</v>
       </c>
       <c r="C325" s="5" t="s">
@@ -5881,7 +5880,7 @@
       <c r="A326" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B326" s="12" t="s">
+      <c r="B326" s="11" t="s">
         <v>318</v>
       </c>
       <c r="C326" s="5" t="s">
@@ -5892,7 +5891,7 @@
       <c r="A327" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B327" s="12" t="s">
+      <c r="B327" s="11" t="s">
         <v>319</v>
       </c>
       <c r="C327" s="5" t="s">
@@ -5903,7 +5902,7 @@
       <c r="A328" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B328" s="12" t="s">
+      <c r="B328" s="11" t="s">
         <v>320</v>
       </c>
       <c r="C328" s="5" t="s">
@@ -5914,7 +5913,7 @@
       <c r="A329" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B329" s="12" t="s">
+      <c r="B329" s="11" t="s">
         <v>321</v>
       </c>
       <c r="C329" s="5" t="s">
@@ -5925,7 +5924,7 @@
       <c r="A330" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B330" s="12" t="s">
+      <c r="B330" s="11" t="s">
         <v>322</v>
       </c>
       <c r="C330" s="5" t="s">
@@ -5936,7 +5935,7 @@
       <c r="A331" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B331" s="12" t="s">
+      <c r="B331" s="11" t="s">
         <v>323</v>
       </c>
       <c r="C331" s="5" t="s">
@@ -5947,7 +5946,7 @@
       <c r="A332" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B332" s="12" t="s">
+      <c r="B332" s="11" t="s">
         <v>324</v>
       </c>
       <c r="C332" s="5" t="s">
@@ -5958,7 +5957,7 @@
       <c r="A333" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B333" s="12" t="s">
+      <c r="B333" s="11" t="s">
         <v>325</v>
       </c>
       <c r="C333" s="5" t="s">
@@ -5966,18 +5965,18 @@
       </c>
     </row>
     <row r="334" ht="21" spans="2:3">
-      <c r="B334" s="13"/>
+      <c r="B334" s="12"/>
       <c r="C334" s="5"/>
     </row>
     <row r="335" ht="21" spans="2:3">
-      <c r="B335" s="13"/>
+      <c r="B335" s="12"/>
       <c r="C335" s="5"/>
     </row>
     <row r="336" ht="21" spans="1:3">
-      <c r="A336" s="14" t="s">
+      <c r="A336" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B336" s="12" t="s">
+      <c r="B336" s="11" t="s">
         <v>327</v>
       </c>
       <c r="C336" s="5" t="s">
@@ -5985,10 +5984,10 @@
       </c>
     </row>
     <row r="337" ht="21" spans="1:3">
-      <c r="A337" s="14" t="s">
+      <c r="A337" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B337" s="12" t="s">
+      <c r="B337" s="11" t="s">
         <v>328</v>
       </c>
       <c r="C337" s="5" t="s">
@@ -5996,10 +5995,10 @@
       </c>
     </row>
     <row r="338" ht="21" spans="1:3">
-      <c r="A338" s="14" t="s">
+      <c r="A338" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B338" s="12" t="s">
+      <c r="B338" s="11" t="s">
         <v>329</v>
       </c>
       <c r="C338" s="5" t="s">
@@ -6007,10 +6006,10 @@
       </c>
     </row>
     <row r="339" ht="21" spans="1:3">
-      <c r="A339" s="14" t="s">
+      <c r="A339" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B339" s="12" t="s">
+      <c r="B339" s="11" t="s">
         <v>330</v>
       </c>
       <c r="C339" s="5" t="s">
@@ -6018,10 +6017,10 @@
       </c>
     </row>
     <row r="340" ht="21" spans="1:3">
-      <c r="A340" s="14" t="s">
+      <c r="A340" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B340" s="12" t="s">
+      <c r="B340" s="11" t="s">
         <v>331</v>
       </c>
       <c r="C340" s="5" t="s">
@@ -6029,10 +6028,10 @@
       </c>
     </row>
     <row r="341" ht="21" spans="1:3">
-      <c r="A341" s="14" t="s">
+      <c r="A341" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B341" s="12" t="s">
+      <c r="B341" s="11" t="s">
         <v>332</v>
       </c>
       <c r="C341" s="5" t="s">
@@ -6040,10 +6039,10 @@
       </c>
     </row>
     <row r="342" ht="21" spans="1:3">
-      <c r="A342" s="14" t="s">
+      <c r="A342" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B342" s="12" t="s">
+      <c r="B342" s="11" t="s">
         <v>333</v>
       </c>
       <c r="C342" s="5" t="s">
@@ -6051,10 +6050,10 @@
       </c>
     </row>
     <row r="343" ht="21" spans="1:3">
-      <c r="A343" s="14" t="s">
+      <c r="A343" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B343" s="12" t="s">
+      <c r="B343" s="11" t="s">
         <v>334</v>
       </c>
       <c r="C343" s="5" t="s">
@@ -6062,10 +6061,10 @@
       </c>
     </row>
     <row r="344" ht="21" spans="1:3">
-      <c r="A344" s="14" t="s">
+      <c r="A344" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B344" s="15" t="s">
+      <c r="B344" s="14" t="s">
         <v>335</v>
       </c>
       <c r="C344" s="5" t="s">
@@ -6073,10 +6072,10 @@
       </c>
     </row>
     <row r="345" ht="21" spans="1:3">
-      <c r="A345" s="14" t="s">
+      <c r="A345" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B345" s="12" t="s">
+      <c r="B345" s="11" t="s">
         <v>336</v>
       </c>
       <c r="C345" s="5" t="s">
@@ -6084,10 +6083,10 @@
       </c>
     </row>
     <row r="346" ht="21" spans="1:3">
-      <c r="A346" s="14" t="s">
+      <c r="A346" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B346" s="12" t="s">
+      <c r="B346" s="11" t="s">
         <v>337</v>
       </c>
       <c r="C346" s="5" t="s">
@@ -6095,10 +6094,10 @@
       </c>
     </row>
     <row r="347" ht="21" spans="1:3">
-      <c r="A347" s="14" t="s">
+      <c r="A347" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B347" s="12" t="s">
+      <c r="B347" s="11" t="s">
         <v>338</v>
       </c>
       <c r="C347" s="5" t="s">
@@ -6106,10 +6105,10 @@
       </c>
     </row>
     <row r="348" ht="21" spans="1:3">
-      <c r="A348" s="14" t="s">
+      <c r="A348" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B348" s="12" t="s">
+      <c r="B348" s="11" t="s">
         <v>339</v>
       </c>
       <c r="C348" s="5" t="s">
@@ -6117,10 +6116,10 @@
       </c>
     </row>
     <row r="349" ht="21" spans="1:3">
-      <c r="A349" s="14" t="s">
+      <c r="A349" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B349" s="12" t="s">
+      <c r="B349" s="11" t="s">
         <v>340</v>
       </c>
       <c r="C349" s="5" t="s">
@@ -6128,10 +6127,10 @@
       </c>
     </row>
     <row r="350" ht="21" spans="1:3">
-      <c r="A350" s="14" t="s">
+      <c r="A350" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B350" s="12" t="s">
+      <c r="B350" s="11" t="s">
         <v>341</v>
       </c>
       <c r="C350" s="5" t="s">
@@ -6139,10 +6138,10 @@
       </c>
     </row>
     <row r="351" ht="21" spans="1:3">
-      <c r="A351" s="14" t="s">
+      <c r="A351" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B351" s="12" t="s">
+      <c r="B351" s="11" t="s">
         <v>342</v>
       </c>
       <c r="C351" s="5" t="s">
@@ -6150,10 +6149,10 @@
       </c>
     </row>
     <row r="352" ht="21" spans="1:3">
-      <c r="A352" s="14" t="s">
+      <c r="A352" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B352" s="12" t="s">
+      <c r="B352" s="11" t="s">
         <v>343</v>
       </c>
       <c r="C352" s="5" t="s">
@@ -6161,10 +6160,10 @@
       </c>
     </row>
     <row r="353" ht="21" spans="1:3">
-      <c r="A353" s="14" t="s">
+      <c r="A353" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B353" s="12" t="s">
+      <c r="B353" s="11" t="s">
         <v>344</v>
       </c>
       <c r="C353" s="5" t="s">
@@ -6172,18 +6171,18 @@
       </c>
     </row>
     <row r="354" ht="21" spans="2:3">
-      <c r="B354" s="13"/>
+      <c r="B354" s="12"/>
       <c r="C354" s="5"/>
     </row>
     <row r="355" ht="21" spans="2:3">
-      <c r="B355" s="13"/>
+      <c r="B355" s="12"/>
       <c r="C355" s="5"/>
     </row>
     <row r="356" ht="21" spans="1:3">
-      <c r="A356" s="14" t="s">
+      <c r="A356" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B356" s="12" t="s">
+      <c r="B356" s="11" t="s">
         <v>346</v>
       </c>
       <c r="C356" s="5" t="s">
@@ -6191,10 +6190,10 @@
       </c>
     </row>
     <row r="357" ht="21" spans="1:3">
-      <c r="A357" s="14" t="s">
+      <c r="A357" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B357" s="12" t="s">
+      <c r="B357" s="11" t="s">
         <v>347</v>
       </c>
       <c r="C357" s="5" t="s">
@@ -6202,10 +6201,10 @@
       </c>
     </row>
     <row r="358" ht="21" spans="1:3">
-      <c r="A358" s="14" t="s">
+      <c r="A358" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B358" s="12" t="s">
+      <c r="B358" s="11" t="s">
         <v>348</v>
       </c>
       <c r="C358" s="5" t="s">
@@ -6213,10 +6212,10 @@
       </c>
     </row>
     <row r="359" ht="21" spans="1:3">
-      <c r="A359" s="14" t="s">
+      <c r="A359" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B359" s="12" t="s">
+      <c r="B359" s="11" t="s">
         <v>349</v>
       </c>
       <c r="C359" s="5" t="s">
@@ -6224,10 +6223,10 @@
       </c>
     </row>
     <row r="360" ht="21" spans="1:3">
-      <c r="A360" s="14" t="s">
+      <c r="A360" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B360" s="12" t="s">
+      <c r="B360" s="11" t="s">
         <v>350</v>
       </c>
       <c r="C360" s="5" t="s">
@@ -6235,10 +6234,10 @@
       </c>
     </row>
     <row r="361" ht="21" spans="1:3">
-      <c r="A361" s="14" t="s">
+      <c r="A361" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B361" s="12" t="s">
+      <c r="B361" s="11" t="s">
         <v>351</v>
       </c>
       <c r="C361" s="5" t="s">
@@ -6246,10 +6245,10 @@
       </c>
     </row>
     <row r="362" ht="21" spans="1:3">
-      <c r="A362" s="14" t="s">
+      <c r="A362" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B362" s="12" t="s">
+      <c r="B362" s="11" t="s">
         <v>352</v>
       </c>
       <c r="C362" s="5" t="s">
@@ -6257,10 +6256,10 @@
       </c>
     </row>
     <row r="363" ht="21" spans="1:3">
-      <c r="A363" s="14" t="s">
+      <c r="A363" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B363" s="12" t="s">
+      <c r="B363" s="11" t="s">
         <v>353</v>
       </c>
       <c r="C363" s="5" t="s">
@@ -6268,10 +6267,10 @@
       </c>
     </row>
     <row r="364" ht="21" spans="1:3">
-      <c r="A364" s="14" t="s">
+      <c r="A364" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B364" s="12" t="s">
+      <c r="B364" s="11" t="s">
         <v>354</v>
       </c>
       <c r="C364" s="5" t="s">
@@ -6279,10 +6278,10 @@
       </c>
     </row>
     <row r="365" ht="21" spans="1:3">
-      <c r="A365" s="14" t="s">
+      <c r="A365" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B365" s="12" t="s">
+      <c r="B365" s="11" t="s">
         <v>355</v>
       </c>
       <c r="C365" s="5" t="s">
@@ -6290,10 +6289,10 @@
       </c>
     </row>
     <row r="366" ht="21" spans="1:3">
-      <c r="A366" s="14" t="s">
+      <c r="A366" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B366" s="12" t="s">
+      <c r="B366" s="11" t="s">
         <v>356</v>
       </c>
       <c r="C366" s="5" t="s">
@@ -6301,10 +6300,10 @@
       </c>
     </row>
     <row r="367" ht="21" spans="1:3">
-      <c r="A367" s="14" t="s">
+      <c r="A367" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B367" s="12" t="s">
+      <c r="B367" s="11" t="s">
         <v>357</v>
       </c>
       <c r="C367" s="5" t="s">
@@ -6312,10 +6311,10 @@
       </c>
     </row>
     <row r="368" ht="21" spans="1:3">
-      <c r="A368" s="14" t="s">
+      <c r="A368" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B368" s="12" t="s">
+      <c r="B368" s="11" t="s">
         <v>358</v>
       </c>
       <c r="C368" s="5" t="s">
@@ -6323,10 +6322,10 @@
       </c>
     </row>
     <row r="369" ht="21" spans="1:3">
-      <c r="A369" s="14" t="s">
+      <c r="A369" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B369" s="12" t="s">
+      <c r="B369" s="11" t="s">
         <v>359</v>
       </c>
       <c r="C369" s="5" t="s">
@@ -6334,10 +6333,10 @@
       </c>
     </row>
     <row r="370" ht="21" spans="1:3">
-      <c r="A370" s="14" t="s">
+      <c r="A370" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B370" s="12" t="s">
+      <c r="B370" s="11" t="s">
         <v>360</v>
       </c>
       <c r="C370" s="5" t="s">
@@ -6345,10 +6344,10 @@
       </c>
     </row>
     <row r="371" ht="21" spans="1:3">
-      <c r="A371" s="14" t="s">
+      <c r="A371" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B371" s="12" t="s">
+      <c r="B371" s="11" t="s">
         <v>361</v>
       </c>
       <c r="C371" s="5" t="s">
@@ -6356,10 +6355,10 @@
       </c>
     </row>
     <row r="372" ht="21" spans="1:3">
-      <c r="A372" s="14" t="s">
+      <c r="A372" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B372" s="12" t="s">
+      <c r="B372" s="11" t="s">
         <v>362</v>
       </c>
       <c r="C372" s="5" t="s">
@@ -6367,10 +6366,10 @@
       </c>
     </row>
     <row r="373" ht="21" spans="1:3">
-      <c r="A373" s="14" t="s">
+      <c r="A373" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B373" s="12" t="s">
+      <c r="B373" s="11" t="s">
         <v>363</v>
       </c>
       <c r="C373" s="5" t="s">
@@ -6378,10 +6377,10 @@
       </c>
     </row>
     <row r="374" ht="21" spans="1:3">
-      <c r="A374" s="14" t="s">
+      <c r="A374" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B374" s="12" t="s">
+      <c r="B374" s="11" t="s">
         <v>364</v>
       </c>
       <c r="C374" s="5" t="s">
@@ -6389,10 +6388,10 @@
       </c>
     </row>
     <row r="375" ht="21" spans="1:3">
-      <c r="A375" s="14" t="s">
+      <c r="A375" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B375" s="12" t="s">
+      <c r="B375" s="11" t="s">
         <v>365</v>
       </c>
       <c r="C375" s="5" t="s">
@@ -6400,10 +6399,10 @@
       </c>
     </row>
     <row r="376" ht="21" spans="1:3">
-      <c r="A376" s="14" t="s">
+      <c r="A376" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B376" s="12" t="s">
+      <c r="B376" s="11" t="s">
         <v>366</v>
       </c>
       <c r="C376" s="5" t="s">
@@ -6411,10 +6410,10 @@
       </c>
     </row>
     <row r="377" ht="21" spans="1:3">
-      <c r="A377" s="14" t="s">
+      <c r="A377" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B377" s="12" t="s">
+      <c r="B377" s="11" t="s">
         <v>367</v>
       </c>
       <c r="C377" s="5" t="s">
@@ -6422,10 +6421,10 @@
       </c>
     </row>
     <row r="378" ht="21" spans="1:3">
-      <c r="A378" s="14" t="s">
+      <c r="A378" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B378" s="12" t="s">
+      <c r="B378" s="11" t="s">
         <v>368</v>
       </c>
       <c r="C378" s="5" t="s">
@@ -6433,10 +6432,10 @@
       </c>
     </row>
     <row r="379" ht="21" spans="1:3">
-      <c r="A379" s="14" t="s">
+      <c r="A379" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B379" s="12" t="s">
+      <c r="B379" s="11" t="s">
         <v>369</v>
       </c>
       <c r="C379" s="5" t="s">
@@ -6444,10 +6443,10 @@
       </c>
     </row>
     <row r="380" ht="21" spans="1:3">
-      <c r="A380" s="14" t="s">
+      <c r="A380" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B380" s="12" t="s">
+      <c r="B380" s="11" t="s">
         <v>370</v>
       </c>
       <c r="C380" s="5" t="s">
@@ -6455,10 +6454,10 @@
       </c>
     </row>
     <row r="381" ht="21" spans="1:3">
-      <c r="A381" s="14" t="s">
+      <c r="A381" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B381" s="12" t="s">
+      <c r="B381" s="11" t="s">
         <v>371</v>
       </c>
       <c r="C381" s="5" t="s">
@@ -6466,10 +6465,10 @@
       </c>
     </row>
     <row r="382" ht="21" spans="1:3">
-      <c r="A382" s="14" t="s">
+      <c r="A382" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B382" s="12" t="s">
+      <c r="B382" s="11" t="s">
         <v>372</v>
       </c>
       <c r="C382" s="5" t="s">
@@ -6477,10 +6476,10 @@
       </c>
     </row>
     <row r="383" ht="21" spans="1:3">
-      <c r="A383" s="14" t="s">
+      <c r="A383" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B383" s="12" t="s">
+      <c r="B383" s="11" t="s">
         <v>373</v>
       </c>
       <c r="C383" s="5" t="s">
@@ -6488,10 +6487,10 @@
       </c>
     </row>
     <row r="384" ht="21" spans="1:3">
-      <c r="A384" s="14" t="s">
+      <c r="A384" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B384" s="12" t="s">
+      <c r="B384" s="11" t="s">
         <v>374</v>
       </c>
       <c r="C384" s="5" t="s">
@@ -6499,10 +6498,10 @@
       </c>
     </row>
     <row r="385" ht="21" spans="1:3">
-      <c r="A385" s="14" t="s">
+      <c r="A385" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B385" s="12" t="s">
+      <c r="B385" s="11" t="s">
         <v>375</v>
       </c>
       <c r="C385" s="5" t="s">
@@ -6510,10 +6509,10 @@
       </c>
     </row>
     <row r="386" ht="21" spans="1:3">
-      <c r="A386" s="14" t="s">
+      <c r="A386" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B386" s="12" t="s">
+      <c r="B386" s="11" t="s">
         <v>376</v>
       </c>
       <c r="C386" s="5" t="s">
@@ -6521,10 +6520,10 @@
       </c>
     </row>
     <row r="387" ht="21" spans="1:3">
-      <c r="A387" s="14" t="s">
+      <c r="A387" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B387" s="12" t="s">
+      <c r="B387" s="11" t="s">
         <v>377</v>
       </c>
       <c r="C387" s="5" t="s">
@@ -6532,10 +6531,10 @@
       </c>
     </row>
     <row r="388" ht="21" spans="1:3">
-      <c r="A388" s="14" t="s">
+      <c r="A388" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B388" s="12" t="s">
+      <c r="B388" s="11" t="s">
         <v>378</v>
       </c>
       <c r="C388" s="5" t="s">
@@ -6543,10 +6542,10 @@
       </c>
     </row>
     <row r="389" ht="21" spans="1:3">
-      <c r="A389" s="14" t="s">
+      <c r="A389" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B389" s="12" t="s">
+      <c r="B389" s="11" t="s">
         <v>379</v>
       </c>
       <c r="C389" s="5" t="s">
@@ -6554,10 +6553,10 @@
       </c>
     </row>
     <row r="390" ht="21" spans="1:3">
-      <c r="A390" s="14" t="s">
+      <c r="A390" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B390" s="12" t="s">
+      <c r="B390" s="11" t="s">
         <v>379</v>
       </c>
       <c r="C390" s="5" t="s">
@@ -6565,10 +6564,10 @@
       </c>
     </row>
     <row r="391" ht="21" spans="1:3">
-      <c r="A391" s="14" t="s">
+      <c r="A391" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B391" s="12" t="s">
+      <c r="B391" s="11" t="s">
         <v>380</v>
       </c>
       <c r="C391" s="5" t="s">
@@ -6576,10 +6575,10 @@
       </c>
     </row>
     <row r="392" ht="21" spans="1:3">
-      <c r="A392" s="14" t="s">
+      <c r="A392" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B392" s="12" t="s">
+      <c r="B392" s="11" t="s">
         <v>381</v>
       </c>
       <c r="C392" s="5" t="s">
@@ -6587,10 +6586,10 @@
       </c>
     </row>
     <row r="393" ht="21" spans="1:3">
-      <c r="A393" s="14" t="s">
+      <c r="A393" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B393" s="12" t="s">
+      <c r="B393" s="11" t="s">
         <v>382</v>
       </c>
       <c r="C393" s="5" t="s">
@@ -6598,10 +6597,10 @@
       </c>
     </row>
     <row r="394" ht="21" spans="1:3">
-      <c r="A394" s="14" t="s">
+      <c r="A394" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B394" s="12" t="s">
+      <c r="B394" s="11" t="s">
         <v>383</v>
       </c>
       <c r="C394" s="5" t="s">
@@ -6609,10 +6608,10 @@
       </c>
     </row>
     <row r="395" ht="21" spans="1:3">
-      <c r="A395" s="14" t="s">
+      <c r="A395" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B395" s="12" t="s">
+      <c r="B395" s="11" t="s">
         <v>384</v>
       </c>
       <c r="C395" s="5" t="s">
@@ -6620,10 +6619,10 @@
       </c>
     </row>
     <row r="396" ht="21" spans="1:3">
-      <c r="A396" s="14" t="s">
+      <c r="A396" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B396" s="12" t="s">
+      <c r="B396" s="11" t="s">
         <v>385</v>
       </c>
       <c r="C396" s="5" t="s">
@@ -6631,10 +6630,10 @@
       </c>
     </row>
     <row r="397" ht="21" spans="1:3">
-      <c r="A397" s="14" t="s">
+      <c r="A397" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B397" s="12" t="s">
+      <c r="B397" s="11" t="s">
         <v>386</v>
       </c>
       <c r="C397" s="5" t="s">
@@ -6642,10 +6641,10 @@
       </c>
     </row>
     <row r="398" ht="21" spans="1:3">
-      <c r="A398" s="14" t="s">
+      <c r="A398" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B398" s="12" t="s">
+      <c r="B398" s="11" t="s">
         <v>387</v>
       </c>
       <c r="C398" s="5" t="s">
@@ -6653,10 +6652,10 @@
       </c>
     </row>
     <row r="399" ht="21" spans="1:3">
-      <c r="A399" s="14" t="s">
+      <c r="A399" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="B399" s="12" t="s">
+      <c r="B399" s="11" t="s">
         <v>388</v>
       </c>
       <c r="C399" s="5" t="s">
@@ -6664,18 +6663,18 @@
       </c>
     </row>
     <row r="400" ht="21" spans="2:3">
-      <c r="B400" s="13"/>
+      <c r="B400" s="12"/>
       <c r="C400" s="5"/>
     </row>
     <row r="401" ht="21" spans="2:3">
-      <c r="B401" s="13"/>
+      <c r="B401" s="12"/>
       <c r="C401" s="5"/>
     </row>
     <row r="402" ht="21" spans="1:3">
-      <c r="A402" s="14" t="s">
+      <c r="A402" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="B402" s="12" t="s">
+      <c r="B402" s="11" t="s">
         <v>390</v>
       </c>
       <c r="C402" s="5" t="s">
@@ -6683,10 +6682,10 @@
       </c>
     </row>
     <row r="403" ht="21" spans="1:3">
-      <c r="A403" s="14" t="s">
+      <c r="A403" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="B403" s="12" t="s">
+      <c r="B403" s="11" t="s">
         <v>391</v>
       </c>
       <c r="C403" s="5" t="s">
@@ -6694,10 +6693,10 @@
       </c>
     </row>
     <row r="404" ht="21" spans="1:3">
-      <c r="A404" s="14" t="s">
+      <c r="A404" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="B404" s="12" t="s">
+      <c r="B404" s="11" t="s">
         <v>392</v>
       </c>
       <c r="C404" s="5" t="s">
@@ -6705,10 +6704,10 @@
       </c>
     </row>
     <row r="405" ht="21" spans="1:3">
-      <c r="A405" s="14" t="s">
+      <c r="A405" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="B405" s="12" t="s">
+      <c r="B405" s="11" t="s">
         <v>91</v>
       </c>
       <c r="C405" s="5" t="s">
@@ -6716,10 +6715,10 @@
       </c>
     </row>
     <row r="406" ht="21" spans="1:3">
-      <c r="A406" s="14" t="s">
+      <c r="A406" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="B406" s="12" t="s">
+      <c r="B406" s="11" t="s">
         <v>393</v>
       </c>
       <c r="C406" s="5" t="s">
@@ -6727,10 +6726,10 @@
       </c>
     </row>
     <row r="407" ht="21" spans="1:3">
-      <c r="A407" s="14" t="s">
+      <c r="A407" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="B407" s="12" t="s">
+      <c r="B407" s="11" t="s">
         <v>394</v>
       </c>
       <c r="C407" s="5" t="s">
@@ -6738,18 +6737,18 @@
       </c>
     </row>
     <row r="408" ht="21" spans="2:3">
-      <c r="B408" s="13"/>
+      <c r="B408" s="12"/>
       <c r="C408" s="5"/>
     </row>
     <row r="409" ht="21" spans="2:3">
-      <c r="B409" s="13"/>
+      <c r="B409" s="12"/>
       <c r="C409" s="5"/>
     </row>
     <row r="410" ht="21" spans="1:3">
       <c r="A410" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B410" s="12" t="s">
+      <c r="B410" s="11" t="s">
         <v>396</v>
       </c>
       <c r="C410" s="5" t="s">
@@ -6760,7 +6759,7 @@
       <c r="A411" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B411" s="12" t="s">
+      <c r="B411" s="11" t="s">
         <v>397</v>
       </c>
       <c r="C411" s="5" t="s">
@@ -6771,7 +6770,7 @@
       <c r="A412" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B412" s="12" t="s">
+      <c r="B412" s="11" t="s">
         <v>398</v>
       </c>
       <c r="C412" s="5" t="s">
@@ -6782,7 +6781,7 @@
       <c r="A413" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B413" s="12" t="s">
+      <c r="B413" s="11" t="s">
         <v>399</v>
       </c>
       <c r="C413" s="5" t="s">
@@ -6793,7 +6792,7 @@
       <c r="A414" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B414" s="12" t="s">
+      <c r="B414" s="11" t="s">
         <v>400</v>
       </c>
       <c r="C414" s="5" t="s">
@@ -6804,7 +6803,7 @@
       <c r="A415" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B415" s="12" t="s">
+      <c r="B415" s="11" t="s">
         <v>401</v>
       </c>
       <c r="C415" s="5" t="s">
@@ -6815,7 +6814,7 @@
       <c r="A416" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B416" s="12" t="s">
+      <c r="B416" s="11" t="s">
         <v>402</v>
       </c>
       <c r="C416" s="5" t="s">
@@ -6826,7 +6825,7 @@
       <c r="A417" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B417" s="12" t="s">
+      <c r="B417" s="11" t="s">
         <v>275</v>
       </c>
       <c r="C417" s="5" t="s">
@@ -6837,7 +6836,7 @@
       <c r="A418" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B418" s="12" t="s">
+      <c r="B418" s="11" t="s">
         <v>403</v>
       </c>
       <c r="C418" s="5" t="s">
@@ -6848,7 +6847,7 @@
       <c r="A419" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B419" s="12" t="s">
+      <c r="B419" s="11" t="s">
         <v>404</v>
       </c>
       <c r="C419" s="5" t="s">
@@ -6859,7 +6858,7 @@
       <c r="A420" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B420" s="12" t="s">
+      <c r="B420" s="11" t="s">
         <v>405</v>
       </c>
       <c r="C420" s="5" t="s">
@@ -6870,7 +6869,7 @@
       <c r="A421" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B421" s="12" t="s">
+      <c r="B421" s="11" t="s">
         <v>406</v>
       </c>
       <c r="C421" s="5" t="s">
@@ -6881,7 +6880,7 @@
       <c r="A422" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B422" s="12" t="s">
+      <c r="B422" s="11" t="s">
         <v>407</v>
       </c>
       <c r="C422" s="5" t="s">
@@ -6892,7 +6891,7 @@
       <c r="A423" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B423" s="12" t="s">
+      <c r="B423" s="11" t="s">
         <v>408</v>
       </c>
       <c r="C423" s="5" t="s">
@@ -6903,7 +6902,7 @@
       <c r="A424" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B424" s="12" t="s">
+      <c r="B424" s="11" t="s">
         <v>409</v>
       </c>
       <c r="C424" s="5" t="s">
@@ -6914,7 +6913,7 @@
       <c r="A425" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B425" s="12" t="s">
+      <c r="B425" s="11" t="s">
         <v>410</v>
       </c>
       <c r="C425" s="5" t="s">
@@ -6925,7 +6924,7 @@
       <c r="A426" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B426" s="12" t="s">
+      <c r="B426" s="11" t="s">
         <v>411</v>
       </c>
       <c r="C426" s="5" t="s">
@@ -6936,7 +6935,7 @@
       <c r="A427" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B427" s="12" t="s">
+      <c r="B427" s="11" t="s">
         <v>412</v>
       </c>
       <c r="C427" s="5" t="s">
@@ -6947,7 +6946,7 @@
       <c r="A428" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B428" s="12" t="s">
+      <c r="B428" s="11" t="s">
         <v>413</v>
       </c>
       <c r="C428" s="5" t="s">
@@ -6958,7 +6957,7 @@
       <c r="A429" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B429" s="12" t="s">
+      <c r="B429" s="11" t="s">
         <v>414</v>
       </c>
       <c r="C429" s="5" t="s">
@@ -6969,7 +6968,7 @@
       <c r="A430" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B430" s="12" t="s">
+      <c r="B430" s="11" t="s">
         <v>415</v>
       </c>
       <c r="C430" s="5" t="s">
@@ -6980,7 +6979,7 @@
       <c r="A431" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B431" s="12" t="s">
+      <c r="B431" s="11" t="s">
         <v>416</v>
       </c>
       <c r="C431" s="5" t="s">
@@ -6991,7 +6990,7 @@
       <c r="A432" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B432" s="12" t="s">
+      <c r="B432" s="11" t="s">
         <v>417</v>
       </c>
       <c r="C432" s="5" t="s">
@@ -7002,7 +7001,7 @@
       <c r="A433" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B433" s="12" t="s">
+      <c r="B433" s="11" t="s">
         <v>418</v>
       </c>
       <c r="C433" s="5" t="s">
@@ -7013,7 +7012,7 @@
       <c r="A434" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B434" s="12" t="s">
+      <c r="B434" s="11" t="s">
         <v>419</v>
       </c>
       <c r="C434" s="5" t="s">
@@ -7024,7 +7023,7 @@
       <c r="A435" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B435" s="12" t="s">
+      <c r="B435" s="11" t="s">
         <v>420</v>
       </c>
       <c r="C435" s="5" t="s">
@@ -7035,7 +7034,7 @@
       <c r="A436" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B436" s="12" t="s">
+      <c r="B436" s="11" t="s">
         <v>421</v>
       </c>
       <c r="C436" s="5" t="s">
@@ -7046,7 +7045,7 @@
       <c r="A437" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B437" s="12" t="s">
+      <c r="B437" s="11" t="s">
         <v>422</v>
       </c>
       <c r="C437" s="5" t="s">
@@ -7057,7 +7056,7 @@
       <c r="A438" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B438" s="12" t="s">
+      <c r="B438" s="11" t="s">
         <v>423</v>
       </c>
       <c r="C438" s="5" t="s">
@@ -7068,7 +7067,7 @@
       <c r="A439" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B439" s="12" t="s">
+      <c r="B439" s="11" t="s">
         <v>424</v>
       </c>
       <c r="C439" s="5" t="s">
@@ -7079,7 +7078,7 @@
       <c r="A440" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B440" s="12" t="s">
+      <c r="B440" s="11" t="s">
         <v>425</v>
       </c>
       <c r="C440" s="5" t="s">
@@ -7090,7 +7089,7 @@
       <c r="A441" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B441" s="12" t="s">
+      <c r="B441" s="11" t="s">
         <v>426</v>
       </c>
       <c r="C441" s="5" t="s">
@@ -7101,7 +7100,7 @@
       <c r="A442" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B442" s="12" t="s">
+      <c r="B442" s="11" t="s">
         <v>427</v>
       </c>
       <c r="C442" s="5" t="s">
@@ -7112,7 +7111,7 @@
       <c r="A443" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B443" s="12" t="s">
+      <c r="B443" s="11" t="s">
         <v>428</v>
       </c>
       <c r="C443" s="5" t="s">
@@ -7123,7 +7122,7 @@
       <c r="A444" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B444" s="12" t="s">
+      <c r="B444" s="11" t="s">
         <v>429</v>
       </c>
       <c r="C444" s="5" t="s">
@@ -7134,7 +7133,7 @@
       <c r="A445" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B445" s="12" t="s">
+      <c r="B445" s="11" t="s">
         <v>430</v>
       </c>
       <c r="C445" s="5" t="s">
@@ -7145,7 +7144,7 @@
       <c r="A446" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B446" s="12" t="s">
+      <c r="B446" s="11" t="s">
         <v>431</v>
       </c>
       <c r="C446" s="5" t="s">
@@ -7156,7 +7155,7 @@
       <c r="A447" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B447" s="12" t="s">
+      <c r="B447" s="11" t="s">
         <v>432</v>
       </c>
       <c r="C447" s="5" t="s">
@@ -7167,7 +7166,7 @@
       <c r="A448" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B448" s="12" t="s">
+      <c r="B448" s="11" t="s">
         <v>433</v>
       </c>
       <c r="C448" s="5" t="s">
@@ -7178,7 +7177,7 @@
       <c r="A449" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B449" s="12" t="s">
+      <c r="B449" s="11" t="s">
         <v>434</v>
       </c>
       <c r="C449" s="5" t="s">
@@ -7189,7 +7188,7 @@
       <c r="A450" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B450" s="12" t="s">
+      <c r="B450" s="11" t="s">
         <v>435</v>
       </c>
       <c r="C450" s="5" t="s">
@@ -7200,7 +7199,7 @@
       <c r="A451" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B451" s="12" t="s">
+      <c r="B451" s="11" t="s">
         <v>436</v>
       </c>
       <c r="C451" s="5" t="s">
@@ -7211,7 +7210,7 @@
       <c r="A452" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B452" s="12" t="s">
+      <c r="B452" s="11" t="s">
         <v>437</v>
       </c>
       <c r="C452" s="5" t="s">
@@ -7222,7 +7221,7 @@
       <c r="A453" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B453" s="12" t="s">
+      <c r="B453" s="11" t="s">
         <v>438</v>
       </c>
       <c r="C453" s="5" t="s">
@@ -7233,7 +7232,7 @@
       <c r="A454" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B454" s="12" t="s">
+      <c r="B454" s="11" t="s">
         <v>439</v>
       </c>
       <c r="C454" s="5" t="s">
@@ -7244,7 +7243,7 @@
       <c r="A455" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B455" s="12" t="s">
+      <c r="B455" s="11" t="s">
         <v>440</v>
       </c>
       <c r="C455" s="5" t="s">
@@ -7255,7 +7254,7 @@
       <c r="A456" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B456" s="12" t="s">
+      <c r="B456" s="11" t="s">
         <v>441</v>
       </c>
       <c r="C456" s="5" t="s">
@@ -7266,7 +7265,7 @@
       <c r="A457" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B457" s="12" t="s">
+      <c r="B457" s="11" t="s">
         <v>442</v>
       </c>
       <c r="C457" s="5" t="s">
@@ -7277,7 +7276,7 @@
       <c r="A458" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B458" s="12" t="s">
+      <c r="B458" s="11" t="s">
         <v>443</v>
       </c>
       <c r="C458" s="5" t="s">
@@ -7288,7 +7287,7 @@
       <c r="A459" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B459" s="12" t="s">
+      <c r="B459" s="11" t="s">
         <v>444</v>
       </c>
       <c r="C459" s="5" t="s">
@@ -7299,7 +7298,7 @@
       <c r="A460" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B460" s="12" t="s">
+      <c r="B460" s="11" t="s">
         <v>445</v>
       </c>
       <c r="C460" s="5" t="s">
@@ -7310,7 +7309,7 @@
       <c r="A461" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B461" s="12" t="s">
+      <c r="B461" s="11" t="s">
         <v>446</v>
       </c>
       <c r="C461" s="5" t="s">
@@ -7321,7 +7320,7 @@
       <c r="A462" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B462" s="12" t="s">
+      <c r="B462" s="11" t="s">
         <v>447</v>
       </c>
       <c r="C462" s="5" t="s">
@@ -7332,7 +7331,7 @@
       <c r="A463" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B463" s="12" t="s">
+      <c r="B463" s="11" t="s">
         <v>448</v>
       </c>
       <c r="C463" s="5" t="s">
@@ -7343,7 +7342,7 @@
       <c r="A464" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B464" s="12" t="s">
+      <c r="B464" s="11" t="s">
         <v>449</v>
       </c>
       <c r="C464" s="5" t="s">
@@ -7354,7 +7353,7 @@
       <c r="A465" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B465" s="12" t="s">
+      <c r="B465" s="11" t="s">
         <v>450</v>
       </c>
       <c r="C465" s="5" t="s">
@@ -7365,7 +7364,7 @@
       <c r="A466" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B466" s="12" t="s">
+      <c r="B466" s="11" t="s">
         <v>451</v>
       </c>
       <c r="C466" s="5" t="s">
@@ -7376,7 +7375,7 @@
       <c r="A467" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B467" s="12" t="s">
+      <c r="B467" s="11" t="s">
         <v>452</v>
       </c>
       <c r="C467" s="5" t="s">
@@ -7387,7 +7386,7 @@
       <c r="A468" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B468" s="12" t="s">
+      <c r="B468" s="11" t="s">
         <v>453</v>
       </c>
       <c r="C468" s="5" t="s">
@@ -7398,7 +7397,7 @@
       <c r="A469" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B469" s="12" t="s">
+      <c r="B469" s="11" t="s">
         <v>454</v>
       </c>
       <c r="C469" s="5" t="s">
@@ -7406,19 +7405,19 @@
       </c>
     </row>
     <row r="470" ht="21" spans="2:3">
-      <c r="B470" s="13"/>
+      <c r="B470" s="12"/>
       <c r="C470" s="5"/>
     </row>
     <row r="471" ht="21" spans="1:3">
-      <c r="A471" s="14"/>
-      <c r="B471" s="13"/>
+      <c r="A471" s="13"/>
+      <c r="B471" s="12"/>
       <c r="C471" s="5"/>
     </row>
     <row r="472" ht="21" spans="1:3">
       <c r="A472" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B472" s="12" t="s">
+      <c r="B472" s="11" t="s">
         <v>456</v>
       </c>
       <c r="C472" s="5" t="s">
@@ -7429,7 +7428,7 @@
       <c r="A473" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B473" s="12" t="s">
+      <c r="B473" s="11" t="s">
         <v>457</v>
       </c>
       <c r="C473" s="5" t="s">
@@ -7440,7 +7439,7 @@
       <c r="A474" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B474" s="12" t="s">
+      <c r="B474" s="11" t="s">
         <v>458</v>
       </c>
       <c r="C474" s="5" t="s">
@@ -7451,7 +7450,7 @@
       <c r="A475" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B475" s="12" t="s">
+      <c r="B475" s="11" t="s">
         <v>459</v>
       </c>
       <c r="C475" s="5" t="s">
@@ -7462,7 +7461,7 @@
       <c r="A476" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B476" s="12" t="s">
+      <c r="B476" s="11" t="s">
         <v>460</v>
       </c>
       <c r="C476" s="5" t="s">
@@ -7473,7 +7472,7 @@
       <c r="A477" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B477" s="12" t="s">
+      <c r="B477" s="11" t="s">
         <v>461</v>
       </c>
       <c r="C477" s="5" t="s">
@@ -7484,7 +7483,7 @@
       <c r="A478" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B478" s="12" t="s">
+      <c r="B478" s="11" t="s">
         <v>462</v>
       </c>
       <c r="C478" s="5" t="s">
@@ -7495,7 +7494,7 @@
       <c r="A479" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B479" s="12" t="s">
+      <c r="B479" s="11" t="s">
         <v>463</v>
       </c>
       <c r="C479" s="5" t="s">
@@ -7506,7 +7505,7 @@
       <c r="A480" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B480" s="12" t="s">
+      <c r="B480" s="11" t="s">
         <v>464</v>
       </c>
       <c r="C480" s="5" t="s">
@@ -7517,7 +7516,7 @@
       <c r="A481" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B481" s="12" t="s">
+      <c r="B481" s="11" t="s">
         <v>465</v>
       </c>
       <c r="C481" s="5" t="s">

--- a/450_Questions/FINAL450.xlsx
+++ b/450_Questions/FINAL450.xlsx
@@ -1420,9 +1420,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1496,18 +1496,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1521,12 +1513,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1541,6 +1541,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1549,17 +1556,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1580,14 +1579,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1598,7 +1589,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1618,13 +1625,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1634,14 +1634,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1662,13 +1662,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1680,19 +1680,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1710,7 +1716,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1722,13 +1746,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1746,37 +1782,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1794,55 +1806,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1853,6 +1853,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1871,15 +1889,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1891,21 +1900,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1930,11 +1924,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1956,150 +1956,150 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2123,6 +2123,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2452,8 +2453,8 @@
   <sheetPr/>
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" outlineLevelCol="2"/>
@@ -2567,14 +2568,14 @@
       </c>
     </row>
     <row r="13" ht="21" spans="1:3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>5</v>
+      <c r="C13" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" ht="21" spans="1:3">
@@ -2589,43 +2590,43 @@
       </c>
     </row>
     <row r="15" ht="21" spans="1:3">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>5</v>
+      <c r="C15" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" ht="21" spans="1:3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>5</v>
+      <c r="C16" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" ht="21" spans="1:3">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>5</v>
+      <c r="C17" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18" ht="21" spans="1:3">
       <c r="A18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -2636,7 +2637,7 @@
       <c r="A19" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -2647,7 +2648,7 @@
       <c r="A20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -2658,7 +2659,7 @@
       <c r="A21" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="5" t="s">
@@ -2669,7 +2670,7 @@
       <c r="A22" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -2680,7 +2681,7 @@
       <c r="A23" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -2691,7 +2692,7 @@
       <c r="A24" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -2702,7 +2703,7 @@
       <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -2713,7 +2714,7 @@
       <c r="A26" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -2724,7 +2725,7 @@
       <c r="A27" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="12" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -2735,7 +2736,7 @@
       <c r="A28" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="12" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -2746,7 +2747,7 @@
       <c r="A29" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -2757,7 +2758,7 @@
       <c r="A30" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="12" t="s">
         <v>32</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -2768,7 +2769,7 @@
       <c r="A31" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="12" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -2779,7 +2780,7 @@
       <c r="A32" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -2790,7 +2791,7 @@
       <c r="A33" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -2801,7 +2802,7 @@
       <c r="A34" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="5" t="s">
@@ -2812,7 +2813,7 @@
       <c r="A35" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -2823,7 +2824,7 @@
       <c r="A36" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -2834,7 +2835,7 @@
       <c r="A37" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="12" t="s">
         <v>39</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -2845,7 +2846,7 @@
       <c r="A38" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -2856,7 +2857,7 @@
       <c r="A39" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C39" s="5" t="s">
@@ -2867,7 +2868,7 @@
       <c r="A40" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -2878,7 +2879,7 @@
       <c r="A41" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C41" s="5" t="s">
@@ -2886,23 +2887,23 @@
       </c>
     </row>
     <row r="42" ht="21" spans="2:3">
-      <c r="B42" s="12"/>
+      <c r="B42" s="13"/>
       <c r="C42" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" ht="21" spans="1:3">
       <c r="A43" s="10"/>
-      <c r="B43" s="12"/>
+      <c r="B43" s="13"/>
       <c r="C43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="44" ht="21" spans="1:3">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C44" s="5" t="s">
@@ -2910,10 +2911,10 @@
       </c>
     </row>
     <row r="45" ht="21" spans="1:3">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="12" t="s">
         <v>46</v>
       </c>
       <c r="C45" s="5" t="s">
@@ -2921,10 +2922,10 @@
       </c>
     </row>
     <row r="46" ht="21" spans="1:3">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C46" s="5" t="s">
@@ -2932,10 +2933,10 @@
       </c>
     </row>
     <row r="47" ht="21" spans="1:3">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="12" t="s">
         <v>48</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -2943,10 +2944,10 @@
       </c>
     </row>
     <row r="48" ht="21" spans="1:3">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C48" s="5" t="s">
@@ -2954,10 +2955,10 @@
       </c>
     </row>
     <row r="49" ht="21" spans="1:3">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="12" t="s">
         <v>50</v>
       </c>
       <c r="C49" s="5" t="s">
@@ -2965,10 +2966,10 @@
       </c>
     </row>
     <row r="50" ht="21" spans="1:3">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="12" t="s">
         <v>51</v>
       </c>
       <c r="C50" s="5" t="s">
@@ -2976,10 +2977,10 @@
       </c>
     </row>
     <row r="51" ht="21" spans="1:3">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="12" t="s">
         <v>52</v>
       </c>
       <c r="C51" s="5" t="s">
@@ -2987,10 +2988,10 @@
       </c>
     </row>
     <row r="52" ht="21" spans="1:3">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="12" t="s">
         <v>53</v>
       </c>
       <c r="C52" s="5" t="s">
@@ -2998,10 +2999,10 @@
       </c>
     </row>
     <row r="53" ht="21" spans="1:3">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="12" t="s">
         <v>54</v>
       </c>
       <c r="C53" s="5" t="s">
@@ -3010,14 +3011,14 @@
     </row>
     <row r="55" ht="21" spans="1:3">
       <c r="A55" s="10"/>
-      <c r="B55" s="12"/>
+      <c r="B55" s="13"/>
       <c r="C55" s="5"/>
     </row>
     <row r="56" ht="21" spans="1:3">
       <c r="A56" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="12" t="s">
         <v>56</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -3028,7 +3029,7 @@
       <c r="A57" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="12" t="s">
         <v>57</v>
       </c>
       <c r="C57" s="5" t="s">
@@ -3039,7 +3040,7 @@
       <c r="A58" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="12" t="s">
         <v>58</v>
       </c>
       <c r="C58" s="5" t="s">
@@ -3050,7 +3051,7 @@
       <c r="A59" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="13" t="s">
         <v>59</v>
       </c>
       <c r="C59" s="5" t="s">
@@ -3061,7 +3062,7 @@
       <c r="A60" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="12" t="s">
         <v>60</v>
       </c>
       <c r="C60" s="5" t="s">
@@ -3072,7 +3073,7 @@
       <c r="A61" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="12" t="s">
         <v>61</v>
       </c>
       <c r="C61" s="5" t="s">
@@ -3083,7 +3084,7 @@
       <c r="A62" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="12" t="s">
         <v>62</v>
       </c>
       <c r="C62" s="5" t="s">
@@ -3094,7 +3095,7 @@
       <c r="A63" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="12" t="s">
         <v>63</v>
       </c>
       <c r="C63" s="5" t="s">
@@ -3105,7 +3106,7 @@
       <c r="A64" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="12" t="s">
         <v>64</v>
       </c>
       <c r="C64" s="5" t="s">
@@ -3116,7 +3117,7 @@
       <c r="A65" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="12" t="s">
         <v>65</v>
       </c>
       <c r="C65" s="5" t="s">
@@ -3127,7 +3128,7 @@
       <c r="A66" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="12" t="s">
         <v>66</v>
       </c>
       <c r="C66" s="5" t="s">
@@ -3138,7 +3139,7 @@
       <c r="A67" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C67" s="5" t="s">
@@ -3149,7 +3150,7 @@
       <c r="A68" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="12" t="s">
         <v>68</v>
       </c>
       <c r="C68" s="5" t="s">
@@ -3160,7 +3161,7 @@
       <c r="A69" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C69" s="5" t="s">
@@ -3171,7 +3172,7 @@
       <c r="A70" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="12" t="s">
         <v>70</v>
       </c>
       <c r="C70" s="5" t="s">
@@ -3182,7 +3183,7 @@
       <c r="A71" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="12" t="s">
         <v>71</v>
       </c>
       <c r="C71" s="5" t="s">
@@ -3193,7 +3194,7 @@
       <c r="A72" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="12" t="s">
         <v>72</v>
       </c>
       <c r="C72" s="5" t="s">
@@ -3204,7 +3205,7 @@
       <c r="A73" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="12" t="s">
         <v>73</v>
       </c>
       <c r="C73" s="5" t="s">
@@ -3215,7 +3216,7 @@
       <c r="A74" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="12" t="s">
         <v>74</v>
       </c>
       <c r="C74" s="5" t="s">
@@ -3226,7 +3227,7 @@
       <c r="A75" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B75" s="12" t="s">
         <v>75</v>
       </c>
       <c r="C75" s="5" t="s">
@@ -3237,7 +3238,7 @@
       <c r="A76" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C76" s="5" t="s">
@@ -3248,7 +3249,7 @@
       <c r="A77" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="B77" s="12" t="s">
         <v>77</v>
       </c>
       <c r="C77" s="5" t="s">
@@ -3259,7 +3260,7 @@
       <c r="A78" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="12" t="s">
         <v>78</v>
       </c>
       <c r="C78" s="5" t="s">
@@ -3270,7 +3271,7 @@
       <c r="A79" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="B79" s="12" t="s">
         <v>79</v>
       </c>
       <c r="C79" s="5" t="s">
@@ -3281,7 +3282,7 @@
       <c r="A80" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="12" t="s">
         <v>80</v>
       </c>
       <c r="C80" s="5" t="s">
@@ -3292,7 +3293,7 @@
       <c r="A81" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="12" t="s">
         <v>81</v>
       </c>
       <c r="C81" s="5" t="s">
@@ -3303,7 +3304,7 @@
       <c r="A82" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C82" s="5" t="s">
@@ -3314,7 +3315,7 @@
       <c r="A83" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="12" t="s">
         <v>83</v>
       </c>
       <c r="C83" s="5" t="s">
@@ -3325,7 +3326,7 @@
       <c r="A84" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B84" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C84" s="5" t="s">
@@ -3336,7 +3337,7 @@
       <c r="A85" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B85" s="12" t="s">
         <v>85</v>
       </c>
       <c r="C85" s="5" t="s">
@@ -3347,7 +3348,7 @@
       <c r="A86" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B86" s="12" t="s">
         <v>86</v>
       </c>
       <c r="C86" s="5" t="s">
@@ -3358,7 +3359,7 @@
       <c r="A87" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B87" s="12" t="s">
         <v>87</v>
       </c>
       <c r="C87" s="5" t="s">
@@ -3369,7 +3370,7 @@
       <c r="A88" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="B88" s="12" t="s">
         <v>88</v>
       </c>
       <c r="C88" s="5" t="s">
@@ -3380,7 +3381,7 @@
       <c r="A89" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B89" s="12" t="s">
         <v>89</v>
       </c>
       <c r="C89" s="5" t="s">
@@ -3391,7 +3392,7 @@
       <c r="A90" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="B90" s="12" t="s">
         <v>90</v>
       </c>
       <c r="C90" s="5" t="s">
@@ -3402,7 +3403,7 @@
       <c r="A91" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B91" s="12" t="s">
         <v>91</v>
       </c>
       <c r="C91" s="5" t="s">
@@ -3413,7 +3414,7 @@
       <c r="A92" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B92" s="11" t="s">
+      <c r="B92" s="12" t="s">
         <v>92</v>
       </c>
       <c r="C92" s="5" t="s">
@@ -3424,7 +3425,7 @@
       <c r="A93" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="B93" s="12" t="s">
         <v>93</v>
       </c>
       <c r="C93" s="5" t="s">
@@ -3435,7 +3436,7 @@
       <c r="A94" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="B94" s="12" t="s">
         <v>94</v>
       </c>
       <c r="C94" s="5" t="s">
@@ -3446,7 +3447,7 @@
       <c r="A95" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B95" s="11" t="s">
+      <c r="B95" s="12" t="s">
         <v>95</v>
       </c>
       <c r="C95" s="5" t="s">
@@ -3457,7 +3458,7 @@
       <c r="A96" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="B96" s="12" t="s">
         <v>96</v>
       </c>
       <c r="C96" s="5" t="s">
@@ -3468,7 +3469,7 @@
       <c r="A97" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B97" s="11" t="s">
+      <c r="B97" s="12" t="s">
         <v>97</v>
       </c>
       <c r="C97" s="5" t="s">
@@ -3479,7 +3480,7 @@
       <c r="A98" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="B98" s="12" t="s">
         <v>98</v>
       </c>
       <c r="C98" s="5" t="s">
@@ -3487,15 +3488,15 @@
       </c>
     </row>
     <row r="100" ht="21" spans="1:3">
-      <c r="A100" s="13"/>
-      <c r="B100" s="12"/>
+      <c r="A100" s="14"/>
+      <c r="B100" s="13"/>
       <c r="C100" s="5"/>
     </row>
     <row r="101" ht="21" spans="1:3">
       <c r="A101" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="B101" s="12" t="s">
         <v>100</v>
       </c>
       <c r="C101" s="5" t="s">
@@ -3506,7 +3507,7 @@
       <c r="A102" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B102" s="12" t="s">
         <v>101</v>
       </c>
       <c r="C102" s="5" t="s">
@@ -3517,7 +3518,7 @@
       <c r="A103" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="B103" s="12" t="s">
         <v>102</v>
       </c>
       <c r="C103" s="5" t="s">
@@ -3528,7 +3529,7 @@
       <c r="A104" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="B104" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C104" s="5" t="s">
@@ -3539,7 +3540,7 @@
       <c r="A105" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="B105" s="12" t="s">
         <v>104</v>
       </c>
       <c r="C105" s="5" t="s">
@@ -3550,7 +3551,7 @@
       <c r="A106" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B106" s="11" t="s">
+      <c r="B106" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C106" s="5" t="s">
@@ -3561,7 +3562,7 @@
       <c r="A107" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B107" s="11" t="s">
+      <c r="B107" s="12" t="s">
         <v>106</v>
       </c>
       <c r="C107" s="5" t="s">
@@ -3572,7 +3573,7 @@
       <c r="A108" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="B108" s="12" t="s">
         <v>107</v>
       </c>
       <c r="C108" s="5" t="s">
@@ -3583,7 +3584,7 @@
       <c r="A109" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B109" s="11" t="s">
+      <c r="B109" s="12" t="s">
         <v>108</v>
       </c>
       <c r="C109" s="5" t="s">
@@ -3594,7 +3595,7 @@
       <c r="A110" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B110" s="11" t="s">
+      <c r="B110" s="12" t="s">
         <v>109</v>
       </c>
       <c r="C110" s="5" t="s">
@@ -3605,7 +3606,7 @@
       <c r="A111" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B111" s="11" t="s">
+      <c r="B111" s="12" t="s">
         <v>110</v>
       </c>
       <c r="C111" s="5" t="s">
@@ -3616,7 +3617,7 @@
       <c r="A112" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="B112" s="12" t="s">
         <v>111</v>
       </c>
       <c r="C112" s="5" t="s">
@@ -3627,7 +3628,7 @@
       <c r="A113" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B113" s="11" t="s">
+      <c r="B113" s="12" t="s">
         <v>112</v>
       </c>
       <c r="C113" s="5" t="s">
@@ -3638,7 +3639,7 @@
       <c r="A114" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="B114" s="12" t="s">
         <v>113</v>
       </c>
       <c r="C114" s="5" t="s">
@@ -3649,7 +3650,7 @@
       <c r="A115" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B115" s="11" t="s">
+      <c r="B115" s="12" t="s">
         <v>114</v>
       </c>
       <c r="C115" s="5" t="s">
@@ -3660,7 +3661,7 @@
       <c r="A116" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="B116" s="12" t="s">
         <v>115</v>
       </c>
       <c r="C116" s="5" t="s">
@@ -3671,7 +3672,7 @@
       <c r="A117" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B117" s="11" t="s">
+      <c r="B117" s="12" t="s">
         <v>116</v>
       </c>
       <c r="C117" s="5" t="s">
@@ -3682,7 +3683,7 @@
       <c r="A118" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="B118" s="12" t="s">
         <v>117</v>
       </c>
       <c r="C118" s="5" t="s">
@@ -3693,7 +3694,7 @@
       <c r="A119" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B119" s="11" t="s">
+      <c r="B119" s="12" t="s">
         <v>118</v>
       </c>
       <c r="C119" s="5" t="s">
@@ -3704,7 +3705,7 @@
       <c r="A120" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B120" s="11" t="s">
+      <c r="B120" s="12" t="s">
         <v>119</v>
       </c>
       <c r="C120" s="5" t="s">
@@ -3715,7 +3716,7 @@
       <c r="A121" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B121" s="11" t="s">
+      <c r="B121" s="12" t="s">
         <v>120</v>
       </c>
       <c r="C121" s="5" t="s">
@@ -3726,7 +3727,7 @@
       <c r="A122" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="B122" s="12" t="s">
         <v>121</v>
       </c>
       <c r="C122" s="5" t="s">
@@ -3737,7 +3738,7 @@
       <c r="A123" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B123" s="11" t="s">
+      <c r="B123" s="12" t="s">
         <v>122</v>
       </c>
       <c r="C123" s="5" t="s">
@@ -3748,7 +3749,7 @@
       <c r="A124" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B124" s="11" t="s">
+      <c r="B124" s="12" t="s">
         <v>123</v>
       </c>
       <c r="C124" s="5" t="s">
@@ -3759,7 +3760,7 @@
       <c r="A125" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B125" s="11" t="s">
+      <c r="B125" s="12" t="s">
         <v>124</v>
       </c>
       <c r="C125" s="5" t="s">
@@ -3770,7 +3771,7 @@
       <c r="A126" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B126" s="11" t="s">
+      <c r="B126" s="12" t="s">
         <v>125</v>
       </c>
       <c r="C126" s="5" t="s">
@@ -3781,7 +3782,7 @@
       <c r="A127" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B127" s="11" t="s">
+      <c r="B127" s="12" t="s">
         <v>126</v>
       </c>
       <c r="C127" s="5" t="s">
@@ -3792,7 +3793,7 @@
       <c r="A128" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B128" s="11" t="s">
+      <c r="B128" s="12" t="s">
         <v>127</v>
       </c>
       <c r="C128" s="5" t="s">
@@ -3803,7 +3804,7 @@
       <c r="A129" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B129" s="11" t="s">
+      <c r="B129" s="12" t="s">
         <v>128</v>
       </c>
       <c r="C129" s="5" t="s">
@@ -3814,7 +3815,7 @@
       <c r="A130" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B130" s="11" t="s">
+      <c r="B130" s="12" t="s">
         <v>129</v>
       </c>
       <c r="C130" s="5" t="s">
@@ -3825,7 +3826,7 @@
       <c r="A131" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B131" s="11" t="s">
+      <c r="B131" s="12" t="s">
         <v>130</v>
       </c>
       <c r="C131" s="5" t="s">
@@ -3836,7 +3837,7 @@
       <c r="A132" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B132" s="11" t="s">
+      <c r="B132" s="12" t="s">
         <v>131</v>
       </c>
       <c r="C132" s="5" t="s">
@@ -3847,7 +3848,7 @@
       <c r="A133" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B133" s="11" t="s">
+      <c r="B133" s="12" t="s">
         <v>132</v>
       </c>
       <c r="C133" s="5" t="s">
@@ -3858,7 +3859,7 @@
       <c r="A134" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B134" s="11" t="s">
+      <c r="B134" s="12" t="s">
         <v>133</v>
       </c>
       <c r="C134" s="5" t="s">
@@ -3869,7 +3870,7 @@
       <c r="A135" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B135" s="11" t="s">
+      <c r="B135" s="12" t="s">
         <v>134</v>
       </c>
       <c r="C135" s="5" t="s">
@@ -3880,7 +3881,7 @@
       <c r="A136" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B136" s="11" t="s">
+      <c r="B136" s="12" t="s">
         <v>135</v>
       </c>
       <c r="C136" s="5" t="s">
@@ -3888,14 +3889,14 @@
       </c>
     </row>
     <row r="138" ht="21" spans="2:3">
-      <c r="B138" s="12"/>
+      <c r="B138" s="13"/>
       <c r="C138" s="5"/>
     </row>
     <row r="139" ht="21" spans="1:3">
-      <c r="A139" s="13" t="s">
+      <c r="A139" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B139" s="11" t="s">
+      <c r="B139" s="12" t="s">
         <v>137</v>
       </c>
       <c r="C139" s="5" t="s">
@@ -3903,10 +3904,10 @@
       </c>
     </row>
     <row r="140" ht="21" spans="1:3">
-      <c r="A140" s="13" t="s">
+      <c r="A140" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B140" s="12" t="s">
         <v>138</v>
       </c>
       <c r="C140" s="5" t="s">
@@ -3914,10 +3915,10 @@
       </c>
     </row>
     <row r="141" ht="21" spans="1:3">
-      <c r="A141" s="13" t="s">
+      <c r="A141" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B141" s="11" t="s">
+      <c r="B141" s="12" t="s">
         <v>139</v>
       </c>
       <c r="C141" s="5" t="s">
@@ -3925,10 +3926,10 @@
       </c>
     </row>
     <row r="142" ht="21" spans="1:3">
-      <c r="A142" s="13" t="s">
+      <c r="A142" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B142" s="11" t="s">
+      <c r="B142" s="12" t="s">
         <v>140</v>
       </c>
       <c r="C142" s="5" t="s">
@@ -3936,10 +3937,10 @@
       </c>
     </row>
     <row r="143" ht="21" spans="1:3">
-      <c r="A143" s="13" t="s">
+      <c r="A143" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B143" s="11" t="s">
+      <c r="B143" s="12" t="s">
         <v>141</v>
       </c>
       <c r="C143" s="5" t="s">
@@ -3947,10 +3948,10 @@
       </c>
     </row>
     <row r="144" ht="21" spans="1:3">
-      <c r="A144" s="13" t="s">
+      <c r="A144" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B144" s="11" t="s">
+      <c r="B144" s="12" t="s">
         <v>142</v>
       </c>
       <c r="C144" s="5" t="s">
@@ -3958,10 +3959,10 @@
       </c>
     </row>
     <row r="145" ht="21" spans="1:3">
-      <c r="A145" s="13" t="s">
+      <c r="A145" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B145" s="11" t="s">
+      <c r="B145" s="12" t="s">
         <v>143</v>
       </c>
       <c r="C145" s="5" t="s">
@@ -3969,10 +3970,10 @@
       </c>
     </row>
     <row r="146" ht="21" spans="1:3">
-      <c r="A146" s="13" t="s">
+      <c r="A146" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B146" s="11" t="s">
+      <c r="B146" s="12" t="s">
         <v>144</v>
       </c>
       <c r="C146" s="5" t="s">
@@ -3980,10 +3981,10 @@
       </c>
     </row>
     <row r="147" ht="21" spans="1:3">
-      <c r="A147" s="13" t="s">
+      <c r="A147" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="B147" s="12" t="s">
         <v>145</v>
       </c>
       <c r="C147" s="5" t="s">
@@ -3991,10 +3992,10 @@
       </c>
     </row>
     <row r="148" ht="21" spans="1:3">
-      <c r="A148" s="13" t="s">
+      <c r="A148" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B148" s="11" t="s">
+      <c r="B148" s="12" t="s">
         <v>146</v>
       </c>
       <c r="C148" s="5" t="s">
@@ -4002,10 +4003,10 @@
       </c>
     </row>
     <row r="149" ht="21" spans="1:3">
-      <c r="A149" s="13" t="s">
+      <c r="A149" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B149" s="11" t="s">
+      <c r="B149" s="12" t="s">
         <v>147</v>
       </c>
       <c r="C149" s="5" t="s">
@@ -4013,10 +4014,10 @@
       </c>
     </row>
     <row r="150" ht="21" spans="1:3">
-      <c r="A150" s="13" t="s">
+      <c r="A150" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B150" s="11" t="s">
+      <c r="B150" s="12" t="s">
         <v>148</v>
       </c>
       <c r="C150" s="5" t="s">
@@ -4024,10 +4025,10 @@
       </c>
     </row>
     <row r="151" ht="21" spans="1:3">
-      <c r="A151" s="13" t="s">
+      <c r="A151" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B151" s="11" t="s">
+      <c r="B151" s="12" t="s">
         <v>149</v>
       </c>
       <c r="C151" s="5" t="s">
@@ -4035,10 +4036,10 @@
       </c>
     </row>
     <row r="152" ht="21" spans="1:3">
-      <c r="A152" s="13" t="s">
+      <c r="A152" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B152" s="11" t="s">
+      <c r="B152" s="12" t="s">
         <v>150</v>
       </c>
       <c r="C152" s="5" t="s">
@@ -4046,10 +4047,10 @@
       </c>
     </row>
     <row r="153" ht="21" spans="1:3">
-      <c r="A153" s="13" t="s">
+      <c r="A153" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B153" s="11" t="s">
+      <c r="B153" s="12" t="s">
         <v>151</v>
       </c>
       <c r="C153" s="5" t="s">
@@ -4057,10 +4058,10 @@
       </c>
     </row>
     <row r="154" ht="21" spans="1:3">
-      <c r="A154" s="13" t="s">
+      <c r="A154" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B154" s="11" t="s">
+      <c r="B154" s="12" t="s">
         <v>152</v>
       </c>
       <c r="C154" s="5" t="s">
@@ -4068,10 +4069,10 @@
       </c>
     </row>
     <row r="155" ht="21" spans="1:3">
-      <c r="A155" s="13" t="s">
+      <c r="A155" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B155" s="11" t="s">
+      <c r="B155" s="12" t="s">
         <v>153</v>
       </c>
       <c r="C155" s="5" t="s">
@@ -4079,10 +4080,10 @@
       </c>
     </row>
     <row r="156" ht="21" spans="1:3">
-      <c r="A156" s="13" t="s">
+      <c r="A156" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B156" s="11" t="s">
+      <c r="B156" s="12" t="s">
         <v>154</v>
       </c>
       <c r="C156" s="5" t="s">
@@ -4090,10 +4091,10 @@
       </c>
     </row>
     <row r="157" ht="21" spans="1:3">
-      <c r="A157" s="13" t="s">
+      <c r="A157" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B157" s="11" t="s">
+      <c r="B157" s="12" t="s">
         <v>155</v>
       </c>
       <c r="C157" s="5" t="s">
@@ -4101,10 +4102,10 @@
       </c>
     </row>
     <row r="158" ht="21" spans="1:3">
-      <c r="A158" s="13" t="s">
+      <c r="A158" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B158" s="11" t="s">
+      <c r="B158" s="12" t="s">
         <v>156</v>
       </c>
       <c r="C158" s="5" t="s">
@@ -4112,10 +4113,10 @@
       </c>
     </row>
     <row r="159" ht="21" spans="1:3">
-      <c r="A159" s="13" t="s">
+      <c r="A159" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B159" s="11" t="s">
+      <c r="B159" s="12" t="s">
         <v>157</v>
       </c>
       <c r="C159" s="5" t="s">
@@ -4123,10 +4124,10 @@
       </c>
     </row>
     <row r="160" ht="21" spans="1:3">
-      <c r="A160" s="13" t="s">
+      <c r="A160" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B160" s="11" t="s">
+      <c r="B160" s="12" t="s">
         <v>158</v>
       </c>
       <c r="C160" s="5" t="s">
@@ -4134,10 +4135,10 @@
       </c>
     </row>
     <row r="161" ht="21" spans="1:3">
-      <c r="A161" s="13" t="s">
+      <c r="A161" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B161" s="11" t="s">
+      <c r="B161" s="12" t="s">
         <v>159</v>
       </c>
       <c r="C161" s="5" t="s">
@@ -4145,10 +4146,10 @@
       </c>
     </row>
     <row r="162" ht="21" spans="1:3">
-      <c r="A162" s="13" t="s">
+      <c r="A162" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B162" s="11" t="s">
+      <c r="B162" s="12" t="s">
         <v>160</v>
       </c>
       <c r="C162" s="5" t="s">
@@ -4156,10 +4157,10 @@
       </c>
     </row>
     <row r="163" ht="21" spans="1:3">
-      <c r="A163" s="13" t="s">
+      <c r="A163" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B163" s="11" t="s">
+      <c r="B163" s="12" t="s">
         <v>161</v>
       </c>
       <c r="C163" s="5" t="s">
@@ -4167,10 +4168,10 @@
       </c>
     </row>
     <row r="164" ht="21" spans="1:3">
-      <c r="A164" s="13" t="s">
+      <c r="A164" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B164" s="12" t="s">
+      <c r="B164" s="13" t="s">
         <v>162</v>
       </c>
       <c r="C164" s="5" t="s">
@@ -4178,10 +4179,10 @@
       </c>
     </row>
     <row r="165" ht="21" spans="1:3">
-      <c r="A165" s="13" t="s">
+      <c r="A165" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B165" s="12" t="s">
+      <c r="B165" s="13" t="s">
         <v>163</v>
       </c>
       <c r="C165" s="5" t="s">
@@ -4189,10 +4190,10 @@
       </c>
     </row>
     <row r="166" ht="21" spans="1:3">
-      <c r="A166" s="13" t="s">
+      <c r="A166" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B166" s="11" t="s">
+      <c r="B166" s="12" t="s">
         <v>164</v>
       </c>
       <c r="C166" s="5" t="s">
@@ -4200,10 +4201,10 @@
       </c>
     </row>
     <row r="167" ht="21" spans="1:3">
-      <c r="A167" s="13" t="s">
+      <c r="A167" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B167" s="11" t="s">
+      <c r="B167" s="12" t="s">
         <v>165</v>
       </c>
       <c r="C167" s="5" t="s">
@@ -4211,10 +4212,10 @@
       </c>
     </row>
     <row r="168" ht="21" spans="1:3">
-      <c r="A168" s="13" t="s">
+      <c r="A168" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B168" s="11" t="s">
+      <c r="B168" s="12" t="s">
         <v>166</v>
       </c>
       <c r="C168" s="5" t="s">
@@ -4222,10 +4223,10 @@
       </c>
     </row>
     <row r="169" ht="21" spans="1:3">
-      <c r="A169" s="13" t="s">
+      <c r="A169" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B169" s="11" t="s">
+      <c r="B169" s="12" t="s">
         <v>167</v>
       </c>
       <c r="C169" s="5" t="s">
@@ -4233,10 +4234,10 @@
       </c>
     </row>
     <row r="170" ht="21" spans="1:3">
-      <c r="A170" s="13" t="s">
+      <c r="A170" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B170" s="11" t="s">
+      <c r="B170" s="12" t="s">
         <v>168</v>
       </c>
       <c r="C170" s="5" t="s">
@@ -4244,10 +4245,10 @@
       </c>
     </row>
     <row r="171" ht="21" spans="1:3">
-      <c r="A171" s="13" t="s">
+      <c r="A171" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B171" s="11" t="s">
+      <c r="B171" s="12" t="s">
         <v>169</v>
       </c>
       <c r="C171" s="5" t="s">
@@ -4255,10 +4256,10 @@
       </c>
     </row>
     <row r="172" ht="21" spans="1:3">
-      <c r="A172" s="13" t="s">
+      <c r="A172" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B172" s="11" t="s">
+      <c r="B172" s="12" t="s">
         <v>170</v>
       </c>
       <c r="C172" s="5" t="s">
@@ -4266,10 +4267,10 @@
       </c>
     </row>
     <row r="173" ht="21" spans="1:3">
-      <c r="A173" s="13" t="s">
+      <c r="A173" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B173" s="11" t="s">
+      <c r="B173" s="12" t="s">
         <v>171</v>
       </c>
       <c r="C173" s="5" t="s">
@@ -4277,10 +4278,10 @@
       </c>
     </row>
     <row r="174" ht="21" spans="1:3">
-      <c r="A174" s="13" t="s">
+      <c r="A174" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B174" s="11" t="s">
+      <c r="B174" s="12" t="s">
         <v>172</v>
       </c>
       <c r="C174" s="5" t="s">
@@ -4288,14 +4289,14 @@
       </c>
     </row>
     <row r="176" ht="21" spans="2:3">
-      <c r="B176" s="12"/>
+      <c r="B176" s="13"/>
       <c r="C176" s="5"/>
     </row>
     <row r="177" ht="21" spans="1:3">
       <c r="A177" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B177" s="11" t="s">
+      <c r="B177" s="12" t="s">
         <v>174</v>
       </c>
       <c r="C177" s="5" t="s">
@@ -4306,7 +4307,7 @@
       <c r="A178" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B178" s="11" t="s">
+      <c r="B178" s="12" t="s">
         <v>175</v>
       </c>
       <c r="C178" s="5" t="s">
@@ -4317,7 +4318,7 @@
       <c r="A179" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B179" s="11" t="s">
+      <c r="B179" s="12" t="s">
         <v>176</v>
       </c>
       <c r="C179" s="5" t="s">
@@ -4328,7 +4329,7 @@
       <c r="A180" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B180" s="11" t="s">
+      <c r="B180" s="12" t="s">
         <v>177</v>
       </c>
       <c r="C180" s="5" t="s">
@@ -4339,7 +4340,7 @@
       <c r="A181" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B181" s="11" t="s">
+      <c r="B181" s="12" t="s">
         <v>178</v>
       </c>
       <c r="C181" s="5" t="s">
@@ -4350,7 +4351,7 @@
       <c r="A182" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B182" s="11" t="s">
+      <c r="B182" s="12" t="s">
         <v>179</v>
       </c>
       <c r="C182" s="5" t="s">
@@ -4361,7 +4362,7 @@
       <c r="A183" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B183" s="11" t="s">
+      <c r="B183" s="12" t="s">
         <v>180</v>
       </c>
       <c r="C183" s="5" t="s">
@@ -4372,7 +4373,7 @@
       <c r="A184" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B184" s="11" t="s">
+      <c r="B184" s="12" t="s">
         <v>181</v>
       </c>
       <c r="C184" s="5" t="s">
@@ -4383,7 +4384,7 @@
       <c r="A185" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B185" s="11" t="s">
+      <c r="B185" s="12" t="s">
         <v>182</v>
       </c>
       <c r="C185" s="5" t="s">
@@ -4394,7 +4395,7 @@
       <c r="A186" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B186" s="11" t="s">
+      <c r="B186" s="12" t="s">
         <v>183</v>
       </c>
       <c r="C186" s="5" t="s">
@@ -4405,7 +4406,7 @@
       <c r="A187" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B187" s="11" t="s">
+      <c r="B187" s="12" t="s">
         <v>184</v>
       </c>
       <c r="C187" s="5" t="s">
@@ -4416,7 +4417,7 @@
       <c r="A188" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B188" s="11" t="s">
+      <c r="B188" s="12" t="s">
         <v>185</v>
       </c>
       <c r="C188" s="5" t="s">
@@ -4427,7 +4428,7 @@
       <c r="A189" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B189" s="11" t="s">
+      <c r="B189" s="12" t="s">
         <v>186</v>
       </c>
       <c r="C189" s="5" t="s">
@@ -4438,7 +4439,7 @@
       <c r="A190" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B190" s="11" t="s">
+      <c r="B190" s="12" t="s">
         <v>187</v>
       </c>
       <c r="C190" s="5" t="s">
@@ -4449,7 +4450,7 @@
       <c r="A191" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B191" s="11" t="s">
+      <c r="B191" s="12" t="s">
         <v>188</v>
       </c>
       <c r="C191" s="5" t="s">
@@ -4460,7 +4461,7 @@
       <c r="A192" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B192" s="11" t="s">
+      <c r="B192" s="12" t="s">
         <v>189</v>
       </c>
       <c r="C192" s="5" t="s">
@@ -4471,7 +4472,7 @@
       <c r="A193" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B193" s="11" t="s">
+      <c r="B193" s="12" t="s">
         <v>190</v>
       </c>
       <c r="C193" s="5" t="s">
@@ -4482,7 +4483,7 @@
       <c r="A194" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B194" s="11" t="s">
+      <c r="B194" s="12" t="s">
         <v>191</v>
       </c>
       <c r="C194" s="5" t="s">
@@ -4493,7 +4494,7 @@
       <c r="A195" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B195" s="11" t="s">
+      <c r="B195" s="12" t="s">
         <v>192</v>
       </c>
       <c r="C195" s="5" t="s">
@@ -4504,7 +4505,7 @@
       <c r="A196" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B196" s="11" t="s">
+      <c r="B196" s="12" t="s">
         <v>193</v>
       </c>
       <c r="C196" s="5" t="s">
@@ -4515,7 +4516,7 @@
       <c r="A197" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B197" s="11" t="s">
+      <c r="B197" s="12" t="s">
         <v>194</v>
       </c>
       <c r="C197" s="5" t="s">
@@ -4526,7 +4527,7 @@
       <c r="A198" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B198" s="11" t="s">
+      <c r="B198" s="12" t="s">
         <v>195</v>
       </c>
       <c r="C198" s="5" t="s">
@@ -4537,7 +4538,7 @@
       <c r="A199" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B199" s="11" t="s">
+      <c r="B199" s="12" t="s">
         <v>196</v>
       </c>
       <c r="C199" s="5" t="s">
@@ -4548,7 +4549,7 @@
       <c r="A200" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B200" s="11" t="s">
+      <c r="B200" s="12" t="s">
         <v>197</v>
       </c>
       <c r="C200" s="5" t="s">
@@ -4559,7 +4560,7 @@
       <c r="A201" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B201" s="11" t="s">
+      <c r="B201" s="12" t="s">
         <v>198</v>
       </c>
       <c r="C201" s="5" t="s">
@@ -4570,7 +4571,7 @@
       <c r="A202" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B202" s="11" t="s">
+      <c r="B202" s="12" t="s">
         <v>199</v>
       </c>
       <c r="C202" s="5" t="s">
@@ -4581,7 +4582,7 @@
       <c r="A203" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B203" s="11" t="s">
+      <c r="B203" s="12" t="s">
         <v>200</v>
       </c>
       <c r="C203" s="5" t="s">
@@ -4592,7 +4593,7 @@
       <c r="A204" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B204" s="11" t="s">
+      <c r="B204" s="12" t="s">
         <v>201</v>
       </c>
       <c r="C204" s="5" t="s">
@@ -4603,7 +4604,7 @@
       <c r="A205" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B205" s="11" t="s">
+      <c r="B205" s="12" t="s">
         <v>202</v>
       </c>
       <c r="C205" s="5" t="s">
@@ -4614,7 +4615,7 @@
       <c r="A206" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B206" s="11" t="s">
+      <c r="B206" s="12" t="s">
         <v>203</v>
       </c>
       <c r="C206" s="5" t="s">
@@ -4625,7 +4626,7 @@
       <c r="A207" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B207" s="11" t="s">
+      <c r="B207" s="12" t="s">
         <v>204</v>
       </c>
       <c r="C207" s="5" t="s">
@@ -4636,7 +4637,7 @@
       <c r="A208" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B208" s="11" t="s">
+      <c r="B208" s="12" t="s">
         <v>205</v>
       </c>
       <c r="C208" s="5" t="s">
@@ -4647,7 +4648,7 @@
       <c r="A209" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B209" s="11" t="s">
+      <c r="B209" s="12" t="s">
         <v>206</v>
       </c>
       <c r="C209" s="5" t="s">
@@ -4658,7 +4659,7 @@
       <c r="A210" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B210" s="11" t="s">
+      <c r="B210" s="12" t="s">
         <v>207</v>
       </c>
       <c r="C210" s="5" t="s">
@@ -4669,7 +4670,7 @@
       <c r="A211" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B211" s="11" t="s">
+      <c r="B211" s="12" t="s">
         <v>208</v>
       </c>
       <c r="C211" s="5" t="s">
@@ -4677,20 +4678,20 @@
       </c>
     </row>
     <row r="212" ht="21" spans="1:3">
-      <c r="A212" s="13"/>
-      <c r="B212" s="12"/>
+      <c r="A212" s="14"/>
+      <c r="B212" s="13"/>
       <c r="C212" s="5"/>
     </row>
     <row r="213" ht="21" spans="1:3">
-      <c r="A213" s="13"/>
-      <c r="B213" s="12"/>
+      <c r="A213" s="14"/>
+      <c r="B213" s="13"/>
       <c r="C213" s="5"/>
     </row>
     <row r="214" ht="21" spans="1:3">
       <c r="A214" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B214" s="11" t="s">
+      <c r="B214" s="12" t="s">
         <v>210</v>
       </c>
       <c r="C214" s="5" t="s">
@@ -4701,7 +4702,7 @@
       <c r="A215" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B215" s="11" t="s">
+      <c r="B215" s="12" t="s">
         <v>211</v>
       </c>
       <c r="C215" s="5" t="s">
@@ -4712,7 +4713,7 @@
       <c r="A216" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B216" s="11" t="s">
+      <c r="B216" s="12" t="s">
         <v>212</v>
       </c>
       <c r="C216" s="5" t="s">
@@ -4723,7 +4724,7 @@
       <c r="A217" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B217" s="11" t="s">
+      <c r="B217" s="12" t="s">
         <v>213</v>
       </c>
       <c r="C217" s="5" t="s">
@@ -4734,7 +4735,7 @@
       <c r="A218" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B218" s="11" t="s">
+      <c r="B218" s="12" t="s">
         <v>214</v>
       </c>
       <c r="C218" s="5" t="s">
@@ -4745,7 +4746,7 @@
       <c r="A219" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B219" s="11" t="s">
+      <c r="B219" s="12" t="s">
         <v>215</v>
       </c>
       <c r="C219" s="5" t="s">
@@ -4756,7 +4757,7 @@
       <c r="A220" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B220" s="14" t="s">
+      <c r="B220" s="15" t="s">
         <v>216</v>
       </c>
       <c r="C220" s="5" t="s">
@@ -4767,7 +4768,7 @@
       <c r="A221" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B221" s="11" t="s">
+      <c r="B221" s="12" t="s">
         <v>217</v>
       </c>
       <c r="C221" s="5" t="s">
@@ -4778,7 +4779,7 @@
       <c r="A222" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B222" s="11" t="s">
+      <c r="B222" s="12" t="s">
         <v>218</v>
       </c>
       <c r="C222" s="5" t="s">
@@ -4789,7 +4790,7 @@
       <c r="A223" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B223" s="11" t="s">
+      <c r="B223" s="12" t="s">
         <v>219</v>
       </c>
       <c r="C223" s="5" t="s">
@@ -4800,7 +4801,7 @@
       <c r="A224" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B224" s="11" t="s">
+      <c r="B224" s="12" t="s">
         <v>220</v>
       </c>
       <c r="C224" s="5" t="s">
@@ -4811,7 +4812,7 @@
       <c r="A225" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B225" s="11" t="s">
+      <c r="B225" s="12" t="s">
         <v>221</v>
       </c>
       <c r="C225" s="5" t="s">
@@ -4822,7 +4823,7 @@
       <c r="A226" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B226" s="11" t="s">
+      <c r="B226" s="12" t="s">
         <v>222</v>
       </c>
       <c r="C226" s="5" t="s">
@@ -4833,7 +4834,7 @@
       <c r="A227" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B227" s="11" t="s">
+      <c r="B227" s="12" t="s">
         <v>223</v>
       </c>
       <c r="C227" s="5" t="s">
@@ -4844,7 +4845,7 @@
       <c r="A228" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B228" s="11" t="s">
+      <c r="B228" s="12" t="s">
         <v>224</v>
       </c>
       <c r="C228" s="5" t="s">
@@ -4855,7 +4856,7 @@
       <c r="A229" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B229" s="11" t="s">
+      <c r="B229" s="12" t="s">
         <v>225</v>
       </c>
       <c r="C229" s="5" t="s">
@@ -4866,7 +4867,7 @@
       <c r="A230" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B230" s="11" t="s">
+      <c r="B230" s="12" t="s">
         <v>226</v>
       </c>
       <c r="C230" s="5" t="s">
@@ -4877,7 +4878,7 @@
       <c r="A231" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B231" s="11" t="s">
+      <c r="B231" s="12" t="s">
         <v>227</v>
       </c>
       <c r="C231" s="5" t="s">
@@ -4888,7 +4889,7 @@
       <c r="A232" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B232" s="11" t="s">
+      <c r="B232" s="12" t="s">
         <v>228</v>
       </c>
       <c r="C232" s="5" t="s">
@@ -4899,7 +4900,7 @@
       <c r="A233" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B233" s="11" t="s">
+      <c r="B233" s="12" t="s">
         <v>229</v>
       </c>
       <c r="C233" s="5" t="s">
@@ -4910,7 +4911,7 @@
       <c r="A234" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B234" s="11" t="s">
+      <c r="B234" s="12" t="s">
         <v>230</v>
       </c>
       <c r="C234" s="5" t="s">
@@ -4921,7 +4922,7 @@
       <c r="A235" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B235" s="11" t="s">
+      <c r="B235" s="12" t="s">
         <v>231</v>
       </c>
       <c r="C235" s="5" t="s">
@@ -4929,18 +4930,18 @@
       </c>
     </row>
     <row r="236" ht="21" spans="2:3">
-      <c r="B236" s="12"/>
+      <c r="B236" s="13"/>
       <c r="C236" s="5"/>
     </row>
     <row r="237" ht="21" spans="2:3">
-      <c r="B237" s="12"/>
+      <c r="B237" s="13"/>
       <c r="C237" s="5"/>
     </row>
     <row r="238" ht="21" spans="1:3">
       <c r="A238" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B238" s="11" t="s">
+      <c r="B238" s="12" t="s">
         <v>233</v>
       </c>
       <c r="C238" s="5" t="s">
@@ -4951,7 +4952,7 @@
       <c r="A239" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B239" s="11" t="s">
+      <c r="B239" s="12" t="s">
         <v>234</v>
       </c>
       <c r="C239" s="5" t="s">
@@ -4962,7 +4963,7 @@
       <c r="A240" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B240" s="11" t="s">
+      <c r="B240" s="12" t="s">
         <v>235</v>
       </c>
       <c r="C240" s="5" t="s">
@@ -4973,7 +4974,7 @@
       <c r="A241" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B241" s="11" t="s">
+      <c r="B241" s="12" t="s">
         <v>236</v>
       </c>
       <c r="C241" s="5" t="s">
@@ -4984,7 +4985,7 @@
       <c r="A242" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B242" s="11" t="s">
+      <c r="B242" s="12" t="s">
         <v>237</v>
       </c>
       <c r="C242" s="5" t="s">
@@ -4995,7 +4996,7 @@
       <c r="A243" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B243" s="11" t="s">
+      <c r="B243" s="12" t="s">
         <v>238</v>
       </c>
       <c r="C243" s="5" t="s">
@@ -5006,7 +5007,7 @@
       <c r="A244" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B244" s="11" t="s">
+      <c r="B244" s="12" t="s">
         <v>239</v>
       </c>
       <c r="C244" s="5" t="s">
@@ -5017,7 +5018,7 @@
       <c r="A245" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B245" s="11" t="s">
+      <c r="B245" s="12" t="s">
         <v>240</v>
       </c>
       <c r="C245" s="5" t="s">
@@ -5028,7 +5029,7 @@
       <c r="A246" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B246" s="11" t="s">
+      <c r="B246" s="12" t="s">
         <v>241</v>
       </c>
       <c r="C246" s="5" t="s">
@@ -5039,7 +5040,7 @@
       <c r="A247" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B247" s="11" t="s">
+      <c r="B247" s="12" t="s">
         <v>242</v>
       </c>
       <c r="C247" s="5" t="s">
@@ -5050,7 +5051,7 @@
       <c r="A248" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B248" s="11" t="s">
+      <c r="B248" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C248" s="5" t="s">
@@ -5061,7 +5062,7 @@
       <c r="A249" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B249" s="11" t="s">
+      <c r="B249" s="12" t="s">
         <v>244</v>
       </c>
       <c r="C249" s="5" t="s">
@@ -5072,7 +5073,7 @@
       <c r="A250" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B250" s="11" t="s">
+      <c r="B250" s="12" t="s">
         <v>245</v>
       </c>
       <c r="C250" s="5" t="s">
@@ -5083,7 +5084,7 @@
       <c r="A251" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B251" s="11" t="s">
+      <c r="B251" s="12" t="s">
         <v>246</v>
       </c>
       <c r="C251" s="5" t="s">
@@ -5094,7 +5095,7 @@
       <c r="A252" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B252" s="11" t="s">
+      <c r="B252" s="12" t="s">
         <v>247</v>
       </c>
       <c r="C252" s="5" t="s">
@@ -5105,7 +5106,7 @@
       <c r="A253" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B253" s="11" t="s">
+      <c r="B253" s="12" t="s">
         <v>248</v>
       </c>
       <c r="C253" s="5" t="s">
@@ -5116,7 +5117,7 @@
       <c r="A254" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B254" s="11" t="s">
+      <c r="B254" s="12" t="s">
         <v>249</v>
       </c>
       <c r="C254" s="5" t="s">
@@ -5127,7 +5128,7 @@
       <c r="A255" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B255" s="11" t="s">
+      <c r="B255" s="12" t="s">
         <v>250</v>
       </c>
       <c r="C255" s="5" t="s">
@@ -5138,7 +5139,7 @@
       <c r="A256" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B256" s="11" t="s">
+      <c r="B256" s="12" t="s">
         <v>251</v>
       </c>
       <c r="C256" s="5" t="s">
@@ -5149,7 +5150,7 @@
       <c r="A257" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B257" s="11" t="s">
+      <c r="B257" s="12" t="s">
         <v>252</v>
       </c>
       <c r="C257" s="5" t="s">
@@ -5160,7 +5161,7 @@
       <c r="A258" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B258" s="11" t="s">
+      <c r="B258" s="12" t="s">
         <v>253</v>
       </c>
       <c r="C258" s="5" t="s">
@@ -5171,7 +5172,7 @@
       <c r="A259" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B259" s="11" t="s">
+      <c r="B259" s="12" t="s">
         <v>254</v>
       </c>
       <c r="C259" s="5" t="s">
@@ -5182,7 +5183,7 @@
       <c r="A260" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B260" s="11" t="s">
+      <c r="B260" s="12" t="s">
         <v>255</v>
       </c>
       <c r="C260" s="5" t="s">
@@ -5193,7 +5194,7 @@
       <c r="A261" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B261" s="11" t="s">
+      <c r="B261" s="12" t="s">
         <v>256</v>
       </c>
       <c r="C261" s="5" t="s">
@@ -5204,7 +5205,7 @@
       <c r="A262" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B262" s="11" t="s">
+      <c r="B262" s="12" t="s">
         <v>257</v>
       </c>
       <c r="C262" s="5" t="s">
@@ -5215,7 +5216,7 @@
       <c r="A263" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B263" s="11" t="s">
+      <c r="B263" s="12" t="s">
         <v>258</v>
       </c>
       <c r="C263" s="5" t="s">
@@ -5226,7 +5227,7 @@
       <c r="A264" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B264" s="11" t="s">
+      <c r="B264" s="12" t="s">
         <v>259</v>
       </c>
       <c r="C264" s="5" t="s">
@@ -5237,7 +5238,7 @@
       <c r="A265" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B265" s="11" t="s">
+      <c r="B265" s="12" t="s">
         <v>260</v>
       </c>
       <c r="C265" s="5" t="s">
@@ -5248,7 +5249,7 @@
       <c r="A266" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B266" s="11" t="s">
+      <c r="B266" s="12" t="s">
         <v>261</v>
       </c>
       <c r="C266" s="5" t="s">
@@ -5259,7 +5260,7 @@
       <c r="A267" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B267" s="11" t="s">
+      <c r="B267" s="12" t="s">
         <v>262</v>
       </c>
       <c r="C267" s="5" t="s">
@@ -5270,7 +5271,7 @@
       <c r="A268" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B268" s="11" t="s">
+      <c r="B268" s="12" t="s">
         <v>263</v>
       </c>
       <c r="C268" s="5" t="s">
@@ -5281,7 +5282,7 @@
       <c r="A269" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B269" s="11" t="s">
+      <c r="B269" s="12" t="s">
         <v>264</v>
       </c>
       <c r="C269" s="5" t="s">
@@ -5292,7 +5293,7 @@
       <c r="A270" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B270" s="11" t="s">
+      <c r="B270" s="12" t="s">
         <v>265</v>
       </c>
       <c r="C270" s="5" t="s">
@@ -5303,7 +5304,7 @@
       <c r="A271" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B271" s="11" t="s">
+      <c r="B271" s="12" t="s">
         <v>89</v>
       </c>
       <c r="C271" s="5" t="s">
@@ -5314,7 +5315,7 @@
       <c r="A272" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="B272" s="11" t="s">
+      <c r="B272" s="12" t="s">
         <v>266</v>
       </c>
       <c r="C272" s="5" t="s">
@@ -5322,18 +5323,18 @@
       </c>
     </row>
     <row r="273" ht="21" spans="2:3">
-      <c r="B273" s="12"/>
+      <c r="B273" s="13"/>
       <c r="C273" s="5"/>
     </row>
     <row r="274" ht="21" spans="2:3">
-      <c r="B274" s="12"/>
+      <c r="B274" s="13"/>
       <c r="C274" s="5"/>
     </row>
     <row r="275" ht="21" spans="1:3">
       <c r="A275" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B275" s="11" t="s">
+      <c r="B275" s="12" t="s">
         <v>268</v>
       </c>
       <c r="C275" s="5" t="s">
@@ -5344,7 +5345,7 @@
       <c r="A276" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B276" s="11" t="s">
+      <c r="B276" s="12" t="s">
         <v>269</v>
       </c>
       <c r="C276" s="5" t="s">
@@ -5355,7 +5356,7 @@
       <c r="A277" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B277" s="11" t="s">
+      <c r="B277" s="12" t="s">
         <v>270</v>
       </c>
       <c r="C277" s="5" t="s">
@@ -5366,7 +5367,7 @@
       <c r="A278" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B278" s="11" t="s">
+      <c r="B278" s="12" t="s">
         <v>271</v>
       </c>
       <c r="C278" s="5" t="s">
@@ -5377,7 +5378,7 @@
       <c r="A279" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B279" s="11" t="s">
+      <c r="B279" s="12" t="s">
         <v>272</v>
       </c>
       <c r="C279" s="5" t="s">
@@ -5388,7 +5389,7 @@
       <c r="A280" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B280" s="11" t="s">
+      <c r="B280" s="12" t="s">
         <v>273</v>
       </c>
       <c r="C280" s="5" t="s">
@@ -5399,7 +5400,7 @@
       <c r="A281" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B281" s="11" t="s">
+      <c r="B281" s="12" t="s">
         <v>274</v>
       </c>
       <c r="C281" s="5" t="s">
@@ -5410,7 +5411,7 @@
       <c r="A282" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B282" s="11" t="s">
+      <c r="B282" s="12" t="s">
         <v>275</v>
       </c>
       <c r="C282" s="5" t="s">
@@ -5421,7 +5422,7 @@
       <c r="A283" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B283" s="11" t="s">
+      <c r="B283" s="12" t="s">
         <v>276</v>
       </c>
       <c r="C283" s="5" t="s">
@@ -5432,7 +5433,7 @@
       <c r="A284" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B284" s="11" t="s">
+      <c r="B284" s="12" t="s">
         <v>277</v>
       </c>
       <c r="C284" s="5" t="s">
@@ -5443,7 +5444,7 @@
       <c r="A285" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B285" s="11" t="s">
+      <c r="B285" s="12" t="s">
         <v>278</v>
       </c>
       <c r="C285" s="5" t="s">
@@ -5454,7 +5455,7 @@
       <c r="A286" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B286" s="11" t="s">
+      <c r="B286" s="12" t="s">
         <v>279</v>
       </c>
       <c r="C286" s="5" t="s">
@@ -5465,7 +5466,7 @@
       <c r="A287" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B287" s="11" t="s">
+      <c r="B287" s="12" t="s">
         <v>280</v>
       </c>
       <c r="C287" s="5" t="s">
@@ -5476,7 +5477,7 @@
       <c r="A288" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B288" s="11" t="s">
+      <c r="B288" s="12" t="s">
         <v>281</v>
       </c>
       <c r="C288" s="5" t="s">
@@ -5487,7 +5488,7 @@
       <c r="A289" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B289" s="11" t="s">
+      <c r="B289" s="12" t="s">
         <v>282</v>
       </c>
       <c r="C289" s="5" t="s">
@@ -5498,7 +5499,7 @@
       <c r="A290" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B290" s="11" t="s">
+      <c r="B290" s="12" t="s">
         <v>283</v>
       </c>
       <c r="C290" s="5" t="s">
@@ -5509,7 +5510,7 @@
       <c r="A291" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B291" s="11" t="s">
+      <c r="B291" s="12" t="s">
         <v>284</v>
       </c>
       <c r="C291" s="5" t="s">
@@ -5520,7 +5521,7 @@
       <c r="A292" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B292" s="11" t="s">
+      <c r="B292" s="12" t="s">
         <v>285</v>
       </c>
       <c r="C292" s="5" t="s">
@@ -5531,7 +5532,7 @@
       <c r="A293" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B293" s="11" t="s">
+      <c r="B293" s="12" t="s">
         <v>286</v>
       </c>
       <c r="C293" s="5" t="s">
@@ -5539,18 +5540,18 @@
       </c>
     </row>
     <row r="294" ht="21" spans="2:3">
-      <c r="B294" s="12"/>
+      <c r="B294" s="13"/>
       <c r="C294" s="5"/>
     </row>
     <row r="295" ht="21" spans="2:3">
-      <c r="B295" s="12"/>
+      <c r="B295" s="13"/>
       <c r="C295" s="5"/>
     </row>
     <row r="296" ht="21" spans="1:3">
       <c r="A296" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B296" s="11" t="s">
+      <c r="B296" s="12" t="s">
         <v>288</v>
       </c>
       <c r="C296" s="5" t="s">
@@ -5561,7 +5562,7 @@
       <c r="A297" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B297" s="11" t="s">
+      <c r="B297" s="12" t="s">
         <v>289</v>
       </c>
       <c r="C297" s="5" t="s">
@@ -5572,7 +5573,7 @@
       <c r="A298" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B298" s="11" t="s">
+      <c r="B298" s="12" t="s">
         <v>290</v>
       </c>
       <c r="C298" s="5" t="s">
@@ -5583,7 +5584,7 @@
       <c r="A299" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B299" s="11" t="s">
+      <c r="B299" s="12" t="s">
         <v>291</v>
       </c>
       <c r="C299" s="5" t="s">
@@ -5594,7 +5595,7 @@
       <c r="A300" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B300" s="11" t="s">
+      <c r="B300" s="12" t="s">
         <v>292</v>
       </c>
       <c r="C300" s="5" t="s">
@@ -5605,7 +5606,7 @@
       <c r="A301" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B301" s="11" t="s">
+      <c r="B301" s="12" t="s">
         <v>293</v>
       </c>
       <c r="C301" s="5" t="s">
@@ -5616,7 +5617,7 @@
       <c r="A302" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B302" s="11" t="s">
+      <c r="B302" s="12" t="s">
         <v>294</v>
       </c>
       <c r="C302" s="5" t="s">
@@ -5627,7 +5628,7 @@
       <c r="A303" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B303" s="11" t="s">
+      <c r="B303" s="12" t="s">
         <v>295</v>
       </c>
       <c r="C303" s="5" t="s">
@@ -5638,7 +5639,7 @@
       <c r="A304" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B304" s="11" t="s">
+      <c r="B304" s="12" t="s">
         <v>296</v>
       </c>
       <c r="C304" s="5" t="s">
@@ -5649,7 +5650,7 @@
       <c r="A305" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B305" s="11" t="s">
+      <c r="B305" s="12" t="s">
         <v>297</v>
       </c>
       <c r="C305" s="5" t="s">
@@ -5660,7 +5661,7 @@
       <c r="A306" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B306" s="11" t="s">
+      <c r="B306" s="12" t="s">
         <v>298</v>
       </c>
       <c r="C306" s="5" t="s">
@@ -5671,7 +5672,7 @@
       <c r="A307" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B307" s="11" t="s">
+      <c r="B307" s="12" t="s">
         <v>299</v>
       </c>
       <c r="C307" s="5" t="s">
@@ -5682,7 +5683,7 @@
       <c r="A308" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B308" s="11" t="s">
+      <c r="B308" s="12" t="s">
         <v>300</v>
       </c>
       <c r="C308" s="5" t="s">
@@ -5693,7 +5694,7 @@
       <c r="A309" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B309" s="14" t="s">
+      <c r="B309" s="15" t="s">
         <v>301</v>
       </c>
       <c r="C309" s="5" t="s">
@@ -5704,7 +5705,7 @@
       <c r="A310" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B310" s="11" t="s">
+      <c r="B310" s="12" t="s">
         <v>302</v>
       </c>
       <c r="C310" s="5" t="s">
@@ -5715,7 +5716,7 @@
       <c r="A311" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B311" s="11" t="s">
+      <c r="B311" s="12" t="s">
         <v>303</v>
       </c>
       <c r="C311" s="5" t="s">
@@ -5726,7 +5727,7 @@
       <c r="A312" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B312" s="11" t="s">
+      <c r="B312" s="12" t="s">
         <v>304</v>
       </c>
       <c r="C312" s="5" t="s">
@@ -5737,7 +5738,7 @@
       <c r="A313" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B313" s="11" t="s">
+      <c r="B313" s="12" t="s">
         <v>305</v>
       </c>
       <c r="C313" s="5" t="s">
@@ -5748,7 +5749,7 @@
       <c r="A314" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B314" s="11" t="s">
+      <c r="B314" s="12" t="s">
         <v>306</v>
       </c>
       <c r="C314" s="5" t="s">
@@ -5759,7 +5760,7 @@
       <c r="A315" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B315" s="11" t="s">
+      <c r="B315" s="12" t="s">
         <v>307</v>
       </c>
       <c r="C315" s="5" t="s">
@@ -5770,7 +5771,7 @@
       <c r="A316" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B316" s="11" t="s">
+      <c r="B316" s="12" t="s">
         <v>308</v>
       </c>
       <c r="C316" s="5" t="s">
@@ -5781,7 +5782,7 @@
       <c r="A317" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B317" s="11" t="s">
+      <c r="B317" s="12" t="s">
         <v>309</v>
       </c>
       <c r="C317" s="5" t="s">
@@ -5792,7 +5793,7 @@
       <c r="A318" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B318" s="11" t="s">
+      <c r="B318" s="12" t="s">
         <v>310</v>
       </c>
       <c r="C318" s="5" t="s">
@@ -5803,7 +5804,7 @@
       <c r="A319" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B319" s="11" t="s">
+      <c r="B319" s="12" t="s">
         <v>311</v>
       </c>
       <c r="C319" s="5" t="s">
@@ -5814,7 +5815,7 @@
       <c r="A320" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B320" s="11" t="s">
+      <c r="B320" s="12" t="s">
         <v>312</v>
       </c>
       <c r="C320" s="5" t="s">
@@ -5825,7 +5826,7 @@
       <c r="A321" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B321" s="11" t="s">
+      <c r="B321" s="12" t="s">
         <v>313</v>
       </c>
       <c r="C321" s="5" t="s">
@@ -5836,7 +5837,7 @@
       <c r="A322" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B322" s="11" t="s">
+      <c r="B322" s="12" t="s">
         <v>314</v>
       </c>
       <c r="C322" s="5" t="s">
@@ -5847,7 +5848,7 @@
       <c r="A323" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B323" s="11" t="s">
+      <c r="B323" s="12" t="s">
         <v>315</v>
       </c>
       <c r="C323" s="5" t="s">
@@ -5858,7 +5859,7 @@
       <c r="A324" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B324" s="11" t="s">
+      <c r="B324" s="12" t="s">
         <v>316</v>
       </c>
       <c r="C324" s="5" t="s">
@@ -5869,7 +5870,7 @@
       <c r="A325" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B325" s="11" t="s">
+      <c r="B325" s="12" t="s">
         <v>317</v>
       </c>
       <c r="C325" s="5" t="s">
@@ -5880,7 +5881,7 @@
       <c r="A326" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B326" s="11" t="s">
+      <c r="B326" s="12" t="s">
         <v>318</v>
       </c>
       <c r="C326" s="5" t="s">
@@ -5891,7 +5892,7 @@
       <c r="A327" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B327" s="11" t="s">
+      <c r="B327" s="12" t="s">
         <v>319</v>
       </c>
       <c r="C327" s="5" t="s">
@@ -5902,7 +5903,7 @@
       <c r="A328" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B328" s="11" t="s">
+      <c r="B328" s="12" t="s">
         <v>320</v>
       </c>
       <c r="C328" s="5" t="s">
@@ -5913,7 +5914,7 @@
       <c r="A329" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B329" s="11" t="s">
+      <c r="B329" s="12" t="s">
         <v>321</v>
       </c>
       <c r="C329" s="5" t="s">
@@ -5924,7 +5925,7 @@
       <c r="A330" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B330" s="11" t="s">
+      <c r="B330" s="12" t="s">
         <v>322</v>
       </c>
       <c r="C330" s="5" t="s">
@@ -5935,7 +5936,7 @@
       <c r="A331" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B331" s="11" t="s">
+      <c r="B331" s="12" t="s">
         <v>323</v>
       </c>
       <c r="C331" s="5" t="s">
@@ -5946,7 +5947,7 @@
       <c r="A332" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B332" s="11" t="s">
+      <c r="B332" s="12" t="s">
         <v>324</v>
       </c>
       <c r="C332" s="5" t="s">
@@ -5957,7 +5958,7 @@
       <c r="A333" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B333" s="11" t="s">
+      <c r="B333" s="12" t="s">
         <v>325</v>
       </c>
       <c r="C333" s="5" t="s">
@@ -5965,18 +5966,18 @@
       </c>
     </row>
     <row r="334" ht="21" spans="2:3">
-      <c r="B334" s="12"/>
+      <c r="B334" s="13"/>
       <c r="C334" s="5"/>
     </row>
     <row r="335" ht="21" spans="2:3">
-      <c r="B335" s="12"/>
+      <c r="B335" s="13"/>
       <c r="C335" s="5"/>
     </row>
     <row r="336" ht="21" spans="1:3">
-      <c r="A336" s="13" t="s">
+      <c r="A336" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B336" s="11" t="s">
+      <c r="B336" s="12" t="s">
         <v>327</v>
       </c>
       <c r="C336" s="5" t="s">
@@ -5984,10 +5985,10 @@
       </c>
     </row>
     <row r="337" ht="21" spans="1:3">
-      <c r="A337" s="13" t="s">
+      <c r="A337" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B337" s="11" t="s">
+      <c r="B337" s="12" t="s">
         <v>328</v>
       </c>
       <c r="C337" s="5" t="s">
@@ -5995,10 +5996,10 @@
       </c>
     </row>
     <row r="338" ht="21" spans="1:3">
-      <c r="A338" s="13" t="s">
+      <c r="A338" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B338" s="11" t="s">
+      <c r="B338" s="12" t="s">
         <v>329</v>
       </c>
       <c r="C338" s="5" t="s">
@@ -6006,10 +6007,10 @@
       </c>
     </row>
     <row r="339" ht="21" spans="1:3">
-      <c r="A339" s="13" t="s">
+      <c r="A339" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B339" s="11" t="s">
+      <c r="B339" s="12" t="s">
         <v>330</v>
       </c>
       <c r="C339" s="5" t="s">
@@ -6017,10 +6018,10 @@
       </c>
     </row>
     <row r="340" ht="21" spans="1:3">
-      <c r="A340" s="13" t="s">
+      <c r="A340" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B340" s="11" t="s">
+      <c r="B340" s="12" t="s">
         <v>331</v>
       </c>
       <c r="C340" s="5" t="s">
@@ -6028,10 +6029,10 @@
       </c>
     </row>
     <row r="341" ht="21" spans="1:3">
-      <c r="A341" s="13" t="s">
+      <c r="A341" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B341" s="11" t="s">
+      <c r="B341" s="12" t="s">
         <v>332</v>
       </c>
       <c r="C341" s="5" t="s">
@@ -6039,10 +6040,10 @@
       </c>
     </row>
     <row r="342" ht="21" spans="1:3">
-      <c r="A342" s="13" t="s">
+      <c r="A342" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B342" s="11" t="s">
+      <c r="B342" s="12" t="s">
         <v>333</v>
       </c>
       <c r="C342" s="5" t="s">
@@ -6050,10 +6051,10 @@
       </c>
     </row>
     <row r="343" ht="21" spans="1:3">
-      <c r="A343" s="13" t="s">
+      <c r="A343" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B343" s="11" t="s">
+      <c r="B343" s="12" t="s">
         <v>334</v>
       </c>
       <c r="C343" s="5" t="s">
@@ -6061,10 +6062,10 @@
       </c>
     </row>
     <row r="344" ht="21" spans="1:3">
-      <c r="A344" s="13" t="s">
+      <c r="A344" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B344" s="14" t="s">
+      <c r="B344" s="15" t="s">
         <v>335</v>
       </c>
       <c r="C344" s="5" t="s">
@@ -6072,10 +6073,10 @@
       </c>
     </row>
     <row r="345" ht="21" spans="1:3">
-      <c r="A345" s="13" t="s">
+      <c r="A345" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B345" s="11" t="s">
+      <c r="B345" s="12" t="s">
         <v>336</v>
       </c>
       <c r="C345" s="5" t="s">
@@ -6083,10 +6084,10 @@
       </c>
     </row>
     <row r="346" ht="21" spans="1:3">
-      <c r="A346" s="13" t="s">
+      <c r="A346" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B346" s="11" t="s">
+      <c r="B346" s="12" t="s">
         <v>337</v>
       </c>
       <c r="C346" s="5" t="s">
@@ -6094,10 +6095,10 @@
       </c>
     </row>
     <row r="347" ht="21" spans="1:3">
-      <c r="A347" s="13" t="s">
+      <c r="A347" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B347" s="11" t="s">
+      <c r="B347" s="12" t="s">
         <v>338</v>
       </c>
       <c r="C347" s="5" t="s">
@@ -6105,10 +6106,10 @@
       </c>
     </row>
     <row r="348" ht="21" spans="1:3">
-      <c r="A348" s="13" t="s">
+      <c r="A348" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B348" s="11" t="s">
+      <c r="B348" s="12" t="s">
         <v>339</v>
       </c>
       <c r="C348" s="5" t="s">
@@ -6116,10 +6117,10 @@
       </c>
     </row>
     <row r="349" ht="21" spans="1:3">
-      <c r="A349" s="13" t="s">
+      <c r="A349" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B349" s="11" t="s">
+      <c r="B349" s="12" t="s">
         <v>340</v>
       </c>
       <c r="C349" s="5" t="s">
@@ -6127,10 +6128,10 @@
       </c>
     </row>
     <row r="350" ht="21" spans="1:3">
-      <c r="A350" s="13" t="s">
+      <c r="A350" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B350" s="11" t="s">
+      <c r="B350" s="12" t="s">
         <v>341</v>
       </c>
       <c r="C350" s="5" t="s">
@@ -6138,10 +6139,10 @@
       </c>
     </row>
     <row r="351" ht="21" spans="1:3">
-      <c r="A351" s="13" t="s">
+      <c r="A351" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B351" s="11" t="s">
+      <c r="B351" s="12" t="s">
         <v>342</v>
       </c>
       <c r="C351" s="5" t="s">
@@ -6149,10 +6150,10 @@
       </c>
     </row>
     <row r="352" ht="21" spans="1:3">
-      <c r="A352" s="13" t="s">
+      <c r="A352" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B352" s="11" t="s">
+      <c r="B352" s="12" t="s">
         <v>343</v>
       </c>
       <c r="C352" s="5" t="s">
@@ -6160,10 +6161,10 @@
       </c>
     </row>
     <row r="353" ht="21" spans="1:3">
-      <c r="A353" s="13" t="s">
+      <c r="A353" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B353" s="11" t="s">
+      <c r="B353" s="12" t="s">
         <v>344</v>
       </c>
       <c r="C353" s="5" t="s">
@@ -6171,18 +6172,18 @@
       </c>
     </row>
     <row r="354" ht="21" spans="2:3">
-      <c r="B354" s="12"/>
+      <c r="B354" s="13"/>
       <c r="C354" s="5"/>
     </row>
     <row r="355" ht="21" spans="2:3">
-      <c r="B355" s="12"/>
+      <c r="B355" s="13"/>
       <c r="C355" s="5"/>
     </row>
     <row r="356" ht="21" spans="1:3">
-      <c r="A356" s="13" t="s">
+      <c r="A356" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B356" s="11" t="s">
+      <c r="B356" s="12" t="s">
         <v>346</v>
       </c>
       <c r="C356" s="5" t="s">
@@ -6190,10 +6191,10 @@
       </c>
     </row>
     <row r="357" ht="21" spans="1:3">
-      <c r="A357" s="13" t="s">
+      <c r="A357" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B357" s="11" t="s">
+      <c r="B357" s="12" t="s">
         <v>347</v>
       </c>
       <c r="C357" s="5" t="s">
@@ -6201,10 +6202,10 @@
       </c>
     </row>
     <row r="358" ht="21" spans="1:3">
-      <c r="A358" s="13" t="s">
+      <c r="A358" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B358" s="11" t="s">
+      <c r="B358" s="12" t="s">
         <v>348</v>
       </c>
       <c r="C358" s="5" t="s">
@@ -6212,10 +6213,10 @@
       </c>
     </row>
     <row r="359" ht="21" spans="1:3">
-      <c r="A359" s="13" t="s">
+      <c r="A359" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B359" s="11" t="s">
+      <c r="B359" s="12" t="s">
         <v>349</v>
       </c>
       <c r="C359" s="5" t="s">
@@ -6223,10 +6224,10 @@
       </c>
     </row>
     <row r="360" ht="21" spans="1:3">
-      <c r="A360" s="13" t="s">
+      <c r="A360" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B360" s="11" t="s">
+      <c r="B360" s="12" t="s">
         <v>350</v>
       </c>
       <c r="C360" s="5" t="s">
@@ -6234,10 +6235,10 @@
       </c>
     </row>
     <row r="361" ht="21" spans="1:3">
-      <c r="A361" s="13" t="s">
+      <c r="A361" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B361" s="11" t="s">
+      <c r="B361" s="12" t="s">
         <v>351</v>
       </c>
       <c r="C361" s="5" t="s">
@@ -6245,10 +6246,10 @@
       </c>
     </row>
     <row r="362" ht="21" spans="1:3">
-      <c r="A362" s="13" t="s">
+      <c r="A362" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B362" s="11" t="s">
+      <c r="B362" s="12" t="s">
         <v>352</v>
       </c>
       <c r="C362" s="5" t="s">
@@ -6256,10 +6257,10 @@
       </c>
     </row>
     <row r="363" ht="21" spans="1:3">
-      <c r="A363" s="13" t="s">
+      <c r="A363" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B363" s="11" t="s">
+      <c r="B363" s="12" t="s">
         <v>353</v>
       </c>
       <c r="C363" s="5" t="s">
@@ -6267,10 +6268,10 @@
       </c>
     </row>
     <row r="364" ht="21" spans="1:3">
-      <c r="A364" s="13" t="s">
+      <c r="A364" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B364" s="11" t="s">
+      <c r="B364" s="12" t="s">
         <v>354</v>
       </c>
       <c r="C364" s="5" t="s">
@@ -6278,10 +6279,10 @@
       </c>
     </row>
     <row r="365" ht="21" spans="1:3">
-      <c r="A365" s="13" t="s">
+      <c r="A365" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B365" s="11" t="s">
+      <c r="B365" s="12" t="s">
         <v>355</v>
       </c>
       <c r="C365" s="5" t="s">
@@ -6289,10 +6290,10 @@
       </c>
     </row>
     <row r="366" ht="21" spans="1:3">
-      <c r="A366" s="13" t="s">
+      <c r="A366" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B366" s="11" t="s">
+      <c r="B366" s="12" t="s">
         <v>356</v>
       </c>
       <c r="C366" s="5" t="s">
@@ -6300,10 +6301,10 @@
       </c>
     </row>
     <row r="367" ht="21" spans="1:3">
-      <c r="A367" s="13" t="s">
+      <c r="A367" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B367" s="11" t="s">
+      <c r="B367" s="12" t="s">
         <v>357</v>
       </c>
       <c r="C367" s="5" t="s">
@@ -6311,10 +6312,10 @@
       </c>
     </row>
     <row r="368" ht="21" spans="1:3">
-      <c r="A368" s="13" t="s">
+      <c r="A368" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B368" s="11" t="s">
+      <c r="B368" s="12" t="s">
         <v>358</v>
       </c>
       <c r="C368" s="5" t="s">
@@ -6322,10 +6323,10 @@
       </c>
     </row>
     <row r="369" ht="21" spans="1:3">
-      <c r="A369" s="13" t="s">
+      <c r="A369" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B369" s="11" t="s">
+      <c r="B369" s="12" t="s">
         <v>359</v>
       </c>
       <c r="C369" s="5" t="s">
@@ -6333,10 +6334,10 @@
       </c>
     </row>
     <row r="370" ht="21" spans="1:3">
-      <c r="A370" s="13" t="s">
+      <c r="A370" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B370" s="11" t="s">
+      <c r="B370" s="12" t="s">
         <v>360</v>
       </c>
       <c r="C370" s="5" t="s">
@@ -6344,10 +6345,10 @@
       </c>
     </row>
     <row r="371" ht="21" spans="1:3">
-      <c r="A371" s="13" t="s">
+      <c r="A371" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B371" s="11" t="s">
+      <c r="B371" s="12" t="s">
         <v>361</v>
       </c>
       <c r="C371" s="5" t="s">
@@ -6355,10 +6356,10 @@
       </c>
     </row>
     <row r="372" ht="21" spans="1:3">
-      <c r="A372" s="13" t="s">
+      <c r="A372" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B372" s="11" t="s">
+      <c r="B372" s="12" t="s">
         <v>362</v>
       </c>
       <c r="C372" s="5" t="s">
@@ -6366,10 +6367,10 @@
       </c>
     </row>
     <row r="373" ht="21" spans="1:3">
-      <c r="A373" s="13" t="s">
+      <c r="A373" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B373" s="11" t="s">
+      <c r="B373" s="12" t="s">
         <v>363</v>
       </c>
       <c r="C373" s="5" t="s">
@@ -6377,10 +6378,10 @@
       </c>
     </row>
     <row r="374" ht="21" spans="1:3">
-      <c r="A374" s="13" t="s">
+      <c r="A374" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B374" s="11" t="s">
+      <c r="B374" s="12" t="s">
         <v>364</v>
       </c>
       <c r="C374" s="5" t="s">
@@ -6388,10 +6389,10 @@
       </c>
     </row>
     <row r="375" ht="21" spans="1:3">
-      <c r="A375" s="13" t="s">
+      <c r="A375" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B375" s="11" t="s">
+      <c r="B375" s="12" t="s">
         <v>365</v>
       </c>
       <c r="C375" s="5" t="s">
@@ -6399,10 +6400,10 @@
       </c>
     </row>
     <row r="376" ht="21" spans="1:3">
-      <c r="A376" s="13" t="s">
+      <c r="A376" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B376" s="11" t="s">
+      <c r="B376" s="12" t="s">
         <v>366</v>
       </c>
       <c r="C376" s="5" t="s">
@@ -6410,10 +6411,10 @@
       </c>
     </row>
     <row r="377" ht="21" spans="1:3">
-      <c r="A377" s="13" t="s">
+      <c r="A377" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B377" s="11" t="s">
+      <c r="B377" s="12" t="s">
         <v>367</v>
       </c>
       <c r="C377" s="5" t="s">
@@ -6421,10 +6422,10 @@
       </c>
     </row>
     <row r="378" ht="21" spans="1:3">
-      <c r="A378" s="13" t="s">
+      <c r="A378" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B378" s="11" t="s">
+      <c r="B378" s="12" t="s">
         <v>368</v>
       </c>
       <c r="C378" s="5" t="s">
@@ -6432,10 +6433,10 @@
       </c>
     </row>
     <row r="379" ht="21" spans="1:3">
-      <c r="A379" s="13" t="s">
+      <c r="A379" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B379" s="11" t="s">
+      <c r="B379" s="12" t="s">
         <v>369</v>
       </c>
       <c r="C379" s="5" t="s">
@@ -6443,10 +6444,10 @@
       </c>
     </row>
     <row r="380" ht="21" spans="1:3">
-      <c r="A380" s="13" t="s">
+      <c r="A380" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B380" s="11" t="s">
+      <c r="B380" s="12" t="s">
         <v>370</v>
       </c>
       <c r="C380" s="5" t="s">
@@ -6454,10 +6455,10 @@
       </c>
     </row>
     <row r="381" ht="21" spans="1:3">
-      <c r="A381" s="13" t="s">
+      <c r="A381" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B381" s="11" t="s">
+      <c r="B381" s="12" t="s">
         <v>371</v>
       </c>
       <c r="C381" s="5" t="s">
@@ -6465,10 +6466,10 @@
       </c>
     </row>
     <row r="382" ht="21" spans="1:3">
-      <c r="A382" s="13" t="s">
+      <c r="A382" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B382" s="11" t="s">
+      <c r="B382" s="12" t="s">
         <v>372</v>
       </c>
       <c r="C382" s="5" t="s">
@@ -6476,10 +6477,10 @@
       </c>
     </row>
     <row r="383" ht="21" spans="1:3">
-      <c r="A383" s="13" t="s">
+      <c r="A383" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B383" s="11" t="s">
+      <c r="B383" s="12" t="s">
         <v>373</v>
       </c>
       <c r="C383" s="5" t="s">
@@ -6487,10 +6488,10 @@
       </c>
     </row>
     <row r="384" ht="21" spans="1:3">
-      <c r="A384" s="13" t="s">
+      <c r="A384" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B384" s="11" t="s">
+      <c r="B384" s="12" t="s">
         <v>374</v>
       </c>
       <c r="C384" s="5" t="s">
@@ -6498,10 +6499,10 @@
       </c>
     </row>
     <row r="385" ht="21" spans="1:3">
-      <c r="A385" s="13" t="s">
+      <c r="A385" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B385" s="11" t="s">
+      <c r="B385" s="12" t="s">
         <v>375</v>
       </c>
       <c r="C385" s="5" t="s">
@@ -6509,10 +6510,10 @@
       </c>
     </row>
     <row r="386" ht="21" spans="1:3">
-      <c r="A386" s="13" t="s">
+      <c r="A386" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B386" s="11" t="s">
+      <c r="B386" s="12" t="s">
         <v>376</v>
       </c>
       <c r="C386" s="5" t="s">
@@ -6520,10 +6521,10 @@
       </c>
     </row>
     <row r="387" ht="21" spans="1:3">
-      <c r="A387" s="13" t="s">
+      <c r="A387" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B387" s="11" t="s">
+      <c r="B387" s="12" t="s">
         <v>377</v>
       </c>
       <c r="C387" s="5" t="s">
@@ -6531,10 +6532,10 @@
       </c>
     </row>
     <row r="388" ht="21" spans="1:3">
-      <c r="A388" s="13" t="s">
+      <c r="A388" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B388" s="11" t="s">
+      <c r="B388" s="12" t="s">
         <v>378</v>
       </c>
       <c r="C388" s="5" t="s">
@@ -6542,10 +6543,10 @@
       </c>
     </row>
     <row r="389" ht="21" spans="1:3">
-      <c r="A389" s="13" t="s">
+      <c r="A389" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B389" s="11" t="s">
+      <c r="B389" s="12" t="s">
         <v>379</v>
       </c>
       <c r="C389" s="5" t="s">
@@ -6553,10 +6554,10 @@
       </c>
     </row>
     <row r="390" ht="21" spans="1:3">
-      <c r="A390" s="13" t="s">
+      <c r="A390" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B390" s="11" t="s">
+      <c r="B390" s="12" t="s">
         <v>379</v>
       </c>
       <c r="C390" s="5" t="s">
@@ -6564,10 +6565,10 @@
       </c>
     </row>
     <row r="391" ht="21" spans="1:3">
-      <c r="A391" s="13" t="s">
+      <c r="A391" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B391" s="11" t="s">
+      <c r="B391" s="12" t="s">
         <v>380</v>
       </c>
       <c r="C391" s="5" t="s">
@@ -6575,10 +6576,10 @@
       </c>
     </row>
     <row r="392" ht="21" spans="1:3">
-      <c r="A392" s="13" t="s">
+      <c r="A392" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B392" s="11" t="s">
+      <c r="B392" s="12" t="s">
         <v>381</v>
       </c>
       <c r="C392" s="5" t="s">
@@ -6586,10 +6587,10 @@
       </c>
     </row>
     <row r="393" ht="21" spans="1:3">
-      <c r="A393" s="13" t="s">
+      <c r="A393" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B393" s="11" t="s">
+      <c r="B393" s="12" t="s">
         <v>382</v>
       </c>
       <c r="C393" s="5" t="s">
@@ -6597,10 +6598,10 @@
       </c>
     </row>
     <row r="394" ht="21" spans="1:3">
-      <c r="A394" s="13" t="s">
+      <c r="A394" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B394" s="11" t="s">
+      <c r="B394" s="12" t="s">
         <v>383</v>
       </c>
       <c r="C394" s="5" t="s">
@@ -6608,10 +6609,10 @@
       </c>
     </row>
     <row r="395" ht="21" spans="1:3">
-      <c r="A395" s="13" t="s">
+      <c r="A395" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B395" s="11" t="s">
+      <c r="B395" s="12" t="s">
         <v>384</v>
       </c>
       <c r="C395" s="5" t="s">
@@ -6619,10 +6620,10 @@
       </c>
     </row>
     <row r="396" ht="21" spans="1:3">
-      <c r="A396" s="13" t="s">
+      <c r="A396" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B396" s="11" t="s">
+      <c r="B396" s="12" t="s">
         <v>385</v>
       </c>
       <c r="C396" s="5" t="s">
@@ -6630,10 +6631,10 @@
       </c>
     </row>
     <row r="397" ht="21" spans="1:3">
-      <c r="A397" s="13" t="s">
+      <c r="A397" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B397" s="11" t="s">
+      <c r="B397" s="12" t="s">
         <v>386</v>
       </c>
       <c r="C397" s="5" t="s">
@@ -6641,10 +6642,10 @@
       </c>
     </row>
     <row r="398" ht="21" spans="1:3">
-      <c r="A398" s="13" t="s">
+      <c r="A398" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B398" s="11" t="s">
+      <c r="B398" s="12" t="s">
         <v>387</v>
       </c>
       <c r="C398" s="5" t="s">
@@ -6652,10 +6653,10 @@
       </c>
     </row>
     <row r="399" ht="21" spans="1:3">
-      <c r="A399" s="13" t="s">
+      <c r="A399" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="B399" s="11" t="s">
+      <c r="B399" s="12" t="s">
         <v>388</v>
       </c>
       <c r="C399" s="5" t="s">
@@ -6663,18 +6664,18 @@
       </c>
     </row>
     <row r="400" ht="21" spans="2:3">
-      <c r="B400" s="12"/>
+      <c r="B400" s="13"/>
       <c r="C400" s="5"/>
     </row>
     <row r="401" ht="21" spans="2:3">
-      <c r="B401" s="12"/>
+      <c r="B401" s="13"/>
       <c r="C401" s="5"/>
     </row>
     <row r="402" ht="21" spans="1:3">
-      <c r="A402" s="13" t="s">
+      <c r="A402" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="B402" s="11" t="s">
+      <c r="B402" s="12" t="s">
         <v>390</v>
       </c>
       <c r="C402" s="5" t="s">
@@ -6682,10 +6683,10 @@
       </c>
     </row>
     <row r="403" ht="21" spans="1:3">
-      <c r="A403" s="13" t="s">
+      <c r="A403" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="B403" s="11" t="s">
+      <c r="B403" s="12" t="s">
         <v>391</v>
       </c>
       <c r="C403" s="5" t="s">
@@ -6693,10 +6694,10 @@
       </c>
     </row>
     <row r="404" ht="21" spans="1:3">
-      <c r="A404" s="13" t="s">
+      <c r="A404" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="B404" s="11" t="s">
+      <c r="B404" s="12" t="s">
         <v>392</v>
       </c>
       <c r="C404" s="5" t="s">
@@ -6704,10 +6705,10 @@
       </c>
     </row>
     <row r="405" ht="21" spans="1:3">
-      <c r="A405" s="13" t="s">
+      <c r="A405" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="B405" s="11" t="s">
+      <c r="B405" s="12" t="s">
         <v>91</v>
       </c>
       <c r="C405" s="5" t="s">
@@ -6715,10 +6716,10 @@
       </c>
     </row>
     <row r="406" ht="21" spans="1:3">
-      <c r="A406" s="13" t="s">
+      <c r="A406" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="B406" s="11" t="s">
+      <c r="B406" s="12" t="s">
         <v>393</v>
       </c>
       <c r="C406" s="5" t="s">
@@ -6726,10 +6727,10 @@
       </c>
     </row>
     <row r="407" ht="21" spans="1:3">
-      <c r="A407" s="13" t="s">
+      <c r="A407" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="B407" s="11" t="s">
+      <c r="B407" s="12" t="s">
         <v>394</v>
       </c>
       <c r="C407" s="5" t="s">
@@ -6737,18 +6738,18 @@
       </c>
     </row>
     <row r="408" ht="21" spans="2:3">
-      <c r="B408" s="12"/>
+      <c r="B408" s="13"/>
       <c r="C408" s="5"/>
     </row>
     <row r="409" ht="21" spans="2:3">
-      <c r="B409" s="12"/>
+      <c r="B409" s="13"/>
       <c r="C409" s="5"/>
     </row>
     <row r="410" ht="21" spans="1:3">
       <c r="A410" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B410" s="11" t="s">
+      <c r="B410" s="12" t="s">
         <v>396</v>
       </c>
       <c r="C410" s="5" t="s">
@@ -6759,7 +6760,7 @@
       <c r="A411" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B411" s="11" t="s">
+      <c r="B411" s="12" t="s">
         <v>397</v>
       </c>
       <c r="C411" s="5" t="s">
@@ -6770,7 +6771,7 @@
       <c r="A412" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B412" s="11" t="s">
+      <c r="B412" s="12" t="s">
         <v>398</v>
       </c>
       <c r="C412" s="5" t="s">
@@ -6781,7 +6782,7 @@
       <c r="A413" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B413" s="11" t="s">
+      <c r="B413" s="12" t="s">
         <v>399</v>
       </c>
       <c r="C413" s="5" t="s">
@@ -6792,7 +6793,7 @@
       <c r="A414" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B414" s="11" t="s">
+      <c r="B414" s="12" t="s">
         <v>400</v>
       </c>
       <c r="C414" s="5" t="s">
@@ -6803,7 +6804,7 @@
       <c r="A415" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B415" s="11" t="s">
+      <c r="B415" s="12" t="s">
         <v>401</v>
       </c>
       <c r="C415" s="5" t="s">
@@ -6814,7 +6815,7 @@
       <c r="A416" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B416" s="11" t="s">
+      <c r="B416" s="12" t="s">
         <v>402</v>
       </c>
       <c r="C416" s="5" t="s">
@@ -6825,7 +6826,7 @@
       <c r="A417" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B417" s="11" t="s">
+      <c r="B417" s="12" t="s">
         <v>275</v>
       </c>
       <c r="C417" s="5" t="s">
@@ -6836,7 +6837,7 @@
       <c r="A418" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B418" s="11" t="s">
+      <c r="B418" s="12" t="s">
         <v>403</v>
       </c>
       <c r="C418" s="5" t="s">
@@ -6847,7 +6848,7 @@
       <c r="A419" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B419" s="11" t="s">
+      <c r="B419" s="12" t="s">
         <v>404</v>
       </c>
       <c r="C419" s="5" t="s">
@@ -6858,7 +6859,7 @@
       <c r="A420" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B420" s="11" t="s">
+      <c r="B420" s="12" t="s">
         <v>405</v>
       </c>
       <c r="C420" s="5" t="s">
@@ -6869,7 +6870,7 @@
       <c r="A421" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B421" s="11" t="s">
+      <c r="B421" s="12" t="s">
         <v>406</v>
       </c>
       <c r="C421" s="5" t="s">
@@ -6880,7 +6881,7 @@
       <c r="A422" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B422" s="11" t="s">
+      <c r="B422" s="12" t="s">
         <v>407</v>
       </c>
       <c r="C422" s="5" t="s">
@@ -6891,7 +6892,7 @@
       <c r="A423" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B423" s="11" t="s">
+      <c r="B423" s="12" t="s">
         <v>408</v>
       </c>
       <c r="C423" s="5" t="s">
@@ -6902,7 +6903,7 @@
       <c r="A424" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B424" s="11" t="s">
+      <c r="B424" s="12" t="s">
         <v>409</v>
       </c>
       <c r="C424" s="5" t="s">
@@ -6913,7 +6914,7 @@
       <c r="A425" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B425" s="11" t="s">
+      <c r="B425" s="12" t="s">
         <v>410</v>
       </c>
       <c r="C425" s="5" t="s">
@@ -6924,7 +6925,7 @@
       <c r="A426" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B426" s="11" t="s">
+      <c r="B426" s="12" t="s">
         <v>411</v>
       </c>
       <c r="C426" s="5" t="s">
@@ -6935,7 +6936,7 @@
       <c r="A427" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B427" s="11" t="s">
+      <c r="B427" s="12" t="s">
         <v>412</v>
       </c>
       <c r="C427" s="5" t="s">
@@ -6946,7 +6947,7 @@
       <c r="A428" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B428" s="11" t="s">
+      <c r="B428" s="12" t="s">
         <v>413</v>
       </c>
       <c r="C428" s="5" t="s">
@@ -6957,7 +6958,7 @@
       <c r="A429" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B429" s="11" t="s">
+      <c r="B429" s="12" t="s">
         <v>414</v>
       </c>
       <c r="C429" s="5" t="s">
@@ -6968,7 +6969,7 @@
       <c r="A430" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B430" s="11" t="s">
+      <c r="B430" s="12" t="s">
         <v>415</v>
       </c>
       <c r="C430" s="5" t="s">
@@ -6979,7 +6980,7 @@
       <c r="A431" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B431" s="11" t="s">
+      <c r="B431" s="12" t="s">
         <v>416</v>
       </c>
       <c r="C431" s="5" t="s">
@@ -6990,7 +6991,7 @@
       <c r="A432" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B432" s="11" t="s">
+      <c r="B432" s="12" t="s">
         <v>417</v>
       </c>
       <c r="C432" s="5" t="s">
@@ -7001,7 +7002,7 @@
       <c r="A433" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B433" s="11" t="s">
+      <c r="B433" s="12" t="s">
         <v>418</v>
       </c>
       <c r="C433" s="5" t="s">
@@ -7012,7 +7013,7 @@
       <c r="A434" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B434" s="11" t="s">
+      <c r="B434" s="12" t="s">
         <v>419</v>
       </c>
       <c r="C434" s="5" t="s">
@@ -7023,7 +7024,7 @@
       <c r="A435" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B435" s="11" t="s">
+      <c r="B435" s="12" t="s">
         <v>420</v>
       </c>
       <c r="C435" s="5" t="s">
@@ -7034,7 +7035,7 @@
       <c r="A436" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B436" s="11" t="s">
+      <c r="B436" s="12" t="s">
         <v>421</v>
       </c>
       <c r="C436" s="5" t="s">
@@ -7045,7 +7046,7 @@
       <c r="A437" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B437" s="11" t="s">
+      <c r="B437" s="12" t="s">
         <v>422</v>
       </c>
       <c r="C437" s="5" t="s">
@@ -7056,7 +7057,7 @@
       <c r="A438" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B438" s="11" t="s">
+      <c r="B438" s="12" t="s">
         <v>423</v>
       </c>
       <c r="C438" s="5" t="s">
@@ -7067,7 +7068,7 @@
       <c r="A439" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B439" s="11" t="s">
+      <c r="B439" s="12" t="s">
         <v>424</v>
       </c>
       <c r="C439" s="5" t="s">
@@ -7078,7 +7079,7 @@
       <c r="A440" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B440" s="11" t="s">
+      <c r="B440" s="12" t="s">
         <v>425</v>
       </c>
       <c r="C440" s="5" t="s">
@@ -7089,7 +7090,7 @@
       <c r="A441" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B441" s="11" t="s">
+      <c r="B441" s="12" t="s">
         <v>426</v>
       </c>
       <c r="C441" s="5" t="s">
@@ -7100,7 +7101,7 @@
       <c r="A442" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B442" s="11" t="s">
+      <c r="B442" s="12" t="s">
         <v>427</v>
       </c>
       <c r="C442" s="5" t="s">
@@ -7111,7 +7112,7 @@
       <c r="A443" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B443" s="11" t="s">
+      <c r="B443" s="12" t="s">
         <v>428</v>
       </c>
       <c r="C443" s="5" t="s">
@@ -7122,7 +7123,7 @@
       <c r="A444" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B444" s="11" t="s">
+      <c r="B444" s="12" t="s">
         <v>429</v>
       </c>
       <c r="C444" s="5" t="s">
@@ -7133,7 +7134,7 @@
       <c r="A445" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B445" s="11" t="s">
+      <c r="B445" s="12" t="s">
         <v>430</v>
       </c>
       <c r="C445" s="5" t="s">
@@ -7144,7 +7145,7 @@
       <c r="A446" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B446" s="11" t="s">
+      <c r="B446" s="12" t="s">
         <v>431</v>
       </c>
       <c r="C446" s="5" t="s">
@@ -7155,7 +7156,7 @@
       <c r="A447" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B447" s="11" t="s">
+      <c r="B447" s="12" t="s">
         <v>432</v>
       </c>
       <c r="C447" s="5" t="s">
@@ -7166,7 +7167,7 @@
       <c r="A448" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B448" s="11" t="s">
+      <c r="B448" s="12" t="s">
         <v>433</v>
       </c>
       <c r="C448" s="5" t="s">
@@ -7177,7 +7178,7 @@
       <c r="A449" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B449" s="11" t="s">
+      <c r="B449" s="12" t="s">
         <v>434</v>
       </c>
       <c r="C449" s="5" t="s">
@@ -7188,7 +7189,7 @@
       <c r="A450" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B450" s="11" t="s">
+      <c r="B450" s="12" t="s">
         <v>435</v>
       </c>
       <c r="C450" s="5" t="s">
@@ -7199,7 +7200,7 @@
       <c r="A451" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B451" s="11" t="s">
+      <c r="B451" s="12" t="s">
         <v>436</v>
       </c>
       <c r="C451" s="5" t="s">
@@ -7210,7 +7211,7 @@
       <c r="A452" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B452" s="11" t="s">
+      <c r="B452" s="12" t="s">
         <v>437</v>
       </c>
       <c r="C452" s="5" t="s">
@@ -7221,7 +7222,7 @@
       <c r="A453" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B453" s="11" t="s">
+      <c r="B453" s="12" t="s">
         <v>438</v>
       </c>
       <c r="C453" s="5" t="s">
@@ -7232,7 +7233,7 @@
       <c r="A454" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B454" s="11" t="s">
+      <c r="B454" s="12" t="s">
         <v>439</v>
       </c>
       <c r="C454" s="5" t="s">
@@ -7243,7 +7244,7 @@
       <c r="A455" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B455" s="11" t="s">
+      <c r="B455" s="12" t="s">
         <v>440</v>
       </c>
       <c r="C455" s="5" t="s">
@@ -7254,7 +7255,7 @@
       <c r="A456" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B456" s="11" t="s">
+      <c r="B456" s="12" t="s">
         <v>441</v>
       </c>
       <c r="C456" s="5" t="s">
@@ -7265,7 +7266,7 @@
       <c r="A457" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B457" s="11" t="s">
+      <c r="B457" s="12" t="s">
         <v>442</v>
       </c>
       <c r="C457" s="5" t="s">
@@ -7276,7 +7277,7 @@
       <c r="A458" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B458" s="11" t="s">
+      <c r="B458" s="12" t="s">
         <v>443</v>
       </c>
       <c r="C458" s="5" t="s">
@@ -7287,7 +7288,7 @@
       <c r="A459" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B459" s="11" t="s">
+      <c r="B459" s="12" t="s">
         <v>444</v>
       </c>
       <c r="C459" s="5" t="s">
@@ -7298,7 +7299,7 @@
       <c r="A460" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B460" s="11" t="s">
+      <c r="B460" s="12" t="s">
         <v>445</v>
       </c>
       <c r="C460" s="5" t="s">
@@ -7309,7 +7310,7 @@
       <c r="A461" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B461" s="11" t="s">
+      <c r="B461" s="12" t="s">
         <v>446</v>
       </c>
       <c r="C461" s="5" t="s">
@@ -7320,7 +7321,7 @@
       <c r="A462" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B462" s="11" t="s">
+      <c r="B462" s="12" t="s">
         <v>447</v>
       </c>
       <c r="C462" s="5" t="s">
@@ -7331,7 +7332,7 @@
       <c r="A463" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B463" s="11" t="s">
+      <c r="B463" s="12" t="s">
         <v>448</v>
       </c>
       <c r="C463" s="5" t="s">
@@ -7342,7 +7343,7 @@
       <c r="A464" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B464" s="11" t="s">
+      <c r="B464" s="12" t="s">
         <v>449</v>
       </c>
       <c r="C464" s="5" t="s">
@@ -7353,7 +7354,7 @@
       <c r="A465" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B465" s="11" t="s">
+      <c r="B465" s="12" t="s">
         <v>450</v>
       </c>
       <c r="C465" s="5" t="s">
@@ -7364,7 +7365,7 @@
       <c r="A466" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B466" s="11" t="s">
+      <c r="B466" s="12" t="s">
         <v>451</v>
       </c>
       <c r="C466" s="5" t="s">
@@ -7375,7 +7376,7 @@
       <c r="A467" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B467" s="11" t="s">
+      <c r="B467" s="12" t="s">
         <v>452</v>
       </c>
       <c r="C467" s="5" t="s">
@@ -7386,7 +7387,7 @@
       <c r="A468" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B468" s="11" t="s">
+      <c r="B468" s="12" t="s">
         <v>453</v>
       </c>
       <c r="C468" s="5" t="s">
@@ -7397,7 +7398,7 @@
       <c r="A469" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="B469" s="11" t="s">
+      <c r="B469" s="12" t="s">
         <v>454</v>
       </c>
       <c r="C469" s="5" t="s">
@@ -7405,19 +7406,19 @@
       </c>
     </row>
     <row r="470" ht="21" spans="2:3">
-      <c r="B470" s="12"/>
+      <c r="B470" s="13"/>
       <c r="C470" s="5"/>
     </row>
     <row r="471" ht="21" spans="1:3">
-      <c r="A471" s="13"/>
-      <c r="B471" s="12"/>
+      <c r="A471" s="14"/>
+      <c r="B471" s="13"/>
       <c r="C471" s="5"/>
     </row>
     <row r="472" ht="21" spans="1:3">
       <c r="A472" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B472" s="11" t="s">
+      <c r="B472" s="12" t="s">
         <v>456</v>
       </c>
       <c r="C472" s="5" t="s">
@@ -7428,7 +7429,7 @@
       <c r="A473" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B473" s="11" t="s">
+      <c r="B473" s="12" t="s">
         <v>457</v>
       </c>
       <c r="C473" s="5" t="s">
@@ -7439,7 +7440,7 @@
       <c r="A474" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B474" s="11" t="s">
+      <c r="B474" s="12" t="s">
         <v>458</v>
       </c>
       <c r="C474" s="5" t="s">
@@ -7450,7 +7451,7 @@
       <c r="A475" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B475" s="11" t="s">
+      <c r="B475" s="12" t="s">
         <v>459</v>
       </c>
       <c r="C475" s="5" t="s">
@@ -7461,7 +7462,7 @@
       <c r="A476" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B476" s="11" t="s">
+      <c r="B476" s="12" t="s">
         <v>460</v>
       </c>
       <c r="C476" s="5" t="s">
@@ -7472,7 +7473,7 @@
       <c r="A477" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B477" s="11" t="s">
+      <c r="B477" s="12" t="s">
         <v>461</v>
       </c>
       <c r="C477" s="5" t="s">
@@ -7483,7 +7484,7 @@
       <c r="A478" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B478" s="11" t="s">
+      <c r="B478" s="12" t="s">
         <v>462</v>
       </c>
       <c r="C478" s="5" t="s">
@@ -7494,7 +7495,7 @@
       <c r="A479" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B479" s="11" t="s">
+      <c r="B479" s="12" t="s">
         <v>463</v>
       </c>
       <c r="C479" s="5" t="s">
@@ -7505,7 +7506,7 @@
       <c r="A480" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B480" s="11" t="s">
+      <c r="B480" s="12" t="s">
         <v>464</v>
       </c>
       <c r="C480" s="5" t="s">
@@ -7516,7 +7517,7 @@
       <c r="A481" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="B481" s="11" t="s">
+      <c r="B481" s="12" t="s">
         <v>465</v>
       </c>
       <c r="C481" s="5" t="s">
